--- a/design/chitiet/Home.xlsx
+++ b/design/chitiet/Home.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="112">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -419,7 +419,7 @@
     <t xml:space="preserve">tên sản phẩm</t>
   </si>
   <si>
-    <t xml:space="preserve">Chuỗi chữ</t>
+    <t xml:space="preserve">String </t>
   </si>
   <si>
     <t xml:space="preserve">Y</t>
@@ -428,28 +428,34 @@
     <t xml:space="preserve">Out</t>
   </si>
   <si>
-    <t xml:space="preserve">Textbox</t>
+    <t xml:space="preserve">Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text </t>
   </si>
   <si>
     <t xml:space="preserve">giá sản phảm </t>
   </si>
   <si>
-    <t xml:space="preserve">kiểu số </t>
+    <t xml:space="preserve">Number </t>
   </si>
   <si>
     <t xml:space="preserve">Y </t>
   </si>
   <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.000đ </t>
+    <t xml:space="preserve">Text </t>
   </si>
   <si>
     <t xml:space="preserve">image </t>
   </si>
   <si>
+    <t xml:space="preserve">File </t>
+  </si>
+  <si>
     <t xml:space="preserve">Ìmage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image</t>
   </si>
   <si>
     <t xml:space="preserve">[Vùng nút]</t>
@@ -524,19 +530,16 @@
     <t xml:space="preserve">(2) Xử lý mua ngay </t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị tất cả sản phẩm trong của hàng </t>
+    <t xml:space="preserve">Chuyển trang danh sách sản phẩm </t>
   </si>
   <si>
     <t xml:space="preserve">(3) Xử lý xem tất cả </t>
   </si>
   <si>
-    <t xml:space="preserve">hiện thị tất cả sản phẩm trong của hàng </t>
-  </si>
-  <si>
     <t xml:space="preserve">(4) Xử lý chi tiết sản phẩm </t>
   </si>
   <si>
-    <t xml:space="preserve">Hiện form để người dùng thay đổi thồng tin </t>
+    <t xml:space="preserve">chuyển trang chi tiết của sản phẩm đó </t>
   </si>
   <si>
     <t xml:space="preserve">10. Xử lý chi tiết</t>
@@ -719,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="50">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -994,15 +997,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
       <top style="hair"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1010,13 +1006,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="hair"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
+      <left style="thin"/>
+      <right/>
       <top style="hair"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -1044,13 +1040,13 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right/>
-      <top/>
+      <right style="thin"/>
+      <top style="hair"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom style="thin"/>
@@ -1066,44 +1062,15 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin"/>
+      <top style="hair"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -1148,7 +1115,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1645,11 +1612,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1657,27 +1624,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="41" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="40" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1689,7 +1648,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1697,14 +1656,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1737,7 +1696,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1745,31 +1704,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1793,7 +1752,67 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="43" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="19" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="18" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="49" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="42" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="41" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="48" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1833,37 +1852,9 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="50" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="51" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="51" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="52" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="51" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="52" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="53" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="52" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -1884,10 +1875,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1927,7 +1914,7 @@
       <rgbColor rgb="FF660E7A"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1976,9 +1963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1992,7 +1979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="675000" cy="969120"/>
+          <a:ext cx="674280" cy="968400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,9 +2000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>121320</xdr:colOff>
+      <xdr:colOff>120600</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2025,7 +2012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2778840" cy="2607480"/>
+          <a:ext cx="2778120" cy="2606760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2057,9 +2044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2069,7 +2056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1187640" cy="426240"/>
+          <a:ext cx="1186920" cy="425520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,9 +2114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>92880</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2139,7 +2126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="994320" cy="397440"/>
+          <a:ext cx="993600" cy="396720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2301,9 +2288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>178200</xdr:colOff>
+      <xdr:colOff>177480</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>15840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2313,7 +2300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="912960" cy="397800"/>
+          <a:ext cx="912240" cy="397080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2369,9 +2356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>83160</xdr:colOff>
+      <xdr:colOff>82440</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2385,7 +2372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="675000" cy="969120"/>
+          <a:ext cx="674280" cy="968400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2400,15 +2387,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2417,8 +2404,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3804840" y="23690880"/>
-          <a:ext cx="9360" cy="623520"/>
+          <a:off x="3804480" y="23690520"/>
+          <a:ext cx="8640" cy="622800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2463,9 +2450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>41040</xdr:colOff>
+      <xdr:colOff>40320</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2475,7 +2462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3365280" y="24293160"/>
-          <a:ext cx="955080" cy="645120"/>
+          <a:ext cx="954360" cy="644400"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2539,9 +2526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92160</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2551,7 +2538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4816080" cy="416880"/>
+          <a:ext cx="4815360" cy="416160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2587,9 +2574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169560</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2603,7 +2590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1791000" y="1014120"/>
-          <a:ext cx="5166720" cy="5647320"/>
+          <a:ext cx="5166000" cy="5646600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2625,14 +2612,14 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N151" activeCellId="0" sqref="N151"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N151" activeCellId="1" sqref="B131:AU134 N151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="1" style="1" width="2.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="50" style="1" width="3.11"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="60" style="1" width="9"/>
   </cols>
   <sheetData>
@@ -10520,8 +10507,8 @@
   </sheetPr>
   <dimension ref="A1:BX175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA160" activeCellId="0" sqref="AA160"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B131" activeCellId="0" sqref="B131:AU134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11527,7 +11514,9 @@
       <c r="X49" s="107"/>
       <c r="Y49" s="111"/>
       <c r="Z49" s="112"/>
-      <c r="AA49" s="107"/>
+      <c r="AA49" s="107" t="s">
+        <v>73</v>
+      </c>
       <c r="AB49" s="107"/>
       <c r="AC49" s="107"/>
       <c r="AD49" s="106"/>
@@ -11558,7 +11547,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" s="117"/>
       <c r="F50" s="117"/>
@@ -11566,7 +11555,7 @@
       <c r="H50" s="118"/>
       <c r="I50" s="119"/>
       <c r="J50" s="120" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K50" s="118"/>
       <c r="L50" s="118"/>
@@ -11576,7 +11565,7 @@
       <c r="P50" s="118"/>
       <c r="Q50" s="120"/>
       <c r="R50" s="118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S50" s="121"/>
       <c r="T50" s="105" t="s">
@@ -11584,14 +11573,14 @@
       </c>
       <c r="U50" s="105"/>
       <c r="V50" s="116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" s="117"/>
       <c r="X50" s="117"/>
       <c r="Y50" s="121"/>
       <c r="Z50" s="122"/>
       <c r="AA50" s="117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AB50" s="117"/>
       <c r="AC50" s="117"/>
@@ -11631,7 +11620,7 @@
       <c r="H51" s="118"/>
       <c r="I51" s="119"/>
       <c r="J51" s="120" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K51" s="118"/>
       <c r="L51" s="118"/>
@@ -11641,7 +11630,7 @@
       <c r="P51" s="118"/>
       <c r="Q51" s="120"/>
       <c r="R51" s="118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S51" s="121"/>
       <c r="T51" s="105" t="s">
@@ -11649,16 +11638,18 @@
       </c>
       <c r="U51" s="105"/>
       <c r="V51" s="116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W51" s="117"/>
       <c r="X51" s="117"/>
-      <c r="Y51" s="121"/>
-      <c r="Z51" s="0"/>
-      <c r="AA51" s="0"/>
-      <c r="AB51" s="0"/>
-      <c r="AC51" s="0"/>
-      <c r="AD51" s="116"/>
+      <c r="Y51" s="124"/>
+      <c r="Z51" s="125"/>
+      <c r="AA51" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB51" s="125"/>
+      <c r="AC51" s="125"/>
+      <c r="AD51" s="126"/>
       <c r="AE51" s="117"/>
       <c r="AF51" s="117"/>
       <c r="AG51" s="117"/>
@@ -11682,103 +11673,103 @@
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="126"/>
-      <c r="F52" s="126"/>
-      <c r="G52" s="127"/>
-      <c r="H52" s="127"/>
-      <c r="I52" s="128"/>
+      <c r="C52" s="127"/>
+      <c r="D52" s="128"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
       <c r="J52" s="129"/>
-      <c r="K52" s="127"/>
-      <c r="L52" s="127"/>
-      <c r="M52" s="127"/>
+      <c r="K52" s="129"/>
+      <c r="L52" s="129"/>
+      <c r="M52" s="129"/>
       <c r="N52" s="129"/>
       <c r="O52" s="129"/>
-      <c r="P52" s="127"/>
+      <c r="P52" s="129"/>
       <c r="Q52" s="129"/>
-      <c r="R52" s="127"/>
-      <c r="S52" s="130"/>
-      <c r="T52" s="105"/>
-      <c r="U52" s="105"/>
-      <c r="V52" s="125"/>
-      <c r="W52" s="126"/>
-      <c r="X52" s="126"/>
-      <c r="Y52" s="130"/>
-      <c r="Z52" s="131"/>
-      <c r="AA52" s="126"/>
-      <c r="AB52" s="126"/>
-      <c r="AC52" s="126"/>
-      <c r="AD52" s="125"/>
-      <c r="AE52" s="126"/>
-      <c r="AF52" s="126"/>
-      <c r="AG52" s="126"/>
-      <c r="AH52" s="126"/>
-      <c r="AI52" s="126"/>
-      <c r="AJ52" s="126"/>
-      <c r="AK52" s="126"/>
-      <c r="AL52" s="126"/>
-      <c r="AM52" s="126"/>
-      <c r="AN52" s="126"/>
-      <c r="AO52" s="126"/>
-      <c r="AP52" s="126"/>
-      <c r="AQ52" s="126"/>
-      <c r="AR52" s="126"/>
-      <c r="AS52" s="126"/>
-      <c r="AT52" s="126"/>
-      <c r="AU52" s="126"/>
-      <c r="AV52" s="132"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="128"/>
+      <c r="T52" s="127"/>
+      <c r="U52" s="127"/>
+      <c r="V52" s="128"/>
+      <c r="W52" s="128"/>
+      <c r="X52" s="128"/>
+      <c r="Y52" s="128"/>
+      <c r="Z52" s="127"/>
+      <c r="AA52" s="128"/>
+      <c r="AB52" s="128"/>
+      <c r="AC52" s="128"/>
+      <c r="AD52" s="128"/>
+      <c r="AE52" s="128"/>
+      <c r="AF52" s="128"/>
+      <c r="AG52" s="128"/>
+      <c r="AH52" s="128"/>
+      <c r="AI52" s="128"/>
+      <c r="AJ52" s="128"/>
+      <c r="AK52" s="128"/>
+      <c r="AL52" s="128"/>
+      <c r="AM52" s="128"/>
+      <c r="AN52" s="128"/>
+      <c r="AO52" s="128"/>
+      <c r="AP52" s="128"/>
+      <c r="AQ52" s="128"/>
+      <c r="AR52" s="128"/>
+      <c r="AS52" s="128"/>
+      <c r="AT52" s="128"/>
+      <c r="AU52" s="128"/>
+      <c r="AV52" s="130"/>
       <c r="AW52" s="20"/>
       <c r="AX52" s="114"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="126"/>
-      <c r="F53" s="126"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="127"/>
-      <c r="I53" s="128"/>
+      <c r="C53" s="127"/>
+      <c r="D53" s="128"/>
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
       <c r="J53" s="129"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="127"/>
+      <c r="K53" s="129"/>
+      <c r="L53" s="129"/>
+      <c r="M53" s="129"/>
       <c r="N53" s="129"/>
-      <c r="O53" s="127"/>
-      <c r="P53" s="127"/>
+      <c r="O53" s="129"/>
+      <c r="P53" s="129"/>
       <c r="Q53" s="129"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="105"/>
-      <c r="U53" s="105"/>
-      <c r="V53" s="125"/>
-      <c r="W53" s="126"/>
-      <c r="X53" s="126"/>
-      <c r="Y53" s="130"/>
-      <c r="Z53" s="131"/>
-      <c r="AA53" s="126"/>
-      <c r="AB53" s="126"/>
-      <c r="AC53" s="126"/>
-      <c r="AD53" s="125"/>
-      <c r="AE53" s="126"/>
-      <c r="AF53" s="126"/>
-      <c r="AG53" s="126"/>
-      <c r="AH53" s="126"/>
-      <c r="AI53" s="126"/>
-      <c r="AJ53" s="126"/>
-      <c r="AK53" s="126"/>
-      <c r="AL53" s="126"/>
-      <c r="AM53" s="126"/>
-      <c r="AN53" s="126"/>
-      <c r="AO53" s="126"/>
-      <c r="AP53" s="126"/>
-      <c r="AQ53" s="126"/>
-      <c r="AR53" s="126"/>
-      <c r="AS53" s="126"/>
-      <c r="AT53" s="126"/>
-      <c r="AU53" s="126"/>
-      <c r="AV53" s="132"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="127"/>
+      <c r="U53" s="127"/>
+      <c r="V53" s="128"/>
+      <c r="W53" s="128"/>
+      <c r="X53" s="128"/>
+      <c r="Y53" s="128"/>
+      <c r="Z53" s="127"/>
+      <c r="AA53" s="128"/>
+      <c r="AB53" s="128"/>
+      <c r="AC53" s="128"/>
+      <c r="AD53" s="128"/>
+      <c r="AE53" s="128"/>
+      <c r="AF53" s="128"/>
+      <c r="AG53" s="128"/>
+      <c r="AH53" s="128"/>
+      <c r="AI53" s="128"/>
+      <c r="AJ53" s="128"/>
+      <c r="AK53" s="128"/>
+      <c r="AL53" s="128"/>
+      <c r="AM53" s="128"/>
+      <c r="AN53" s="128"/>
+      <c r="AO53" s="128"/>
+      <c r="AP53" s="128"/>
+      <c r="AQ53" s="128"/>
+      <c r="AR53" s="128"/>
+      <c r="AS53" s="128"/>
+      <c r="AT53" s="128"/>
+      <c r="AU53" s="128"/>
+      <c r="AV53" s="130"/>
       <c r="AW53" s="20"/>
       <c r="AX53" s="114"/>
     </row>
@@ -11789,7 +11780,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -11810,16 +11801,16 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
-      <c r="W55" s="133"/>
-      <c r="X55" s="133"/>
-      <c r="Y55" s="133"/>
-      <c r="Z55" s="133"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="131"/>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="131"/>
       <c r="AA55" s="19"/>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
-      <c r="AE55" s="133"/>
-      <c r="AF55" s="133"/>
+      <c r="AE55" s="131"/>
+      <c r="AF55" s="131"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
@@ -11839,7 +11830,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
-      <c r="C56" s="134" t="s">
+      <c r="C56" s="132" t="s">
         <v>48</v>
       </c>
       <c r="D56" s="72" t="s">
@@ -11854,18 +11845,18 @@
       <c r="K56" s="72"/>
       <c r="L56" s="72"/>
       <c r="M56" s="72"/>
-      <c r="N56" s="135" t="s">
+      <c r="N56" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="O56" s="135"/>
-      <c r="P56" s="135"/>
-      <c r="Q56" s="135"/>
-      <c r="R56" s="135"/>
-      <c r="S56" s="135"/>
-      <c r="T56" s="135"/>
-      <c r="U56" s="135"/>
-      <c r="V56" s="135"/>
-      <c r="W56" s="135"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="133"/>
+      <c r="Q56" s="133"/>
+      <c r="R56" s="133"/>
+      <c r="S56" s="133"/>
+      <c r="T56" s="133"/>
+      <c r="U56" s="133"/>
+      <c r="V56" s="133"/>
+      <c r="W56" s="133"/>
       <c r="X56" s="73" t="s">
         <v>52</v>
       </c>
@@ -11897,11 +11888,11 @@
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
-      <c r="C57" s="136" t="n">
+      <c r="C57" s="134" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="137" t="s">
-        <v>81</v>
+      <c r="D57" s="135" t="s">
+        <v>83</v>
       </c>
       <c r="E57" s="95"/>
       <c r="F57" s="95"/>
@@ -11911,169 +11902,169 @@
       <c r="J57" s="95"/>
       <c r="K57" s="95"/>
       <c r="L57" s="95"/>
-      <c r="M57" s="138"/>
-      <c r="N57" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="O57" s="140"/>
-      <c r="P57" s="140"/>
-      <c r="Q57" s="140"/>
-      <c r="R57" s="140"/>
-      <c r="S57" s="140"/>
-      <c r="T57" s="140"/>
-      <c r="U57" s="140"/>
-      <c r="V57" s="140"/>
-      <c r="W57" s="141"/>
-      <c r="X57" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y57" s="142"/>
-      <c r="Z57" s="142"/>
-      <c r="AA57" s="142"/>
-      <c r="AB57" s="140"/>
-      <c r="AC57" s="140"/>
-      <c r="AD57" s="140"/>
-      <c r="AE57" s="140"/>
-      <c r="AF57" s="142"/>
-      <c r="AG57" s="142"/>
-      <c r="AH57" s="140"/>
-      <c r="AI57" s="140"/>
-      <c r="AJ57" s="140"/>
-      <c r="AK57" s="140"/>
-      <c r="AL57" s="140"/>
-      <c r="AM57" s="140"/>
-      <c r="AN57" s="140"/>
-      <c r="AO57" s="140"/>
-      <c r="AP57" s="140"/>
-      <c r="AQ57" s="140"/>
-      <c r="AR57" s="140"/>
-      <c r="AS57" s="140"/>
-      <c r="AT57" s="140"/>
-      <c r="AU57" s="140"/>
-      <c r="AV57" s="141"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="O57" s="138"/>
+      <c r="P57" s="138"/>
+      <c r="Q57" s="138"/>
+      <c r="R57" s="138"/>
+      <c r="S57" s="138"/>
+      <c r="T57" s="138"/>
+      <c r="U57" s="138"/>
+      <c r="V57" s="138"/>
+      <c r="W57" s="139"/>
+      <c r="X57" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y57" s="140"/>
+      <c r="Z57" s="140"/>
+      <c r="AA57" s="140"/>
+      <c r="AB57" s="138"/>
+      <c r="AC57" s="138"/>
+      <c r="AD57" s="138"/>
+      <c r="AE57" s="138"/>
+      <c r="AF57" s="140"/>
+      <c r="AG57" s="140"/>
+      <c r="AH57" s="138"/>
+      <c r="AI57" s="138"/>
+      <c r="AJ57" s="138"/>
+      <c r="AK57" s="138"/>
+      <c r="AL57" s="138"/>
+      <c r="AM57" s="138"/>
+      <c r="AN57" s="138"/>
+      <c r="AO57" s="138"/>
+      <c r="AP57" s="138"/>
+      <c r="AQ57" s="138"/>
+      <c r="AR57" s="138"/>
+      <c r="AS57" s="138"/>
+      <c r="AT57" s="138"/>
+      <c r="AU57" s="138"/>
+      <c r="AV57" s="139"/>
       <c r="AW57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="C58" s="143" t="n">
+      <c r="C58" s="141" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="145"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="145"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="145"/>
-      <c r="L58" s="145"/>
-      <c r="M58" s="146"/>
-      <c r="N58" s="144" t="s">
+      <c r="D58" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="143"/>
+      <c r="F58" s="143"/>
+      <c r="G58" s="143"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="143"/>
+      <c r="J58" s="143"/>
+      <c r="K58" s="143"/>
+      <c r="L58" s="143"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="O58" s="143"/>
+      <c r="P58" s="143"/>
+      <c r="Q58" s="143"/>
+      <c r="R58" s="143"/>
+      <c r="S58" s="143"/>
+      <c r="T58" s="143"/>
+      <c r="U58" s="143"/>
+      <c r="V58" s="143"/>
+      <c r="W58" s="144"/>
+      <c r="X58" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="O58" s="145"/>
-      <c r="P58" s="145"/>
-      <c r="Q58" s="145"/>
-      <c r="R58" s="145"/>
-      <c r="S58" s="145"/>
-      <c r="T58" s="145"/>
-      <c r="U58" s="145"/>
-      <c r="V58" s="145"/>
-      <c r="W58" s="146"/>
-      <c r="X58" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y58" s="142"/>
-      <c r="Z58" s="142"/>
-      <c r="AA58" s="142"/>
-      <c r="AB58" s="140"/>
-      <c r="AC58" s="140"/>
-      <c r="AD58" s="140"/>
-      <c r="AE58" s="140"/>
-      <c r="AF58" s="142"/>
-      <c r="AG58" s="142"/>
-      <c r="AH58" s="140"/>
-      <c r="AI58" s="140"/>
-      <c r="AJ58" s="140"/>
-      <c r="AK58" s="140"/>
-      <c r="AL58" s="145"/>
-      <c r="AM58" s="145"/>
-      <c r="AN58" s="145"/>
-      <c r="AO58" s="145"/>
-      <c r="AP58" s="145"/>
-      <c r="AQ58" s="145"/>
-      <c r="AR58" s="145"/>
-      <c r="AS58" s="145"/>
-      <c r="AT58" s="145"/>
-      <c r="AU58" s="145"/>
-      <c r="AV58" s="146"/>
+      <c r="Y58" s="140"/>
+      <c r="Z58" s="140"/>
+      <c r="AA58" s="140"/>
+      <c r="AB58" s="138"/>
+      <c r="AC58" s="138"/>
+      <c r="AD58" s="138"/>
+      <c r="AE58" s="138"/>
+      <c r="AF58" s="140"/>
+      <c r="AG58" s="140"/>
+      <c r="AH58" s="138"/>
+      <c r="AI58" s="138"/>
+      <c r="AJ58" s="138"/>
+      <c r="AK58" s="138"/>
+      <c r="AL58" s="143"/>
+      <c r="AM58" s="143"/>
+      <c r="AN58" s="143"/>
+      <c r="AO58" s="143"/>
+      <c r="AP58" s="143"/>
+      <c r="AQ58" s="143"/>
+      <c r="AR58" s="143"/>
+      <c r="AS58" s="143"/>
+      <c r="AT58" s="143"/>
+      <c r="AU58" s="143"/>
+      <c r="AV58" s="144"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
-      <c r="C59" s="147" t="n">
+      <c r="C59" s="145" t="n">
         <v>3</v>
       </c>
-      <c r="D59" s="148" t="s">
-        <v>86</v>
-      </c>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="149"/>
-      <c r="J59" s="149"/>
-      <c r="K59" s="149"/>
-      <c r="L59" s="149"/>
-      <c r="M59" s="150"/>
-      <c r="N59" s="151" t="s">
-        <v>85</v>
-      </c>
-      <c r="O59" s="152"/>
-      <c r="P59" s="152"/>
-      <c r="Q59" s="152"/>
-      <c r="R59" s="152"/>
-      <c r="S59" s="152"/>
-      <c r="T59" s="152"/>
-      <c r="U59" s="152"/>
-      <c r="V59" s="152"/>
-      <c r="W59" s="153"/>
-      <c r="X59" s="151" t="s">
+      <c r="D59" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="E59" s="147"/>
+      <c r="F59" s="147"/>
+      <c r="G59" s="147"/>
+      <c r="H59" s="147"/>
+      <c r="I59" s="147"/>
+      <c r="J59" s="147"/>
+      <c r="K59" s="147"/>
+      <c r="L59" s="147"/>
+      <c r="M59" s="148"/>
+      <c r="N59" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="Y59" s="154"/>
-      <c r="Z59" s="154"/>
-      <c r="AA59" s="154"/>
-      <c r="AB59" s="152"/>
-      <c r="AC59" s="152"/>
-      <c r="AD59" s="152"/>
-      <c r="AE59" s="152"/>
-      <c r="AF59" s="154"/>
-      <c r="AG59" s="154"/>
-      <c r="AH59" s="152"/>
-      <c r="AI59" s="152"/>
-      <c r="AJ59" s="152"/>
-      <c r="AK59" s="152"/>
-      <c r="AL59" s="152"/>
-      <c r="AM59" s="152"/>
-      <c r="AN59" s="152"/>
-      <c r="AO59" s="152"/>
-      <c r="AP59" s="152"/>
-      <c r="AQ59" s="152"/>
-      <c r="AR59" s="152"/>
-      <c r="AS59" s="152"/>
-      <c r="AT59" s="152"/>
-      <c r="AU59" s="152"/>
-      <c r="AV59" s="155"/>
+      <c r="O59" s="150"/>
+      <c r="P59" s="150"/>
+      <c r="Q59" s="150"/>
+      <c r="R59" s="150"/>
+      <c r="S59" s="150"/>
+      <c r="T59" s="150"/>
+      <c r="U59" s="150"/>
+      <c r="V59" s="150"/>
+      <c r="W59" s="151"/>
+      <c r="X59" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y59" s="152"/>
+      <c r="Z59" s="152"/>
+      <c r="AA59" s="152"/>
+      <c r="AB59" s="150"/>
+      <c r="AC59" s="150"/>
+      <c r="AD59" s="150"/>
+      <c r="AE59" s="150"/>
+      <c r="AF59" s="152"/>
+      <c r="AG59" s="152"/>
+      <c r="AH59" s="150"/>
+      <c r="AI59" s="150"/>
+      <c r="AJ59" s="150"/>
+      <c r="AK59" s="150"/>
+      <c r="AL59" s="150"/>
+      <c r="AM59" s="150"/>
+      <c r="AN59" s="150"/>
+      <c r="AO59" s="150"/>
+      <c r="AP59" s="150"/>
+      <c r="AQ59" s="150"/>
+      <c r="AR59" s="150"/>
+      <c r="AS59" s="150"/>
+      <c r="AT59" s="150"/>
+      <c r="AU59" s="150"/>
+      <c r="AV59" s="153"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="156"/>
+      <c r="C60" s="131"/>
+      <c r="D60" s="154"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -12094,15 +12085,15 @@
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
-      <c r="Y60" s="133"/>
-      <c r="Z60" s="133"/>
-      <c r="AA60" s="133"/>
+      <c r="Y60" s="131"/>
+      <c r="Z60" s="131"/>
+      <c r="AA60" s="131"/>
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
-      <c r="AF60" s="133"/>
-      <c r="AG60" s="133"/>
+      <c r="AF60" s="131"/>
+      <c r="AG60" s="131"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
@@ -12122,54 +12113,54 @@
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="157"/>
-      <c r="E61" s="157"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
-      <c r="P61" s="157"/>
-      <c r="Q61" s="157"/>
-      <c r="R61" s="157"/>
-      <c r="S61" s="157"/>
-      <c r="T61" s="157"/>
-      <c r="U61" s="157"/>
-      <c r="V61" s="157"/>
-      <c r="W61" s="157"/>
-      <c r="X61" s="157"/>
-      <c r="Y61" s="157"/>
-      <c r="Z61" s="157"/>
-      <c r="AA61" s="157"/>
-      <c r="AB61" s="157"/>
-      <c r="AC61" s="157"/>
-      <c r="AD61" s="157"/>
-      <c r="AE61" s="157"/>
-      <c r="AF61" s="157"/>
-      <c r="AG61" s="157"/>
-      <c r="AH61" s="157"/>
-      <c r="AI61" s="157"/>
-      <c r="AJ61" s="157"/>
-      <c r="AK61" s="157"/>
-      <c r="AL61" s="157"/>
-      <c r="AM61" s="158"/>
-      <c r="AN61" s="158"/>
-      <c r="AO61" s="158"/>
-      <c r="AP61" s="158"/>
-      <c r="AQ61" s="157"/>
-      <c r="AR61" s="158"/>
-      <c r="AS61" s="158"/>
-      <c r="AT61" s="158"/>
-      <c r="AU61" s="158"/>
-      <c r="AV61" s="157"/>
+      <c r="C61" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="155"/>
+      <c r="E61" s="155"/>
+      <c r="F61" s="155"/>
+      <c r="G61" s="155"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="155"/>
+      <c r="J61" s="155"/>
+      <c r="K61" s="155"/>
+      <c r="L61" s="155"/>
+      <c r="M61" s="155"/>
+      <c r="N61" s="155"/>
+      <c r="O61" s="155"/>
+      <c r="P61" s="155"/>
+      <c r="Q61" s="155"/>
+      <c r="R61" s="155"/>
+      <c r="S61" s="155"/>
+      <c r="T61" s="155"/>
+      <c r="U61" s="155"/>
+      <c r="V61" s="155"/>
+      <c r="W61" s="155"/>
+      <c r="X61" s="155"/>
+      <c r="Y61" s="155"/>
+      <c r="Z61" s="155"/>
+      <c r="AA61" s="155"/>
+      <c r="AB61" s="155"/>
+      <c r="AC61" s="155"/>
+      <c r="AD61" s="155"/>
+      <c r="AE61" s="155"/>
+      <c r="AF61" s="155"/>
+      <c r="AG61" s="155"/>
+      <c r="AH61" s="155"/>
+      <c r="AI61" s="155"/>
+      <c r="AJ61" s="155"/>
+      <c r="AK61" s="155"/>
+      <c r="AL61" s="155"/>
+      <c r="AM61" s="156"/>
+      <c r="AN61" s="156"/>
+      <c r="AO61" s="156"/>
+      <c r="AP61" s="156"/>
+      <c r="AQ61" s="155"/>
+      <c r="AR61" s="156"/>
+      <c r="AS61" s="156"/>
+      <c r="AT61" s="156"/>
+      <c r="AU61" s="156"/>
+      <c r="AV61" s="155"/>
       <c r="AW61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12178,18 +12169,18 @@
       <c r="C62" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D62" s="159" t="s">
+      <c r="D62" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="160"/>
-      <c r="K62" s="160"/>
-      <c r="L62" s="160"/>
-      <c r="M62" s="161"/>
+      <c r="E62" s="157"/>
+      <c r="F62" s="157"/>
+      <c r="G62" s="157"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="157"/>
+      <c r="J62" s="158"/>
+      <c r="K62" s="158"/>
+      <c r="L62" s="158"/>
+      <c r="M62" s="159"/>
       <c r="N62" s="72" t="s">
         <v>66</v>
       </c>
@@ -12198,7 +12189,7 @@
       <c r="Q62" s="72"/>
       <c r="R62" s="72"/>
       <c r="S62" s="72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T62" s="72"/>
       <c r="U62" s="72"/>
@@ -12215,7 +12206,7 @@
       <c r="AF62" s="72"/>
       <c r="AG62" s="72"/>
       <c r="AH62" s="72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AI62" s="72"/>
       <c r="AJ62" s="72"/>
@@ -12236,115 +12227,115 @@
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="105" t="n">
+      <c r="C63" s="160" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="E63" s="163"/>
-      <c r="F63" s="163"/>
-      <c r="G63" s="164"/>
-      <c r="H63" s="164"/>
-      <c r="I63" s="164"/>
-      <c r="J63" s="164"/>
-      <c r="K63" s="164"/>
-      <c r="L63" s="164"/>
-      <c r="M63" s="165"/>
-      <c r="N63" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="O63" s="164"/>
-      <c r="P63" s="164"/>
-      <c r="Q63" s="164"/>
-      <c r="R63" s="165"/>
-      <c r="S63" s="162"/>
-      <c r="T63" s="163"/>
-      <c r="U63" s="163"/>
-      <c r="V63" s="163"/>
-      <c r="W63" s="163"/>
-      <c r="X63" s="163"/>
-      <c r="Y63" s="163"/>
-      <c r="Z63" s="167"/>
-      <c r="AA63" s="163"/>
-      <c r="AB63" s="163"/>
-      <c r="AC63" s="163"/>
-      <c r="AD63" s="163"/>
-      <c r="AE63" s="163"/>
-      <c r="AF63" s="163"/>
-      <c r="AG63" s="168"/>
-      <c r="AH63" s="169"/>
-      <c r="AI63" s="163"/>
-      <c r="AJ63" s="163"/>
-      <c r="AK63" s="163"/>
-      <c r="AL63" s="163"/>
-      <c r="AM63" s="163"/>
-      <c r="AN63" s="163"/>
-      <c r="AO63" s="163"/>
-      <c r="AP63" s="163"/>
-      <c r="AQ63" s="163"/>
-      <c r="AR63" s="163"/>
-      <c r="AS63" s="163"/>
-      <c r="AT63" s="163"/>
-      <c r="AU63" s="163"/>
-      <c r="AV63" s="170"/>
+      <c r="D63" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="162"/>
+      <c r="F63" s="162"/>
+      <c r="G63" s="163"/>
+      <c r="H63" s="163"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="163"/>
+      <c r="K63" s="163"/>
+      <c r="L63" s="163"/>
+      <c r="M63" s="164"/>
+      <c r="N63" s="0"/>
+      <c r="O63" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="P63" s="163"/>
+      <c r="Q63" s="163"/>
+      <c r="R63" s="164"/>
+      <c r="S63" s="161"/>
+      <c r="T63" s="162"/>
+      <c r="U63" s="162"/>
+      <c r="V63" s="162"/>
+      <c r="W63" s="162"/>
+      <c r="X63" s="162"/>
+      <c r="Y63" s="162"/>
+      <c r="Z63" s="165"/>
+      <c r="AA63" s="162"/>
+      <c r="AB63" s="162"/>
+      <c r="AC63" s="162"/>
+      <c r="AD63" s="162"/>
+      <c r="AE63" s="162"/>
+      <c r="AF63" s="162"/>
+      <c r="AG63" s="166"/>
+      <c r="AH63" s="162"/>
+      <c r="AI63" s="162"/>
+      <c r="AJ63" s="162"/>
+      <c r="AK63" s="162"/>
+      <c r="AL63" s="162"/>
+      <c r="AM63" s="162"/>
+      <c r="AN63" s="162"/>
+      <c r="AO63" s="162"/>
+      <c r="AP63" s="162"/>
+      <c r="AQ63" s="162"/>
+      <c r="AR63" s="162"/>
+      <c r="AS63" s="162"/>
+      <c r="AT63" s="162"/>
+      <c r="AU63" s="162"/>
+      <c r="AV63" s="167"/>
       <c r="AW63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="105" t="n">
+      <c r="C64" s="160" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="171" t="s">
-        <v>93</v>
-      </c>
-      <c r="E64" s="172"/>
-      <c r="F64" s="172"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
-      <c r="I64" s="173"/>
-      <c r="J64" s="173"/>
-      <c r="K64" s="173"/>
-      <c r="L64" s="173"/>
-      <c r="M64" s="174"/>
-      <c r="N64" s="166"/>
-      <c r="O64" s="173" t="s">
-        <v>94</v>
-      </c>
-      <c r="P64" s="173"/>
-      <c r="Q64" s="173"/>
-      <c r="R64" s="174"/>
-      <c r="S64" s="171"/>
-      <c r="T64" s="172"/>
-      <c r="U64" s="172"/>
-      <c r="V64" s="172"/>
-      <c r="W64" s="172"/>
-      <c r="X64" s="172"/>
-      <c r="Y64" s="172"/>
-      <c r="Z64" s="175"/>
-      <c r="AA64" s="172"/>
-      <c r="AB64" s="172"/>
-      <c r="AC64" s="172"/>
-      <c r="AD64" s="172"/>
-      <c r="AE64" s="172"/>
-      <c r="AF64" s="172"/>
-      <c r="AG64" s="176"/>
-      <c r="AH64" s="177"/>
-      <c r="AI64" s="172"/>
-      <c r="AJ64" s="172"/>
-      <c r="AK64" s="172"/>
-      <c r="AL64" s="172"/>
-      <c r="AM64" s="172"/>
-      <c r="AN64" s="172"/>
-      <c r="AO64" s="172"/>
-      <c r="AP64" s="172"/>
-      <c r="AQ64" s="172"/>
-      <c r="AR64" s="172"/>
-      <c r="AS64" s="172"/>
-      <c r="AT64" s="172"/>
-      <c r="AU64" s="172"/>
-      <c r="AV64" s="178"/>
+      <c r="D64" s="168" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="169"/>
+      <c r="F64" s="169"/>
+      <c r="G64" s="170"/>
+      <c r="H64" s="170"/>
+      <c r="I64" s="170"/>
+      <c r="J64" s="170"/>
+      <c r="K64" s="170"/>
+      <c r="L64" s="170"/>
+      <c r="M64" s="171"/>
+      <c r="N64" s="163"/>
+      <c r="O64" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="P64" s="170"/>
+      <c r="Q64" s="170"/>
+      <c r="R64" s="171"/>
+      <c r="S64" s="168"/>
+      <c r="T64" s="169"/>
+      <c r="U64" s="169"/>
+      <c r="V64" s="169"/>
+      <c r="W64" s="169"/>
+      <c r="X64" s="169"/>
+      <c r="Y64" s="169"/>
+      <c r="Z64" s="172"/>
+      <c r="AA64" s="169"/>
+      <c r="AB64" s="169"/>
+      <c r="AC64" s="169"/>
+      <c r="AD64" s="169"/>
+      <c r="AE64" s="169"/>
+      <c r="AF64" s="169"/>
+      <c r="AG64" s="173"/>
+      <c r="AH64" s="162"/>
+      <c r="AI64" s="169"/>
+      <c r="AJ64" s="169"/>
+      <c r="AK64" s="169"/>
+      <c r="AL64" s="169"/>
+      <c r="AM64" s="169"/>
+      <c r="AN64" s="169"/>
+      <c r="AO64" s="169"/>
+      <c r="AP64" s="169"/>
+      <c r="AQ64" s="169"/>
+      <c r="AR64" s="169"/>
+      <c r="AS64" s="169"/>
+      <c r="AT64" s="169"/>
+      <c r="AU64" s="169"/>
+      <c r="AV64" s="174"/>
       <c r="AW64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12353,55 +12344,55 @@
       <c r="C65" s="105" t="n">
         <v>3</v>
       </c>
-      <c r="D65" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="163"/>
-      <c r="F65" s="163"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="164"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="164"/>
-      <c r="K65" s="164"/>
-      <c r="L65" s="164"/>
-      <c r="M65" s="165"/>
-      <c r="N65" s="166"/>
-      <c r="O65" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="P65" s="164"/>
-      <c r="Q65" s="164"/>
-      <c r="R65" s="165"/>
-      <c r="S65" s="162"/>
-      <c r="T65" s="163"/>
-      <c r="U65" s="163"/>
-      <c r="V65" s="163"/>
-      <c r="W65" s="163"/>
-      <c r="X65" s="163"/>
-      <c r="Y65" s="163"/>
-      <c r="Z65" s="167"/>
-      <c r="AA65" s="163"/>
-      <c r="AB65" s="163"/>
-      <c r="AC65" s="163"/>
-      <c r="AD65" s="163"/>
-      <c r="AE65" s="163"/>
-      <c r="AF65" s="163"/>
-      <c r="AG65" s="168"/>
-      <c r="AH65" s="169"/>
-      <c r="AI65" s="163"/>
-      <c r="AJ65" s="163"/>
-      <c r="AK65" s="163"/>
-      <c r="AL65" s="163"/>
-      <c r="AM65" s="163"/>
-      <c r="AN65" s="163"/>
-      <c r="AO65" s="163"/>
-      <c r="AP65" s="163"/>
-      <c r="AQ65" s="163"/>
-      <c r="AR65" s="163"/>
-      <c r="AS65" s="163"/>
-      <c r="AT65" s="163"/>
-      <c r="AU65" s="163"/>
-      <c r="AV65" s="170"/>
+      <c r="D65" s="175" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="176"/>
+      <c r="F65" s="176"/>
+      <c r="G65" s="177"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="177"/>
+      <c r="J65" s="177"/>
+      <c r="K65" s="177"/>
+      <c r="L65" s="177"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="179"/>
+      <c r="O65" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="P65" s="177"/>
+      <c r="Q65" s="177"/>
+      <c r="R65" s="178"/>
+      <c r="S65" s="175"/>
+      <c r="T65" s="176"/>
+      <c r="U65" s="176"/>
+      <c r="V65" s="176"/>
+      <c r="W65" s="176"/>
+      <c r="X65" s="176"/>
+      <c r="Y65" s="176"/>
+      <c r="Z65" s="180"/>
+      <c r="AA65" s="176"/>
+      <c r="AB65" s="176"/>
+      <c r="AC65" s="176"/>
+      <c r="AD65" s="176"/>
+      <c r="AE65" s="176"/>
+      <c r="AF65" s="176"/>
+      <c r="AG65" s="181"/>
+      <c r="AH65" s="182"/>
+      <c r="AI65" s="176"/>
+      <c r="AJ65" s="176"/>
+      <c r="AK65" s="176"/>
+      <c r="AL65" s="176"/>
+      <c r="AM65" s="176"/>
+      <c r="AN65" s="176"/>
+      <c r="AO65" s="176"/>
+      <c r="AP65" s="176"/>
+      <c r="AQ65" s="176"/>
+      <c r="AR65" s="176"/>
+      <c r="AS65" s="176"/>
+      <c r="AT65" s="176"/>
+      <c r="AU65" s="176"/>
+      <c r="AV65" s="183"/>
       <c r="AW65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12410,121 +12401,121 @@
       <c r="C66" s="105" t="n">
         <v>4</v>
       </c>
-      <c r="D66" s="171" t="s">
-        <v>97</v>
-      </c>
-      <c r="E66" s="172"/>
-      <c r="F66" s="172"/>
-      <c r="G66" s="173"/>
-      <c r="H66" s="173"/>
-      <c r="I66" s="173"/>
-      <c r="J66" s="173"/>
-      <c r="K66" s="173"/>
-      <c r="L66" s="173"/>
-      <c r="M66" s="174"/>
-      <c r="N66" s="166"/>
-      <c r="O66" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="P66" s="164"/>
-      <c r="Q66" s="164"/>
-      <c r="R66" s="165"/>
-      <c r="S66" s="171"/>
-      <c r="T66" s="172"/>
-      <c r="U66" s="172"/>
-      <c r="V66" s="172"/>
-      <c r="W66" s="172" t="s">
+      <c r="D66" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="162"/>
+      <c r="F66" s="162"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="163"/>
+      <c r="I66" s="163"/>
+      <c r="J66" s="163"/>
+      <c r="K66" s="163"/>
+      <c r="L66" s="163"/>
+      <c r="M66" s="164"/>
+      <c r="N66" s="163"/>
+      <c r="O66" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="X66" s="172"/>
-      <c r="Y66" s="172"/>
-      <c r="Z66" s="175"/>
-      <c r="AA66" s="172"/>
-      <c r="AB66" s="172"/>
-      <c r="AC66" s="172"/>
-      <c r="AD66" s="172"/>
-      <c r="AE66" s="172"/>
-      <c r="AF66" s="172"/>
-      <c r="AG66" s="176"/>
-      <c r="AH66" s="177"/>
-      <c r="AI66" s="172"/>
-      <c r="AJ66" s="172"/>
-      <c r="AK66" s="172"/>
-      <c r="AL66" s="172"/>
-      <c r="AM66" s="172"/>
-      <c r="AN66" s="172"/>
-      <c r="AO66" s="172"/>
-      <c r="AP66" s="172"/>
-      <c r="AQ66" s="172"/>
-      <c r="AR66" s="172"/>
-      <c r="AS66" s="172"/>
-      <c r="AT66" s="172"/>
-      <c r="AU66" s="172"/>
-      <c r="AV66" s="178"/>
+      <c r="P66" s="163"/>
+      <c r="Q66" s="163"/>
+      <c r="R66" s="164"/>
+      <c r="S66" s="161"/>
+      <c r="T66" s="162"/>
+      <c r="U66" s="162"/>
+      <c r="V66" s="162"/>
+      <c r="W66" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="X66" s="162"/>
+      <c r="Y66" s="162"/>
+      <c r="Z66" s="165"/>
+      <c r="AA66" s="162"/>
+      <c r="AB66" s="162"/>
+      <c r="AC66" s="162"/>
+      <c r="AD66" s="162"/>
+      <c r="AE66" s="162"/>
+      <c r="AF66" s="162"/>
+      <c r="AG66" s="166"/>
+      <c r="AH66" s="162"/>
+      <c r="AI66" s="162"/>
+      <c r="AJ66" s="162"/>
+      <c r="AK66" s="162"/>
+      <c r="AL66" s="162"/>
+      <c r="AM66" s="162"/>
+      <c r="AN66" s="162"/>
+      <c r="AO66" s="162"/>
+      <c r="AP66" s="162"/>
+      <c r="AQ66" s="162"/>
+      <c r="AR66" s="162"/>
+      <c r="AS66" s="162"/>
+      <c r="AT66" s="162"/>
+      <c r="AU66" s="162"/>
+      <c r="AV66" s="167"/>
       <c r="AW66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="105" t="n">
+      <c r="C67" s="160" t="n">
         <v>5</v>
       </c>
-      <c r="D67" s="171" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="172"/>
-      <c r="F67" s="172"/>
-      <c r="G67" s="173"/>
-      <c r="H67" s="173"/>
-      <c r="I67" s="173"/>
-      <c r="J67" s="173"/>
-      <c r="K67" s="173"/>
-      <c r="L67" s="173"/>
-      <c r="M67" s="174"/>
-      <c r="N67" s="166"/>
-      <c r="O67" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="P67" s="164"/>
-      <c r="Q67" s="164"/>
-      <c r="R67" s="165"/>
-      <c r="S67" s="171"/>
-      <c r="T67" s="172"/>
-      <c r="U67" s="172"/>
-      <c r="V67" s="172"/>
-      <c r="W67" s="172"/>
-      <c r="X67" s="172"/>
-      <c r="Y67" s="172"/>
-      <c r="Z67" s="175"/>
-      <c r="AA67" s="172"/>
-      <c r="AB67" s="172"/>
-      <c r="AC67" s="172"/>
-      <c r="AD67" s="172"/>
-      <c r="AE67" s="172"/>
-      <c r="AF67" s="172"/>
-      <c r="AG67" s="176"/>
-      <c r="AH67" s="177"/>
-      <c r="AI67" s="172"/>
-      <c r="AJ67" s="172"/>
-      <c r="AK67" s="172"/>
-      <c r="AL67" s="172"/>
-      <c r="AM67" s="172"/>
-      <c r="AN67" s="172"/>
-      <c r="AO67" s="172"/>
-      <c r="AP67" s="172"/>
-      <c r="AQ67" s="172"/>
-      <c r="AR67" s="172"/>
-      <c r="AS67" s="172"/>
-      <c r="AT67" s="172"/>
-      <c r="AU67" s="172"/>
-      <c r="AV67" s="178"/>
+      <c r="D67" s="161" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" s="162"/>
+      <c r="F67" s="162"/>
+      <c r="G67" s="163"/>
+      <c r="H67" s="163"/>
+      <c r="I67" s="163"/>
+      <c r="J67" s="163"/>
+      <c r="K67" s="163"/>
+      <c r="L67" s="163"/>
+      <c r="M67" s="164"/>
+      <c r="N67" s="163"/>
+      <c r="O67" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="P67" s="163"/>
+      <c r="Q67" s="163"/>
+      <c r="R67" s="164"/>
+      <c r="S67" s="161"/>
+      <c r="T67" s="162"/>
+      <c r="U67" s="162"/>
+      <c r="V67" s="162"/>
+      <c r="W67" s="162"/>
+      <c r="X67" s="162"/>
+      <c r="Y67" s="162"/>
+      <c r="Z67" s="165"/>
+      <c r="AA67" s="162"/>
+      <c r="AB67" s="162"/>
+      <c r="AC67" s="162"/>
+      <c r="AD67" s="162"/>
+      <c r="AE67" s="162"/>
+      <c r="AF67" s="162"/>
+      <c r="AG67" s="166"/>
+      <c r="AH67" s="162"/>
+      <c r="AI67" s="162"/>
+      <c r="AJ67" s="162"/>
+      <c r="AK67" s="162"/>
+      <c r="AL67" s="162"/>
+      <c r="AM67" s="162"/>
+      <c r="AN67" s="162"/>
+      <c r="AO67" s="162"/>
+      <c r="AP67" s="162"/>
+      <c r="AQ67" s="162"/>
+      <c r="AR67" s="162"/>
+      <c r="AS67" s="162"/>
+      <c r="AT67" s="162"/>
+      <c r="AU67" s="162"/>
+      <c r="AV67" s="167"/>
       <c r="AW67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="133"/>
-      <c r="D68" s="156"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="154"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -12545,15 +12536,15 @@
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="133"/>
-      <c r="Z68" s="133"/>
-      <c r="AA68" s="133"/>
+      <c r="Y68" s="131"/>
+      <c r="Z68" s="131"/>
+      <c r="AA68" s="131"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
-      <c r="AF68" s="133"/>
-      <c r="AG68" s="133"/>
+      <c r="AF68" s="131"/>
+      <c r="AG68" s="131"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
@@ -12573,8 +12564,8 @@
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="133"/>
-      <c r="D69" s="156"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="154"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -12595,15 +12586,15 @@
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
-      <c r="Y69" s="133"/>
-      <c r="Z69" s="133"/>
-      <c r="AA69" s="133"/>
+      <c r="Y69" s="131"/>
+      <c r="Z69" s="131"/>
+      <c r="AA69" s="131"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
-      <c r="AF69" s="133"/>
-      <c r="AG69" s="133"/>
+      <c r="AF69" s="131"/>
+      <c r="AG69" s="131"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
       <c r="AJ69" s="19"/>
@@ -12623,8 +12614,8 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="156"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="154"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -12645,15 +12636,15 @@
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="133"/>
-      <c r="Z70" s="133"/>
-      <c r="AA70" s="133"/>
+      <c r="Y70" s="131"/>
+      <c r="Z70" s="131"/>
+      <c r="AA70" s="131"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
-      <c r="AF70" s="133"/>
-      <c r="AG70" s="133"/>
+      <c r="AF70" s="131"/>
+      <c r="AG70" s="131"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
       <c r="AJ70" s="19"/>
@@ -12673,8 +12664,8 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="133"/>
-      <c r="D71" s="156"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="154"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -12695,15 +12686,15 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="133"/>
-      <c r="Z71" s="133"/>
-      <c r="AA71" s="133"/>
+      <c r="Y71" s="131"/>
+      <c r="Z71" s="131"/>
+      <c r="AA71" s="131"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
-      <c r="AF71" s="133"/>
-      <c r="AG71" s="133"/>
+      <c r="AF71" s="131"/>
+      <c r="AG71" s="131"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
@@ -12723,8 +12714,8 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="133"/>
-      <c r="D72" s="156"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="154"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -12745,15 +12736,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="133"/>
-      <c r="Z72" s="133"/>
-      <c r="AA72" s="133"/>
+      <c r="Y72" s="131"/>
+      <c r="Z72" s="131"/>
+      <c r="AA72" s="131"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="133"/>
-      <c r="AG72" s="133"/>
+      <c r="AF72" s="131"/>
+      <c r="AG72" s="131"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -12773,8 +12764,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="133"/>
-      <c r="D73" s="156"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="154"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -12795,15 +12786,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="133"/>
-      <c r="Z73" s="133"/>
-      <c r="AA73" s="133"/>
+      <c r="Y73" s="131"/>
+      <c r="Z73" s="131"/>
+      <c r="AA73" s="131"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="133"/>
-      <c r="AG73" s="133"/>
+      <c r="AF73" s="131"/>
+      <c r="AG73" s="131"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -12823,8 +12814,8 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="133"/>
-      <c r="D74" s="156"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="154"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -12845,15 +12836,15 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="133"/>
-      <c r="Z74" s="133"/>
-      <c r="AA74" s="133"/>
+      <c r="Y74" s="131"/>
+      <c r="Z74" s="131"/>
+      <c r="AA74" s="131"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
-      <c r="AF74" s="133"/>
-      <c r="AG74" s="133"/>
+      <c r="AF74" s="131"/>
+      <c r="AG74" s="131"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
@@ -12873,8 +12864,8 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="133"/>
-      <c r="D75" s="156"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="154"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -12895,15 +12886,15 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="133"/>
-      <c r="Z75" s="133"/>
-      <c r="AA75" s="133"/>
+      <c r="Y75" s="131"/>
+      <c r="Z75" s="131"/>
+      <c r="AA75" s="131"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
-      <c r="AF75" s="133"/>
-      <c r="AG75" s="133"/>
+      <c r="AF75" s="131"/>
+      <c r="AG75" s="131"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -12923,8 +12914,8 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="133"/>
-      <c r="D76" s="156"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="154"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -12945,15 +12936,15 @@
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
-      <c r="Y76" s="133"/>
-      <c r="Z76" s="133"/>
-      <c r="AA76" s="133"/>
+      <c r="Y76" s="131"/>
+      <c r="Z76" s="131"/>
+      <c r="AA76" s="131"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="133"/>
-      <c r="AG76" s="133"/>
+      <c r="AF76" s="131"/>
+      <c r="AG76" s="131"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
       <c r="AJ76" s="19"/>
@@ -12973,8 +12964,8 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="133"/>
-      <c r="D77" s="156"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="154"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -12995,15 +12986,15 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
-      <c r="Y77" s="133"/>
-      <c r="Z77" s="133"/>
-      <c r="AA77" s="133"/>
+      <c r="Y77" s="131"/>
+      <c r="Z77" s="131"/>
+      <c r="AA77" s="131"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
-      <c r="AF77" s="133"/>
-      <c r="AG77" s="133"/>
+      <c r="AF77" s="131"/>
+      <c r="AG77" s="131"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
@@ -13023,8 +13014,8 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="133"/>
-      <c r="D78" s="156"/>
+      <c r="C78" s="131"/>
+      <c r="D78" s="154"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -13045,15 +13036,15 @@
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
-      <c r="Y78" s="133"/>
-      <c r="Z78" s="133"/>
-      <c r="AA78" s="133"/>
+      <c r="Y78" s="131"/>
+      <c r="Z78" s="131"/>
+      <c r="AA78" s="131"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="133"/>
-      <c r="AG78" s="133"/>
+      <c r="AF78" s="131"/>
+      <c r="AG78" s="131"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
@@ -13073,8 +13064,8 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="133"/>
-      <c r="D79" s="156"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="154"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -13095,15 +13086,15 @@
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
-      <c r="Y79" s="133"/>
-      <c r="Z79" s="133"/>
-      <c r="AA79" s="133"/>
+      <c r="Y79" s="131"/>
+      <c r="Z79" s="131"/>
+      <c r="AA79" s="131"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
-      <c r="AF79" s="133"/>
-      <c r="AG79" s="133"/>
+      <c r="AF79" s="131"/>
+      <c r="AG79" s="131"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
@@ -13123,8 +13114,8 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="156"/>
+      <c r="C80" s="131"/>
+      <c r="D80" s="154"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13145,15 +13136,15 @@
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="133"/>
-      <c r="Z80" s="133"/>
-      <c r="AA80" s="133"/>
+      <c r="Y80" s="131"/>
+      <c r="Z80" s="131"/>
+      <c r="AA80" s="131"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="133"/>
-      <c r="AG80" s="133"/>
+      <c r="AF80" s="131"/>
+      <c r="AG80" s="131"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
@@ -13173,8 +13164,8 @@
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="156"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="154"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -13195,15 +13186,15 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
-      <c r="Y81" s="133"/>
-      <c r="Z81" s="133"/>
-      <c r="AA81" s="133"/>
+      <c r="Y81" s="131"/>
+      <c r="Z81" s="131"/>
+      <c r="AA81" s="131"/>
       <c r="AB81" s="19"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
       <c r="AE81" s="19"/>
-      <c r="AF81" s="133"/>
-      <c r="AG81" s="133"/>
+      <c r="AF81" s="131"/>
+      <c r="AG81" s="131"/>
       <c r="AH81" s="19"/>
       <c r="AI81" s="19"/>
       <c r="AJ81" s="19"/>
@@ -13420,7 +13411,7 @@
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
       <c r="B86" s="59" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13453,7 +13444,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13486,7 +13477,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -13548,7 +13539,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -13581,7 +13572,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13643,7 +13634,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="C93" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
@@ -13738,7 +13729,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="C96" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
@@ -13771,7 +13762,7 @@
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="17"/>
       <c r="D97" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -14736,7 +14727,7 @@
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
       <c r="B126" s="59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14769,7 +14760,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -14802,7 +14793,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -14875,7 +14866,7 @@
       <c r="AS130" s="19"/>
       <c r="AT130" s="19"/>
       <c r="AV130" s="1"/>
-      <c r="AW130" s="1"/>
+      <c r="AW130" s="20"/>
       <c r="AX130" s="1"/>
       <c r="AZ130" s="0"/>
       <c r="BA130" s="0"/>
@@ -14947,6 +14938,7 @@
       <c r="AS131" s="73"/>
       <c r="AT131" s="73"/>
       <c r="AU131" s="73"/>
+      <c r="AW131" s="20"/>
       <c r="AZ131" s="0"/>
       <c r="BA131" s="0"/>
       <c r="BB131" s="0"/>
@@ -14991,7 +14983,9 @@
       <c r="W132" s="107"/>
       <c r="X132" s="111"/>
       <c r="Y132" s="112"/>
-      <c r="Z132" s="107"/>
+      <c r="Z132" s="107" t="s">
+        <v>73</v>
+      </c>
       <c r="AA132" s="107"/>
       <c r="AB132" s="107"/>
       <c r="AC132" s="106"/>
@@ -15013,6 +15007,7 @@
       <c r="AS132" s="107"/>
       <c r="AT132" s="107"/>
       <c r="AU132" s="113"/>
+      <c r="AW132" s="20"/>
       <c r="AZ132" s="0"/>
       <c r="BA132" s="0"/>
       <c r="BB132" s="0"/>
@@ -15023,7 +15018,7 @@
         <v>2</v>
       </c>
       <c r="C133" s="116" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D133" s="117"/>
       <c r="E133" s="117"/>
@@ -15031,7 +15026,7 @@
       <c r="G133" s="118"/>
       <c r="H133" s="119"/>
       <c r="I133" s="120" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J133" s="118"/>
       <c r="K133" s="118"/>
@@ -15041,7 +15036,7 @@
       <c r="O133" s="118"/>
       <c r="P133" s="120"/>
       <c r="Q133" s="118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R133" s="121"/>
       <c r="S133" s="105" t="s">
@@ -15049,14 +15044,14 @@
       </c>
       <c r="T133" s="105"/>
       <c r="U133" s="116" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V133" s="117"/>
       <c r="W133" s="117"/>
       <c r="X133" s="121"/>
       <c r="Y133" s="122"/>
       <c r="Z133" s="117" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA133" s="117"/>
       <c r="AB133" s="117"/>
@@ -15079,6 +15074,7 @@
       <c r="AS133" s="117"/>
       <c r="AT133" s="117"/>
       <c r="AU133" s="123"/>
+      <c r="AW133" s="20"/>
       <c r="AZ133" s="0"/>
       <c r="BA133" s="0"/>
       <c r="BB133" s="0"/>
@@ -15097,7 +15093,7 @@
       <c r="G134" s="118"/>
       <c r="H134" s="119"/>
       <c r="I134" s="120" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J134" s="118"/>
       <c r="K134" s="118"/>
@@ -15107,7 +15103,7 @@
       <c r="O134" s="118"/>
       <c r="P134" s="120"/>
       <c r="Q134" s="118" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R134" s="121"/>
       <c r="S134" s="105" t="s">
@@ -15115,16 +15111,18 @@
       </c>
       <c r="T134" s="105"/>
       <c r="U134" s="116" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V134" s="117"/>
       <c r="W134" s="117"/>
-      <c r="X134" s="121"/>
-      <c r="Y134" s="0"/>
-      <c r="Z134" s="0"/>
-      <c r="AA134" s="0"/>
-      <c r="AB134" s="0"/>
-      <c r="AC134" s="116"/>
+      <c r="X134" s="124"/>
+      <c r="Y134" s="125"/>
+      <c r="Z134" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA134" s="125"/>
+      <c r="AB134" s="125"/>
+      <c r="AC134" s="126"/>
       <c r="AD134" s="117"/>
       <c r="AE134" s="117"/>
       <c r="AF134" s="117"/>
@@ -15143,110 +15141,113 @@
       <c r="AS134" s="117"/>
       <c r="AT134" s="117"/>
       <c r="AU134" s="123"/>
+      <c r="AW134" s="20"/>
       <c r="AZ134" s="0"/>
       <c r="BA134" s="0"/>
       <c r="BB134" s="0"/>
     </row>
     <row r="135" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="17"/>
-      <c r="B135" s="124"/>
-      <c r="C135" s="125"/>
-      <c r="D135" s="126"/>
-      <c r="E135" s="126"/>
-      <c r="F135" s="127"/>
-      <c r="G135" s="127"/>
-      <c r="H135" s="128"/>
+      <c r="A135" s="184"/>
+      <c r="B135" s="127"/>
+      <c r="C135" s="128"/>
+      <c r="D135" s="128"/>
+      <c r="E135" s="128"/>
+      <c r="F135" s="129"/>
+      <c r="G135" s="129"/>
+      <c r="H135" s="129"/>
       <c r="I135" s="129"/>
-      <c r="J135" s="127"/>
-      <c r="K135" s="127"/>
-      <c r="L135" s="127"/>
+      <c r="J135" s="129"/>
+      <c r="K135" s="129"/>
+      <c r="L135" s="129"/>
       <c r="M135" s="129"/>
       <c r="N135" s="129"/>
-      <c r="O135" s="127"/>
+      <c r="O135" s="129"/>
       <c r="P135" s="129"/>
-      <c r="Q135" s="127"/>
-      <c r="R135" s="130"/>
-      <c r="S135" s="105"/>
-      <c r="T135" s="105"/>
-      <c r="U135" s="125"/>
-      <c r="V135" s="126"/>
-      <c r="W135" s="126"/>
-      <c r="X135" s="130"/>
-      <c r="Y135" s="131"/>
-      <c r="Z135" s="126"/>
-      <c r="AA135" s="126"/>
-      <c r="AB135" s="126"/>
-      <c r="AC135" s="125"/>
-      <c r="AD135" s="126"/>
-      <c r="AE135" s="126"/>
-      <c r="AF135" s="126"/>
-      <c r="AG135" s="126"/>
-      <c r="AH135" s="126"/>
-      <c r="AI135" s="126"/>
-      <c r="AJ135" s="126"/>
-      <c r="AK135" s="126"/>
-      <c r="AL135" s="126"/>
-      <c r="AM135" s="126"/>
-      <c r="AN135" s="126"/>
-      <c r="AO135" s="126"/>
-      <c r="AP135" s="126"/>
-      <c r="AQ135" s="126"/>
-      <c r="AR135" s="126"/>
-      <c r="AS135" s="126"/>
-      <c r="AT135" s="126"/>
-      <c r="AU135" s="132"/>
+      <c r="Q135" s="129"/>
+      <c r="R135" s="128"/>
+      <c r="S135" s="127"/>
+      <c r="T135" s="127"/>
+      <c r="U135" s="128"/>
+      <c r="V135" s="128"/>
+      <c r="W135" s="128"/>
+      <c r="X135" s="128"/>
+      <c r="Y135" s="127"/>
+      <c r="Z135" s="128"/>
+      <c r="AA135" s="128"/>
+      <c r="AB135" s="128"/>
+      <c r="AC135" s="128"/>
+      <c r="AD135" s="128"/>
+      <c r="AE135" s="128"/>
+      <c r="AF135" s="128"/>
+      <c r="AG135" s="128"/>
+      <c r="AH135" s="128"/>
+      <c r="AI135" s="128"/>
+      <c r="AJ135" s="128"/>
+      <c r="AK135" s="128"/>
+      <c r="AL135" s="128"/>
+      <c r="AM135" s="128"/>
+      <c r="AN135" s="128"/>
+      <c r="AO135" s="128"/>
+      <c r="AP135" s="128"/>
+      <c r="AQ135" s="128"/>
+      <c r="AR135" s="128"/>
+      <c r="AS135" s="128"/>
+      <c r="AT135" s="128"/>
+      <c r="AU135" s="130"/>
+      <c r="AW135" s="20"/>
       <c r="AZ135" s="0"/>
       <c r="BA135" s="0"/>
       <c r="BB135" s="0"/>
     </row>
     <row r="136" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="17"/>
-      <c r="B136" s="124"/>
-      <c r="C136" s="125"/>
-      <c r="D136" s="126"/>
-      <c r="E136" s="126"/>
-      <c r="F136" s="127"/>
-      <c r="G136" s="127"/>
-      <c r="H136" s="128"/>
+      <c r="A136" s="184"/>
+      <c r="B136" s="127"/>
+      <c r="C136" s="128"/>
+      <c r="D136" s="128"/>
+      <c r="E136" s="128"/>
+      <c r="F136" s="129"/>
+      <c r="G136" s="129"/>
+      <c r="H136" s="129"/>
       <c r="I136" s="129"/>
-      <c r="J136" s="127"/>
-      <c r="K136" s="127"/>
-      <c r="L136" s="127"/>
+      <c r="J136" s="129"/>
+      <c r="K136" s="129"/>
+      <c r="L136" s="129"/>
       <c r="M136" s="129"/>
-      <c r="N136" s="127"/>
-      <c r="O136" s="127"/>
+      <c r="N136" s="129"/>
+      <c r="O136" s="129"/>
       <c r="P136" s="129"/>
-      <c r="Q136" s="127"/>
-      <c r="R136" s="130"/>
-      <c r="S136" s="105"/>
-      <c r="T136" s="105"/>
-      <c r="U136" s="125"/>
-      <c r="V136" s="126"/>
-      <c r="W136" s="126"/>
-      <c r="X136" s="130"/>
-      <c r="Y136" s="131"/>
-      <c r="Z136" s="126"/>
-      <c r="AA136" s="126"/>
-      <c r="AB136" s="126"/>
-      <c r="AC136" s="125"/>
-      <c r="AD136" s="126"/>
-      <c r="AE136" s="126"/>
-      <c r="AF136" s="126"/>
-      <c r="AG136" s="126"/>
-      <c r="AH136" s="126"/>
-      <c r="AI136" s="126"/>
-      <c r="AJ136" s="126"/>
-      <c r="AK136" s="126"/>
-      <c r="AL136" s="126"/>
-      <c r="AM136" s="126"/>
-      <c r="AN136" s="126"/>
-      <c r="AO136" s="126"/>
-      <c r="AP136" s="126"/>
-      <c r="AQ136" s="126"/>
-      <c r="AR136" s="126"/>
-      <c r="AS136" s="126"/>
-      <c r="AT136" s="126"/>
-      <c r="AU136" s="132"/>
+      <c r="Q136" s="129"/>
+      <c r="R136" s="128"/>
+      <c r="S136" s="127"/>
+      <c r="T136" s="127"/>
+      <c r="U136" s="128"/>
+      <c r="V136" s="128"/>
+      <c r="W136" s="128"/>
+      <c r="X136" s="128"/>
+      <c r="Y136" s="127"/>
+      <c r="Z136" s="128"/>
+      <c r="AA136" s="128"/>
+      <c r="AB136" s="128"/>
+      <c r="AC136" s="128"/>
+      <c r="AD136" s="128"/>
+      <c r="AE136" s="128"/>
+      <c r="AF136" s="128"/>
+      <c r="AG136" s="128"/>
+      <c r="AH136" s="128"/>
+      <c r="AI136" s="128"/>
+      <c r="AJ136" s="128"/>
+      <c r="AK136" s="128"/>
+      <c r="AL136" s="128"/>
+      <c r="AM136" s="128"/>
+      <c r="AN136" s="128"/>
+      <c r="AO136" s="128"/>
+      <c r="AP136" s="128"/>
+      <c r="AQ136" s="128"/>
+      <c r="AR136" s="128"/>
+      <c r="AS136" s="128"/>
+      <c r="AT136" s="128"/>
+      <c r="AU136" s="130"/>
+      <c r="AW136" s="20"/>
       <c r="AZ136" s="0"/>
       <c r="BA136" s="0"/>
       <c r="BB136" s="0"/>
@@ -15255,7 +15256,7 @@
       <c r="A137" s="17"/>
       <c r="B137" s="9"/>
       <c r="AV137" s="1"/>
-      <c r="AW137" s="1"/>
+      <c r="AW137" s="20"/>
       <c r="AX137" s="1"/>
       <c r="AZ137" s="0"/>
       <c r="BA137" s="0"/>
@@ -15264,7 +15265,7 @@
     <row r="138" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
       <c r="B138" s="19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
@@ -15285,16 +15286,16 @@
       <c r="S138" s="19"/>
       <c r="T138" s="19"/>
       <c r="U138" s="19"/>
-      <c r="V138" s="133"/>
-      <c r="W138" s="133"/>
-      <c r="X138" s="133"/>
-      <c r="Y138" s="133"/>
+      <c r="V138" s="131"/>
+      <c r="W138" s="131"/>
+      <c r="X138" s="131"/>
+      <c r="Y138" s="131"/>
       <c r="Z138" s="19"/>
       <c r="AA138" s="19"/>
       <c r="AB138" s="19"/>
       <c r="AC138" s="19"/>
-      <c r="AD138" s="133"/>
-      <c r="AE138" s="133"/>
+      <c r="AD138" s="131"/>
+      <c r="AE138" s="131"/>
       <c r="AF138" s="19"/>
       <c r="AG138" s="19"/>
       <c r="AH138" s="19"/>
@@ -15311,13 +15312,14 @@
       <c r="AS138" s="19"/>
       <c r="AT138" s="19"/>
       <c r="AU138" s="9"/>
+      <c r="AW138" s="20"/>
       <c r="AZ138" s="0"/>
       <c r="BA138" s="0"/>
       <c r="BB138" s="0"/>
     </row>
     <row r="139" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="B139" s="134" t="s">
+      <c r="B139" s="132" t="s">
         <v>48</v>
       </c>
       <c r="C139" s="72" t="s">
@@ -15332,18 +15334,18 @@
       <c r="J139" s="72"/>
       <c r="K139" s="72"/>
       <c r="L139" s="72"/>
-      <c r="M139" s="135" t="s">
+      <c r="M139" s="133" t="s">
         <v>66</v>
       </c>
-      <c r="N139" s="135"/>
-      <c r="O139" s="135"/>
-      <c r="P139" s="135"/>
-      <c r="Q139" s="135"/>
-      <c r="R139" s="135"/>
-      <c r="S139" s="135"/>
-      <c r="T139" s="135"/>
-      <c r="U139" s="135"/>
-      <c r="V139" s="135"/>
+      <c r="N139" s="133"/>
+      <c r="O139" s="133"/>
+      <c r="P139" s="133"/>
+      <c r="Q139" s="133"/>
+      <c r="R139" s="133"/>
+      <c r="S139" s="133"/>
+      <c r="T139" s="133"/>
+      <c r="U139" s="133"/>
+      <c r="V139" s="133"/>
       <c r="W139" s="73" t="s">
         <v>52</v>
       </c>
@@ -15371,17 +15373,18 @@
       <c r="AS139" s="73"/>
       <c r="AT139" s="73"/>
       <c r="AU139" s="73"/>
+      <c r="AW139" s="20"/>
       <c r="AZ139" s="0"/>
       <c r="BA139" s="0"/>
       <c r="BB139" s="0"/>
     </row>
     <row r="140" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="B140" s="136" t="n">
+      <c r="B140" s="134" t="n">
         <v>1</v>
       </c>
-      <c r="C140" s="137" t="s">
-        <v>81</v>
+      <c r="C140" s="135" t="s">
+        <v>83</v>
       </c>
       <c r="D140" s="95"/>
       <c r="E140" s="95"/>
@@ -15391,174 +15394,177 @@
       <c r="I140" s="95"/>
       <c r="J140" s="95"/>
       <c r="K140" s="95"/>
-      <c r="L140" s="138"/>
-      <c r="M140" s="139" t="s">
-        <v>82</v>
-      </c>
-      <c r="N140" s="140"/>
-      <c r="O140" s="140"/>
-      <c r="P140" s="140"/>
-      <c r="Q140" s="140"/>
-      <c r="R140" s="140"/>
-      <c r="S140" s="140"/>
-      <c r="T140" s="140"/>
-      <c r="U140" s="140"/>
-      <c r="V140" s="141"/>
-      <c r="W140" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="X140" s="142"/>
-      <c r="Y140" s="142"/>
-      <c r="Z140" s="142"/>
-      <c r="AA140" s="140"/>
-      <c r="AB140" s="140"/>
-      <c r="AC140" s="140"/>
-      <c r="AD140" s="140"/>
-      <c r="AE140" s="142"/>
-      <c r="AF140" s="142"/>
-      <c r="AG140" s="140"/>
-      <c r="AH140" s="140"/>
-      <c r="AI140" s="140"/>
-      <c r="AJ140" s="140"/>
-      <c r="AK140" s="140"/>
-      <c r="AL140" s="140"/>
-      <c r="AM140" s="140"/>
-      <c r="AN140" s="140"/>
-      <c r="AO140" s="140"/>
-      <c r="AP140" s="140"/>
-      <c r="AQ140" s="140"/>
-      <c r="AR140" s="140"/>
-      <c r="AS140" s="140"/>
-      <c r="AT140" s="140"/>
-      <c r="AU140" s="141"/>
+      <c r="L140" s="136"/>
+      <c r="M140" s="137" t="s">
+        <v>84</v>
+      </c>
+      <c r="N140" s="138"/>
+      <c r="O140" s="138"/>
+      <c r="P140" s="138"/>
+      <c r="Q140" s="138"/>
+      <c r="R140" s="138"/>
+      <c r="S140" s="138"/>
+      <c r="T140" s="138"/>
+      <c r="U140" s="138"/>
+      <c r="V140" s="139"/>
+      <c r="W140" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="X140" s="140"/>
+      <c r="Y140" s="140"/>
+      <c r="Z140" s="140"/>
+      <c r="AA140" s="138"/>
+      <c r="AB140" s="138"/>
+      <c r="AC140" s="138"/>
+      <c r="AD140" s="138"/>
+      <c r="AE140" s="140"/>
+      <c r="AF140" s="140"/>
+      <c r="AG140" s="138"/>
+      <c r="AH140" s="138"/>
+      <c r="AI140" s="138"/>
+      <c r="AJ140" s="138"/>
+      <c r="AK140" s="138"/>
+      <c r="AL140" s="138"/>
+      <c r="AM140" s="138"/>
+      <c r="AN140" s="138"/>
+      <c r="AO140" s="138"/>
+      <c r="AP140" s="138"/>
+      <c r="AQ140" s="138"/>
+      <c r="AR140" s="138"/>
+      <c r="AS140" s="138"/>
+      <c r="AT140" s="138"/>
+      <c r="AU140" s="139"/>
+      <c r="AW140" s="20"/>
       <c r="AZ140" s="0"/>
       <c r="BA140" s="0"/>
       <c r="BB140" s="0"/>
     </row>
     <row r="141" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="B141" s="143" t="n">
+      <c r="B141" s="141" t="n">
         <v>2</v>
       </c>
-      <c r="C141" s="144" t="s">
-        <v>84</v>
-      </c>
-      <c r="D141" s="145"/>
-      <c r="E141" s="145"/>
-      <c r="F141" s="145"/>
-      <c r="G141" s="145"/>
-      <c r="H141" s="145"/>
-      <c r="I141" s="145"/>
-      <c r="J141" s="145"/>
-      <c r="K141" s="145"/>
-      <c r="L141" s="146"/>
-      <c r="M141" s="144" t="s">
+      <c r="C141" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" s="143"/>
+      <c r="E141" s="143"/>
+      <c r="F141" s="143"/>
+      <c r="G141" s="143"/>
+      <c r="H141" s="143"/>
+      <c r="I141" s="143"/>
+      <c r="J141" s="143"/>
+      <c r="K141" s="143"/>
+      <c r="L141" s="144"/>
+      <c r="M141" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="N141" s="143"/>
+      <c r="O141" s="143"/>
+      <c r="P141" s="143"/>
+      <c r="Q141" s="143"/>
+      <c r="R141" s="143"/>
+      <c r="S141" s="143"/>
+      <c r="T141" s="143"/>
+      <c r="U141" s="143"/>
+      <c r="V141" s="144"/>
+      <c r="W141" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="N141" s="145"/>
-      <c r="O141" s="145"/>
-      <c r="P141" s="145"/>
-      <c r="Q141" s="145"/>
-      <c r="R141" s="145"/>
-      <c r="S141" s="145"/>
-      <c r="T141" s="145"/>
-      <c r="U141" s="145"/>
-      <c r="V141" s="146"/>
-      <c r="W141" s="139" t="s">
-        <v>83</v>
-      </c>
-      <c r="X141" s="142"/>
-      <c r="Y141" s="142"/>
-      <c r="Z141" s="142"/>
-      <c r="AA141" s="140"/>
-      <c r="AB141" s="140"/>
-      <c r="AC141" s="140"/>
-      <c r="AD141" s="140"/>
-      <c r="AE141" s="142"/>
-      <c r="AF141" s="142"/>
-      <c r="AG141" s="140"/>
-      <c r="AH141" s="140"/>
-      <c r="AI141" s="140"/>
-      <c r="AJ141" s="140"/>
-      <c r="AK141" s="145"/>
-      <c r="AL141" s="145"/>
-      <c r="AM141" s="145"/>
-      <c r="AN141" s="145"/>
-      <c r="AO141" s="145"/>
-      <c r="AP141" s="145"/>
-      <c r="AQ141" s="145"/>
-      <c r="AR141" s="145"/>
-      <c r="AS141" s="145"/>
-      <c r="AT141" s="145"/>
-      <c r="AU141" s="146"/>
+      <c r="X141" s="140"/>
+      <c r="Y141" s="140"/>
+      <c r="Z141" s="140"/>
+      <c r="AA141" s="138"/>
+      <c r="AB141" s="138"/>
+      <c r="AC141" s="138"/>
+      <c r="AD141" s="138"/>
+      <c r="AE141" s="140"/>
+      <c r="AF141" s="140"/>
+      <c r="AG141" s="138"/>
+      <c r="AH141" s="138"/>
+      <c r="AI141" s="138"/>
+      <c r="AJ141" s="138"/>
+      <c r="AK141" s="143"/>
+      <c r="AL141" s="143"/>
+      <c r="AM141" s="143"/>
+      <c r="AN141" s="143"/>
+      <c r="AO141" s="143"/>
+      <c r="AP141" s="143"/>
+      <c r="AQ141" s="143"/>
+      <c r="AR141" s="143"/>
+      <c r="AS141" s="143"/>
+      <c r="AT141" s="143"/>
+      <c r="AU141" s="144"/>
+      <c r="AW141" s="20"/>
       <c r="AZ141" s="0"/>
       <c r="BA141" s="0"/>
       <c r="BB141" s="0"/>
     </row>
     <row r="142" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="B142" s="147" t="n">
+      <c r="B142" s="145" t="n">
         <v>3</v>
       </c>
-      <c r="C142" s="148" t="s">
-        <v>86</v>
-      </c>
-      <c r="D142" s="149"/>
-      <c r="E142" s="149"/>
-      <c r="F142" s="149"/>
-      <c r="G142" s="149"/>
-      <c r="H142" s="149"/>
-      <c r="I142" s="149"/>
-      <c r="J142" s="149"/>
-      <c r="K142" s="149"/>
-      <c r="L142" s="150"/>
-      <c r="M142" s="151" t="s">
-        <v>85</v>
-      </c>
-      <c r="N142" s="152"/>
-      <c r="O142" s="152"/>
-      <c r="P142" s="152"/>
-      <c r="Q142" s="152"/>
-      <c r="R142" s="152"/>
-      <c r="S142" s="152"/>
-      <c r="T142" s="152"/>
-      <c r="U142" s="152"/>
-      <c r="V142" s="153"/>
-      <c r="W142" s="151" t="s">
+      <c r="C142" s="146" t="s">
+        <v>88</v>
+      </c>
+      <c r="D142" s="147"/>
+      <c r="E142" s="147"/>
+      <c r="F142" s="147"/>
+      <c r="G142" s="147"/>
+      <c r="H142" s="147"/>
+      <c r="I142" s="147"/>
+      <c r="J142" s="147"/>
+      <c r="K142" s="147"/>
+      <c r="L142" s="148"/>
+      <c r="M142" s="149" t="s">
         <v>87</v>
       </c>
-      <c r="X142" s="154"/>
-      <c r="Y142" s="154"/>
-      <c r="Z142" s="154"/>
-      <c r="AA142" s="152"/>
-      <c r="AB142" s="152"/>
-      <c r="AC142" s="152"/>
-      <c r="AD142" s="152"/>
-      <c r="AE142" s="154"/>
-      <c r="AF142" s="154"/>
-      <c r="AG142" s="152"/>
-      <c r="AH142" s="152"/>
-      <c r="AI142" s="152"/>
-      <c r="AJ142" s="152"/>
-      <c r="AK142" s="152"/>
-      <c r="AL142" s="152"/>
-      <c r="AM142" s="152"/>
-      <c r="AN142" s="152"/>
-      <c r="AO142" s="152"/>
-      <c r="AP142" s="152"/>
-      <c r="AQ142" s="152"/>
-      <c r="AR142" s="152"/>
-      <c r="AS142" s="152"/>
-      <c r="AT142" s="152"/>
-      <c r="AU142" s="155"/>
+      <c r="N142" s="150"/>
+      <c r="O142" s="150"/>
+      <c r="P142" s="150"/>
+      <c r="Q142" s="150"/>
+      <c r="R142" s="150"/>
+      <c r="S142" s="150"/>
+      <c r="T142" s="150"/>
+      <c r="U142" s="150"/>
+      <c r="V142" s="151"/>
+      <c r="W142" s="149" t="s">
+        <v>89</v>
+      </c>
+      <c r="X142" s="152"/>
+      <c r="Y142" s="152"/>
+      <c r="Z142" s="152"/>
+      <c r="AA142" s="150"/>
+      <c r="AB142" s="150"/>
+      <c r="AC142" s="150"/>
+      <c r="AD142" s="150"/>
+      <c r="AE142" s="152"/>
+      <c r="AF142" s="152"/>
+      <c r="AG142" s="150"/>
+      <c r="AH142" s="150"/>
+      <c r="AI142" s="150"/>
+      <c r="AJ142" s="150"/>
+      <c r="AK142" s="150"/>
+      <c r="AL142" s="150"/>
+      <c r="AM142" s="150"/>
+      <c r="AN142" s="150"/>
+      <c r="AO142" s="150"/>
+      <c r="AP142" s="150"/>
+      <c r="AQ142" s="150"/>
+      <c r="AR142" s="150"/>
+      <c r="AS142" s="150"/>
+      <c r="AT142" s="150"/>
+      <c r="AU142" s="153"/>
+      <c r="AW142" s="20"/>
       <c r="AZ142" s="0"/>
       <c r="BA142" s="0"/>
       <c r="BB142" s="0"/>
     </row>
     <row r="143" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="B143" s="133"/>
-      <c r="C143" s="156"/>
+      <c r="B143" s="131"/>
+      <c r="C143" s="154"/>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
@@ -15579,15 +15585,15 @@
       <c r="U143" s="19"/>
       <c r="V143" s="19"/>
       <c r="W143" s="19"/>
-      <c r="X143" s="133"/>
-      <c r="Y143" s="133"/>
-      <c r="Z143" s="133"/>
+      <c r="X143" s="131"/>
+      <c r="Y143" s="131"/>
+      <c r="Z143" s="131"/>
       <c r="AA143" s="19"/>
       <c r="AB143" s="19"/>
       <c r="AC143" s="19"/>
       <c r="AD143" s="19"/>
-      <c r="AE143" s="133"/>
-      <c r="AF143" s="133"/>
+      <c r="AE143" s="131"/>
+      <c r="AF143" s="131"/>
       <c r="AG143" s="19"/>
       <c r="AH143" s="19"/>
       <c r="AI143" s="19"/>
@@ -15603,60 +15609,62 @@
       <c r="AS143" s="19"/>
       <c r="AT143" s="19"/>
       <c r="AU143" s="9"/>
+      <c r="AW143" s="20"/>
       <c r="AZ143" s="0"/>
       <c r="BA143" s="0"/>
       <c r="BB143" s="0"/>
     </row>
     <row r="144" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="B144" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="C144" s="157"/>
-      <c r="D144" s="157"/>
-      <c r="E144" s="157"/>
-      <c r="F144" s="157"/>
-      <c r="G144" s="157"/>
-      <c r="H144" s="157"/>
-      <c r="I144" s="157"/>
-      <c r="J144" s="157"/>
-      <c r="K144" s="157"/>
-      <c r="L144" s="157"/>
-      <c r="M144" s="157"/>
-      <c r="N144" s="157"/>
-      <c r="O144" s="157"/>
-      <c r="P144" s="157"/>
-      <c r="Q144" s="157"/>
-      <c r="R144" s="157"/>
-      <c r="S144" s="157"/>
-      <c r="T144" s="157"/>
-      <c r="U144" s="157"/>
-      <c r="V144" s="157"/>
-      <c r="W144" s="157"/>
-      <c r="X144" s="157"/>
-      <c r="Y144" s="157"/>
-      <c r="Z144" s="157"/>
-      <c r="AA144" s="157"/>
-      <c r="AB144" s="157"/>
-      <c r="AC144" s="157"/>
-      <c r="AD144" s="157"/>
-      <c r="AE144" s="157"/>
-      <c r="AF144" s="157"/>
-      <c r="AG144" s="157"/>
-      <c r="AH144" s="157"/>
-      <c r="AI144" s="157"/>
-      <c r="AJ144" s="157"/>
-      <c r="AK144" s="157"/>
-      <c r="AL144" s="158"/>
-      <c r="AM144" s="158"/>
-      <c r="AN144" s="158"/>
-      <c r="AO144" s="158"/>
-      <c r="AP144" s="157"/>
-      <c r="AQ144" s="158"/>
-      <c r="AR144" s="158"/>
-      <c r="AS144" s="158"/>
-      <c r="AT144" s="158"/>
-      <c r="AU144" s="157"/>
+      <c r="B144" s="155" t="s">
+        <v>90</v>
+      </c>
+      <c r="C144" s="155"/>
+      <c r="D144" s="155"/>
+      <c r="E144" s="155"/>
+      <c r="F144" s="155"/>
+      <c r="G144" s="155"/>
+      <c r="H144" s="155"/>
+      <c r="I144" s="155"/>
+      <c r="J144" s="155"/>
+      <c r="K144" s="155"/>
+      <c r="L144" s="155"/>
+      <c r="M144" s="155"/>
+      <c r="N144" s="155"/>
+      <c r="O144" s="155"/>
+      <c r="P144" s="155"/>
+      <c r="Q144" s="155"/>
+      <c r="R144" s="155"/>
+      <c r="S144" s="155"/>
+      <c r="T144" s="155"/>
+      <c r="U144" s="155"/>
+      <c r="V144" s="155"/>
+      <c r="W144" s="155"/>
+      <c r="X144" s="155"/>
+      <c r="Y144" s="155"/>
+      <c r="Z144" s="155"/>
+      <c r="AA144" s="155"/>
+      <c r="AB144" s="155"/>
+      <c r="AC144" s="155"/>
+      <c r="AD144" s="155"/>
+      <c r="AE144" s="155"/>
+      <c r="AF144" s="155"/>
+      <c r="AG144" s="155"/>
+      <c r="AH144" s="155"/>
+      <c r="AI144" s="155"/>
+      <c r="AJ144" s="155"/>
+      <c r="AK144" s="155"/>
+      <c r="AL144" s="156"/>
+      <c r="AM144" s="156"/>
+      <c r="AN144" s="156"/>
+      <c r="AO144" s="156"/>
+      <c r="AP144" s="155"/>
+      <c r="AQ144" s="156"/>
+      <c r="AR144" s="156"/>
+      <c r="AS144" s="156"/>
+      <c r="AT144" s="156"/>
+      <c r="AU144" s="155"/>
+      <c r="AW144" s="20"/>
       <c r="AZ144" s="0"/>
       <c r="BA144" s="0"/>
       <c r="BB144" s="0"/>
@@ -15666,18 +15674,18 @@
       <c r="B145" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C145" s="159" t="s">
+      <c r="C145" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="D145" s="159"/>
-      <c r="E145" s="159"/>
-      <c r="F145" s="159"/>
-      <c r="G145" s="159"/>
-      <c r="H145" s="159"/>
-      <c r="I145" s="160"/>
-      <c r="J145" s="160"/>
-      <c r="K145" s="160"/>
-      <c r="L145" s="161"/>
+      <c r="D145" s="157"/>
+      <c r="E145" s="157"/>
+      <c r="F145" s="157"/>
+      <c r="G145" s="157"/>
+      <c r="H145" s="157"/>
+      <c r="I145" s="158"/>
+      <c r="J145" s="158"/>
+      <c r="K145" s="158"/>
+      <c r="L145" s="159"/>
       <c r="M145" s="72" t="s">
         <v>66</v>
       </c>
@@ -15686,7 +15694,7 @@
       <c r="P145" s="72"/>
       <c r="Q145" s="72"/>
       <c r="R145" s="72" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S145" s="72"/>
       <c r="T145" s="72"/>
@@ -15703,7 +15711,7 @@
       <c r="AE145" s="72"/>
       <c r="AF145" s="72"/>
       <c r="AG145" s="72" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AH145" s="72"/>
       <c r="AI145" s="72"/>
@@ -15719,123 +15727,126 @@
       <c r="AS145" s="72"/>
       <c r="AT145" s="72"/>
       <c r="AU145" s="72"/>
+      <c r="AW145" s="20"/>
       <c r="AZ145" s="0"/>
       <c r="BA145" s="0"/>
       <c r="BB145" s="0"/>
     </row>
     <row r="146" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
-      <c r="B146" s="105" t="n">
+      <c r="B146" s="160" t="n">
         <v>1</v>
       </c>
-      <c r="C146" s="162" t="s">
-        <v>91</v>
-      </c>
-      <c r="D146" s="163"/>
-      <c r="E146" s="163"/>
-      <c r="F146" s="164"/>
-      <c r="G146" s="164"/>
-      <c r="H146" s="164"/>
-      <c r="I146" s="164"/>
-      <c r="J146" s="164"/>
-      <c r="K146" s="164"/>
-      <c r="L146" s="165"/>
-      <c r="M146" s="166" t="s">
-        <v>92</v>
-      </c>
-      <c r="N146" s="164"/>
-      <c r="O146" s="164"/>
-      <c r="P146" s="164"/>
-      <c r="Q146" s="165"/>
-      <c r="R146" s="162"/>
-      <c r="S146" s="163"/>
-      <c r="T146" s="163"/>
-      <c r="U146" s="163"/>
-      <c r="V146" s="163"/>
-      <c r="W146" s="163"/>
-      <c r="X146" s="163"/>
-      <c r="Y146" s="167"/>
-      <c r="Z146" s="163"/>
-      <c r="AA146" s="163"/>
-      <c r="AB146" s="163"/>
-      <c r="AC146" s="163"/>
-      <c r="AD146" s="163"/>
-      <c r="AE146" s="163"/>
-      <c r="AF146" s="168"/>
-      <c r="AG146" s="169"/>
-      <c r="AH146" s="163"/>
-      <c r="AI146" s="163"/>
-      <c r="AJ146" s="163"/>
-      <c r="AK146" s="163"/>
-      <c r="AL146" s="163"/>
-      <c r="AM146" s="163"/>
-      <c r="AN146" s="163"/>
-      <c r="AO146" s="163"/>
-      <c r="AP146" s="163"/>
-      <c r="AQ146" s="163"/>
-      <c r="AR146" s="163"/>
-      <c r="AS146" s="163"/>
-      <c r="AT146" s="163"/>
-      <c r="AU146" s="170"/>
+      <c r="C146" s="161" t="s">
+        <v>93</v>
+      </c>
+      <c r="D146" s="162"/>
+      <c r="E146" s="162"/>
+      <c r="F146" s="163"/>
+      <c r="G146" s="163"/>
+      <c r="H146" s="163"/>
+      <c r="I146" s="163"/>
+      <c r="J146" s="163"/>
+      <c r="K146" s="163"/>
+      <c r="L146" s="164"/>
+      <c r="M146" s="0"/>
+      <c r="N146" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="O146" s="163"/>
+      <c r="P146" s="163"/>
+      <c r="Q146" s="164"/>
+      <c r="R146" s="161"/>
+      <c r="S146" s="162"/>
+      <c r="T146" s="162"/>
+      <c r="U146" s="162"/>
+      <c r="V146" s="162"/>
+      <c r="W146" s="162"/>
+      <c r="X146" s="162"/>
+      <c r="Y146" s="165"/>
+      <c r="Z146" s="162"/>
+      <c r="AA146" s="162"/>
+      <c r="AB146" s="162"/>
+      <c r="AC146" s="162"/>
+      <c r="AD146" s="162"/>
+      <c r="AE146" s="162"/>
+      <c r="AF146" s="166"/>
+      <c r="AG146" s="162"/>
+      <c r="AH146" s="162"/>
+      <c r="AI146" s="162"/>
+      <c r="AJ146" s="162"/>
+      <c r="AK146" s="162"/>
+      <c r="AL146" s="162"/>
+      <c r="AM146" s="162"/>
+      <c r="AN146" s="162"/>
+      <c r="AO146" s="162"/>
+      <c r="AP146" s="162"/>
+      <c r="AQ146" s="162"/>
+      <c r="AR146" s="162"/>
+      <c r="AS146" s="162"/>
+      <c r="AT146" s="162"/>
+      <c r="AU146" s="167"/>
+      <c r="AW146" s="20"/>
       <c r="AZ146" s="0"/>
       <c r="BA146" s="0"/>
       <c r="BB146" s="0"/>
     </row>
     <row r="147" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
-      <c r="B147" s="105" t="n">
+      <c r="B147" s="160" t="n">
         <v>2</v>
       </c>
-      <c r="C147" s="171" t="s">
-        <v>93</v>
-      </c>
-      <c r="D147" s="172"/>
-      <c r="E147" s="172"/>
-      <c r="F147" s="173"/>
-      <c r="G147" s="173"/>
-      <c r="H147" s="173"/>
-      <c r="I147" s="173"/>
-      <c r="J147" s="173"/>
-      <c r="K147" s="173"/>
-      <c r="L147" s="174"/>
-      <c r="M147" s="166"/>
-      <c r="N147" s="173" t="s">
-        <v>94</v>
-      </c>
-      <c r="O147" s="173"/>
-      <c r="P147" s="173"/>
-      <c r="Q147" s="174"/>
-      <c r="R147" s="171"/>
-      <c r="S147" s="172"/>
-      <c r="T147" s="172"/>
-      <c r="U147" s="172"/>
-      <c r="V147" s="172"/>
-      <c r="W147" s="172"/>
-      <c r="X147" s="172"/>
-      <c r="Y147" s="175"/>
-      <c r="Z147" s="172"/>
-      <c r="AA147" s="172"/>
-      <c r="AB147" s="172"/>
-      <c r="AC147" s="172"/>
-      <c r="AD147" s="172"/>
-      <c r="AE147" s="172"/>
-      <c r="AF147" s="176"/>
-      <c r="AG147" s="177"/>
-      <c r="AH147" s="172"/>
-      <c r="AI147" s="172"/>
-      <c r="AJ147" s="172"/>
-      <c r="AK147" s="172"/>
-      <c r="AL147" s="172"/>
-      <c r="AM147" s="172"/>
-      <c r="AN147" s="172"/>
-      <c r="AO147" s="172"/>
-      <c r="AP147" s="172"/>
-      <c r="AQ147" s="172"/>
-      <c r="AR147" s="172"/>
-      <c r="AS147" s="172"/>
-      <c r="AT147" s="172"/>
-      <c r="AU147" s="178"/>
-      <c r="AV147" s="179"/>
+      <c r="C147" s="168" t="s">
+        <v>95</v>
+      </c>
+      <c r="D147" s="169"/>
+      <c r="E147" s="169"/>
+      <c r="F147" s="170"/>
+      <c r="G147" s="170"/>
+      <c r="H147" s="170"/>
+      <c r="I147" s="170"/>
+      <c r="J147" s="170"/>
+      <c r="K147" s="170"/>
+      <c r="L147" s="171"/>
+      <c r="M147" s="163"/>
+      <c r="N147" s="170" t="s">
+        <v>96</v>
+      </c>
+      <c r="O147" s="170"/>
+      <c r="P147" s="170"/>
+      <c r="Q147" s="171"/>
+      <c r="R147" s="168"/>
+      <c r="S147" s="169"/>
+      <c r="T147" s="169"/>
+      <c r="U147" s="169"/>
+      <c r="V147" s="169"/>
+      <c r="W147" s="169"/>
+      <c r="X147" s="169"/>
+      <c r="Y147" s="172"/>
+      <c r="Z147" s="169"/>
+      <c r="AA147" s="169"/>
+      <c r="AB147" s="169"/>
+      <c r="AC147" s="169"/>
+      <c r="AD147" s="169"/>
+      <c r="AE147" s="169"/>
+      <c r="AF147" s="173"/>
+      <c r="AG147" s="162"/>
+      <c r="AH147" s="169"/>
+      <c r="AI147" s="169"/>
+      <c r="AJ147" s="169"/>
+      <c r="AK147" s="169"/>
+      <c r="AL147" s="169"/>
+      <c r="AM147" s="169"/>
+      <c r="AN147" s="169"/>
+      <c r="AO147" s="169"/>
+      <c r="AP147" s="169"/>
+      <c r="AQ147" s="169"/>
+      <c r="AR147" s="169"/>
+      <c r="AS147" s="169"/>
+      <c r="AT147" s="169"/>
+      <c r="AU147" s="174"/>
+      <c r="AV147" s="185"/>
+      <c r="AW147" s="20"/>
       <c r="AZ147" s="0"/>
       <c r="BA147" s="0"/>
       <c r="BB147" s="0"/>
@@ -15845,56 +15856,57 @@
       <c r="B148" s="105" t="n">
         <v>3</v>
       </c>
-      <c r="C148" s="162" t="s">
-        <v>95</v>
-      </c>
-      <c r="D148" s="163"/>
-      <c r="E148" s="163"/>
-      <c r="F148" s="164"/>
-      <c r="G148" s="164"/>
-      <c r="H148" s="164"/>
-      <c r="I148" s="164"/>
-      <c r="J148" s="164"/>
-      <c r="K148" s="164"/>
-      <c r="L148" s="165"/>
-      <c r="M148" s="166"/>
-      <c r="N148" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="O148" s="164"/>
-      <c r="P148" s="164"/>
-      <c r="Q148" s="165"/>
-      <c r="R148" s="162"/>
-      <c r="S148" s="163"/>
-      <c r="T148" s="163"/>
-      <c r="U148" s="163"/>
-      <c r="V148" s="163"/>
-      <c r="W148" s="163"/>
-      <c r="X148" s="163"/>
-      <c r="Y148" s="167"/>
-      <c r="Z148" s="163"/>
-      <c r="AA148" s="163"/>
-      <c r="AB148" s="163"/>
-      <c r="AC148" s="163"/>
-      <c r="AD148" s="163"/>
-      <c r="AE148" s="163"/>
-      <c r="AF148" s="168"/>
-      <c r="AG148" s="169"/>
-      <c r="AH148" s="163"/>
-      <c r="AI148" s="163"/>
-      <c r="AJ148" s="163"/>
-      <c r="AK148" s="163"/>
-      <c r="AL148" s="163"/>
-      <c r="AM148" s="163"/>
-      <c r="AN148" s="163"/>
-      <c r="AO148" s="163"/>
-      <c r="AP148" s="163"/>
-      <c r="AQ148" s="163"/>
-      <c r="AR148" s="163"/>
-      <c r="AS148" s="163"/>
-      <c r="AT148" s="163"/>
-      <c r="AU148" s="170"/>
-      <c r="AV148" s="179"/>
+      <c r="C148" s="175" t="s">
+        <v>97</v>
+      </c>
+      <c r="D148" s="176"/>
+      <c r="E148" s="176"/>
+      <c r="F148" s="177"/>
+      <c r="G148" s="177"/>
+      <c r="H148" s="177"/>
+      <c r="I148" s="177"/>
+      <c r="J148" s="177"/>
+      <c r="K148" s="177"/>
+      <c r="L148" s="178"/>
+      <c r="M148" s="179"/>
+      <c r="N148" s="177" t="s">
+        <v>98</v>
+      </c>
+      <c r="O148" s="177"/>
+      <c r="P148" s="177"/>
+      <c r="Q148" s="178"/>
+      <c r="R148" s="175"/>
+      <c r="S148" s="176"/>
+      <c r="T148" s="176"/>
+      <c r="U148" s="176"/>
+      <c r="V148" s="176"/>
+      <c r="W148" s="176"/>
+      <c r="X148" s="176"/>
+      <c r="Y148" s="180"/>
+      <c r="Z148" s="176"/>
+      <c r="AA148" s="176"/>
+      <c r="AB148" s="176"/>
+      <c r="AC148" s="176"/>
+      <c r="AD148" s="176"/>
+      <c r="AE148" s="176"/>
+      <c r="AF148" s="181"/>
+      <c r="AG148" s="182"/>
+      <c r="AH148" s="176"/>
+      <c r="AI148" s="176"/>
+      <c r="AJ148" s="176"/>
+      <c r="AK148" s="176"/>
+      <c r="AL148" s="176"/>
+      <c r="AM148" s="176"/>
+      <c r="AN148" s="176"/>
+      <c r="AO148" s="176"/>
+      <c r="AP148" s="176"/>
+      <c r="AQ148" s="176"/>
+      <c r="AR148" s="176"/>
+      <c r="AS148" s="176"/>
+      <c r="AT148" s="176"/>
+      <c r="AU148" s="183"/>
+      <c r="AV148" s="185"/>
+      <c r="AW148" s="20"/>
       <c r="AZ148" s="0"/>
       <c r="BA148" s="0"/>
       <c r="BB148" s="0"/>
@@ -15904,141 +15916,182 @@
       <c r="B149" s="105" t="n">
         <v>4</v>
       </c>
-      <c r="C149" s="171" t="s">
-        <v>97</v>
-      </c>
-      <c r="D149" s="172"/>
-      <c r="E149" s="172"/>
-      <c r="F149" s="173"/>
-      <c r="G149" s="173"/>
-      <c r="H149" s="173"/>
-      <c r="I149" s="173"/>
-      <c r="J149" s="173"/>
-      <c r="K149" s="173"/>
-      <c r="L149" s="174"/>
-      <c r="M149" s="166"/>
-      <c r="N149" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="O149" s="164"/>
-      <c r="P149" s="164"/>
-      <c r="Q149" s="165"/>
-      <c r="R149" s="171"/>
-      <c r="S149" s="172"/>
-      <c r="T149" s="172"/>
-      <c r="U149" s="172"/>
-      <c r="V149" s="172" t="s">
+      <c r="C149" s="161" t="s">
+        <v>99</v>
+      </c>
+      <c r="D149" s="162"/>
+      <c r="E149" s="162"/>
+      <c r="F149" s="163"/>
+      <c r="G149" s="163"/>
+      <c r="H149" s="163"/>
+      <c r="I149" s="163"/>
+      <c r="J149" s="163"/>
+      <c r="K149" s="163"/>
+      <c r="L149" s="164"/>
+      <c r="M149" s="163"/>
+      <c r="N149" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="W149" s="172"/>
-      <c r="X149" s="172"/>
-      <c r="Y149" s="175"/>
-      <c r="Z149" s="172"/>
-      <c r="AA149" s="172"/>
-      <c r="AB149" s="172"/>
-      <c r="AC149" s="172"/>
-      <c r="AD149" s="172"/>
-      <c r="AE149" s="172"/>
-      <c r="AF149" s="176"/>
-      <c r="AG149" s="177"/>
-      <c r="AH149" s="172"/>
-      <c r="AI149" s="172"/>
-      <c r="AJ149" s="172"/>
-      <c r="AK149" s="172"/>
-      <c r="AL149" s="172"/>
-      <c r="AM149" s="172"/>
-      <c r="AN149" s="172"/>
-      <c r="AO149" s="172"/>
-      <c r="AP149" s="172"/>
-      <c r="AQ149" s="172"/>
-      <c r="AR149" s="172"/>
-      <c r="AS149" s="172"/>
-      <c r="AT149" s="172"/>
-      <c r="AU149" s="178"/>
-      <c r="AV149" s="179"/>
+      <c r="O149" s="163"/>
+      <c r="P149" s="163"/>
+      <c r="Q149" s="164"/>
+      <c r="R149" s="161"/>
+      <c r="S149" s="162"/>
+      <c r="T149" s="162"/>
+      <c r="U149" s="162"/>
+      <c r="V149" s="162" t="s">
+        <v>100</v>
+      </c>
+      <c r="W149" s="162"/>
+      <c r="X149" s="162"/>
+      <c r="Y149" s="165"/>
+      <c r="Z149" s="162"/>
+      <c r="AA149" s="162"/>
+      <c r="AB149" s="162"/>
+      <c r="AC149" s="162"/>
+      <c r="AD149" s="162"/>
+      <c r="AE149" s="162"/>
+      <c r="AF149" s="166"/>
+      <c r="AG149" s="162"/>
+      <c r="AH149" s="162"/>
+      <c r="AI149" s="162"/>
+      <c r="AJ149" s="162"/>
+      <c r="AK149" s="162"/>
+      <c r="AL149" s="162"/>
+      <c r="AM149" s="162"/>
+      <c r="AN149" s="162"/>
+      <c r="AO149" s="162"/>
+      <c r="AP149" s="162"/>
+      <c r="AQ149" s="162"/>
+      <c r="AR149" s="162"/>
+      <c r="AS149" s="162"/>
+      <c r="AT149" s="162"/>
+      <c r="AU149" s="167"/>
+      <c r="AV149" s="185"/>
+      <c r="AW149" s="20"/>
       <c r="AZ149" s="0"/>
       <c r="BA149" s="0"/>
       <c r="BB149" s="0"/>
     </row>
-    <row r="150" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
-      <c r="B150" s="105" t="n">
+      <c r="B150" s="160" t="n">
         <v>5</v>
       </c>
-      <c r="C150" s="171" t="s">
-        <v>99</v>
-      </c>
-      <c r="D150" s="172"/>
-      <c r="E150" s="172"/>
-      <c r="F150" s="173"/>
-      <c r="G150" s="173"/>
-      <c r="H150" s="173"/>
-      <c r="I150" s="173"/>
-      <c r="J150" s="173"/>
-      <c r="K150" s="173"/>
-      <c r="L150" s="174"/>
-      <c r="M150" s="166"/>
-      <c r="N150" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="O150" s="164"/>
-      <c r="P150" s="164"/>
-      <c r="Q150" s="165"/>
-      <c r="R150" s="171"/>
-      <c r="S150" s="172"/>
-      <c r="T150" s="172"/>
-      <c r="U150" s="172"/>
-      <c r="V150" s="172"/>
-      <c r="W150" s="172"/>
-      <c r="X150" s="172"/>
-      <c r="Y150" s="175"/>
-      <c r="Z150" s="172"/>
-      <c r="AA150" s="172"/>
-      <c r="AB150" s="172"/>
-      <c r="AC150" s="172"/>
-      <c r="AD150" s="172"/>
-      <c r="AE150" s="172"/>
-      <c r="AF150" s="176"/>
-      <c r="AG150" s="177"/>
-      <c r="AH150" s="172"/>
-      <c r="AI150" s="172"/>
-      <c r="AJ150" s="172"/>
-      <c r="AK150" s="172"/>
-      <c r="AL150" s="172"/>
-      <c r="AM150" s="172"/>
-      <c r="AN150" s="172"/>
-      <c r="AO150" s="172"/>
-      <c r="AP150" s="172"/>
-      <c r="AQ150" s="172"/>
-      <c r="AR150" s="172"/>
-      <c r="AS150" s="172"/>
-      <c r="AT150" s="172"/>
-      <c r="AU150" s="178"/>
-      <c r="AV150" s="180"/>
-      <c r="AW150" s="180"/>
-      <c r="AX150" s="180"/>
-      <c r="AY150" s="180"/>
-      <c r="AZ150" s="180"/>
-      <c r="BA150" s="180"/>
-      <c r="BB150" s="180"/>
-      <c r="BC150" s="180"/>
-      <c r="BD150" s="180"/>
-      <c r="BE150" s="180"/>
-      <c r="BF150" s="180"/>
-      <c r="BG150" s="180"/>
-      <c r="BH150" s="181"/>
-      <c r="BI150" s="181"/>
-      <c r="BJ150" s="181"/>
-    </row>
-    <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C150" s="161" t="s">
+        <v>101</v>
+      </c>
+      <c r="D150" s="162"/>
+      <c r="E150" s="162"/>
+      <c r="F150" s="163"/>
+      <c r="G150" s="163"/>
+      <c r="H150" s="163"/>
+      <c r="I150" s="163"/>
+      <c r="J150" s="163"/>
+      <c r="K150" s="163"/>
+      <c r="L150" s="164"/>
+      <c r="M150" s="163"/>
+      <c r="N150" s="163" t="s">
+        <v>98</v>
+      </c>
+      <c r="O150" s="163"/>
+      <c r="P150" s="163"/>
+      <c r="Q150" s="164"/>
+      <c r="R150" s="161"/>
+      <c r="S150" s="162"/>
+      <c r="T150" s="162"/>
+      <c r="U150" s="162"/>
+      <c r="V150" s="162"/>
+      <c r="W150" s="162"/>
+      <c r="X150" s="162"/>
+      <c r="Y150" s="165"/>
+      <c r="Z150" s="162"/>
+      <c r="AA150" s="162"/>
+      <c r="AB150" s="162"/>
+      <c r="AC150" s="162"/>
+      <c r="AD150" s="162"/>
+      <c r="AE150" s="162"/>
+      <c r="AF150" s="166"/>
+      <c r="AG150" s="162"/>
+      <c r="AH150" s="162"/>
+      <c r="AI150" s="162"/>
+      <c r="AJ150" s="162"/>
+      <c r="AK150" s="162"/>
+      <c r="AL150" s="162"/>
+      <c r="AM150" s="162"/>
+      <c r="AN150" s="162"/>
+      <c r="AO150" s="162"/>
+      <c r="AP150" s="162"/>
+      <c r="AQ150" s="162"/>
+      <c r="AR150" s="162"/>
+      <c r="AS150" s="162"/>
+      <c r="AT150" s="162"/>
+      <c r="AU150" s="167"/>
+      <c r="AV150" s="186"/>
+      <c r="AW150" s="20"/>
+      <c r="AX150" s="186"/>
+      <c r="AY150" s="186"/>
+      <c r="AZ150" s="186"/>
+      <c r="BA150" s="186"/>
+      <c r="BB150" s="186"/>
+      <c r="BC150" s="186"/>
+      <c r="BD150" s="186"/>
+      <c r="BE150" s="186"/>
+      <c r="BF150" s="186"/>
+      <c r="BG150" s="186"/>
+      <c r="BH150" s="187"/>
+      <c r="BI150" s="187"/>
+      <c r="BJ150" s="187"/>
+    </row>
+    <row r="151" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
-      <c r="B151" s="9"/>
+      <c r="B151" s="131"/>
+      <c r="C151" s="154"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="19"/>
+      <c r="F151" s="19"/>
+      <c r="G151" s="19"/>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="19"/>
+      <c r="K151" s="19"/>
+      <c r="L151" s="19"/>
+      <c r="M151" s="19"/>
+      <c r="N151" s="19"/>
+      <c r="O151" s="19"/>
+      <c r="P151" s="19"/>
+      <c r="Q151" s="19"/>
+      <c r="R151" s="19"/>
+      <c r="S151" s="19"/>
+      <c r="T151" s="19"/>
+      <c r="U151" s="19"/>
+      <c r="V151" s="19"/>
+      <c r="W151" s="19"/>
+      <c r="X151" s="131"/>
+      <c r="Y151" s="131"/>
+      <c r="Z151" s="131"/>
+      <c r="AA151" s="19"/>
+      <c r="AB151" s="19"/>
+      <c r="AC151" s="19"/>
+      <c r="AD151" s="19"/>
+      <c r="AE151" s="131"/>
+      <c r="AF151" s="131"/>
+      <c r="AG151" s="19"/>
+      <c r="AH151" s="19"/>
+      <c r="AI151" s="19"/>
+      <c r="AJ151" s="19"/>
+      <c r="AK151" s="19"/>
+      <c r="AL151" s="19"/>
+      <c r="AM151" s="19"/>
+      <c r="AN151" s="19"/>
+      <c r="AO151" s="19"/>
+      <c r="AP151" s="19"/>
+      <c r="AQ151" s="19"/>
+      <c r="AR151" s="19"/>
       <c r="AS151" s="19"/>
-      <c r="AT151" s="20"/>
-      <c r="AU151" s="97"/>
-      <c r="AV151" s="1"/>
-      <c r="AW151" s="1"/>
-      <c r="AX151" s="1"/>
+      <c r="AT151" s="19"/>
+      <c r="AU151" s="9"/>
+      <c r="AW151" s="20"/>
       <c r="AZ151" s="0"/>
       <c r="BA151" s="0"/>
       <c r="BB151" s="0"/>
@@ -16067,7 +16120,7 @@
       <c r="A153" s="17"/>
       <c r="C153" s="59"/>
       <c r="D153" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
@@ -16130,7 +16183,7 @@
       <c r="A156" s="17"/>
       <c r="C156" s="59"/>
       <c r="D156" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
@@ -16193,7 +16246,7 @@
       <c r="A159" s="17"/>
       <c r="C159" s="59"/>
       <c r="D159" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
@@ -16329,7 +16382,7 @@
       <c r="AG167" s="24"/>
       <c r="AH167" s="24"/>
       <c r="AI167" s="24"/>
-      <c r="AJ167" s="182"/>
+      <c r="AJ167" s="188"/>
       <c r="AK167" s="24"/>
       <c r="AL167" s="24"/>
       <c r="AM167" s="24"/>
@@ -16376,7 +16429,7 @@
       <c r="AG168" s="24"/>
       <c r="AH168" s="24"/>
       <c r="AI168" s="24"/>
-      <c r="AJ168" s="182"/>
+      <c r="AJ168" s="188"/>
       <c r="AK168" s="24"/>
       <c r="AL168" s="24"/>
       <c r="AM168" s="24"/>
@@ -16423,7 +16476,7 @@
       <c r="AG169" s="24"/>
       <c r="AH169" s="24"/>
       <c r="AI169" s="24"/>
-      <c r="AJ169" s="182"/>
+      <c r="AJ169" s="188"/>
       <c r="AK169" s="24"/>
       <c r="AL169" s="24"/>
       <c r="AM169" s="24"/>
@@ -16470,7 +16523,7 @@
       <c r="AG170" s="24"/>
       <c r="AH170" s="24"/>
       <c r="AI170" s="24"/>
-      <c r="AJ170" s="182"/>
+      <c r="AJ170" s="188"/>
       <c r="AK170" s="24"/>
       <c r="AL170" s="24"/>
       <c r="AM170" s="24"/>
@@ -16517,7 +16570,7 @@
       <c r="AG171" s="24"/>
       <c r="AH171" s="24"/>
       <c r="AI171" s="24"/>
-      <c r="AJ171" s="182"/>
+      <c r="AJ171" s="188"/>
       <c r="AK171" s="24"/>
       <c r="AL171" s="24"/>
       <c r="AM171" s="24"/>
@@ -16564,7 +16617,7 @@
       <c r="AG172" s="24"/>
       <c r="AH172" s="24"/>
       <c r="AI172" s="24"/>
-      <c r="AJ172" s="182"/>
+      <c r="AJ172" s="188"/>
       <c r="AK172" s="24"/>
       <c r="AL172" s="24"/>
       <c r="AM172" s="24"/>
@@ -16579,14 +16632,56 @@
       <c r="AV172" s="19"/>
       <c r="AW172" s="20"/>
     </row>
-    <row r="173" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="25"/>
-      <c r="B173" s="183"/>
+      <c r="B173" s="189"/>
       <c r="C173" s="26"/>
-      <c r="E173" s="184"/>
+      <c r="D173" s="26"/>
+      <c r="E173" s="26"/>
+      <c r="F173" s="26"/>
+      <c r="G173" s="26"/>
+      <c r="H173" s="26"/>
+      <c r="I173" s="26"/>
+      <c r="J173" s="26"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="26"/>
+      <c r="M173" s="26"/>
+      <c r="N173" s="26"/>
+      <c r="O173" s="26"/>
+      <c r="P173" s="26"/>
+      <c r="Q173" s="26"/>
+      <c r="R173" s="26"/>
+      <c r="S173" s="26"/>
+      <c r="T173" s="26"/>
+      <c r="U173" s="26"/>
+      <c r="V173" s="26"/>
+      <c r="W173" s="26"/>
+      <c r="X173" s="26"/>
+      <c r="Y173" s="26"/>
+      <c r="Z173" s="26"/>
+      <c r="AA173" s="26"/>
+      <c r="AB173" s="26"/>
+      <c r="AC173" s="26"/>
+      <c r="AD173" s="26"/>
+      <c r="AE173" s="26"/>
+      <c r="AF173" s="26"/>
+      <c r="AG173" s="26"/>
+      <c r="AH173" s="26"/>
+      <c r="AI173" s="26"/>
+      <c r="AJ173" s="26"/>
+      <c r="AK173" s="26"/>
+      <c r="AL173" s="26"/>
+      <c r="AM173" s="26"/>
+      <c r="AN173" s="26"/>
+      <c r="AO173" s="26"/>
+      <c r="AP173" s="26"/>
+      <c r="AQ173" s="26"/>
+      <c r="AR173" s="26"/>
+      <c r="AS173" s="26"/>
+      <c r="AT173" s="26"/>
+      <c r="AU173" s="26"/>
       <c r="AV173" s="26"/>
       <c r="AW173" s="27"/>
-      <c r="AX173" s="97"/>
     </row>
     <row r="174" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="9"/>
@@ -16608,7 +16703,7 @@
       <c r="AX175" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="108">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -16717,7 +16812,6 @@
     <mergeCell ref="M145:Q145"/>
     <mergeCell ref="R145:AF145"/>
     <mergeCell ref="AG145:AU145"/>
-    <mergeCell ref="AV150:BG150"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>

--- a/design/chitiet/Home.xlsx
+++ b/design/chitiet/Home.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="109">
   <si>
     <t xml:space="preserve">Posts and Telecommunications Institute of Technology
 </t>
@@ -285,19 +285,10 @@
     <t xml:space="preserve">Tài liệu phát triển </t>
   </si>
   <si>
-    <t xml:space="preserve">show product </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Mục đích</t>
   </si>
   <si>
-    <t xml:space="preserve">- Dùng để thêm sản phảm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Người sử dụng nhập thôn tin sản phẩm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Sau khi nhấn thêm sản phảm, trường hợp phát sinh lỗi thì hiển thị thông báo lỗi, ngược lại di chuyển đến màn hình chính</t>
+    <t xml:space="preserve">- Dùng để hiện thị sản phẩm trong hệ thống </t>
   </si>
   <si>
     <t xml:space="preserve">2. Giới hạn hoạt động</t>
@@ -342,7 +333,7 @@
     <t xml:space="preserve">Product </t>
   </si>
   <si>
-    <t xml:space="preserve">Table danh sách sản phảm </t>
+    <t xml:space="preserve">Table sản phảm </t>
   </si>
   <si>
     <t xml:space="preserve">O</t>
@@ -560,7 +551,7 @@
     <numFmt numFmtId="168" formatCode="yyyy\年m\月d\日;@"/>
     <numFmt numFmtId="169" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -632,6 +623,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -900,13 +896,6 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
       <right/>
       <top style="hair"/>
       <bottom style="hair"/>
@@ -922,6 +911,13 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
       <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -1115,7 +1111,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="191">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1352,11 +1348,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1368,7 +1368,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1400,7 +1400,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -1420,14 +1420,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1440,10 +1440,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1460,6 +1456,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1512,15 +1512,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1584,23 +1584,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="26" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="28" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="24" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="28" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1608,7 +1608,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1688,14 +1688,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1856,19 +1856,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1963,9 +1963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
+      <xdr:colOff>34200</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1979,7 +1979,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3453840" y="22755240"/>
-          <a:ext cx="674280" cy="968400"/>
+          <a:ext cx="673560" cy="967680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2000,9 +2000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>120600</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>141</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2012,7 +2012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2365920" y="22507560"/>
-          <a:ext cx="2778120" cy="2606760"/>
+          <a:ext cx="2777400" cy="2606040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2044,9 +2044,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2056,7 +2056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3165480" y="22231440"/>
-          <a:ext cx="1186920" cy="425520"/>
+          <a:ext cx="1186200" cy="424800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2095,7 +2095,7 @@
               <a:latin typeface="Arial"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>Màn hình Login</a:t>
+            <a:t>Màn hình Home</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1050" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -2114,9 +2114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>62640</xdr:colOff>
       <xdr:row>132</xdr:row>
-      <xdr:rowOff>92160</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2126,7 +2126,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="372240" y="23184000"/>
-          <a:ext cx="993600" cy="396720"/>
+          <a:ext cx="992880" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2288,9 +2288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>177480</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>135</xdr:row>
-      <xdr:rowOff>15840</xdr:rowOff>
+      <xdr:rowOff>15120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2300,7 +2300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6335280" y="23621760"/>
-          <a:ext cx="912240" cy="397080"/>
+          <a:ext cx="911520" cy="396360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2356,9 +2356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2372,7 +2372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6478200" y="22755240"/>
-          <a:ext cx="674280" cy="968400"/>
+          <a:ext cx="673560" cy="967680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2387,15 +2387,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>83520</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>91080</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2404,8 +2404,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="3804480" y="23690520"/>
-          <a:ext cx="8640" cy="622800"/>
+          <a:off x="3804120" y="23690160"/>
+          <a:ext cx="7920" cy="622080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2450,9 +2450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
+      <xdr:colOff>39600</xdr:colOff>
       <xdr:row>140</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2462,7 +2462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3365280" y="24293160"/>
-          <a:ext cx="954360" cy="644400"/>
+          <a:ext cx="953640" cy="643680"/>
         </a:xfrm>
         <a:prstGeom prst="can">
           <a:avLst>
@@ -2526,9 +2526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2538,7 +2538,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1788840" y="1457280"/>
-          <a:ext cx="4815360" cy="416160"/>
+          <a:ext cx="4814640" cy="415440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2574,9 +2574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>169560</xdr:colOff>
+      <xdr:colOff>168840</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2590,7 +2590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1791000" y="1014120"/>
-          <a:ext cx="5166000" cy="5646600"/>
+          <a:ext cx="5165280" cy="5645880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2612,8 +2612,8 @@
   </sheetPr>
   <dimension ref="A1:AX160"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N151" activeCellId="1" sqref="B131:AU134 N151"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AA123" activeCellId="0" sqref="AA123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6277,15 +6277,15 @@
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
       <c r="Z83" s="13"/>
-      <c r="AA83" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="14"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="14"/>
-      <c r="AG83" s="14"/>
+      <c r="AA83" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB83" s="59"/>
+      <c r="AC83" s="59"/>
+      <c r="AD83" s="59"/>
+      <c r="AE83" s="59"/>
+      <c r="AF83" s="59"/>
+      <c r="AG83" s="59"/>
       <c r="AH83" s="15" t="s">
         <v>13</v>
       </c>
@@ -6360,8 +6360,8 @@
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="17"/>
-      <c r="B85" s="59" t="s">
-        <v>37</v>
+      <c r="B85" s="60" t="s">
+        <v>36</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -6413,9 +6413,9 @@
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
-      <c r="B86" s="59"/>
-      <c r="C86" s="60" t="s">
-        <v>38</v>
+      <c r="B86" s="60"/>
+      <c r="C86" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -6466,10 +6466,8 @@
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
-      <c r="B87" s="59"/>
-      <c r="C87" s="60" t="s">
-        <v>39</v>
-      </c>
+      <c r="B87" s="60"/>
+      <c r="C87" s="61"/>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
       <c r="F87" s="19"/>
@@ -6519,10 +6517,8 @@
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
-      <c r="B88" s="59"/>
-      <c r="C88" s="60" t="s">
-        <v>40</v>
-      </c>
+      <c r="B88" s="60"/>
+      <c r="C88" s="61"/>
       <c r="D88" s="19"/>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -6571,7 +6567,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="17"/>
-      <c r="B89" s="59"/>
+      <c r="B89" s="60"/>
       <c r="C89" s="19"/>
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
@@ -6623,7 +6619,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="B90" s="28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C90" s="19"/>
       <c r="D90" s="19"/>
@@ -6642,109 +6638,109 @@
       <c r="Q90" s="19"/>
       <c r="R90" s="19"/>
       <c r="S90" s="19"/>
-      <c r="T90" s="61"/>
-      <c r="U90" s="62"/>
-      <c r="V90" s="62"/>
-      <c r="W90" s="62"/>
-      <c r="X90" s="62"/>
-      <c r="Y90" s="62"/>
-      <c r="Z90" s="62"/>
-      <c r="AA90" s="62"/>
-      <c r="AB90" s="62"/>
-      <c r="AC90" s="62"/>
-      <c r="AD90" s="62"/>
-      <c r="AE90" s="62"/>
-      <c r="AF90" s="62"/>
-      <c r="AG90" s="62"/>
-      <c r="AH90" s="62"/>
-      <c r="AI90" s="62"/>
-      <c r="AJ90" s="62"/>
-      <c r="AK90" s="62"/>
-      <c r="AL90" s="62"/>
-      <c r="AM90" s="62"/>
-      <c r="AN90" s="62"/>
-      <c r="AO90" s="62"/>
-      <c r="AP90" s="62"/>
-      <c r="AQ90" s="62"/>
-      <c r="AR90" s="62"/>
-      <c r="AS90" s="62"/>
-      <c r="AT90" s="62"/>
-      <c r="AU90" s="62"/>
-      <c r="AV90" s="62"/>
+      <c r="T90" s="62"/>
+      <c r="U90" s="63"/>
+      <c r="V90" s="63"/>
+      <c r="W90" s="63"/>
+      <c r="X90" s="63"/>
+      <c r="Y90" s="63"/>
+      <c r="Z90" s="63"/>
+      <c r="AA90" s="63"/>
+      <c r="AB90" s="63"/>
+      <c r="AC90" s="63"/>
+      <c r="AD90" s="63"/>
+      <c r="AE90" s="63"/>
+      <c r="AF90" s="63"/>
+      <c r="AG90" s="63"/>
+      <c r="AH90" s="63"/>
+      <c r="AI90" s="63"/>
+      <c r="AJ90" s="63"/>
+      <c r="AK90" s="63"/>
+      <c r="AL90" s="63"/>
+      <c r="AM90" s="63"/>
+      <c r="AN90" s="63"/>
+      <c r="AO90" s="63"/>
+      <c r="AP90" s="63"/>
+      <c r="AQ90" s="63"/>
+      <c r="AR90" s="63"/>
+      <c r="AS90" s="63"/>
+      <c r="AT90" s="63"/>
+      <c r="AU90" s="63"/>
+      <c r="AV90" s="63"/>
       <c r="AW90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
-      <c r="B91" s="63"/>
+      <c r="B91" s="64"/>
       <c r="C91" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="65"/>
-      <c r="M91" s="65"/>
-      <c r="N91" s="65"/>
-      <c r="O91" s="65"/>
-      <c r="P91" s="65"/>
-      <c r="Q91" s="65"/>
-      <c r="R91" s="64"/>
-      <c r="S91" s="64"/>
-      <c r="T91" s="64"/>
-      <c r="U91" s="64"/>
-      <c r="V91" s="64"/>
-      <c r="W91" s="65"/>
-      <c r="X91" s="65"/>
-      <c r="Y91" s="64"/>
-      <c r="Z91" s="64"/>
-      <c r="AA91" s="64"/>
-      <c r="AB91" s="64"/>
-      <c r="AC91" s="64"/>
-      <c r="AD91" s="64"/>
-      <c r="AE91" s="64"/>
-      <c r="AF91" s="64"/>
-      <c r="AG91" s="64"/>
-      <c r="AH91" s="64"/>
-      <c r="AI91" s="64"/>
-      <c r="AJ91" s="64"/>
-      <c r="AK91" s="64"/>
-      <c r="AL91" s="64"/>
-      <c r="AM91" s="64"/>
-      <c r="AN91" s="64"/>
-      <c r="AO91" s="64"/>
-      <c r="AP91" s="64"/>
-      <c r="AQ91" s="64"/>
-      <c r="AR91" s="64"/>
-      <c r="AS91" s="64"/>
-      <c r="AT91" s="64"/>
-      <c r="AU91" s="64"/>
+        <v>39</v>
+      </c>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="66"/>
+      <c r="O91" s="66"/>
+      <c r="P91" s="66"/>
+      <c r="Q91" s="66"/>
+      <c r="R91" s="65"/>
+      <c r="S91" s="65"/>
+      <c r="T91" s="65"/>
+      <c r="U91" s="65"/>
+      <c r="V91" s="65"/>
+      <c r="W91" s="66"/>
+      <c r="X91" s="66"/>
+      <c r="Y91" s="65"/>
+      <c r="Z91" s="65"/>
+      <c r="AA91" s="65"/>
+      <c r="AB91" s="65"/>
+      <c r="AC91" s="65"/>
+      <c r="AD91" s="65"/>
+      <c r="AE91" s="65"/>
+      <c r="AF91" s="65"/>
+      <c r="AG91" s="65"/>
+      <c r="AH91" s="65"/>
+      <c r="AI91" s="65"/>
+      <c r="AJ91" s="65"/>
+      <c r="AK91" s="65"/>
+      <c r="AL91" s="65"/>
+      <c r="AM91" s="65"/>
+      <c r="AN91" s="65"/>
+      <c r="AO91" s="65"/>
+      <c r="AP91" s="65"/>
+      <c r="AQ91" s="65"/>
+      <c r="AR91" s="65"/>
+      <c r="AS91" s="65"/>
+      <c r="AT91" s="65"/>
+      <c r="AU91" s="65"/>
       <c r="AV91" s="9"/>
       <c r="AW91" s="20"/>
-      <c r="AX91" s="66"/>
+      <c r="AX91" s="67"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="17"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="67"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="68"/>
       <c r="D92" s="9"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="64"/>
-      <c r="I92" s="61"/>
-      <c r="J92" s="61"/>
-      <c r="K92" s="61"/>
-      <c r="L92" s="61"/>
-      <c r="M92" s="61"/>
-      <c r="N92" s="61"/>
-      <c r="O92" s="61"/>
-      <c r="P92" s="61"/>
-      <c r="Q92" s="61"/>
-      <c r="R92" s="61"/>
-      <c r="S92" s="61"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="I92" s="62"/>
+      <c r="J92" s="62"/>
+      <c r="K92" s="62"/>
+      <c r="L92" s="62"/>
+      <c r="M92" s="62"/>
+      <c r="N92" s="62"/>
+      <c r="O92" s="62"/>
+      <c r="P92" s="62"/>
+      <c r="Q92" s="62"/>
+      <c r="R92" s="62"/>
+      <c r="S92" s="62"/>
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
@@ -6779,200 +6775,200 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="B93" s="28" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C93" s="19"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="61"/>
-      <c r="F93" s="62"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="62"/>
-      <c r="L93" s="62"/>
-      <c r="M93" s="62"/>
-      <c r="N93" s="62"/>
-      <c r="O93" s="62"/>
-      <c r="P93" s="62"/>
-      <c r="Q93" s="62"/>
-      <c r="R93" s="62"/>
-      <c r="S93" s="62"/>
-      <c r="T93" s="64"/>
-      <c r="U93" s="64"/>
-      <c r="V93" s="64"/>
-      <c r="W93" s="65"/>
-      <c r="X93" s="65"/>
-      <c r="Y93" s="65"/>
-      <c r="Z93" s="65"/>
-      <c r="AA93" s="65"/>
-      <c r="AB93" s="65"/>
-      <c r="AC93" s="65"/>
-      <c r="AD93" s="65"/>
-      <c r="AE93" s="65"/>
-      <c r="AF93" s="65"/>
-      <c r="AG93" s="65"/>
-      <c r="AH93" s="65"/>
-      <c r="AI93" s="65"/>
-      <c r="AJ93" s="65"/>
-      <c r="AK93" s="65"/>
-      <c r="AL93" s="65"/>
-      <c r="AM93" s="65"/>
-      <c r="AN93" s="65"/>
-      <c r="AO93" s="65"/>
-      <c r="AP93" s="65"/>
-      <c r="AQ93" s="65"/>
-      <c r="AR93" s="65"/>
-      <c r="AS93" s="65"/>
-      <c r="AT93" s="65"/>
-      <c r="AU93" s="64"/>
+      <c r="D93" s="62"/>
+      <c r="E93" s="62"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="62"/>
+      <c r="H93" s="62"/>
+      <c r="I93" s="69"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="63"/>
+      <c r="L93" s="63"/>
+      <c r="M93" s="63"/>
+      <c r="N93" s="63"/>
+      <c r="O93" s="63"/>
+      <c r="P93" s="63"/>
+      <c r="Q93" s="63"/>
+      <c r="R93" s="63"/>
+      <c r="S93" s="63"/>
+      <c r="T93" s="65"/>
+      <c r="U93" s="65"/>
+      <c r="V93" s="65"/>
+      <c r="W93" s="66"/>
+      <c r="X93" s="66"/>
+      <c r="Y93" s="66"/>
+      <c r="Z93" s="66"/>
+      <c r="AA93" s="66"/>
+      <c r="AB93" s="66"/>
+      <c r="AC93" s="66"/>
+      <c r="AD93" s="66"/>
+      <c r="AE93" s="66"/>
+      <c r="AF93" s="66"/>
+      <c r="AG93" s="66"/>
+      <c r="AH93" s="66"/>
+      <c r="AI93" s="66"/>
+      <c r="AJ93" s="66"/>
+      <c r="AK93" s="66"/>
+      <c r="AL93" s="66"/>
+      <c r="AM93" s="66"/>
+      <c r="AN93" s="66"/>
+      <c r="AO93" s="66"/>
+      <c r="AP93" s="66"/>
+      <c r="AQ93" s="66"/>
+      <c r="AR93" s="66"/>
+      <c r="AS93" s="66"/>
+      <c r="AT93" s="66"/>
+      <c r="AU93" s="65"/>
       <c r="AV93" s="9"/>
       <c r="AW93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="17"/>
-      <c r="B94" s="63"/>
+      <c r="B94" s="64"/>
       <c r="C94" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D94" s="62"/>
-      <c r="E94" s="61"/>
-      <c r="F94" s="61"/>
-      <c r="G94" s="61"/>
-      <c r="H94" s="61"/>
+        <v>39</v>
+      </c>
+      <c r="D94" s="63"/>
+      <c r="E94" s="62"/>
+      <c r="F94" s="62"/>
+      <c r="G94" s="62"/>
+      <c r="H94" s="62"/>
       <c r="I94" s="19"/>
       <c r="J94" s="19"/>
-      <c r="K94" s="67"/>
-      <c r="L94" s="67"/>
-      <c r="M94" s="67"/>
-      <c r="N94" s="67"/>
-      <c r="O94" s="67"/>
-      <c r="P94" s="67"/>
-      <c r="Q94" s="67"/>
-      <c r="R94" s="67"/>
-      <c r="S94" s="67"/>
-      <c r="T94" s="64"/>
-      <c r="U94" s="64"/>
-      <c r="V94" s="64"/>
-      <c r="W94" s="65"/>
-      <c r="X94" s="65"/>
-      <c r="Y94" s="65"/>
-      <c r="Z94" s="65"/>
-      <c r="AA94" s="65"/>
-      <c r="AB94" s="65"/>
-      <c r="AC94" s="65"/>
-      <c r="AD94" s="65"/>
-      <c r="AE94" s="65"/>
-      <c r="AF94" s="65"/>
-      <c r="AG94" s="65"/>
-      <c r="AH94" s="65"/>
-      <c r="AI94" s="65"/>
-      <c r="AJ94" s="65"/>
-      <c r="AK94" s="65"/>
-      <c r="AL94" s="65"/>
-      <c r="AM94" s="65"/>
-      <c r="AN94" s="65"/>
-      <c r="AO94" s="65"/>
-      <c r="AP94" s="65"/>
-      <c r="AQ94" s="65"/>
-      <c r="AR94" s="65"/>
-      <c r="AS94" s="65"/>
-      <c r="AT94" s="65"/>
-      <c r="AU94" s="64"/>
+      <c r="K94" s="68"/>
+      <c r="L94" s="68"/>
+      <c r="M94" s="68"/>
+      <c r="N94" s="68"/>
+      <c r="O94" s="68"/>
+      <c r="P94" s="68"/>
+      <c r="Q94" s="68"/>
+      <c r="R94" s="68"/>
+      <c r="S94" s="68"/>
+      <c r="T94" s="65"/>
+      <c r="U94" s="65"/>
+      <c r="V94" s="65"/>
+      <c r="W94" s="66"/>
+      <c r="X94" s="66"/>
+      <c r="Y94" s="66"/>
+      <c r="Z94" s="66"/>
+      <c r="AA94" s="66"/>
+      <c r="AB94" s="66"/>
+      <c r="AC94" s="66"/>
+      <c r="AD94" s="66"/>
+      <c r="AE94" s="66"/>
+      <c r="AF94" s="66"/>
+      <c r="AG94" s="66"/>
+      <c r="AH94" s="66"/>
+      <c r="AI94" s="66"/>
+      <c r="AJ94" s="66"/>
+      <c r="AK94" s="66"/>
+      <c r="AL94" s="66"/>
+      <c r="AM94" s="66"/>
+      <c r="AN94" s="66"/>
+      <c r="AO94" s="66"/>
+      <c r="AP94" s="66"/>
+      <c r="AQ94" s="66"/>
+      <c r="AR94" s="66"/>
+      <c r="AS94" s="66"/>
+      <c r="AT94" s="66"/>
+      <c r="AU94" s="65"/>
       <c r="AV94" s="19"/>
       <c r="AW94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="17"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="67"/>
-      <c r="O95" s="67"/>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="67"/>
-      <c r="R95" s="67"/>
-      <c r="S95" s="67"/>
-      <c r="T95" s="64"/>
-      <c r="U95" s="64"/>
-      <c r="V95" s="64"/>
-      <c r="W95" s="65"/>
-      <c r="X95" s="65"/>
-      <c r="Y95" s="64"/>
-      <c r="Z95" s="64"/>
-      <c r="AA95" s="64"/>
-      <c r="AB95" s="64"/>
-      <c r="AC95" s="64"/>
-      <c r="AD95" s="64"/>
-      <c r="AE95" s="64"/>
-      <c r="AF95" s="64"/>
-      <c r="AG95" s="64"/>
-      <c r="AH95" s="64"/>
-      <c r="AI95" s="64"/>
-      <c r="AJ95" s="64"/>
-      <c r="AK95" s="64"/>
-      <c r="AL95" s="64"/>
-      <c r="AM95" s="64"/>
-      <c r="AN95" s="64"/>
-      <c r="AO95" s="64"/>
-      <c r="AP95" s="64"/>
-      <c r="AQ95" s="64"/>
-      <c r="AR95" s="64"/>
-      <c r="AS95" s="64"/>
-      <c r="AT95" s="64"/>
-      <c r="AU95" s="64"/>
+      <c r="L95" s="68"/>
+      <c r="M95" s="68"/>
+      <c r="N95" s="68"/>
+      <c r="O95" s="68"/>
+      <c r="P95" s="68"/>
+      <c r="Q95" s="68"/>
+      <c r="R95" s="68"/>
+      <c r="S95" s="68"/>
+      <c r="T95" s="65"/>
+      <c r="U95" s="65"/>
+      <c r="V95" s="65"/>
+      <c r="W95" s="66"/>
+      <c r="X95" s="66"/>
+      <c r="Y95" s="65"/>
+      <c r="Z95" s="65"/>
+      <c r="AA95" s="65"/>
+      <c r="AB95" s="65"/>
+      <c r="AC95" s="65"/>
+      <c r="AD95" s="65"/>
+      <c r="AE95" s="65"/>
+      <c r="AF95" s="65"/>
+      <c r="AG95" s="65"/>
+      <c r="AH95" s="65"/>
+      <c r="AI95" s="65"/>
+      <c r="AJ95" s="65"/>
+      <c r="AK95" s="65"/>
+      <c r="AL95" s="65"/>
+      <c r="AM95" s="65"/>
+      <c r="AN95" s="65"/>
+      <c r="AO95" s="65"/>
+      <c r="AP95" s="65"/>
+      <c r="AQ95" s="65"/>
+      <c r="AR95" s="65"/>
+      <c r="AS95" s="65"/>
+      <c r="AT95" s="65"/>
+      <c r="AU95" s="65"/>
       <c r="AV95" s="19"/>
       <c r="AW95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="B96" s="28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C96" s="19"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="61"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="62"/>
+      <c r="F96" s="69"/>
+      <c r="G96" s="69"/>
+      <c r="H96" s="69"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="67"/>
-      <c r="L96" s="67"/>
-      <c r="M96" s="67"/>
-      <c r="N96" s="67"/>
-      <c r="O96" s="67"/>
-      <c r="P96" s="67"/>
-      <c r="Q96" s="67"/>
-      <c r="R96" s="67"/>
-      <c r="S96" s="67"/>
-      <c r="T96" s="64"/>
-      <c r="U96" s="64"/>
-      <c r="V96" s="64"/>
-      <c r="W96" s="65"/>
-      <c r="X96" s="65"/>
-      <c r="Y96" s="64"/>
-      <c r="Z96" s="64"/>
-      <c r="AA96" s="64"/>
-      <c r="AB96" s="64"/>
-      <c r="AC96" s="64"/>
-      <c r="AD96" s="64"/>
-      <c r="AE96" s="64"/>
-      <c r="AF96" s="64"/>
-      <c r="AG96" s="64"/>
-      <c r="AH96" s="64"/>
-      <c r="AI96" s="64"/>
-      <c r="AJ96" s="64"/>
-      <c r="AK96" s="64"/>
-      <c r="AL96" s="64"/>
-      <c r="AM96" s="64"/>
-      <c r="AN96" s="64"/>
-      <c r="AO96" s="64"/>
-      <c r="AP96" s="64"/>
-      <c r="AQ96" s="64"/>
-      <c r="AR96" s="64"/>
-      <c r="AS96" s="64"/>
-      <c r="AT96" s="64"/>
-      <c r="AU96" s="64"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="68"/>
+      <c r="N96" s="68"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="68"/>
+      <c r="R96" s="68"/>
+      <c r="S96" s="68"/>
+      <c r="T96" s="65"/>
+      <c r="U96" s="65"/>
+      <c r="V96" s="65"/>
+      <c r="W96" s="66"/>
+      <c r="X96" s="66"/>
+      <c r="Y96" s="65"/>
+      <c r="Z96" s="65"/>
+      <c r="AA96" s="65"/>
+      <c r="AB96" s="65"/>
+      <c r="AC96" s="65"/>
+      <c r="AD96" s="65"/>
+      <c r="AE96" s="65"/>
+      <c r="AF96" s="65"/>
+      <c r="AG96" s="65"/>
+      <c r="AH96" s="65"/>
+      <c r="AI96" s="65"/>
+      <c r="AJ96" s="65"/>
+      <c r="AK96" s="65"/>
+      <c r="AL96" s="65"/>
+      <c r="AM96" s="65"/>
+      <c r="AN96" s="65"/>
+      <c r="AO96" s="65"/>
+      <c r="AP96" s="65"/>
+      <c r="AQ96" s="65"/>
+      <c r="AR96" s="65"/>
+      <c r="AS96" s="65"/>
+      <c r="AT96" s="65"/>
+      <c r="AU96" s="65"/>
       <c r="AV96" s="19"/>
       <c r="AW96" s="20"/>
     </row>
@@ -6980,16 +6976,16 @@
       <c r="A97" s="17"/>
       <c r="B97" s="28"/>
       <c r="C97" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="68"/>
-      <c r="G97" s="68"/>
-      <c r="H97" s="68"/>
-      <c r="I97" s="61"/>
-      <c r="J97" s="61"/>
-      <c r="K97" s="67"/>
+        <v>39</v>
+      </c>
+      <c r="D97" s="65"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="69"/>
+      <c r="G97" s="69"/>
+      <c r="H97" s="69"/>
+      <c r="I97" s="62"/>
+      <c r="J97" s="62"/>
+      <c r="K97" s="68"/>
       <c r="L97" s="19"/>
       <c r="M97" s="19"/>
       <c r="N97" s="19"/>
@@ -6998,48 +6994,48 @@
       <c r="Q97" s="19"/>
       <c r="R97" s="19"/>
       <c r="S97" s="19"/>
-      <c r="T97" s="62"/>
-      <c r="U97" s="62"/>
-      <c r="V97" s="62"/>
-      <c r="W97" s="62"/>
-      <c r="X97" s="62"/>
-      <c r="Y97" s="62"/>
-      <c r="Z97" s="62"/>
-      <c r="AA97" s="62"/>
-      <c r="AB97" s="62"/>
-      <c r="AC97" s="62"/>
-      <c r="AD97" s="62"/>
-      <c r="AE97" s="62"/>
-      <c r="AF97" s="62"/>
-      <c r="AG97" s="62"/>
-      <c r="AH97" s="62"/>
-      <c r="AI97" s="62"/>
-      <c r="AJ97" s="62"/>
-      <c r="AK97" s="62"/>
-      <c r="AL97" s="62"/>
-      <c r="AM97" s="62"/>
-      <c r="AN97" s="62"/>
-      <c r="AO97" s="62"/>
-      <c r="AP97" s="62"/>
-      <c r="AQ97" s="62"/>
-      <c r="AR97" s="62"/>
-      <c r="AS97" s="62"/>
-      <c r="AT97" s="62"/>
-      <c r="AU97" s="62"/>
-      <c r="AV97" s="62"/>
+      <c r="T97" s="63"/>
+      <c r="U97" s="63"/>
+      <c r="V97" s="63"/>
+      <c r="W97" s="63"/>
+      <c r="X97" s="63"/>
+      <c r="Y97" s="63"/>
+      <c r="Z97" s="63"/>
+      <c r="AA97" s="63"/>
+      <c r="AB97" s="63"/>
+      <c r="AC97" s="63"/>
+      <c r="AD97" s="63"/>
+      <c r="AE97" s="63"/>
+      <c r="AF97" s="63"/>
+      <c r="AG97" s="63"/>
+      <c r="AH97" s="63"/>
+      <c r="AI97" s="63"/>
+      <c r="AJ97" s="63"/>
+      <c r="AK97" s="63"/>
+      <c r="AL97" s="63"/>
+      <c r="AM97" s="63"/>
+      <c r="AN97" s="63"/>
+      <c r="AO97" s="63"/>
+      <c r="AP97" s="63"/>
+      <c r="AQ97" s="63"/>
+      <c r="AR97" s="63"/>
+      <c r="AS97" s="63"/>
+      <c r="AT97" s="63"/>
+      <c r="AU97" s="63"/>
+      <c r="AV97" s="63"/>
       <c r="AW97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="17"/>
       <c r="B98" s="28"/>
       <c r="C98" s="19"/>
-      <c r="D98" s="64"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="65"/>
-      <c r="J98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
       <c r="K98" s="19"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
@@ -7083,20 +7079,20 @@
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="17"/>
       <c r="B99" s="28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C99" s="19"/>
-      <c r="D99" s="64"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="68"/>
-      <c r="G99" s="68"/>
-      <c r="H99" s="68"/>
-      <c r="I99" s="65"/>
-      <c r="J99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="69"/>
+      <c r="F99" s="69"/>
+      <c r="G99" s="69"/>
+      <c r="H99" s="69"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66"/>
       <c r="K99" s="9"/>
-      <c r="L99" s="61"/>
-      <c r="M99" s="61"/>
-      <c r="N99" s="61"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="62"/>
+      <c r="N99" s="62"/>
       <c r="O99" s="9"/>
       <c r="P99" s="9"/>
       <c r="Q99" s="9"/>
@@ -7111,1020 +7107,1020 @@
       <c r="Z99" s="9"/>
       <c r="AA99" s="9"/>
       <c r="AB99" s="9"/>
-      <c r="AC99" s="61"/>
-      <c r="AD99" s="61"/>
-      <c r="AE99" s="61"/>
+      <c r="AC99" s="62"/>
+      <c r="AD99" s="62"/>
+      <c r="AE99" s="62"/>
       <c r="AF99" s="9"/>
       <c r="AG99" s="9"/>
       <c r="AH99" s="9"/>
-      <c r="AI99" s="62"/>
-      <c r="AJ99" s="62"/>
-      <c r="AK99" s="62"/>
-      <c r="AL99" s="62"/>
-      <c r="AM99" s="62"/>
-      <c r="AN99" s="62"/>
-      <c r="AO99" s="62"/>
-      <c r="AP99" s="62"/>
-      <c r="AQ99" s="62"/>
-      <c r="AR99" s="62"/>
-      <c r="AS99" s="62"/>
-      <c r="AT99" s="62"/>
-      <c r="AU99" s="62"/>
-      <c r="AV99" s="62"/>
+      <c r="AI99" s="63"/>
+      <c r="AJ99" s="63"/>
+      <c r="AK99" s="63"/>
+      <c r="AL99" s="63"/>
+      <c r="AM99" s="63"/>
+      <c r="AN99" s="63"/>
+      <c r="AO99" s="63"/>
+      <c r="AP99" s="63"/>
+      <c r="AQ99" s="63"/>
+      <c r="AR99" s="63"/>
+      <c r="AS99" s="63"/>
+      <c r="AT99" s="63"/>
+      <c r="AU99" s="63"/>
+      <c r="AV99" s="63"/>
       <c r="AW99" s="20"/>
-      <c r="AX99" s="69"/>
+      <c r="AX99" s="70"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="17"/>
       <c r="B100" s="28"/>
       <c r="C100" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D100" s="64"/>
+        <v>39</v>
+      </c>
+      <c r="D100" s="65"/>
       <c r="E100" s="19"/>
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="65"/>
-      <c r="J100" s="65"/>
-      <c r="K100" s="61"/>
-      <c r="L100" s="65"/>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65"/>
-      <c r="P100" s="65"/>
-      <c r="Q100" s="65"/>
-      <c r="R100" s="64"/>
-      <c r="S100" s="64"/>
-      <c r="T100" s="64"/>
-      <c r="U100" s="64"/>
-      <c r="V100" s="64"/>
-      <c r="W100" s="65"/>
-      <c r="X100" s="65"/>
-      <c r="Y100" s="64"/>
-      <c r="Z100" s="64"/>
-      <c r="AA100" s="64"/>
-      <c r="AB100" s="64"/>
-      <c r="AC100" s="64"/>
-      <c r="AD100" s="64"/>
-      <c r="AE100" s="64"/>
-      <c r="AF100" s="64"/>
-      <c r="AG100" s="64"/>
-      <c r="AH100" s="64"/>
-      <c r="AI100" s="64"/>
-      <c r="AJ100" s="64"/>
-      <c r="AK100" s="64"/>
-      <c r="AL100" s="64"/>
-      <c r="AM100" s="64"/>
-      <c r="AN100" s="64"/>
-      <c r="AO100" s="64"/>
-      <c r="AP100" s="64"/>
-      <c r="AQ100" s="64"/>
-      <c r="AR100" s="64"/>
-      <c r="AS100" s="64"/>
-      <c r="AT100" s="64"/>
-      <c r="AU100" s="64"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="62"/>
+      <c r="L100" s="66"/>
+      <c r="M100" s="66"/>
+      <c r="N100" s="66"/>
+      <c r="O100" s="66"/>
+      <c r="P100" s="66"/>
+      <c r="Q100" s="66"/>
+      <c r="R100" s="65"/>
+      <c r="S100" s="65"/>
+      <c r="T100" s="65"/>
+      <c r="U100" s="65"/>
+      <c r="V100" s="65"/>
+      <c r="W100" s="66"/>
+      <c r="X100" s="66"/>
+      <c r="Y100" s="65"/>
+      <c r="Z100" s="65"/>
+      <c r="AA100" s="65"/>
+      <c r="AB100" s="65"/>
+      <c r="AC100" s="65"/>
+      <c r="AD100" s="65"/>
+      <c r="AE100" s="65"/>
+      <c r="AF100" s="65"/>
+      <c r="AG100" s="65"/>
+      <c r="AH100" s="65"/>
+      <c r="AI100" s="65"/>
+      <c r="AJ100" s="65"/>
+      <c r="AK100" s="65"/>
+      <c r="AL100" s="65"/>
+      <c r="AM100" s="65"/>
+      <c r="AN100" s="65"/>
+      <c r="AO100" s="65"/>
+      <c r="AP100" s="65"/>
+      <c r="AQ100" s="65"/>
+      <c r="AR100" s="65"/>
+      <c r="AS100" s="65"/>
+      <c r="AT100" s="65"/>
+      <c r="AU100" s="65"/>
       <c r="AV100" s="9"/>
       <c r="AW100" s="20"/>
-      <c r="AX100" s="66"/>
+      <c r="AX100" s="67"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="17"/>
       <c r="B101" s="28"/>
       <c r="C101" s="19"/>
-      <c r="D101" s="64"/>
-      <c r="E101" s="64"/>
-      <c r="F101" s="64"/>
-      <c r="G101" s="65"/>
-      <c r="H101" s="65"/>
-      <c r="I101" s="65"/>
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
-      <c r="L101" s="65"/>
-      <c r="M101" s="65"/>
-      <c r="N101" s="65"/>
-      <c r="O101" s="65"/>
-      <c r="P101" s="65"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="64"/>
-      <c r="S101" s="64"/>
-      <c r="T101" s="64"/>
-      <c r="U101" s="64"/>
-      <c r="V101" s="64"/>
-      <c r="W101" s="65"/>
-      <c r="X101" s="65"/>
-      <c r="Y101" s="64"/>
-      <c r="Z101" s="64"/>
-      <c r="AA101" s="64"/>
-      <c r="AB101" s="64"/>
-      <c r="AC101" s="64"/>
-      <c r="AD101" s="64"/>
-      <c r="AE101" s="64"/>
-      <c r="AF101" s="64"/>
-      <c r="AG101" s="64"/>
-      <c r="AH101" s="64"/>
-      <c r="AI101" s="64"/>
-      <c r="AJ101" s="64"/>
-      <c r="AK101" s="64"/>
-      <c r="AL101" s="64"/>
-      <c r="AM101" s="64"/>
-      <c r="AN101" s="64"/>
-      <c r="AO101" s="64"/>
-      <c r="AP101" s="64"/>
-      <c r="AQ101" s="64"/>
-      <c r="AR101" s="64"/>
-      <c r="AS101" s="64"/>
-      <c r="AT101" s="64"/>
-      <c r="AU101" s="64"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+      <c r="K101" s="66"/>
+      <c r="L101" s="66"/>
+      <c r="M101" s="66"/>
+      <c r="N101" s="66"/>
+      <c r="O101" s="66"/>
+      <c r="P101" s="66"/>
+      <c r="Q101" s="66"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="65"/>
+      <c r="T101" s="65"/>
+      <c r="U101" s="65"/>
+      <c r="V101" s="65"/>
+      <c r="W101" s="66"/>
+      <c r="X101" s="66"/>
+      <c r="Y101" s="65"/>
+      <c r="Z101" s="65"/>
+      <c r="AA101" s="65"/>
+      <c r="AB101" s="65"/>
+      <c r="AC101" s="65"/>
+      <c r="AD101" s="65"/>
+      <c r="AE101" s="65"/>
+      <c r="AF101" s="65"/>
+      <c r="AG101" s="65"/>
+      <c r="AH101" s="65"/>
+      <c r="AI101" s="65"/>
+      <c r="AJ101" s="65"/>
+      <c r="AK101" s="65"/>
+      <c r="AL101" s="65"/>
+      <c r="AM101" s="65"/>
+      <c r="AN101" s="65"/>
+      <c r="AO101" s="65"/>
+      <c r="AP101" s="65"/>
+      <c r="AQ101" s="65"/>
+      <c r="AR101" s="65"/>
+      <c r="AS101" s="65"/>
+      <c r="AT101" s="65"/>
+      <c r="AU101" s="65"/>
       <c r="AV101" s="9"/>
       <c r="AW101" s="20"/>
-      <c r="AX101" s="66"/>
+      <c r="AX101" s="67"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="17"/>
       <c r="B102" s="28"/>
       <c r="C102" s="19"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="64"/>
-      <c r="F102" s="64"/>
-      <c r="G102" s="65"/>
-      <c r="H102" s="65"/>
-      <c r="I102" s="65"/>
-      <c r="J102" s="65"/>
-      <c r="K102" s="65"/>
-      <c r="L102" s="65"/>
-      <c r="M102" s="65"/>
-      <c r="N102" s="65"/>
-      <c r="O102" s="65"/>
-      <c r="P102" s="65"/>
-      <c r="Q102" s="65"/>
-      <c r="R102" s="64"/>
-      <c r="S102" s="64"/>
-      <c r="T102" s="64"/>
-      <c r="U102" s="64"/>
-      <c r="V102" s="64"/>
-      <c r="W102" s="65"/>
-      <c r="X102" s="65"/>
-      <c r="Y102" s="64"/>
-      <c r="Z102" s="64"/>
-      <c r="AA102" s="64"/>
-      <c r="AB102" s="64"/>
-      <c r="AC102" s="64"/>
-      <c r="AD102" s="64"/>
-      <c r="AE102" s="64"/>
-      <c r="AF102" s="64"/>
-      <c r="AG102" s="64"/>
-      <c r="AH102" s="64"/>
-      <c r="AI102" s="64"/>
-      <c r="AJ102" s="64"/>
-      <c r="AK102" s="64"/>
-      <c r="AL102" s="64"/>
-      <c r="AM102" s="64"/>
-      <c r="AN102" s="64"/>
-      <c r="AO102" s="64"/>
-      <c r="AP102" s="64"/>
-      <c r="AQ102" s="64"/>
-      <c r="AR102" s="64"/>
-      <c r="AS102" s="64"/>
-      <c r="AT102" s="64"/>
-      <c r="AU102" s="64"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
+      <c r="M102" s="66"/>
+      <c r="N102" s="66"/>
+      <c r="O102" s="66"/>
+      <c r="P102" s="66"/>
+      <c r="Q102" s="66"/>
+      <c r="R102" s="65"/>
+      <c r="S102" s="65"/>
+      <c r="T102" s="65"/>
+      <c r="U102" s="65"/>
+      <c r="V102" s="65"/>
+      <c r="W102" s="66"/>
+      <c r="X102" s="66"/>
+      <c r="Y102" s="65"/>
+      <c r="Z102" s="65"/>
+      <c r="AA102" s="65"/>
+      <c r="AB102" s="65"/>
+      <c r="AC102" s="65"/>
+      <c r="AD102" s="65"/>
+      <c r="AE102" s="65"/>
+      <c r="AF102" s="65"/>
+      <c r="AG102" s="65"/>
+      <c r="AH102" s="65"/>
+      <c r="AI102" s="65"/>
+      <c r="AJ102" s="65"/>
+      <c r="AK102" s="65"/>
+      <c r="AL102" s="65"/>
+      <c r="AM102" s="65"/>
+      <c r="AN102" s="65"/>
+      <c r="AO102" s="65"/>
+      <c r="AP102" s="65"/>
+      <c r="AQ102" s="65"/>
+      <c r="AR102" s="65"/>
+      <c r="AS102" s="65"/>
+      <c r="AT102" s="65"/>
+      <c r="AU102" s="65"/>
       <c r="AV102" s="9"/>
       <c r="AW102" s="20"/>
-      <c r="AX102" s="66"/>
+      <c r="AX102" s="67"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="17"/>
       <c r="B103" s="28"/>
       <c r="C103" s="19"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="64"/>
-      <c r="G103" s="65"/>
-      <c r="H103" s="65"/>
-      <c r="I103" s="65"/>
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="64"/>
-      <c r="S103" s="64"/>
-      <c r="T103" s="64"/>
-      <c r="U103" s="64"/>
-      <c r="V103" s="64"/>
-      <c r="W103" s="65"/>
-      <c r="X103" s="65"/>
-      <c r="Y103" s="64"/>
-      <c r="Z103" s="64"/>
-      <c r="AA103" s="64"/>
-      <c r="AB103" s="64"/>
-      <c r="AC103" s="64"/>
-      <c r="AD103" s="64"/>
-      <c r="AE103" s="64"/>
-      <c r="AF103" s="64"/>
-      <c r="AG103" s="64"/>
-      <c r="AH103" s="64"/>
-      <c r="AI103" s="64"/>
-      <c r="AJ103" s="64"/>
-      <c r="AK103" s="64"/>
-      <c r="AL103" s="64"/>
-      <c r="AM103" s="64"/>
-      <c r="AN103" s="64"/>
-      <c r="AO103" s="64"/>
-      <c r="AP103" s="64"/>
-      <c r="AQ103" s="64"/>
-      <c r="AR103" s="64"/>
-      <c r="AS103" s="64"/>
-      <c r="AT103" s="64"/>
-      <c r="AU103" s="64"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="66"/>
+      <c r="M103" s="66"/>
+      <c r="N103" s="66"/>
+      <c r="O103" s="66"/>
+      <c r="P103" s="66"/>
+      <c r="Q103" s="66"/>
+      <c r="R103" s="65"/>
+      <c r="S103" s="65"/>
+      <c r="T103" s="65"/>
+      <c r="U103" s="65"/>
+      <c r="V103" s="65"/>
+      <c r="W103" s="66"/>
+      <c r="X103" s="66"/>
+      <c r="Y103" s="65"/>
+      <c r="Z103" s="65"/>
+      <c r="AA103" s="65"/>
+      <c r="AB103" s="65"/>
+      <c r="AC103" s="65"/>
+      <c r="AD103" s="65"/>
+      <c r="AE103" s="65"/>
+      <c r="AF103" s="65"/>
+      <c r="AG103" s="65"/>
+      <c r="AH103" s="65"/>
+      <c r="AI103" s="65"/>
+      <c r="AJ103" s="65"/>
+      <c r="AK103" s="65"/>
+      <c r="AL103" s="65"/>
+      <c r="AM103" s="65"/>
+      <c r="AN103" s="65"/>
+      <c r="AO103" s="65"/>
+      <c r="AP103" s="65"/>
+      <c r="AQ103" s="65"/>
+      <c r="AR103" s="65"/>
+      <c r="AS103" s="65"/>
+      <c r="AT103" s="65"/>
+      <c r="AU103" s="65"/>
       <c r="AV103" s="9"/>
       <c r="AW103" s="20"/>
-      <c r="AX103" s="66"/>
+      <c r="AX103" s="67"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="17"/>
       <c r="B104" s="28"/>
       <c r="C104" s="19"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="64"/>
-      <c r="F104" s="64"/>
-      <c r="G104" s="65"/>
-      <c r="H104" s="65"/>
-      <c r="I104" s="65"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="65"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="65"/>
-      <c r="O104" s="65"/>
-      <c r="P104" s="65"/>
-      <c r="Q104" s="65"/>
-      <c r="R104" s="64"/>
-      <c r="S104" s="64"/>
-      <c r="T104" s="64"/>
-      <c r="U104" s="64"/>
-      <c r="V104" s="64"/>
-      <c r="W104" s="65"/>
-      <c r="X104" s="65"/>
-      <c r="Y104" s="64"/>
-      <c r="Z104" s="64"/>
-      <c r="AA104" s="64"/>
-      <c r="AB104" s="64"/>
-      <c r="AC104" s="64"/>
-      <c r="AD104" s="64"/>
-      <c r="AE104" s="64"/>
-      <c r="AF104" s="64"/>
-      <c r="AG104" s="64"/>
-      <c r="AH104" s="64"/>
-      <c r="AI104" s="64"/>
-      <c r="AJ104" s="64"/>
-      <c r="AK104" s="64"/>
-      <c r="AL104" s="64"/>
-      <c r="AM104" s="64"/>
-      <c r="AN104" s="64"/>
-      <c r="AO104" s="64"/>
-      <c r="AP104" s="64"/>
-      <c r="AQ104" s="64"/>
-      <c r="AR104" s="64"/>
-      <c r="AS104" s="64"/>
-      <c r="AT104" s="64"/>
-      <c r="AU104" s="64"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="66"/>
+      <c r="M104" s="66"/>
+      <c r="N104" s="66"/>
+      <c r="O104" s="66"/>
+      <c r="P104" s="66"/>
+      <c r="Q104" s="66"/>
+      <c r="R104" s="65"/>
+      <c r="S104" s="65"/>
+      <c r="T104" s="65"/>
+      <c r="U104" s="65"/>
+      <c r="V104" s="65"/>
+      <c r="W104" s="66"/>
+      <c r="X104" s="66"/>
+      <c r="Y104" s="65"/>
+      <c r="Z104" s="65"/>
+      <c r="AA104" s="65"/>
+      <c r="AB104" s="65"/>
+      <c r="AC104" s="65"/>
+      <c r="AD104" s="65"/>
+      <c r="AE104" s="65"/>
+      <c r="AF104" s="65"/>
+      <c r="AG104" s="65"/>
+      <c r="AH104" s="65"/>
+      <c r="AI104" s="65"/>
+      <c r="AJ104" s="65"/>
+      <c r="AK104" s="65"/>
+      <c r="AL104" s="65"/>
+      <c r="AM104" s="65"/>
+      <c r="AN104" s="65"/>
+      <c r="AO104" s="65"/>
+      <c r="AP104" s="65"/>
+      <c r="AQ104" s="65"/>
+      <c r="AR104" s="65"/>
+      <c r="AS104" s="65"/>
+      <c r="AT104" s="65"/>
+      <c r="AU104" s="65"/>
       <c r="AV104" s="9"/>
       <c r="AW104" s="20"/>
-      <c r="AX104" s="66"/>
+      <c r="AX104" s="67"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="17"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="65"/>
-      <c r="M105" s="65"/>
-      <c r="N105" s="65"/>
-      <c r="O105" s="65"/>
-      <c r="P105" s="65"/>
-      <c r="Q105" s="65"/>
-      <c r="R105" s="64"/>
-      <c r="S105" s="64"/>
-      <c r="T105" s="64"/>
-      <c r="U105" s="64"/>
-      <c r="V105" s="64"/>
-      <c r="W105" s="65"/>
-      <c r="X105" s="65"/>
-      <c r="Y105" s="64"/>
-      <c r="Z105" s="64"/>
-      <c r="AA105" s="64"/>
-      <c r="AB105" s="64"/>
-      <c r="AC105" s="64"/>
-      <c r="AD105" s="64"/>
-      <c r="AE105" s="64"/>
-      <c r="AF105" s="64"/>
-      <c r="AG105" s="64"/>
-      <c r="AH105" s="64"/>
-      <c r="AI105" s="64"/>
-      <c r="AJ105" s="64"/>
-      <c r="AK105" s="64"/>
-      <c r="AL105" s="64"/>
-      <c r="AM105" s="64"/>
-      <c r="AN105" s="64"/>
-      <c r="AO105" s="64"/>
-      <c r="AP105" s="64"/>
-      <c r="AQ105" s="64"/>
-      <c r="AR105" s="64"/>
-      <c r="AS105" s="64"/>
-      <c r="AT105" s="64"/>
-      <c r="AU105" s="64"/>
+      <c r="K105" s="66"/>
+      <c r="L105" s="66"/>
+      <c r="M105" s="66"/>
+      <c r="N105" s="66"/>
+      <c r="O105" s="66"/>
+      <c r="P105" s="66"/>
+      <c r="Q105" s="66"/>
+      <c r="R105" s="65"/>
+      <c r="S105" s="65"/>
+      <c r="T105" s="65"/>
+      <c r="U105" s="65"/>
+      <c r="V105" s="65"/>
+      <c r="W105" s="66"/>
+      <c r="X105" s="66"/>
+      <c r="Y105" s="65"/>
+      <c r="Z105" s="65"/>
+      <c r="AA105" s="65"/>
+      <c r="AB105" s="65"/>
+      <c r="AC105" s="65"/>
+      <c r="AD105" s="65"/>
+      <c r="AE105" s="65"/>
+      <c r="AF105" s="65"/>
+      <c r="AG105" s="65"/>
+      <c r="AH105" s="65"/>
+      <c r="AI105" s="65"/>
+      <c r="AJ105" s="65"/>
+      <c r="AK105" s="65"/>
+      <c r="AL105" s="65"/>
+      <c r="AM105" s="65"/>
+      <c r="AN105" s="65"/>
+      <c r="AO105" s="65"/>
+      <c r="AP105" s="65"/>
+      <c r="AQ105" s="65"/>
+      <c r="AR105" s="65"/>
+      <c r="AS105" s="65"/>
+      <c r="AT105" s="65"/>
+      <c r="AU105" s="65"/>
       <c r="AV105" s="9"/>
       <c r="AW105" s="20"/>
-      <c r="AX105" s="66"/>
+      <c r="AX105" s="67"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="17"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="65"/>
-      <c r="M106" s="65"/>
-      <c r="N106" s="65"/>
-      <c r="O106" s="65"/>
-      <c r="P106" s="65"/>
-      <c r="Q106" s="65"/>
-      <c r="R106" s="64"/>
-      <c r="S106" s="64"/>
-      <c r="T106" s="64"/>
-      <c r="U106" s="64"/>
-      <c r="V106" s="64"/>
-      <c r="W106" s="65"/>
-      <c r="X106" s="65"/>
-      <c r="Y106" s="64"/>
-      <c r="Z106" s="64"/>
-      <c r="AA106" s="64"/>
-      <c r="AB106" s="64"/>
-      <c r="AC106" s="64"/>
-      <c r="AD106" s="64"/>
-      <c r="AE106" s="64"/>
-      <c r="AF106" s="64"/>
-      <c r="AG106" s="64"/>
-      <c r="AH106" s="64"/>
-      <c r="AI106" s="64"/>
-      <c r="AJ106" s="64"/>
-      <c r="AK106" s="64"/>
-      <c r="AL106" s="64"/>
-      <c r="AM106" s="64"/>
-      <c r="AN106" s="64"/>
-      <c r="AO106" s="64"/>
-      <c r="AP106" s="64"/>
-      <c r="AQ106" s="64"/>
-      <c r="AR106" s="64"/>
-      <c r="AS106" s="64"/>
-      <c r="AT106" s="64"/>
-      <c r="AU106" s="64"/>
+      <c r="K106" s="66"/>
+      <c r="L106" s="66"/>
+      <c r="M106" s="66"/>
+      <c r="N106" s="66"/>
+      <c r="O106" s="66"/>
+      <c r="P106" s="66"/>
+      <c r="Q106" s="66"/>
+      <c r="R106" s="65"/>
+      <c r="S106" s="65"/>
+      <c r="T106" s="65"/>
+      <c r="U106" s="65"/>
+      <c r="V106" s="65"/>
+      <c r="W106" s="66"/>
+      <c r="X106" s="66"/>
+      <c r="Y106" s="65"/>
+      <c r="Z106" s="65"/>
+      <c r="AA106" s="65"/>
+      <c r="AB106" s="65"/>
+      <c r="AC106" s="65"/>
+      <c r="AD106" s="65"/>
+      <c r="AE106" s="65"/>
+      <c r="AF106" s="65"/>
+      <c r="AG106" s="65"/>
+      <c r="AH106" s="65"/>
+      <c r="AI106" s="65"/>
+      <c r="AJ106" s="65"/>
+      <c r="AK106" s="65"/>
+      <c r="AL106" s="65"/>
+      <c r="AM106" s="65"/>
+      <c r="AN106" s="65"/>
+      <c r="AO106" s="65"/>
+      <c r="AP106" s="65"/>
+      <c r="AQ106" s="65"/>
+      <c r="AR106" s="65"/>
+      <c r="AS106" s="65"/>
+      <c r="AT106" s="65"/>
+      <c r="AU106" s="65"/>
       <c r="AV106" s="9"/>
       <c r="AW106" s="20"/>
-      <c r="AX106" s="66"/>
+      <c r="AX106" s="67"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="17"/>
-      <c r="K107" s="65"/>
-      <c r="L107" s="65"/>
-      <c r="M107" s="65"/>
-      <c r="N107" s="65"/>
-      <c r="O107" s="65"/>
-      <c r="P107" s="65"/>
-      <c r="Q107" s="65"/>
-      <c r="R107" s="64"/>
-      <c r="S107" s="64"/>
-      <c r="T107" s="64"/>
-      <c r="U107" s="64"/>
-      <c r="V107" s="64"/>
-      <c r="W107" s="65"/>
-      <c r="X107" s="65"/>
-      <c r="Y107" s="64"/>
-      <c r="Z107" s="64"/>
-      <c r="AA107" s="64"/>
-      <c r="AB107" s="64"/>
-      <c r="AC107" s="64"/>
-      <c r="AD107" s="64"/>
-      <c r="AE107" s="64"/>
-      <c r="AF107" s="64"/>
-      <c r="AG107" s="64"/>
-      <c r="AH107" s="64"/>
-      <c r="AI107" s="64"/>
-      <c r="AJ107" s="64"/>
-      <c r="AK107" s="64"/>
-      <c r="AL107" s="64"/>
-      <c r="AM107" s="64"/>
-      <c r="AN107" s="64"/>
-      <c r="AO107" s="64"/>
-      <c r="AP107" s="64"/>
-      <c r="AQ107" s="64"/>
-      <c r="AR107" s="64"/>
-      <c r="AS107" s="64"/>
-      <c r="AT107" s="64"/>
-      <c r="AU107" s="64"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="66"/>
+      <c r="M107" s="66"/>
+      <c r="N107" s="66"/>
+      <c r="O107" s="66"/>
+      <c r="P107" s="66"/>
+      <c r="Q107" s="66"/>
+      <c r="R107" s="65"/>
+      <c r="S107" s="65"/>
+      <c r="T107" s="65"/>
+      <c r="U107" s="65"/>
+      <c r="V107" s="65"/>
+      <c r="W107" s="66"/>
+      <c r="X107" s="66"/>
+      <c r="Y107" s="65"/>
+      <c r="Z107" s="65"/>
+      <c r="AA107" s="65"/>
+      <c r="AB107" s="65"/>
+      <c r="AC107" s="65"/>
+      <c r="AD107" s="65"/>
+      <c r="AE107" s="65"/>
+      <c r="AF107" s="65"/>
+      <c r="AG107" s="65"/>
+      <c r="AH107" s="65"/>
+      <c r="AI107" s="65"/>
+      <c r="AJ107" s="65"/>
+      <c r="AK107" s="65"/>
+      <c r="AL107" s="65"/>
+      <c r="AM107" s="65"/>
+      <c r="AN107" s="65"/>
+      <c r="AO107" s="65"/>
+      <c r="AP107" s="65"/>
+      <c r="AQ107" s="65"/>
+      <c r="AR107" s="65"/>
+      <c r="AS107" s="65"/>
+      <c r="AT107" s="65"/>
+      <c r="AU107" s="65"/>
       <c r="AV107" s="9"/>
       <c r="AW107" s="20"/>
-      <c r="AX107" s="66"/>
+      <c r="AX107" s="67"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="17"/>
-      <c r="K108" s="65"/>
-      <c r="L108" s="65"/>
-      <c r="M108" s="65"/>
-      <c r="N108" s="65"/>
-      <c r="O108" s="65"/>
-      <c r="P108" s="65"/>
-      <c r="Q108" s="65"/>
-      <c r="R108" s="64"/>
-      <c r="S108" s="64"/>
-      <c r="T108" s="64"/>
-      <c r="U108" s="64"/>
-      <c r="V108" s="64"/>
-      <c r="W108" s="65"/>
-      <c r="X108" s="65"/>
-      <c r="Y108" s="64"/>
-      <c r="Z108" s="64"/>
-      <c r="AA108" s="64"/>
-      <c r="AB108" s="64"/>
-      <c r="AC108" s="64"/>
-      <c r="AD108" s="64"/>
-      <c r="AE108" s="64"/>
-      <c r="AF108" s="64"/>
-      <c r="AG108" s="64"/>
-      <c r="AH108" s="64"/>
-      <c r="AI108" s="64"/>
-      <c r="AJ108" s="64"/>
-      <c r="AK108" s="64"/>
-      <c r="AL108" s="64"/>
-      <c r="AM108" s="64"/>
-      <c r="AN108" s="64"/>
-      <c r="AO108" s="64"/>
-      <c r="AP108" s="64"/>
-      <c r="AQ108" s="64"/>
-      <c r="AR108" s="64"/>
-      <c r="AS108" s="64"/>
-      <c r="AT108" s="64"/>
-      <c r="AU108" s="64"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="66"/>
+      <c r="M108" s="66"/>
+      <c r="N108" s="66"/>
+      <c r="O108" s="66"/>
+      <c r="P108" s="66"/>
+      <c r="Q108" s="66"/>
+      <c r="R108" s="65"/>
+      <c r="S108" s="65"/>
+      <c r="T108" s="65"/>
+      <c r="U108" s="65"/>
+      <c r="V108" s="65"/>
+      <c r="W108" s="66"/>
+      <c r="X108" s="66"/>
+      <c r="Y108" s="65"/>
+      <c r="Z108" s="65"/>
+      <c r="AA108" s="65"/>
+      <c r="AB108" s="65"/>
+      <c r="AC108" s="65"/>
+      <c r="AD108" s="65"/>
+      <c r="AE108" s="65"/>
+      <c r="AF108" s="65"/>
+      <c r="AG108" s="65"/>
+      <c r="AH108" s="65"/>
+      <c r="AI108" s="65"/>
+      <c r="AJ108" s="65"/>
+      <c r="AK108" s="65"/>
+      <c r="AL108" s="65"/>
+      <c r="AM108" s="65"/>
+      <c r="AN108" s="65"/>
+      <c r="AO108" s="65"/>
+      <c r="AP108" s="65"/>
+      <c r="AQ108" s="65"/>
+      <c r="AR108" s="65"/>
+      <c r="AS108" s="65"/>
+      <c r="AT108" s="65"/>
+      <c r="AU108" s="65"/>
       <c r="AV108" s="9"/>
       <c r="AW108" s="20"/>
-      <c r="AX108" s="66"/>
+      <c r="AX108" s="67"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="17"/>
-      <c r="K109" s="65"/>
-      <c r="L109" s="65"/>
-      <c r="M109" s="65"/>
-      <c r="N109" s="65"/>
-      <c r="O109" s="65"/>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="64"/>
-      <c r="S109" s="64"/>
-      <c r="T109" s="64"/>
-      <c r="U109" s="64"/>
-      <c r="V109" s="64"/>
-      <c r="W109" s="65"/>
-      <c r="X109" s="65"/>
-      <c r="Y109" s="64"/>
-      <c r="Z109" s="64"/>
-      <c r="AA109" s="64"/>
-      <c r="AB109" s="64"/>
-      <c r="AC109" s="64"/>
-      <c r="AD109" s="64"/>
-      <c r="AE109" s="64"/>
-      <c r="AF109" s="64"/>
-      <c r="AG109" s="64"/>
-      <c r="AH109" s="64"/>
-      <c r="AI109" s="64"/>
-      <c r="AJ109" s="64"/>
-      <c r="AK109" s="64"/>
-      <c r="AL109" s="64"/>
-      <c r="AM109" s="64"/>
-      <c r="AN109" s="64"/>
-      <c r="AO109" s="64"/>
-      <c r="AP109" s="64"/>
-      <c r="AQ109" s="64"/>
-      <c r="AR109" s="64"/>
-      <c r="AS109" s="64"/>
-      <c r="AT109" s="64"/>
-      <c r="AU109" s="64"/>
+      <c r="K109" s="66"/>
+      <c r="L109" s="66"/>
+      <c r="M109" s="66"/>
+      <c r="N109" s="66"/>
+      <c r="O109" s="66"/>
+      <c r="P109" s="66"/>
+      <c r="Q109" s="66"/>
+      <c r="R109" s="65"/>
+      <c r="S109" s="65"/>
+      <c r="T109" s="65"/>
+      <c r="U109" s="65"/>
+      <c r="V109" s="65"/>
+      <c r="W109" s="66"/>
+      <c r="X109" s="66"/>
+      <c r="Y109" s="65"/>
+      <c r="Z109" s="65"/>
+      <c r="AA109" s="65"/>
+      <c r="AB109" s="65"/>
+      <c r="AC109" s="65"/>
+      <c r="AD109" s="65"/>
+      <c r="AE109" s="65"/>
+      <c r="AF109" s="65"/>
+      <c r="AG109" s="65"/>
+      <c r="AH109" s="65"/>
+      <c r="AI109" s="65"/>
+      <c r="AJ109" s="65"/>
+      <c r="AK109" s="65"/>
+      <c r="AL109" s="65"/>
+      <c r="AM109" s="65"/>
+      <c r="AN109" s="65"/>
+      <c r="AO109" s="65"/>
+      <c r="AP109" s="65"/>
+      <c r="AQ109" s="65"/>
+      <c r="AR109" s="65"/>
+      <c r="AS109" s="65"/>
+      <c r="AT109" s="65"/>
+      <c r="AU109" s="65"/>
       <c r="AV109" s="9"/>
       <c r="AW109" s="20"/>
-      <c r="AX109" s="66"/>
+      <c r="AX109" s="67"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="17"/>
-      <c r="K110" s="65"/>
-      <c r="L110" s="65"/>
-      <c r="M110" s="65"/>
-      <c r="N110" s="65"/>
-      <c r="O110" s="65"/>
-      <c r="P110" s="65"/>
-      <c r="Q110" s="65"/>
-      <c r="R110" s="64"/>
-      <c r="S110" s="64"/>
-      <c r="T110" s="64"/>
-      <c r="U110" s="64"/>
-      <c r="V110" s="64"/>
-      <c r="W110" s="65"/>
-      <c r="X110" s="65"/>
-      <c r="Y110" s="64"/>
-      <c r="Z110" s="64"/>
-      <c r="AA110" s="64"/>
-      <c r="AB110" s="64"/>
-      <c r="AC110" s="64"/>
-      <c r="AD110" s="64"/>
-      <c r="AE110" s="64"/>
-      <c r="AF110" s="64"/>
-      <c r="AG110" s="64"/>
-      <c r="AH110" s="64"/>
-      <c r="AI110" s="64"/>
-      <c r="AJ110" s="64"/>
-      <c r="AK110" s="64"/>
-      <c r="AL110" s="64"/>
-      <c r="AM110" s="64"/>
-      <c r="AN110" s="64"/>
-      <c r="AO110" s="64"/>
-      <c r="AP110" s="64"/>
-      <c r="AQ110" s="64"/>
-      <c r="AR110" s="64"/>
-      <c r="AS110" s="64"/>
-      <c r="AT110" s="64"/>
-      <c r="AU110" s="64"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="66"/>
+      <c r="M110" s="66"/>
+      <c r="N110" s="66"/>
+      <c r="O110" s="66"/>
+      <c r="P110" s="66"/>
+      <c r="Q110" s="66"/>
+      <c r="R110" s="65"/>
+      <c r="S110" s="65"/>
+      <c r="T110" s="65"/>
+      <c r="U110" s="65"/>
+      <c r="V110" s="65"/>
+      <c r="W110" s="66"/>
+      <c r="X110" s="66"/>
+      <c r="Y110" s="65"/>
+      <c r="Z110" s="65"/>
+      <c r="AA110" s="65"/>
+      <c r="AB110" s="65"/>
+      <c r="AC110" s="65"/>
+      <c r="AD110" s="65"/>
+      <c r="AE110" s="65"/>
+      <c r="AF110" s="65"/>
+      <c r="AG110" s="65"/>
+      <c r="AH110" s="65"/>
+      <c r="AI110" s="65"/>
+      <c r="AJ110" s="65"/>
+      <c r="AK110" s="65"/>
+      <c r="AL110" s="65"/>
+      <c r="AM110" s="65"/>
+      <c r="AN110" s="65"/>
+      <c r="AO110" s="65"/>
+      <c r="AP110" s="65"/>
+      <c r="AQ110" s="65"/>
+      <c r="AR110" s="65"/>
+      <c r="AS110" s="65"/>
+      <c r="AT110" s="65"/>
+      <c r="AU110" s="65"/>
       <c r="AV110" s="9"/>
       <c r="AW110" s="20"/>
-      <c r="AX110" s="66"/>
+      <c r="AX110" s="67"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="17"/>
       <c r="B111" s="28"/>
       <c r="C111" s="19"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="64"/>
-      <c r="G111" s="65"/>
-      <c r="H111" s="65"/>
-      <c r="I111" s="65"/>
-      <c r="J111" s="65"/>
-      <c r="K111" s="65"/>
-      <c r="L111" s="65"/>
-      <c r="M111" s="65"/>
-      <c r="N111" s="65"/>
-      <c r="O111" s="65"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65"/>
-      <c r="R111" s="64"/>
-      <c r="S111" s="64"/>
-      <c r="T111" s="64"/>
-      <c r="U111" s="64"/>
-      <c r="V111" s="64"/>
-      <c r="W111" s="65"/>
-      <c r="X111" s="65"/>
-      <c r="Y111" s="64"/>
-      <c r="Z111" s="64"/>
-      <c r="AA111" s="64"/>
-      <c r="AB111" s="64"/>
-      <c r="AC111" s="64"/>
-      <c r="AD111" s="64"/>
-      <c r="AE111" s="64"/>
-      <c r="AF111" s="64"/>
-      <c r="AG111" s="64"/>
-      <c r="AH111" s="64"/>
-      <c r="AI111" s="64"/>
-      <c r="AJ111" s="64"/>
-      <c r="AK111" s="64"/>
-      <c r="AL111" s="64"/>
-      <c r="AM111" s="64"/>
-      <c r="AN111" s="64"/>
-      <c r="AO111" s="64"/>
-      <c r="AP111" s="64"/>
-      <c r="AQ111" s="64"/>
-      <c r="AR111" s="64"/>
-      <c r="AS111" s="64"/>
-      <c r="AT111" s="64"/>
-      <c r="AU111" s="64"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="66"/>
+      <c r="M111" s="66"/>
+      <c r="N111" s="66"/>
+      <c r="O111" s="66"/>
+      <c r="P111" s="66"/>
+      <c r="Q111" s="66"/>
+      <c r="R111" s="65"/>
+      <c r="S111" s="65"/>
+      <c r="T111" s="65"/>
+      <c r="U111" s="65"/>
+      <c r="V111" s="65"/>
+      <c r="W111" s="66"/>
+      <c r="X111" s="66"/>
+      <c r="Y111" s="65"/>
+      <c r="Z111" s="65"/>
+      <c r="AA111" s="65"/>
+      <c r="AB111" s="65"/>
+      <c r="AC111" s="65"/>
+      <c r="AD111" s="65"/>
+      <c r="AE111" s="65"/>
+      <c r="AF111" s="65"/>
+      <c r="AG111" s="65"/>
+      <c r="AH111" s="65"/>
+      <c r="AI111" s="65"/>
+      <c r="AJ111" s="65"/>
+      <c r="AK111" s="65"/>
+      <c r="AL111" s="65"/>
+      <c r="AM111" s="65"/>
+      <c r="AN111" s="65"/>
+      <c r="AO111" s="65"/>
+      <c r="AP111" s="65"/>
+      <c r="AQ111" s="65"/>
+      <c r="AR111" s="65"/>
+      <c r="AS111" s="65"/>
+      <c r="AT111" s="65"/>
+      <c r="AU111" s="65"/>
       <c r="AV111" s="9"/>
       <c r="AW111" s="20"/>
-      <c r="AX111" s="66"/>
+      <c r="AX111" s="67"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="17"/>
       <c r="B112" s="28"/>
       <c r="C112" s="19"/>
-      <c r="D112" s="64"/>
-      <c r="E112" s="64"/>
-      <c r="F112" s="64"/>
-      <c r="G112" s="65"/>
-      <c r="H112" s="65"/>
-      <c r="I112" s="65"/>
-      <c r="J112" s="65"/>
-      <c r="K112" s="65"/>
-      <c r="L112" s="65"/>
-      <c r="M112" s="65"/>
-      <c r="N112" s="65"/>
-      <c r="O112" s="65"/>
-      <c r="P112" s="65"/>
-      <c r="Q112" s="65"/>
-      <c r="R112" s="64"/>
-      <c r="S112" s="64"/>
-      <c r="T112" s="64"/>
-      <c r="U112" s="64"/>
-      <c r="V112" s="64"/>
-      <c r="W112" s="65"/>
-      <c r="X112" s="65"/>
-      <c r="Y112" s="64"/>
-      <c r="Z112" s="64"/>
-      <c r="AA112" s="64"/>
-      <c r="AB112" s="64"/>
-      <c r="AC112" s="64"/>
-      <c r="AD112" s="64"/>
-      <c r="AE112" s="64"/>
-      <c r="AF112" s="64"/>
-      <c r="AG112" s="64"/>
-      <c r="AH112" s="64"/>
-      <c r="AI112" s="64"/>
-      <c r="AJ112" s="64"/>
-      <c r="AK112" s="64"/>
-      <c r="AL112" s="64"/>
-      <c r="AM112" s="64"/>
-      <c r="AN112" s="64"/>
-      <c r="AO112" s="64"/>
-      <c r="AP112" s="64"/>
-      <c r="AQ112" s="64"/>
-      <c r="AR112" s="64"/>
-      <c r="AS112" s="64"/>
-      <c r="AT112" s="64"/>
-      <c r="AU112" s="64"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="66"/>
+      <c r="M112" s="66"/>
+      <c r="N112" s="66"/>
+      <c r="O112" s="66"/>
+      <c r="P112" s="66"/>
+      <c r="Q112" s="66"/>
+      <c r="R112" s="65"/>
+      <c r="S112" s="65"/>
+      <c r="T112" s="65"/>
+      <c r="U112" s="65"/>
+      <c r="V112" s="65"/>
+      <c r="W112" s="66"/>
+      <c r="X112" s="66"/>
+      <c r="Y112" s="65"/>
+      <c r="Z112" s="65"/>
+      <c r="AA112" s="65"/>
+      <c r="AB112" s="65"/>
+      <c r="AC112" s="65"/>
+      <c r="AD112" s="65"/>
+      <c r="AE112" s="65"/>
+      <c r="AF112" s="65"/>
+      <c r="AG112" s="65"/>
+      <c r="AH112" s="65"/>
+      <c r="AI112" s="65"/>
+      <c r="AJ112" s="65"/>
+      <c r="AK112" s="65"/>
+      <c r="AL112" s="65"/>
+      <c r="AM112" s="65"/>
+      <c r="AN112" s="65"/>
+      <c r="AO112" s="65"/>
+      <c r="AP112" s="65"/>
+      <c r="AQ112" s="65"/>
+      <c r="AR112" s="65"/>
+      <c r="AS112" s="65"/>
+      <c r="AT112" s="65"/>
+      <c r="AU112" s="65"/>
       <c r="AV112" s="9"/>
       <c r="AW112" s="20"/>
-      <c r="AX112" s="66"/>
+      <c r="AX112" s="67"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="17"/>
       <c r="B113" s="28"/>
       <c r="C113" s="19"/>
-      <c r="D113" s="64"/>
-      <c r="E113" s="64"/>
-      <c r="F113" s="64"/>
-      <c r="G113" s="65"/>
-      <c r="H113" s="65"/>
-      <c r="I113" s="65"/>
-      <c r="J113" s="65"/>
-      <c r="K113" s="65"/>
-      <c r="L113" s="65"/>
-      <c r="M113" s="65"/>
-      <c r="N113" s="65"/>
-      <c r="O113" s="65"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="R113" s="64"/>
-      <c r="S113" s="64"/>
-      <c r="T113" s="64"/>
-      <c r="U113" s="64"/>
-      <c r="V113" s="64"/>
-      <c r="W113" s="65"/>
-      <c r="X113" s="65"/>
-      <c r="Y113" s="64"/>
-      <c r="Z113" s="64"/>
-      <c r="AA113" s="64"/>
-      <c r="AB113" s="64"/>
-      <c r="AC113" s="64"/>
-      <c r="AD113" s="64"/>
-      <c r="AE113" s="64"/>
-      <c r="AF113" s="64"/>
-      <c r="AG113" s="64"/>
-      <c r="AH113" s="64"/>
-      <c r="AI113" s="64"/>
-      <c r="AJ113" s="64"/>
-      <c r="AK113" s="64"/>
-      <c r="AL113" s="64"/>
-      <c r="AM113" s="64"/>
-      <c r="AN113" s="64"/>
-      <c r="AO113" s="64"/>
-      <c r="AP113" s="64"/>
-      <c r="AQ113" s="64"/>
-      <c r="AR113" s="64"/>
-      <c r="AS113" s="64"/>
-      <c r="AT113" s="64"/>
-      <c r="AU113" s="64"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="66"/>
+      <c r="M113" s="66"/>
+      <c r="N113" s="66"/>
+      <c r="O113" s="66"/>
+      <c r="P113" s="66"/>
+      <c r="Q113" s="66"/>
+      <c r="R113" s="65"/>
+      <c r="S113" s="65"/>
+      <c r="T113" s="65"/>
+      <c r="U113" s="65"/>
+      <c r="V113" s="65"/>
+      <c r="W113" s="66"/>
+      <c r="X113" s="66"/>
+      <c r="Y113" s="65"/>
+      <c r="Z113" s="65"/>
+      <c r="AA113" s="65"/>
+      <c r="AB113" s="65"/>
+      <c r="AC113" s="65"/>
+      <c r="AD113" s="65"/>
+      <c r="AE113" s="65"/>
+      <c r="AF113" s="65"/>
+      <c r="AG113" s="65"/>
+      <c r="AH113" s="65"/>
+      <c r="AI113" s="65"/>
+      <c r="AJ113" s="65"/>
+      <c r="AK113" s="65"/>
+      <c r="AL113" s="65"/>
+      <c r="AM113" s="65"/>
+      <c r="AN113" s="65"/>
+      <c r="AO113" s="65"/>
+      <c r="AP113" s="65"/>
+      <c r="AQ113" s="65"/>
+      <c r="AR113" s="65"/>
+      <c r="AS113" s="65"/>
+      <c r="AT113" s="65"/>
+      <c r="AU113" s="65"/>
       <c r="AV113" s="9"/>
       <c r="AW113" s="20"/>
-      <c r="AX113" s="66"/>
+      <c r="AX113" s="67"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="17"/>
       <c r="B114" s="28"/>
       <c r="C114" s="19"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="64"/>
-      <c r="F114" s="64"/>
-      <c r="G114" s="65"/>
-      <c r="H114" s="65"/>
-      <c r="I114" s="65"/>
-      <c r="J114" s="65"/>
-      <c r="K114" s="65"/>
-      <c r="L114" s="65"/>
-      <c r="M114" s="65"/>
-      <c r="N114" s="65"/>
-      <c r="O114" s="65"/>
-      <c r="P114" s="65"/>
-      <c r="Q114" s="65"/>
-      <c r="R114" s="64"/>
-      <c r="S114" s="64"/>
-      <c r="T114" s="64"/>
-      <c r="U114" s="64"/>
-      <c r="V114" s="64"/>
-      <c r="W114" s="65"/>
-      <c r="X114" s="65"/>
-      <c r="Y114" s="64"/>
-      <c r="Z114" s="64"/>
-      <c r="AA114" s="64"/>
-      <c r="AB114" s="64"/>
-      <c r="AC114" s="64"/>
-      <c r="AD114" s="64"/>
-      <c r="AE114" s="64"/>
-      <c r="AF114" s="64"/>
-      <c r="AG114" s="64"/>
-      <c r="AH114" s="64"/>
-      <c r="AI114" s="64"/>
-      <c r="AJ114" s="64"/>
-      <c r="AK114" s="64"/>
-      <c r="AL114" s="64"/>
-      <c r="AM114" s="64"/>
-      <c r="AN114" s="64"/>
-      <c r="AO114" s="64"/>
-      <c r="AP114" s="64"/>
-      <c r="AQ114" s="64"/>
-      <c r="AR114" s="64"/>
-      <c r="AS114" s="64"/>
-      <c r="AT114" s="64"/>
-      <c r="AU114" s="64"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="66"/>
+      <c r="M114" s="66"/>
+      <c r="N114" s="66"/>
+      <c r="O114" s="66"/>
+      <c r="P114" s="66"/>
+      <c r="Q114" s="66"/>
+      <c r="R114" s="65"/>
+      <c r="S114" s="65"/>
+      <c r="T114" s="65"/>
+      <c r="U114" s="65"/>
+      <c r="V114" s="65"/>
+      <c r="W114" s="66"/>
+      <c r="X114" s="66"/>
+      <c r="Y114" s="65"/>
+      <c r="Z114" s="65"/>
+      <c r="AA114" s="65"/>
+      <c r="AB114" s="65"/>
+      <c r="AC114" s="65"/>
+      <c r="AD114" s="65"/>
+      <c r="AE114" s="65"/>
+      <c r="AF114" s="65"/>
+      <c r="AG114" s="65"/>
+      <c r="AH114" s="65"/>
+      <c r="AI114" s="65"/>
+      <c r="AJ114" s="65"/>
+      <c r="AK114" s="65"/>
+      <c r="AL114" s="65"/>
+      <c r="AM114" s="65"/>
+      <c r="AN114" s="65"/>
+      <c r="AO114" s="65"/>
+      <c r="AP114" s="65"/>
+      <c r="AQ114" s="65"/>
+      <c r="AR114" s="65"/>
+      <c r="AS114" s="65"/>
+      <c r="AT114" s="65"/>
+      <c r="AU114" s="65"/>
       <c r="AV114" s="9"/>
       <c r="AW114" s="20"/>
-      <c r="AX114" s="66"/>
+      <c r="AX114" s="67"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="17"/>
       <c r="B115" s="28"/>
       <c r="C115" s="19"/>
-      <c r="D115" s="64"/>
-      <c r="E115" s="64"/>
-      <c r="F115" s="64"/>
-      <c r="G115" s="65"/>
-      <c r="H115" s="65"/>
-      <c r="I115" s="65"/>
-      <c r="J115" s="65"/>
-      <c r="K115" s="65"/>
-      <c r="L115" s="65"/>
-      <c r="M115" s="65"/>
-      <c r="N115" s="65"/>
-      <c r="O115" s="65"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="65"/>
-      <c r="R115" s="64"/>
-      <c r="S115" s="64"/>
-      <c r="T115" s="64"/>
-      <c r="U115" s="64"/>
-      <c r="V115" s="64"/>
-      <c r="W115" s="65"/>
-      <c r="X115" s="65"/>
-      <c r="Y115" s="64"/>
-      <c r="Z115" s="64"/>
-      <c r="AA115" s="64"/>
-      <c r="AB115" s="64"/>
-      <c r="AC115" s="64"/>
-      <c r="AD115" s="64"/>
-      <c r="AE115" s="64"/>
-      <c r="AF115" s="64"/>
-      <c r="AG115" s="64"/>
-      <c r="AH115" s="64"/>
-      <c r="AI115" s="64"/>
-      <c r="AJ115" s="64"/>
-      <c r="AK115" s="64"/>
-      <c r="AL115" s="64"/>
-      <c r="AM115" s="64"/>
-      <c r="AN115" s="64"/>
-      <c r="AO115" s="64"/>
-      <c r="AP115" s="64"/>
-      <c r="AQ115" s="64"/>
-      <c r="AR115" s="64"/>
-      <c r="AS115" s="64"/>
-      <c r="AT115" s="64"/>
-      <c r="AU115" s="64"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="66"/>
+      <c r="M115" s="66"/>
+      <c r="N115" s="66"/>
+      <c r="O115" s="66"/>
+      <c r="P115" s="66"/>
+      <c r="Q115" s="66"/>
+      <c r="R115" s="65"/>
+      <c r="S115" s="65"/>
+      <c r="T115" s="65"/>
+      <c r="U115" s="65"/>
+      <c r="V115" s="65"/>
+      <c r="W115" s="66"/>
+      <c r="X115" s="66"/>
+      <c r="Y115" s="65"/>
+      <c r="Z115" s="65"/>
+      <c r="AA115" s="65"/>
+      <c r="AB115" s="65"/>
+      <c r="AC115" s="65"/>
+      <c r="AD115" s="65"/>
+      <c r="AE115" s="65"/>
+      <c r="AF115" s="65"/>
+      <c r="AG115" s="65"/>
+      <c r="AH115" s="65"/>
+      <c r="AI115" s="65"/>
+      <c r="AJ115" s="65"/>
+      <c r="AK115" s="65"/>
+      <c r="AL115" s="65"/>
+      <c r="AM115" s="65"/>
+      <c r="AN115" s="65"/>
+      <c r="AO115" s="65"/>
+      <c r="AP115" s="65"/>
+      <c r="AQ115" s="65"/>
+      <c r="AR115" s="65"/>
+      <c r="AS115" s="65"/>
+      <c r="AT115" s="65"/>
+      <c r="AU115" s="65"/>
       <c r="AV115" s="9"/>
       <c r="AW115" s="20"/>
-      <c r="AX115" s="66"/>
+      <c r="AX115" s="67"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="17"/>
       <c r="B116" s="28"/>
       <c r="C116" s="19"/>
-      <c r="D116" s="64"/>
-      <c r="E116" s="64"/>
-      <c r="F116" s="64"/>
-      <c r="G116" s="65"/>
-      <c r="H116" s="65"/>
-      <c r="I116" s="65"/>
-      <c r="J116" s="65"/>
-      <c r="K116" s="65"/>
-      <c r="L116" s="65"/>
-      <c r="M116" s="65"/>
-      <c r="N116" s="65"/>
-      <c r="O116" s="65"/>
-      <c r="P116" s="65"/>
-      <c r="Q116" s="65"/>
-      <c r="R116" s="64"/>
-      <c r="S116" s="64"/>
-      <c r="T116" s="64"/>
-      <c r="U116" s="64"/>
-      <c r="V116" s="64"/>
-      <c r="W116" s="65"/>
-      <c r="X116" s="65"/>
-      <c r="Y116" s="64"/>
-      <c r="Z116" s="64"/>
-      <c r="AA116" s="64"/>
-      <c r="AB116" s="64"/>
-      <c r="AC116" s="64"/>
-      <c r="AD116" s="64"/>
-      <c r="AE116" s="64"/>
-      <c r="AF116" s="64"/>
-      <c r="AG116" s="64"/>
-      <c r="AH116" s="64"/>
-      <c r="AI116" s="64"/>
-      <c r="AJ116" s="64"/>
-      <c r="AK116" s="64"/>
-      <c r="AL116" s="64"/>
-      <c r="AM116" s="64"/>
-      <c r="AN116" s="64"/>
-      <c r="AO116" s="64"/>
-      <c r="AP116" s="64"/>
-      <c r="AQ116" s="64"/>
-      <c r="AR116" s="64"/>
-      <c r="AS116" s="64"/>
-      <c r="AT116" s="64"/>
-      <c r="AU116" s="64"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="66"/>
+      <c r="M116" s="66"/>
+      <c r="N116" s="66"/>
+      <c r="O116" s="66"/>
+      <c r="P116" s="66"/>
+      <c r="Q116" s="66"/>
+      <c r="R116" s="65"/>
+      <c r="S116" s="65"/>
+      <c r="T116" s="65"/>
+      <c r="U116" s="65"/>
+      <c r="V116" s="65"/>
+      <c r="W116" s="66"/>
+      <c r="X116" s="66"/>
+      <c r="Y116" s="65"/>
+      <c r="Z116" s="65"/>
+      <c r="AA116" s="65"/>
+      <c r="AB116" s="65"/>
+      <c r="AC116" s="65"/>
+      <c r="AD116" s="65"/>
+      <c r="AE116" s="65"/>
+      <c r="AF116" s="65"/>
+      <c r="AG116" s="65"/>
+      <c r="AH116" s="65"/>
+      <c r="AI116" s="65"/>
+      <c r="AJ116" s="65"/>
+      <c r="AK116" s="65"/>
+      <c r="AL116" s="65"/>
+      <c r="AM116" s="65"/>
+      <c r="AN116" s="65"/>
+      <c r="AO116" s="65"/>
+      <c r="AP116" s="65"/>
+      <c r="AQ116" s="65"/>
+      <c r="AR116" s="65"/>
+      <c r="AS116" s="65"/>
+      <c r="AT116" s="65"/>
+      <c r="AU116" s="65"/>
       <c r="AV116" s="9"/>
       <c r="AW116" s="20"/>
-      <c r="AX116" s="66"/>
+      <c r="AX116" s="67"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="17"/>
       <c r="B117" s="28"/>
       <c r="C117" s="19"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="65"/>
-      <c r="H117" s="65"/>
-      <c r="I117" s="65"/>
-      <c r="J117" s="65"/>
-      <c r="K117" s="65"/>
-      <c r="L117" s="65"/>
-      <c r="M117" s="65"/>
-      <c r="N117" s="65"/>
-      <c r="O117" s="65"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="65"/>
-      <c r="R117" s="64"/>
-      <c r="S117" s="64"/>
-      <c r="T117" s="64"/>
-      <c r="U117" s="64"/>
-      <c r="V117" s="64"/>
-      <c r="W117" s="65"/>
-      <c r="X117" s="65"/>
-      <c r="Y117" s="64"/>
-      <c r="Z117" s="64"/>
-      <c r="AA117" s="64"/>
-      <c r="AB117" s="64"/>
-      <c r="AC117" s="64"/>
-      <c r="AD117" s="64"/>
-      <c r="AE117" s="64"/>
-      <c r="AF117" s="64"/>
-      <c r="AG117" s="64"/>
-      <c r="AH117" s="64"/>
-      <c r="AI117" s="64"/>
-      <c r="AJ117" s="64"/>
-      <c r="AK117" s="64"/>
-      <c r="AL117" s="64"/>
-      <c r="AM117" s="64"/>
-      <c r="AN117" s="64"/>
-      <c r="AO117" s="64"/>
-      <c r="AP117" s="64"/>
-      <c r="AQ117" s="64"/>
-      <c r="AR117" s="64"/>
-      <c r="AS117" s="64"/>
-      <c r="AT117" s="64"/>
-      <c r="AU117" s="64"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+      <c r="L117" s="66"/>
+      <c r="M117" s="66"/>
+      <c r="N117" s="66"/>
+      <c r="O117" s="66"/>
+      <c r="P117" s="66"/>
+      <c r="Q117" s="66"/>
+      <c r="R117" s="65"/>
+      <c r="S117" s="65"/>
+      <c r="T117" s="65"/>
+      <c r="U117" s="65"/>
+      <c r="V117" s="65"/>
+      <c r="W117" s="66"/>
+      <c r="X117" s="66"/>
+      <c r="Y117" s="65"/>
+      <c r="Z117" s="65"/>
+      <c r="AA117" s="65"/>
+      <c r="AB117" s="65"/>
+      <c r="AC117" s="65"/>
+      <c r="AD117" s="65"/>
+      <c r="AE117" s="65"/>
+      <c r="AF117" s="65"/>
+      <c r="AG117" s="65"/>
+      <c r="AH117" s="65"/>
+      <c r="AI117" s="65"/>
+      <c r="AJ117" s="65"/>
+      <c r="AK117" s="65"/>
+      <c r="AL117" s="65"/>
+      <c r="AM117" s="65"/>
+      <c r="AN117" s="65"/>
+      <c r="AO117" s="65"/>
+      <c r="AP117" s="65"/>
+      <c r="AQ117" s="65"/>
+      <c r="AR117" s="65"/>
+      <c r="AS117" s="65"/>
+      <c r="AT117" s="65"/>
+      <c r="AU117" s="65"/>
       <c r="AV117" s="9"/>
       <c r="AW117" s="20"/>
-      <c r="AX117" s="66"/>
+      <c r="AX117" s="67"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="17"/>
       <c r="B118" s="28"/>
       <c r="C118" s="19"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="64"/>
-      <c r="G118" s="65"/>
-      <c r="H118" s="65"/>
-      <c r="I118" s="65"/>
-      <c r="J118" s="65"/>
-      <c r="K118" s="65"/>
-      <c r="L118" s="65"/>
-      <c r="M118" s="65"/>
-      <c r="N118" s="65"/>
-      <c r="O118" s="65"/>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="65"/>
-      <c r="R118" s="64"/>
-      <c r="S118" s="64"/>
-      <c r="T118" s="64"/>
-      <c r="U118" s="64"/>
-      <c r="V118" s="64"/>
-      <c r="W118" s="65"/>
-      <c r="X118" s="65"/>
-      <c r="Y118" s="64"/>
-      <c r="Z118" s="64"/>
-      <c r="AA118" s="64"/>
-      <c r="AB118" s="64"/>
-      <c r="AC118" s="64"/>
-      <c r="AD118" s="64"/>
-      <c r="AE118" s="64"/>
-      <c r="AF118" s="64"/>
-      <c r="AG118" s="64"/>
-      <c r="AH118" s="64"/>
-      <c r="AI118" s="64"/>
-      <c r="AJ118" s="64"/>
-      <c r="AK118" s="64"/>
-      <c r="AL118" s="64"/>
-      <c r="AM118" s="64"/>
-      <c r="AN118" s="64"/>
-      <c r="AO118" s="64"/>
-      <c r="AP118" s="64"/>
-      <c r="AQ118" s="64"/>
-      <c r="AR118" s="64"/>
-      <c r="AS118" s="64"/>
-      <c r="AT118" s="64"/>
-      <c r="AU118" s="64"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="66"/>
+      <c r="M118" s="66"/>
+      <c r="N118" s="66"/>
+      <c r="O118" s="66"/>
+      <c r="P118" s="66"/>
+      <c r="Q118" s="66"/>
+      <c r="R118" s="65"/>
+      <c r="S118" s="65"/>
+      <c r="T118" s="65"/>
+      <c r="U118" s="65"/>
+      <c r="V118" s="65"/>
+      <c r="W118" s="66"/>
+      <c r="X118" s="66"/>
+      <c r="Y118" s="65"/>
+      <c r="Z118" s="65"/>
+      <c r="AA118" s="65"/>
+      <c r="AB118" s="65"/>
+      <c r="AC118" s="65"/>
+      <c r="AD118" s="65"/>
+      <c r="AE118" s="65"/>
+      <c r="AF118" s="65"/>
+      <c r="AG118" s="65"/>
+      <c r="AH118" s="65"/>
+      <c r="AI118" s="65"/>
+      <c r="AJ118" s="65"/>
+      <c r="AK118" s="65"/>
+      <c r="AL118" s="65"/>
+      <c r="AM118" s="65"/>
+      <c r="AN118" s="65"/>
+      <c r="AO118" s="65"/>
+      <c r="AP118" s="65"/>
+      <c r="AQ118" s="65"/>
+      <c r="AR118" s="65"/>
+      <c r="AS118" s="65"/>
+      <c r="AT118" s="65"/>
+      <c r="AU118" s="65"/>
       <c r="AV118" s="9"/>
       <c r="AW118" s="20"/>
-      <c r="AX118" s="66"/>
+      <c r="AX118" s="67"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="17"/>
       <c r="B119" s="28"/>
       <c r="C119" s="19"/>
-      <c r="D119" s="64"/>
-      <c r="E119" s="64"/>
-      <c r="F119" s="64"/>
-      <c r="G119" s="65"/>
-      <c r="H119" s="65"/>
-      <c r="I119" s="65"/>
-      <c r="J119" s="65"/>
-      <c r="K119" s="65"/>
-      <c r="L119" s="65"/>
-      <c r="M119" s="65"/>
-      <c r="N119" s="65"/>
-      <c r="O119" s="65"/>
-      <c r="P119" s="65"/>
-      <c r="Q119" s="65"/>
-      <c r="R119" s="64"/>
-      <c r="S119" s="64"/>
-      <c r="T119" s="64"/>
-      <c r="U119" s="64"/>
-      <c r="V119" s="64"/>
-      <c r="W119" s="65"/>
-      <c r="X119" s="65"/>
-      <c r="Y119" s="64"/>
-      <c r="Z119" s="64"/>
-      <c r="AA119" s="64"/>
-      <c r="AB119" s="64"/>
-      <c r="AC119" s="64"/>
-      <c r="AD119" s="64"/>
-      <c r="AE119" s="64"/>
-      <c r="AF119" s="64"/>
-      <c r="AG119" s="64"/>
-      <c r="AH119" s="64"/>
-      <c r="AI119" s="64"/>
-      <c r="AJ119" s="64"/>
-      <c r="AK119" s="64"/>
-      <c r="AL119" s="64"/>
-      <c r="AM119" s="64"/>
-      <c r="AN119" s="64"/>
-      <c r="AO119" s="64"/>
-      <c r="AP119" s="64"/>
-      <c r="AQ119" s="64"/>
-      <c r="AR119" s="64"/>
-      <c r="AS119" s="64"/>
-      <c r="AT119" s="64"/>
-      <c r="AU119" s="64"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="66"/>
+      <c r="L119" s="66"/>
+      <c r="M119" s="66"/>
+      <c r="N119" s="66"/>
+      <c r="O119" s="66"/>
+      <c r="P119" s="66"/>
+      <c r="Q119" s="66"/>
+      <c r="R119" s="65"/>
+      <c r="S119" s="65"/>
+      <c r="T119" s="65"/>
+      <c r="U119" s="65"/>
+      <c r="V119" s="65"/>
+      <c r="W119" s="66"/>
+      <c r="X119" s="66"/>
+      <c r="Y119" s="65"/>
+      <c r="Z119" s="65"/>
+      <c r="AA119" s="65"/>
+      <c r="AB119" s="65"/>
+      <c r="AC119" s="65"/>
+      <c r="AD119" s="65"/>
+      <c r="AE119" s="65"/>
+      <c r="AF119" s="65"/>
+      <c r="AG119" s="65"/>
+      <c r="AH119" s="65"/>
+      <c r="AI119" s="65"/>
+      <c r="AJ119" s="65"/>
+      <c r="AK119" s="65"/>
+      <c r="AL119" s="65"/>
+      <c r="AM119" s="65"/>
+      <c r="AN119" s="65"/>
+      <c r="AO119" s="65"/>
+      <c r="AP119" s="65"/>
+      <c r="AQ119" s="65"/>
+      <c r="AR119" s="65"/>
+      <c r="AS119" s="65"/>
+      <c r="AT119" s="65"/>
+      <c r="AU119" s="65"/>
       <c r="AV119" s="9"/>
       <c r="AW119" s="20"/>
-      <c r="AX119" s="66"/>
+      <c r="AX119" s="67"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="25"/>
-      <c r="B120" s="70"/>
+      <c r="B120" s="71"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
       <c r="E120" s="26"/>
@@ -8326,15 +8322,15 @@
       <c r="X123" s="13"/>
       <c r="Y123" s="13"/>
       <c r="Z123" s="13"/>
-      <c r="AA123" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB123" s="14"/>
-      <c r="AC123" s="14"/>
-      <c r="AD123" s="14"/>
-      <c r="AE123" s="14"/>
-      <c r="AF123" s="14"/>
-      <c r="AG123" s="14"/>
+      <c r="AA123" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB123" s="59"/>
+      <c r="AC123" s="59"/>
+      <c r="AD123" s="59"/>
+      <c r="AE123" s="59"/>
+      <c r="AF123" s="59"/>
+      <c r="AG123" s="59"/>
       <c r="AH123" s="15" t="s">
         <v>13</v>
       </c>
@@ -8409,8 +8405,8 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="17"/>
-      <c r="B125" s="59" t="s">
-        <v>46</v>
+      <c r="B125" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="C125" s="19"/>
       <c r="D125" s="19"/>
@@ -8462,7 +8458,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
-      <c r="B126" s="59"/>
+      <c r="B126" s="60"/>
       <c r="C126" s="19"/>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -8513,7 +8509,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
-      <c r="B127" s="59"/>
+      <c r="B127" s="60"/>
       <c r="C127" s="19"/>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -8564,7 +8560,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
-      <c r="B128" s="59"/>
+      <c r="B128" s="60"/>
       <c r="C128" s="19"/>
       <c r="D128" s="19"/>
       <c r="E128" s="19"/>
@@ -8615,7 +8611,7 @@
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="17"/>
-      <c r="B129" s="59"/>
+      <c r="B129" s="60"/>
       <c r="C129" s="19"/>
       <c r="D129" s="19"/>
       <c r="E129" s="19"/>
@@ -8666,7 +8662,7 @@
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
-      <c r="B130" s="59"/>
+      <c r="B130" s="60"/>
       <c r="C130" s="19"/>
       <c r="E130" s="19"/>
       <c r="G130" s="19"/>
@@ -8715,7 +8711,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="B131" s="59"/>
+      <c r="B131" s="60"/>
       <c r="C131" s="19"/>
       <c r="D131" s="19"/>
       <c r="E131" s="19"/>
@@ -8766,7 +8762,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
-      <c r="B132" s="59"/>
+      <c r="B132" s="60"/>
       <c r="C132" s="19"/>
       <c r="D132" s="19"/>
       <c r="E132" s="19"/>
@@ -8817,7 +8813,7 @@
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
-      <c r="B133" s="59"/>
+      <c r="B133" s="60"/>
       <c r="C133" s="19"/>
       <c r="D133" s="19"/>
       <c r="E133" s="19"/>
@@ -8868,7 +8864,7 @@
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
-      <c r="B134" s="59"/>
+      <c r="B134" s="60"/>
       <c r="C134" s="19"/>
       <c r="D134" s="19"/>
       <c r="E134" s="19"/>
@@ -8919,7 +8915,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="17"/>
-      <c r="B135" s="59"/>
+      <c r="B135" s="60"/>
       <c r="C135" s="19"/>
       <c r="D135" s="19"/>
       <c r="E135" s="19"/>
@@ -8970,7 +8966,7 @@
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="17"/>
-      <c r="B136" s="59"/>
+      <c r="B136" s="60"/>
       <c r="C136" s="19"/>
       <c r="D136" s="19"/>
       <c r="E136" s="19"/>
@@ -9021,7 +9017,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="17"/>
-      <c r="B137" s="59"/>
+      <c r="B137" s="60"/>
       <c r="C137" s="19"/>
       <c r="D137" s="19"/>
       <c r="E137" s="19"/>
@@ -9072,7 +9068,7 @@
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
-      <c r="B138" s="59"/>
+      <c r="B138" s="60"/>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
       <c r="E138" s="19"/>
@@ -9122,7 +9118,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="B139" s="59"/>
+      <c r="B139" s="60"/>
       <c r="C139" s="19"/>
       <c r="D139" s="19"/>
       <c r="E139" s="19"/>
@@ -9173,7 +9169,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="B140" s="59"/>
+      <c r="B140" s="60"/>
       <c r="C140" s="19"/>
       <c r="D140" s="19"/>
       <c r="E140" s="19"/>
@@ -9224,7 +9220,7 @@
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="B141" s="59"/>
+      <c r="B141" s="60"/>
       <c r="C141" s="19"/>
       <c r="D141" s="19"/>
       <c r="E141" s="19"/>
@@ -9275,7 +9271,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="B142" s="59"/>
+      <c r="B142" s="60"/>
       <c r="C142" s="19"/>
       <c r="D142" s="19"/>
       <c r="E142" s="19"/>
@@ -9326,8 +9322,8 @@
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="B143" s="71" t="s">
-        <v>47</v>
+      <c r="B143" s="72" t="s">
+        <v>44</v>
       </c>
       <c r="C143" s="19"/>
       <c r="D143" s="19"/>
@@ -9380,52 +9376,52 @@
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
       <c r="B144" s="28"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="68"/>
-      <c r="G144" s="68"/>
-      <c r="H144" s="68"/>
-      <c r="I144" s="68"/>
-      <c r="J144" s="67"/>
-      <c r="K144" s="67"/>
-      <c r="L144" s="67"/>
-      <c r="M144" s="67"/>
-      <c r="N144" s="67"/>
-      <c r="O144" s="67"/>
-      <c r="P144" s="67"/>
-      <c r="Q144" s="67"/>
-      <c r="R144" s="67"/>
-      <c r="S144" s="67"/>
-      <c r="T144" s="67"/>
-      <c r="U144" s="67"/>
-      <c r="V144" s="67"/>
-      <c r="W144" s="67"/>
-      <c r="X144" s="67"/>
-      <c r="Y144" s="67"/>
-      <c r="Z144" s="67"/>
-      <c r="AA144" s="67"/>
-      <c r="AB144" s="67"/>
-      <c r="AC144" s="67"/>
-      <c r="AD144" s="67"/>
-      <c r="AE144" s="67"/>
-      <c r="AF144" s="67"/>
-      <c r="AG144" s="67"/>
-      <c r="AH144" s="67"/>
-      <c r="AI144" s="67"/>
-      <c r="AJ144" s="67"/>
-      <c r="AK144" s="67"/>
-      <c r="AL144" s="67"/>
-      <c r="AM144" s="67"/>
-      <c r="AN144" s="67"/>
-      <c r="AO144" s="67"/>
-      <c r="AP144" s="67"/>
-      <c r="AQ144" s="67"/>
-      <c r="AR144" s="67"/>
-      <c r="AS144" s="67"/>
-      <c r="AT144" s="67"/>
-      <c r="AU144" s="67"/>
-      <c r="AV144" s="67"/>
+      <c r="C144" s="68"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="69"/>
+      <c r="F144" s="69"/>
+      <c r="G144" s="69"/>
+      <c r="H144" s="69"/>
+      <c r="I144" s="69"/>
+      <c r="J144" s="68"/>
+      <c r="K144" s="68"/>
+      <c r="L144" s="68"/>
+      <c r="M144" s="68"/>
+      <c r="N144" s="68"/>
+      <c r="O144" s="68"/>
+      <c r="P144" s="68"/>
+      <c r="Q144" s="68"/>
+      <c r="R144" s="68"/>
+      <c r="S144" s="68"/>
+      <c r="T144" s="68"/>
+      <c r="U144" s="68"/>
+      <c r="V144" s="68"/>
+      <c r="W144" s="68"/>
+      <c r="X144" s="68"/>
+      <c r="Y144" s="68"/>
+      <c r="Z144" s="68"/>
+      <c r="AA144" s="68"/>
+      <c r="AB144" s="68"/>
+      <c r="AC144" s="68"/>
+      <c r="AD144" s="68"/>
+      <c r="AE144" s="68"/>
+      <c r="AF144" s="68"/>
+      <c r="AG144" s="68"/>
+      <c r="AH144" s="68"/>
+      <c r="AI144" s="68"/>
+      <c r="AJ144" s="68"/>
+      <c r="AK144" s="68"/>
+      <c r="AL144" s="68"/>
+      <c r="AM144" s="68"/>
+      <c r="AN144" s="68"/>
+      <c r="AO144" s="68"/>
+      <c r="AP144" s="68"/>
+      <c r="AQ144" s="68"/>
+      <c r="AR144" s="68"/>
+      <c r="AS144" s="68"/>
+      <c r="AT144" s="68"/>
+      <c r="AU144" s="68"/>
+      <c r="AV144" s="68"/>
       <c r="AW144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9483,83 +9479,83 @@
       <c r="A146" s="17"/>
       <c r="B146" s="28"/>
       <c r="C146" s="19"/>
-      <c r="D146" s="72" t="s">
+      <c r="D146" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="E146" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" s="73"/>
+      <c r="G146" s="73" t="s">
+        <v>47</v>
+      </c>
+      <c r="H146" s="73"/>
+      <c r="I146" s="73"/>
+      <c r="J146" s="73"/>
+      <c r="K146" s="73"/>
+      <c r="L146" s="73"/>
+      <c r="M146" s="73"/>
+      <c r="N146" s="73"/>
+      <c r="O146" s="73"/>
+      <c r="P146" s="73"/>
+      <c r="Q146" s="73"/>
+      <c r="R146" s="73"/>
+      <c r="S146" s="73"/>
+      <c r="T146" s="73"/>
+      <c r="U146" s="73"/>
+      <c r="V146" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="E146" s="72" t="s">
+      <c r="W146" s="73"/>
+      <c r="X146" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="H146" s="72"/>
-      <c r="I146" s="72"/>
-      <c r="J146" s="72"/>
-      <c r="K146" s="72"/>
-      <c r="L146" s="72"/>
-      <c r="M146" s="72"/>
-      <c r="N146" s="72"/>
-      <c r="O146" s="72"/>
-      <c r="P146" s="72"/>
-      <c r="Q146" s="72"/>
-      <c r="R146" s="72"/>
-      <c r="S146" s="72"/>
-      <c r="T146" s="72"/>
-      <c r="U146" s="72"/>
-      <c r="V146" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="W146" s="72"/>
-      <c r="X146" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y146" s="73"/>
-      <c r="Z146" s="73"/>
-      <c r="AA146" s="73"/>
-      <c r="AB146" s="73"/>
-      <c r="AC146" s="73"/>
-      <c r="AD146" s="73"/>
-      <c r="AE146" s="73"/>
-      <c r="AF146" s="73"/>
-      <c r="AG146" s="73"/>
-      <c r="AH146" s="73"/>
-      <c r="AI146" s="73"/>
-      <c r="AJ146" s="73"/>
-      <c r="AK146" s="73"/>
-      <c r="AL146" s="73"/>
-      <c r="AM146" s="73"/>
-      <c r="AN146" s="73"/>
-      <c r="AO146" s="73"/>
-      <c r="AP146" s="73"/>
-      <c r="AQ146" s="73"/>
-      <c r="AR146" s="73"/>
-      <c r="AS146" s="73"/>
-      <c r="AT146" s="73"/>
-      <c r="AU146" s="73"/>
-      <c r="AV146" s="73"/>
+      <c r="Y146" s="74"/>
+      <c r="Z146" s="74"/>
+      <c r="AA146" s="74"/>
+      <c r="AB146" s="74"/>
+      <c r="AC146" s="74"/>
+      <c r="AD146" s="74"/>
+      <c r="AE146" s="74"/>
+      <c r="AF146" s="74"/>
+      <c r="AG146" s="74"/>
+      <c r="AH146" s="74"/>
+      <c r="AI146" s="74"/>
+      <c r="AJ146" s="74"/>
+      <c r="AK146" s="74"/>
+      <c r="AL146" s="74"/>
+      <c r="AM146" s="74"/>
+      <c r="AN146" s="74"/>
+      <c r="AO146" s="74"/>
+      <c r="AP146" s="74"/>
+      <c r="AQ146" s="74"/>
+      <c r="AR146" s="74"/>
+      <c r="AS146" s="74"/>
+      <c r="AT146" s="74"/>
+      <c r="AU146" s="74"/>
+      <c r="AV146" s="74"/>
       <c r="AW146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
-      <c r="B147" s="59"/>
+      <c r="B147" s="60"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="74" t="n">
+      <c r="D147" s="75" t="n">
         <v>1</v>
       </c>
-      <c r="E147" s="75" t="s">
-        <v>53</v>
+      <c r="E147" s="76" t="s">
+        <v>50</v>
       </c>
       <c r="F147" s="76"/>
       <c r="G147" s="77" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H147" s="78"/>
       <c r="I147" s="78"/>
       <c r="J147" s="78"/>
       <c r="K147" s="79"/>
       <c r="L147" s="80" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="M147" s="78"/>
       <c r="N147" s="78"/>
@@ -9570,8 +9566,8 @@
       <c r="S147" s="78"/>
       <c r="T147" s="78"/>
       <c r="U147" s="81"/>
-      <c r="V147" s="75" t="s">
-        <v>56</v>
+      <c r="V147" s="76" t="s">
+        <v>53</v>
       </c>
       <c r="W147" s="76"/>
       <c r="X147" s="82"/>
@@ -9603,13 +9599,13 @@
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
-      <c r="B148" s="59"/>
+      <c r="B148" s="60"/>
       <c r="C148" s="9"/>
       <c r="D148" s="85" t="n">
         <v>2</v>
       </c>
       <c r="E148" s="0"/>
-      <c r="F148" s="76"/>
+      <c r="F148" s="86"/>
       <c r="G148" s="77"/>
       <c r="H148" s="78"/>
       <c r="I148" s="78"/>
@@ -9625,8 +9621,8 @@
       <c r="S148" s="78"/>
       <c r="T148" s="78"/>
       <c r="U148" s="81"/>
-      <c r="V148" s="75"/>
-      <c r="W148" s="76"/>
+      <c r="V148" s="76"/>
+      <c r="W148" s="86"/>
       <c r="X148" s="77"/>
       <c r="Y148" s="78"/>
       <c r="Z148" s="78"/>
@@ -9656,13 +9652,13 @@
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
-      <c r="B149" s="59"/>
+      <c r="B149" s="60"/>
       <c r="C149" s="9"/>
       <c r="D149" s="85" t="n">
         <v>4</v>
       </c>
-      <c r="E149" s="75"/>
-      <c r="F149" s="76"/>
+      <c r="E149" s="76"/>
+      <c r="F149" s="86"/>
       <c r="G149" s="77"/>
       <c r="H149" s="78"/>
       <c r="I149" s="78"/>
@@ -9678,8 +9674,8 @@
       <c r="S149" s="78"/>
       <c r="T149" s="78"/>
       <c r="U149" s="81"/>
-      <c r="V149" s="75"/>
-      <c r="W149" s="76"/>
+      <c r="V149" s="76"/>
+      <c r="W149" s="86"/>
       <c r="X149" s="77"/>
       <c r="Y149" s="78"/>
       <c r="Z149" s="78"/>
@@ -9709,13 +9705,13 @@
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
-      <c r="B150" s="59"/>
+      <c r="B150" s="60"/>
       <c r="C150" s="9"/>
       <c r="D150" s="85" t="n">
         <v>5</v>
       </c>
-      <c r="E150" s="75"/>
-      <c r="F150" s="76"/>
+      <c r="E150" s="76"/>
+      <c r="F150" s="86"/>
       <c r="G150" s="77"/>
       <c r="H150" s="78"/>
       <c r="I150" s="78"/>
@@ -9731,8 +9727,8 @@
       <c r="S150" s="78"/>
       <c r="T150" s="78"/>
       <c r="U150" s="81"/>
-      <c r="V150" s="75"/>
-      <c r="W150" s="76"/>
+      <c r="V150" s="76"/>
+      <c r="W150" s="86"/>
       <c r="X150" s="77"/>
       <c r="Y150" s="78"/>
       <c r="Z150" s="78"/>
@@ -9762,13 +9758,13 @@
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
-      <c r="B151" s="59"/>
+      <c r="B151" s="60"/>
       <c r="C151" s="9"/>
       <c r="D151" s="85" t="n">
         <v>6</v>
       </c>
-      <c r="E151" s="75"/>
-      <c r="F151" s="76"/>
+      <c r="E151" s="76"/>
+      <c r="F151" s="86"/>
       <c r="G151" s="77"/>
       <c r="H151" s="78"/>
       <c r="I151" s="78"/>
@@ -9784,296 +9780,296 @@
       <c r="S151" s="78"/>
       <c r="T151" s="78"/>
       <c r="U151" s="81"/>
-      <c r="V151" s="75"/>
-      <c r="W151" s="76"/>
-      <c r="X151" s="86"/>
-      <c r="Y151" s="87"/>
-      <c r="Z151" s="87"/>
-      <c r="AA151" s="87"/>
-      <c r="AB151" s="87"/>
-      <c r="AC151" s="87"/>
-      <c r="AD151" s="87"/>
-      <c r="AE151" s="87"/>
-      <c r="AF151" s="87"/>
-      <c r="AG151" s="87"/>
-      <c r="AH151" s="87"/>
-      <c r="AI151" s="87"/>
-      <c r="AJ151" s="87"/>
-      <c r="AK151" s="87"/>
-      <c r="AL151" s="87"/>
-      <c r="AM151" s="87"/>
-      <c r="AN151" s="87"/>
-      <c r="AO151" s="87"/>
-      <c r="AP151" s="87"/>
-      <c r="AQ151" s="87"/>
-      <c r="AR151" s="87"/>
-      <c r="AS151" s="87"/>
-      <c r="AT151" s="87"/>
-      <c r="AU151" s="87"/>
-      <c r="AV151" s="88"/>
+      <c r="V151" s="76"/>
+      <c r="W151" s="86"/>
+      <c r="X151" s="87"/>
+      <c r="Y151" s="88"/>
+      <c r="Z151" s="88"/>
+      <c r="AA151" s="88"/>
+      <c r="AB151" s="88"/>
+      <c r="AC151" s="88"/>
+      <c r="AD151" s="88"/>
+      <c r="AE151" s="88"/>
+      <c r="AF151" s="88"/>
+      <c r="AG151" s="88"/>
+      <c r="AH151" s="88"/>
+      <c r="AI151" s="88"/>
+      <c r="AJ151" s="88"/>
+      <c r="AK151" s="88"/>
+      <c r="AL151" s="88"/>
+      <c r="AM151" s="88"/>
+      <c r="AN151" s="88"/>
+      <c r="AO151" s="88"/>
+      <c r="AP151" s="88"/>
+      <c r="AQ151" s="88"/>
+      <c r="AR151" s="88"/>
+      <c r="AS151" s="88"/>
+      <c r="AT151" s="88"/>
+      <c r="AU151" s="88"/>
+      <c r="AV151" s="89"/>
       <c r="AW151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
-      <c r="B152" s="59"/>
+      <c r="B152" s="60"/>
       <c r="C152" s="9"/>
       <c r="D152" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="E152" s="89"/>
-      <c r="F152" s="90"/>
-      <c r="G152" s="86"/>
-      <c r="H152" s="87"/>
-      <c r="I152" s="87"/>
-      <c r="J152" s="87"/>
-      <c r="K152" s="91"/>
-      <c r="L152" s="92"/>
-      <c r="M152" s="87"/>
-      <c r="N152" s="87"/>
-      <c r="O152" s="87"/>
-      <c r="P152" s="87"/>
-      <c r="Q152" s="87"/>
-      <c r="R152" s="87"/>
-      <c r="S152" s="87"/>
-      <c r="T152" s="87"/>
-      <c r="U152" s="88"/>
-      <c r="V152" s="89"/>
-      <c r="W152" s="90"/>
-      <c r="X152" s="86"/>
-      <c r="Y152" s="87"/>
-      <c r="Z152" s="87"/>
-      <c r="AA152" s="87"/>
-      <c r="AB152" s="87"/>
-      <c r="AC152" s="87"/>
-      <c r="AD152" s="87"/>
-      <c r="AE152" s="87"/>
-      <c r="AF152" s="87"/>
-      <c r="AG152" s="87"/>
-      <c r="AH152" s="87"/>
-      <c r="AI152" s="87"/>
-      <c r="AJ152" s="87"/>
-      <c r="AK152" s="87"/>
-      <c r="AL152" s="87"/>
-      <c r="AM152" s="87"/>
-      <c r="AN152" s="87"/>
-      <c r="AO152" s="87"/>
-      <c r="AP152" s="87"/>
-      <c r="AQ152" s="87"/>
-      <c r="AR152" s="87"/>
-      <c r="AS152" s="87"/>
-      <c r="AT152" s="87"/>
-      <c r="AU152" s="87"/>
-      <c r="AV152" s="88"/>
+      <c r="E152" s="90"/>
+      <c r="F152" s="91"/>
+      <c r="G152" s="87"/>
+      <c r="H152" s="88"/>
+      <c r="I152" s="88"/>
+      <c r="J152" s="88"/>
+      <c r="K152" s="92"/>
+      <c r="L152" s="93"/>
+      <c r="M152" s="88"/>
+      <c r="N152" s="88"/>
+      <c r="O152" s="88"/>
+      <c r="P152" s="88"/>
+      <c r="Q152" s="88"/>
+      <c r="R152" s="88"/>
+      <c r="S152" s="88"/>
+      <c r="T152" s="88"/>
+      <c r="U152" s="89"/>
+      <c r="V152" s="90"/>
+      <c r="W152" s="91"/>
+      <c r="X152" s="87"/>
+      <c r="Y152" s="88"/>
+      <c r="Z152" s="88"/>
+      <c r="AA152" s="88"/>
+      <c r="AB152" s="88"/>
+      <c r="AC152" s="88"/>
+      <c r="AD152" s="88"/>
+      <c r="AE152" s="88"/>
+      <c r="AF152" s="88"/>
+      <c r="AG152" s="88"/>
+      <c r="AH152" s="88"/>
+      <c r="AI152" s="88"/>
+      <c r="AJ152" s="88"/>
+      <c r="AK152" s="88"/>
+      <c r="AL152" s="88"/>
+      <c r="AM152" s="88"/>
+      <c r="AN152" s="88"/>
+      <c r="AO152" s="88"/>
+      <c r="AP152" s="88"/>
+      <c r="AQ152" s="88"/>
+      <c r="AR152" s="88"/>
+      <c r="AS152" s="88"/>
+      <c r="AT152" s="88"/>
+      <c r="AU152" s="88"/>
+      <c r="AV152" s="89"/>
       <c r="AW152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
-      <c r="B153" s="59"/>
+      <c r="B153" s="60"/>
       <c r="C153" s="9"/>
       <c r="D153" s="85" t="n">
         <v>8</v>
       </c>
-      <c r="E153" s="89"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="86"/>
-      <c r="H153" s="87"/>
-      <c r="I153" s="87"/>
-      <c r="J153" s="87"/>
-      <c r="K153" s="91"/>
-      <c r="L153" s="92"/>
-      <c r="M153" s="87"/>
-      <c r="N153" s="87"/>
-      <c r="O153" s="87"/>
-      <c r="P153" s="87"/>
-      <c r="Q153" s="87"/>
-      <c r="R153" s="87"/>
-      <c r="S153" s="87"/>
-      <c r="T153" s="87"/>
-      <c r="U153" s="88"/>
-      <c r="V153" s="89"/>
-      <c r="W153" s="90"/>
-      <c r="X153" s="86"/>
-      <c r="Y153" s="87"/>
-      <c r="Z153" s="87"/>
-      <c r="AA153" s="87"/>
-      <c r="AB153" s="87"/>
-      <c r="AC153" s="87"/>
-      <c r="AD153" s="87"/>
-      <c r="AE153" s="87"/>
-      <c r="AF153" s="87"/>
-      <c r="AG153" s="87"/>
-      <c r="AH153" s="87"/>
-      <c r="AI153" s="87"/>
-      <c r="AJ153" s="87"/>
-      <c r="AK153" s="87"/>
-      <c r="AL153" s="87"/>
-      <c r="AM153" s="87"/>
-      <c r="AN153" s="87"/>
-      <c r="AO153" s="87"/>
-      <c r="AP153" s="87"/>
-      <c r="AQ153" s="87"/>
-      <c r="AR153" s="87"/>
-      <c r="AS153" s="87"/>
-      <c r="AT153" s="87"/>
-      <c r="AU153" s="87"/>
-      <c r="AV153" s="88"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="91"/>
+      <c r="G153" s="87"/>
+      <c r="H153" s="88"/>
+      <c r="I153" s="88"/>
+      <c r="J153" s="88"/>
+      <c r="K153" s="92"/>
+      <c r="L153" s="93"/>
+      <c r="M153" s="88"/>
+      <c r="N153" s="88"/>
+      <c r="O153" s="88"/>
+      <c r="P153" s="88"/>
+      <c r="Q153" s="88"/>
+      <c r="R153" s="88"/>
+      <c r="S153" s="88"/>
+      <c r="T153" s="88"/>
+      <c r="U153" s="89"/>
+      <c r="V153" s="90"/>
+      <c r="W153" s="91"/>
+      <c r="X153" s="87"/>
+      <c r="Y153" s="88"/>
+      <c r="Z153" s="88"/>
+      <c r="AA153" s="88"/>
+      <c r="AB153" s="88"/>
+      <c r="AC153" s="88"/>
+      <c r="AD153" s="88"/>
+      <c r="AE153" s="88"/>
+      <c r="AF153" s="88"/>
+      <c r="AG153" s="88"/>
+      <c r="AH153" s="88"/>
+      <c r="AI153" s="88"/>
+      <c r="AJ153" s="88"/>
+      <c r="AK153" s="88"/>
+      <c r="AL153" s="88"/>
+      <c r="AM153" s="88"/>
+      <c r="AN153" s="88"/>
+      <c r="AO153" s="88"/>
+      <c r="AP153" s="88"/>
+      <c r="AQ153" s="88"/>
+      <c r="AR153" s="88"/>
+      <c r="AS153" s="88"/>
+      <c r="AT153" s="88"/>
+      <c r="AU153" s="88"/>
+      <c r="AV153" s="89"/>
       <c r="AW153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
-      <c r="B154" s="59"/>
+      <c r="B154" s="60"/>
       <c r="C154" s="9"/>
       <c r="D154" s="85" t="n">
         <v>9</v>
       </c>
-      <c r="E154" s="89"/>
-      <c r="F154" s="90"/>
-      <c r="G154" s="86"/>
-      <c r="H154" s="87"/>
-      <c r="I154" s="87"/>
-      <c r="J154" s="87"/>
-      <c r="K154" s="91"/>
-      <c r="L154" s="92"/>
-      <c r="M154" s="87"/>
-      <c r="N154" s="87"/>
-      <c r="O154" s="87"/>
-      <c r="P154" s="87"/>
-      <c r="Q154" s="87"/>
-      <c r="R154" s="87"/>
-      <c r="S154" s="87"/>
-      <c r="T154" s="87"/>
-      <c r="U154" s="88"/>
-      <c r="V154" s="89"/>
-      <c r="W154" s="90"/>
-      <c r="X154" s="86"/>
-      <c r="Y154" s="87"/>
-      <c r="Z154" s="87"/>
-      <c r="AA154" s="87"/>
-      <c r="AB154" s="87"/>
-      <c r="AC154" s="87"/>
-      <c r="AD154" s="87"/>
-      <c r="AE154" s="87"/>
-      <c r="AF154" s="87"/>
-      <c r="AG154" s="87"/>
-      <c r="AH154" s="87"/>
-      <c r="AI154" s="87"/>
-      <c r="AJ154" s="87"/>
-      <c r="AK154" s="87"/>
-      <c r="AL154" s="87"/>
-      <c r="AM154" s="87"/>
-      <c r="AN154" s="87"/>
-      <c r="AO154" s="87"/>
-      <c r="AP154" s="87"/>
-      <c r="AQ154" s="87"/>
-      <c r="AR154" s="87"/>
-      <c r="AS154" s="87"/>
-      <c r="AT154" s="87"/>
-      <c r="AU154" s="87"/>
-      <c r="AV154" s="88"/>
+      <c r="E154" s="90"/>
+      <c r="F154" s="91"/>
+      <c r="G154" s="87"/>
+      <c r="H154" s="88"/>
+      <c r="I154" s="88"/>
+      <c r="J154" s="88"/>
+      <c r="K154" s="92"/>
+      <c r="L154" s="93"/>
+      <c r="M154" s="88"/>
+      <c r="N154" s="88"/>
+      <c r="O154" s="88"/>
+      <c r="P154" s="88"/>
+      <c r="Q154" s="88"/>
+      <c r="R154" s="88"/>
+      <c r="S154" s="88"/>
+      <c r="T154" s="88"/>
+      <c r="U154" s="89"/>
+      <c r="V154" s="90"/>
+      <c r="W154" s="91"/>
+      <c r="X154" s="87"/>
+      <c r="Y154" s="88"/>
+      <c r="Z154" s="88"/>
+      <c r="AA154" s="88"/>
+      <c r="AB154" s="88"/>
+      <c r="AC154" s="88"/>
+      <c r="AD154" s="88"/>
+      <c r="AE154" s="88"/>
+      <c r="AF154" s="88"/>
+      <c r="AG154" s="88"/>
+      <c r="AH154" s="88"/>
+      <c r="AI154" s="88"/>
+      <c r="AJ154" s="88"/>
+      <c r="AK154" s="88"/>
+      <c r="AL154" s="88"/>
+      <c r="AM154" s="88"/>
+      <c r="AN154" s="88"/>
+      <c r="AO154" s="88"/>
+      <c r="AP154" s="88"/>
+      <c r="AQ154" s="88"/>
+      <c r="AR154" s="88"/>
+      <c r="AS154" s="88"/>
+      <c r="AT154" s="88"/>
+      <c r="AU154" s="88"/>
+      <c r="AV154" s="89"/>
       <c r="AW154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
-      <c r="B155" s="59"/>
+      <c r="B155" s="60"/>
       <c r="C155" s="9"/>
-      <c r="D155" s="93" t="n">
+      <c r="D155" s="94" t="n">
         <v>10</v>
       </c>
-      <c r="E155" s="89"/>
-      <c r="F155" s="90"/>
-      <c r="G155" s="86"/>
-      <c r="H155" s="87"/>
-      <c r="I155" s="87"/>
-      <c r="J155" s="87"/>
-      <c r="K155" s="91"/>
-      <c r="L155" s="92"/>
-      <c r="M155" s="87"/>
-      <c r="N155" s="87"/>
-      <c r="O155" s="87"/>
-      <c r="P155" s="87"/>
-      <c r="Q155" s="87"/>
-      <c r="R155" s="87"/>
-      <c r="S155" s="87"/>
-      <c r="T155" s="87"/>
-      <c r="U155" s="88"/>
-      <c r="V155" s="89"/>
-      <c r="W155" s="90"/>
-      <c r="X155" s="86"/>
-      <c r="Y155" s="87"/>
-      <c r="Z155" s="87"/>
-      <c r="AA155" s="87"/>
-      <c r="AB155" s="87"/>
-      <c r="AC155" s="87"/>
-      <c r="AD155" s="87"/>
-      <c r="AE155" s="87"/>
-      <c r="AF155" s="87"/>
-      <c r="AG155" s="87"/>
-      <c r="AH155" s="87"/>
-      <c r="AI155" s="87"/>
-      <c r="AJ155" s="87"/>
-      <c r="AK155" s="87"/>
-      <c r="AL155" s="87"/>
-      <c r="AM155" s="87"/>
-      <c r="AN155" s="87"/>
-      <c r="AO155" s="87"/>
-      <c r="AP155" s="87"/>
-      <c r="AQ155" s="87"/>
-      <c r="AR155" s="87"/>
-      <c r="AS155" s="87"/>
-      <c r="AT155" s="87"/>
-      <c r="AU155" s="87"/>
-      <c r="AV155" s="88"/>
+      <c r="E155" s="90"/>
+      <c r="F155" s="91"/>
+      <c r="G155" s="87"/>
+      <c r="H155" s="88"/>
+      <c r="I155" s="88"/>
+      <c r="J155" s="88"/>
+      <c r="K155" s="92"/>
+      <c r="L155" s="93"/>
+      <c r="M155" s="88"/>
+      <c r="N155" s="88"/>
+      <c r="O155" s="88"/>
+      <c r="P155" s="88"/>
+      <c r="Q155" s="88"/>
+      <c r="R155" s="88"/>
+      <c r="S155" s="88"/>
+      <c r="T155" s="88"/>
+      <c r="U155" s="89"/>
+      <c r="V155" s="90"/>
+      <c r="W155" s="91"/>
+      <c r="X155" s="87"/>
+      <c r="Y155" s="88"/>
+      <c r="Z155" s="88"/>
+      <c r="AA155" s="88"/>
+      <c r="AB155" s="88"/>
+      <c r="AC155" s="88"/>
+      <c r="AD155" s="88"/>
+      <c r="AE155" s="88"/>
+      <c r="AF155" s="88"/>
+      <c r="AG155" s="88"/>
+      <c r="AH155" s="88"/>
+      <c r="AI155" s="88"/>
+      <c r="AJ155" s="88"/>
+      <c r="AK155" s="88"/>
+      <c r="AL155" s="88"/>
+      <c r="AM155" s="88"/>
+      <c r="AN155" s="88"/>
+      <c r="AO155" s="88"/>
+      <c r="AP155" s="88"/>
+      <c r="AQ155" s="88"/>
+      <c r="AR155" s="88"/>
+      <c r="AS155" s="88"/>
+      <c r="AT155" s="88"/>
+      <c r="AU155" s="88"/>
+      <c r="AV155" s="89"/>
       <c r="AW155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
-      <c r="B156" s="59"/>
+      <c r="B156" s="60"/>
       <c r="C156" s="9"/>
-      <c r="D156" s="94"/>
-      <c r="E156" s="94"/>
-      <c r="F156" s="94"/>
-      <c r="G156" s="95"/>
-      <c r="H156" s="96"/>
-      <c r="I156" s="96"/>
-      <c r="J156" s="96"/>
-      <c r="K156" s="96"/>
-      <c r="L156" s="96"/>
-      <c r="M156" s="96"/>
-      <c r="N156" s="96"/>
-      <c r="O156" s="96"/>
-      <c r="P156" s="96"/>
-      <c r="Q156" s="96"/>
-      <c r="R156" s="96"/>
-      <c r="S156" s="96"/>
-      <c r="T156" s="96"/>
-      <c r="U156" s="96"/>
-      <c r="V156" s="94"/>
-      <c r="W156" s="94"/>
-      <c r="X156" s="96"/>
-      <c r="Y156" s="96"/>
-      <c r="Z156" s="96"/>
-      <c r="AA156" s="96"/>
-      <c r="AB156" s="96"/>
-      <c r="AC156" s="96"/>
-      <c r="AD156" s="96"/>
-      <c r="AE156" s="96"/>
-      <c r="AF156" s="96"/>
-      <c r="AG156" s="96"/>
-      <c r="AH156" s="96"/>
-      <c r="AI156" s="96"/>
-      <c r="AJ156" s="96"/>
-      <c r="AK156" s="96"/>
-      <c r="AL156" s="96"/>
-      <c r="AM156" s="96"/>
-      <c r="AN156" s="96"/>
-      <c r="AO156" s="96"/>
-      <c r="AP156" s="96"/>
-      <c r="AQ156" s="96"/>
-      <c r="AR156" s="96"/>
-      <c r="AS156" s="96"/>
-      <c r="AT156" s="96"/>
-      <c r="AU156" s="96"/>
-      <c r="AV156" s="96"/>
+      <c r="D156" s="95"/>
+      <c r="E156" s="95"/>
+      <c r="F156" s="95"/>
+      <c r="G156" s="96"/>
+      <c r="H156" s="97"/>
+      <c r="I156" s="97"/>
+      <c r="J156" s="97"/>
+      <c r="K156" s="97"/>
+      <c r="L156" s="97"/>
+      <c r="M156" s="97"/>
+      <c r="N156" s="97"/>
+      <c r="O156" s="97"/>
+      <c r="P156" s="97"/>
+      <c r="Q156" s="97"/>
+      <c r="R156" s="97"/>
+      <c r="S156" s="97"/>
+      <c r="T156" s="97"/>
+      <c r="U156" s="97"/>
+      <c r="V156" s="95"/>
+      <c r="W156" s="95"/>
+      <c r="X156" s="97"/>
+      <c r="Y156" s="97"/>
+      <c r="Z156" s="97"/>
+      <c r="AA156" s="97"/>
+      <c r="AB156" s="97"/>
+      <c r="AC156" s="97"/>
+      <c r="AD156" s="97"/>
+      <c r="AE156" s="97"/>
+      <c r="AF156" s="97"/>
+      <c r="AG156" s="97"/>
+      <c r="AH156" s="97"/>
+      <c r="AI156" s="97"/>
+      <c r="AJ156" s="97"/>
+      <c r="AK156" s="97"/>
+      <c r="AL156" s="97"/>
+      <c r="AM156" s="97"/>
+      <c r="AN156" s="97"/>
+      <c r="AO156" s="97"/>
+      <c r="AP156" s="97"/>
+      <c r="AQ156" s="97"/>
+      <c r="AR156" s="97"/>
+      <c r="AS156" s="97"/>
+      <c r="AT156" s="97"/>
+      <c r="AU156" s="97"/>
+      <c r="AV156" s="97"/>
       <c r="AW156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10133,7 +10129,7 @@
       <c r="C158" s="19"/>
       <c r="D158" s="19"/>
       <c r="E158" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -10283,7 +10279,7 @@
       <c r="AW160" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="204">
+  <mergeCells count="206">
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="J1:O3"/>
     <mergeCell ref="P1:U3"/>
@@ -10488,6 +10484,8 @@
     <mergeCell ref="G146:U146"/>
     <mergeCell ref="V146:W146"/>
     <mergeCell ref="X146:AV146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="V147:W147"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.590277777777778" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -10507,18 +10505,18 @@
   </sheetPr>
   <dimension ref="A1:BX175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B131" activeCellId="0" sqref="B131:AU134"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AT22" activeCellId="0" sqref="AT22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.640625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="2.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="2.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="60" width="2.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="35" min="3" style="9" width="2.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="9" width="3.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="49" min="37" style="9" width="2.64"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="97" width="2.64"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="50" min="50" style="98" width="2.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="51" style="1" width="2.64"/>
   </cols>
   <sheetData>
@@ -10675,15 +10673,15 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
+      <c r="AA3" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="59"/>
+      <c r="AG3" s="59"/>
       <c r="AH3" s="15" t="s">
         <v>13</v>
       </c>
@@ -10756,8 +10754,8 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="17"/>
-      <c r="B5" s="59" t="s">
-        <v>58</v>
+      <c r="B5" s="60" t="s">
+        <v>55</v>
       </c>
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
@@ -10783,316 +10781,316 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="AW7" s="98"/>
-    </row>
-    <row r="8" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
-      <c r="AW8" s="101"/>
+      <c r="AW7" s="99"/>
+    </row>
+    <row r="8" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="100"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101"/>
+      <c r="AW8" s="102"/>
       <c r="BD8" s="1"/>
       <c r="BE8" s="1"/>
       <c r="BF8" s="1"/>
     </row>
-    <row r="9" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="AW9" s="101"/>
+    <row r="9" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="AW9" s="102"/>
       <c r="BD9" s="1"/>
       <c r="BE9" s="1"/>
       <c r="BF9" s="1"/>
     </row>
-    <row r="10" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="AW10" s="101"/>
+    <row r="10" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="AW10" s="102"/>
       <c r="BD10" s="1"/>
       <c r="BE10" s="1"/>
       <c r="BF10" s="1"/>
     </row>
-    <row r="11" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="AW11" s="101"/>
+    <row r="11" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="AW11" s="102"/>
       <c r="BD11" s="1"/>
       <c r="BE11" s="1"/>
       <c r="BF11" s="1"/>
     </row>
-    <row r="12" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="AW12" s="101"/>
+    <row r="12" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="AW12" s="102"/>
       <c r="BD12" s="1"/>
       <c r="BE12" s="1"/>
       <c r="BF12" s="1"/>
     </row>
-    <row r="13" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="AW13" s="101"/>
+    <row r="13" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="AW13" s="102"/>
       <c r="BD13" s="1"/>
       <c r="BE13" s="1"/>
       <c r="BF13" s="1"/>
     </row>
-    <row r="14" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="AW14" s="101"/>
+    <row r="14" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="AW14" s="102"/>
       <c r="BD14" s="1"/>
       <c r="BE14" s="1"/>
       <c r="BF14" s="1"/>
     </row>
-    <row r="15" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="AW15" s="101"/>
+    <row r="15" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="AW15" s="102"/>
       <c r="BD15" s="1"/>
       <c r="BE15" s="1"/>
       <c r="BF15" s="1"/>
     </row>
-    <row r="16" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="AW16" s="101"/>
+    <row r="16" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="AW16" s="102"/>
       <c r="BD16" s="1"/>
       <c r="BE16" s="1"/>
       <c r="BF16" s="1"/>
     </row>
-    <row r="17" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="AW17" s="101"/>
+    <row r="17" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="AW17" s="102"/>
       <c r="BD17" s="1"/>
       <c r="BE17" s="1"/>
       <c r="BF17" s="1"/>
     </row>
-    <row r="18" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="AW18" s="101"/>
+    <row r="18" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="AW18" s="102"/>
       <c r="BD18" s="1"/>
       <c r="BE18" s="1"/>
       <c r="BF18" s="1"/>
     </row>
-    <row r="19" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="AW19" s="101"/>
+    <row r="19" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="AW19" s="102"/>
       <c r="BD19" s="1"/>
       <c r="BE19" s="1"/>
       <c r="BF19" s="1"/>
     </row>
-    <row r="20" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="AW20" s="101"/>
+    <row r="20" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="AW20" s="102"/>
       <c r="BD20" s="1"/>
       <c r="BE20" s="1"/>
       <c r="BF20" s="1"/>
     </row>
-    <row r="21" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="AW21" s="101"/>
+    <row r="21" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="AW21" s="102"/>
       <c r="BD21" s="1"/>
       <c r="BE21" s="1"/>
       <c r="BF21" s="1"/>
     </row>
-    <row r="22" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="AW22" s="101"/>
+    <row r="22" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="AW22" s="102"/>
       <c r="BD22" s="1"/>
       <c r="BE22" s="1"/>
       <c r="BF22" s="1"/>
     </row>
-    <row r="23" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="AW23" s="101"/>
+    <row r="23" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="AW23" s="102"/>
       <c r="BD23" s="1"/>
       <c r="BE23" s="1"/>
       <c r="BF23" s="1"/>
     </row>
-    <row r="24" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="AW24" s="101"/>
+    <row r="24" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="101"/>
+      <c r="AW24" s="102"/>
       <c r="BD24" s="1"/>
       <c r="BE24" s="1"/>
       <c r="BF24" s="1"/>
     </row>
-    <row r="25" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="AW25" s="101"/>
+    <row r="25" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="AW25" s="102"/>
       <c r="BD25" s="1"/>
       <c r="BE25" s="1"/>
       <c r="BF25" s="1"/>
     </row>
-    <row r="26" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="AW26" s="101"/>
+    <row r="26" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="AW26" s="102"/>
       <c r="BD26" s="1"/>
       <c r="BE26" s="1"/>
       <c r="BF26" s="1"/>
     </row>
-    <row r="27" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="100"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="AW27" s="101"/>
+    <row r="27" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
+      <c r="H27" s="101"/>
+      <c r="AW27" s="102"/>
       <c r="BD27" s="1"/>
       <c r="BE27" s="1"/>
       <c r="BF27" s="1"/>
     </row>
-    <row r="28" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="100"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="AW28" s="101"/>
+    <row r="28" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="AW28" s="102"/>
       <c r="BD28" s="1"/>
       <c r="BE28" s="1"/>
       <c r="BF28" s="1"/>
     </row>
-    <row r="29" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="100"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="AW29" s="101"/>
+    <row r="29" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="AW29" s="102"/>
       <c r="BD29" s="1"/>
       <c r="BE29" s="1"/>
       <c r="BF29" s="1"/>
     </row>
-    <row r="30" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="100"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="AW30" s="101"/>
+    <row r="30" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="AW30" s="102"/>
       <c r="BD30" s="1"/>
       <c r="BE30" s="1"/>
       <c r="BF30" s="1"/>
     </row>
-    <row r="31" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="AW31" s="101"/>
+    <row r="31" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="AW31" s="102"/>
       <c r="BD31" s="1"/>
       <c r="BE31" s="1"/>
       <c r="BF31" s="1"/>
     </row>
-    <row r="32" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="AW32" s="101"/>
+    <row r="32" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="AW32" s="102"/>
       <c r="BD32" s="1"/>
       <c r="BE32" s="1"/>
       <c r="BF32" s="1"/>
     </row>
-    <row r="33" s="60" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="99"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="AW33" s="101"/>
+    <row r="33" s="61" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="AW33" s="102"/>
       <c r="BD33" s="1"/>
       <c r="BE33" s="1"/>
       <c r="BF33" s="1"/>
@@ -11105,7 +11103,7 @@
       <c r="AU34" s="9"/>
       <c r="AV34" s="9"/>
       <c r="AW34" s="20"/>
-      <c r="AX34" s="97"/>
+      <c r="AX34" s="98"/>
     </row>
     <row r="35" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="17"/>
@@ -11115,7 +11113,7 @@
       <c r="AU35" s="9"/>
       <c r="AV35" s="9"/>
       <c r="AW35" s="20"/>
-      <c r="AX35" s="97"/>
+      <c r="AX35" s="98"/>
     </row>
     <row r="36" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="17"/>
@@ -11125,7 +11123,7 @@
       <c r="AU36" s="9"/>
       <c r="AV36" s="9"/>
       <c r="AW36" s="20"/>
-      <c r="AX36" s="97"/>
+      <c r="AX36" s="98"/>
     </row>
     <row r="37" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="17"/>
@@ -11135,7 +11133,7 @@
       <c r="AU37" s="9"/>
       <c r="AV37" s="9"/>
       <c r="AW37" s="20"/>
-      <c r="AX37" s="97"/>
+      <c r="AX37" s="98"/>
     </row>
     <row r="38" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="17"/>
@@ -11145,7 +11143,7 @@
       <c r="AU38" s="9"/>
       <c r="AV38" s="9"/>
       <c r="AW38" s="20"/>
-      <c r="AX38" s="97"/>
+      <c r="AX38" s="98"/>
       <c r="BQ38" s="0"/>
     </row>
     <row r="39" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11156,7 +11154,7 @@
       <c r="AU39" s="9"/>
       <c r="AV39" s="9"/>
       <c r="AW39" s="20"/>
-      <c r="AX39" s="97"/>
+      <c r="AX39" s="98"/>
     </row>
     <row r="40" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="17"/>
@@ -11166,7 +11164,7 @@
       <c r="AU40" s="9"/>
       <c r="AV40" s="9"/>
       <c r="AW40" s="20"/>
-      <c r="AX40" s="97"/>
+      <c r="AX40" s="98"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
@@ -11231,7 +11229,7 @@
       </c>
       <c r="AS41" s="6"/>
       <c r="AT41" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AU41" s="8"/>
       <c r="AV41" s="8"/>
@@ -11321,15 +11319,15 @@
       <c r="X43" s="13"/>
       <c r="Y43" s="13"/>
       <c r="Z43" s="13"/>
-      <c r="AA43" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
+      <c r="AA43" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="59"/>
       <c r="AH43" s="15" t="s">
         <v>13</v>
       </c>
@@ -11359,8 +11357,8 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="17"/>
-      <c r="B45" s="59" t="s">
-        <v>60</v>
+      <c r="B45" s="60" t="s">
+        <v>57</v>
       </c>
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
@@ -11393,7 +11391,7 @@
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="17"/>
       <c r="C47" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM47" s="19"/>
       <c r="AN47" s="19"/>
@@ -11407,371 +11405,371 @@
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="17"/>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="73"/>
+      <c r="H48" s="73"/>
+      <c r="I48" s="73"/>
+      <c r="J48" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="K48" s="103"/>
+      <c r="L48" s="103"/>
+      <c r="M48" s="103"/>
+      <c r="N48" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="O48" s="103"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="R48" s="73"/>
+      <c r="S48" s="73"/>
+      <c r="T48" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="D48" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="102" t="s">
+      <c r="U48" s="73"/>
+      <c r="V48" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102" t="s">
+      <c r="W48" s="74"/>
+      <c r="X48" s="74"/>
+      <c r="Y48" s="74"/>
+      <c r="Z48" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="O48" s="102"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="R48" s="72"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="U48" s="72"/>
-      <c r="V48" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="W48" s="73"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA48" s="103"/>
-      <c r="AB48" s="103"/>
-      <c r="AC48" s="103"/>
-      <c r="AD48" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE48" s="73"/>
-      <c r="AF48" s="73"/>
-      <c r="AG48" s="73"/>
-      <c r="AH48" s="73"/>
-      <c r="AI48" s="73"/>
-      <c r="AJ48" s="73"/>
-      <c r="AK48" s="73"/>
-      <c r="AL48" s="73"/>
-      <c r="AM48" s="73"/>
-      <c r="AN48" s="73"/>
-      <c r="AO48" s="73"/>
-      <c r="AP48" s="73"/>
-      <c r="AQ48" s="73"/>
-      <c r="AR48" s="73"/>
-      <c r="AS48" s="73"/>
-      <c r="AT48" s="73"/>
-      <c r="AU48" s="73"/>
-      <c r="AV48" s="73"/>
+      <c r="AA48" s="104"/>
+      <c r="AB48" s="104"/>
+      <c r="AC48" s="104"/>
+      <c r="AD48" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="74"/>
+      <c r="AG48" s="74"/>
+      <c r="AH48" s="74"/>
+      <c r="AI48" s="74"/>
+      <c r="AJ48" s="74"/>
+      <c r="AK48" s="74"/>
+      <c r="AL48" s="74"/>
+      <c r="AM48" s="74"/>
+      <c r="AN48" s="74"/>
+      <c r="AO48" s="74"/>
+      <c r="AP48" s="74"/>
+      <c r="AQ48" s="74"/>
+      <c r="AR48" s="74"/>
+      <c r="AS48" s="74"/>
+      <c r="AT48" s="74"/>
+      <c r="AU48" s="74"/>
+      <c r="AV48" s="74"/>
       <c r="AW48" s="20"/>
-      <c r="AX48" s="104"/>
+      <c r="AX48" s="105"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="17"/>
-      <c r="C49" s="105" t="n">
+      <c r="C49" s="106" t="n">
         <v>1</v>
       </c>
-      <c r="D49" s="106" t="s">
+      <c r="D49" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="K49" s="109"/>
+      <c r="L49" s="109"/>
+      <c r="M49" s="109"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="109" t="n">
+        <v>32</v>
+      </c>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="S49" s="112"/>
+      <c r="T49" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110" t="s">
+      <c r="U49" s="106"/>
+      <c r="V49" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="K49" s="108"/>
-      <c r="L49" s="108"/>
-      <c r="M49" s="108"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="108" t="n">
-        <v>32</v>
-      </c>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="110"/>
-      <c r="R49" s="108" t="s">
+      <c r="W49" s="108"/>
+      <c r="X49" s="108"/>
+      <c r="Y49" s="112"/>
+      <c r="Z49" s="113"/>
+      <c r="AA49" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="S49" s="111"/>
-      <c r="T49" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="U49" s="105"/>
-      <c r="V49" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="W49" s="107"/>
-      <c r="X49" s="107"/>
-      <c r="Y49" s="111"/>
-      <c r="Z49" s="112"/>
-      <c r="AA49" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB49" s="107"/>
-      <c r="AC49" s="107"/>
-      <c r="AD49" s="106"/>
-      <c r="AE49" s="107"/>
-      <c r="AF49" s="107"/>
-      <c r="AG49" s="107"/>
-      <c r="AH49" s="107"/>
-      <c r="AI49" s="107"/>
-      <c r="AJ49" s="107"/>
-      <c r="AK49" s="107"/>
-      <c r="AL49" s="107"/>
-      <c r="AM49" s="107"/>
-      <c r="AN49" s="107"/>
-      <c r="AO49" s="107"/>
-      <c r="AP49" s="107"/>
-      <c r="AQ49" s="107"/>
-      <c r="AR49" s="107"/>
-      <c r="AS49" s="107"/>
-      <c r="AT49" s="107"/>
-      <c r="AU49" s="107"/>
-      <c r="AV49" s="113"/>
+      <c r="AB49" s="108"/>
+      <c r="AC49" s="108"/>
+      <c r="AD49" s="107"/>
+      <c r="AE49" s="108"/>
+      <c r="AF49" s="108"/>
+      <c r="AG49" s="108"/>
+      <c r="AH49" s="108"/>
+      <c r="AI49" s="108"/>
+      <c r="AJ49" s="108"/>
+      <c r="AK49" s="108"/>
+      <c r="AL49" s="108"/>
+      <c r="AM49" s="108"/>
+      <c r="AN49" s="108"/>
+      <c r="AO49" s="108"/>
+      <c r="AP49" s="108"/>
+      <c r="AQ49" s="108"/>
+      <c r="AR49" s="108"/>
+      <c r="AS49" s="108"/>
+      <c r="AT49" s="108"/>
+      <c r="AU49" s="108"/>
+      <c r="AV49" s="114"/>
       <c r="AW49" s="20"/>
-      <c r="AX49" s="114"/>
+      <c r="AX49" s="115"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="17"/>
-      <c r="C50" s="115" t="n">
+      <c r="C50" s="116" t="n">
         <v>2</v>
       </c>
-      <c r="D50" s="116" t="s">
+      <c r="D50" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="K50" s="119"/>
+      <c r="L50" s="119"/>
+      <c r="M50" s="119"/>
+      <c r="N50" s="121"/>
+      <c r="O50" s="119"/>
+      <c r="P50" s="119"/>
+      <c r="Q50" s="121"/>
+      <c r="R50" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="S50" s="122"/>
+      <c r="T50" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="U50" s="106"/>
+      <c r="V50" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="118"/>
-      <c r="H50" s="118"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="K50" s="118"/>
-      <c r="L50" s="118"/>
-      <c r="M50" s="118"/>
-      <c r="N50" s="120"/>
-      <c r="O50" s="118"/>
-      <c r="P50" s="118"/>
-      <c r="Q50" s="120"/>
-      <c r="R50" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="S50" s="121"/>
-      <c r="T50" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="U50" s="105"/>
-      <c r="V50" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="W50" s="117"/>
-      <c r="X50" s="117"/>
-      <c r="Y50" s="121"/>
-      <c r="Z50" s="122"/>
-      <c r="AA50" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB50" s="117"/>
-      <c r="AC50" s="117"/>
-      <c r="AD50" s="116"/>
-      <c r="AE50" s="117"/>
-      <c r="AF50" s="117"/>
-      <c r="AG50" s="117"/>
-      <c r="AH50" s="117"/>
-      <c r="AI50" s="117"/>
-      <c r="AJ50" s="117"/>
-      <c r="AK50" s="117"/>
-      <c r="AL50" s="117"/>
-      <c r="AM50" s="117"/>
-      <c r="AN50" s="117"/>
-      <c r="AO50" s="117"/>
-      <c r="AP50" s="117"/>
-      <c r="AQ50" s="117"/>
-      <c r="AR50" s="117"/>
-      <c r="AS50" s="117"/>
-      <c r="AT50" s="117"/>
-      <c r="AU50" s="117"/>
-      <c r="AV50" s="123"/>
+      <c r="W50" s="118"/>
+      <c r="X50" s="118"/>
+      <c r="Y50" s="122"/>
+      <c r="Z50" s="123"/>
+      <c r="AA50" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB50" s="118"/>
+      <c r="AC50" s="118"/>
+      <c r="AD50" s="117"/>
+      <c r="AE50" s="118"/>
+      <c r="AF50" s="118"/>
+      <c r="AG50" s="118"/>
+      <c r="AH50" s="118"/>
+      <c r="AI50" s="118"/>
+      <c r="AJ50" s="118"/>
+      <c r="AK50" s="118"/>
+      <c r="AL50" s="118"/>
+      <c r="AM50" s="118"/>
+      <c r="AN50" s="118"/>
+      <c r="AO50" s="118"/>
+      <c r="AP50" s="118"/>
+      <c r="AQ50" s="118"/>
+      <c r="AR50" s="118"/>
+      <c r="AS50" s="118"/>
+      <c r="AT50" s="118"/>
+      <c r="AU50" s="118"/>
+      <c r="AV50" s="124"/>
       <c r="AW50" s="20"/>
-      <c r="AX50" s="114"/>
+      <c r="AX50" s="115"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="17"/>
-      <c r="C51" s="115" t="n">
+      <c r="C51" s="116" t="n">
         <v>3</v>
       </c>
-      <c r="D51" s="116" t="s">
+      <c r="D51" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="118"/>
+      <c r="F51" s="118"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="K51" s="119"/>
+      <c r="L51" s="119"/>
+      <c r="M51" s="119"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="119"/>
+      <c r="P51" s="119"/>
+      <c r="Q51" s="121"/>
+      <c r="R51" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="S51" s="122"/>
+      <c r="T51" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="U51" s="106"/>
+      <c r="V51" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="W51" s="118"/>
+      <c r="X51" s="118"/>
+      <c r="Y51" s="125"/>
+      <c r="Z51" s="126"/>
+      <c r="AA51" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="118"/>
-      <c r="H51" s="118"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="120"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="120"/>
-      <c r="R51" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="S51" s="121"/>
-      <c r="T51" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="U51" s="105"/>
-      <c r="V51" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="W51" s="117"/>
-      <c r="X51" s="117"/>
-      <c r="Y51" s="124"/>
-      <c r="Z51" s="125"/>
-      <c r="AA51" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB51" s="125"/>
-      <c r="AC51" s="125"/>
-      <c r="AD51" s="126"/>
-      <c r="AE51" s="117"/>
-      <c r="AF51" s="117"/>
-      <c r="AG51" s="117"/>
-      <c r="AH51" s="117"/>
-      <c r="AI51" s="117"/>
-      <c r="AJ51" s="117"/>
-      <c r="AK51" s="117"/>
-      <c r="AL51" s="117"/>
-      <c r="AM51" s="117"/>
-      <c r="AN51" s="117"/>
-      <c r="AO51" s="117"/>
-      <c r="AP51" s="117"/>
-      <c r="AQ51" s="117"/>
-      <c r="AR51" s="117"/>
-      <c r="AS51" s="117"/>
-      <c r="AT51" s="117"/>
-      <c r="AU51" s="117"/>
-      <c r="AV51" s="123"/>
+      <c r="AB51" s="126"/>
+      <c r="AC51" s="126"/>
+      <c r="AD51" s="127"/>
+      <c r="AE51" s="118"/>
+      <c r="AF51" s="118"/>
+      <c r="AG51" s="118"/>
+      <c r="AH51" s="118"/>
+      <c r="AI51" s="118"/>
+      <c r="AJ51" s="118"/>
+      <c r="AK51" s="118"/>
+      <c r="AL51" s="118"/>
+      <c r="AM51" s="118"/>
+      <c r="AN51" s="118"/>
+      <c r="AO51" s="118"/>
+      <c r="AP51" s="118"/>
+      <c r="AQ51" s="118"/>
+      <c r="AR51" s="118"/>
+      <c r="AS51" s="118"/>
+      <c r="AT51" s="118"/>
+      <c r="AU51" s="118"/>
+      <c r="AV51" s="124"/>
       <c r="AW51" s="20"/>
-      <c r="AX51" s="114"/>
+      <c r="AX51" s="115"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="17"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="128"/>
-      <c r="E52" s="128"/>
-      <c r="F52" s="128"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="129"/>
-      <c r="L52" s="129"/>
-      <c r="M52" s="129"/>
-      <c r="N52" s="129"/>
-      <c r="O52" s="129"/>
-      <c r="P52" s="129"/>
-      <c r="Q52" s="129"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="128"/>
-      <c r="T52" s="127"/>
-      <c r="U52" s="127"/>
-      <c r="V52" s="128"/>
-      <c r="W52" s="128"/>
-      <c r="X52" s="128"/>
-      <c r="Y52" s="128"/>
-      <c r="Z52" s="127"/>
-      <c r="AA52" s="128"/>
-      <c r="AB52" s="128"/>
-      <c r="AC52" s="128"/>
-      <c r="AD52" s="128"/>
-      <c r="AE52" s="128"/>
-      <c r="AF52" s="128"/>
-      <c r="AG52" s="128"/>
-      <c r="AH52" s="128"/>
-      <c r="AI52" s="128"/>
-      <c r="AJ52" s="128"/>
-      <c r="AK52" s="128"/>
-      <c r="AL52" s="128"/>
-      <c r="AM52" s="128"/>
-      <c r="AN52" s="128"/>
-      <c r="AO52" s="128"/>
-      <c r="AP52" s="128"/>
-      <c r="AQ52" s="128"/>
-      <c r="AR52" s="128"/>
-      <c r="AS52" s="128"/>
-      <c r="AT52" s="128"/>
-      <c r="AU52" s="128"/>
-      <c r="AV52" s="130"/>
+      <c r="C52" s="128"/>
+      <c r="D52" s="129"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
+      <c r="K52" s="130"/>
+      <c r="L52" s="130"/>
+      <c r="M52" s="130"/>
+      <c r="N52" s="130"/>
+      <c r="O52" s="130"/>
+      <c r="P52" s="130"/>
+      <c r="Q52" s="130"/>
+      <c r="R52" s="130"/>
+      <c r="S52" s="129"/>
+      <c r="T52" s="128"/>
+      <c r="U52" s="128"/>
+      <c r="V52" s="129"/>
+      <c r="W52" s="129"/>
+      <c r="X52" s="129"/>
+      <c r="Y52" s="129"/>
+      <c r="Z52" s="128"/>
+      <c r="AA52" s="129"/>
+      <c r="AB52" s="129"/>
+      <c r="AC52" s="129"/>
+      <c r="AD52" s="129"/>
+      <c r="AE52" s="129"/>
+      <c r="AF52" s="129"/>
+      <c r="AG52" s="129"/>
+      <c r="AH52" s="129"/>
+      <c r="AI52" s="129"/>
+      <c r="AJ52" s="129"/>
+      <c r="AK52" s="129"/>
+      <c r="AL52" s="129"/>
+      <c r="AM52" s="129"/>
+      <c r="AN52" s="129"/>
+      <c r="AO52" s="129"/>
+      <c r="AP52" s="129"/>
+      <c r="AQ52" s="129"/>
+      <c r="AR52" s="129"/>
+      <c r="AS52" s="129"/>
+      <c r="AT52" s="129"/>
+      <c r="AU52" s="129"/>
+      <c r="AV52" s="131"/>
       <c r="AW52" s="20"/>
-      <c r="AX52" s="114"/>
+      <c r="AX52" s="115"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="17"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="129"/>
-      <c r="L53" s="129"/>
-      <c r="M53" s="129"/>
-      <c r="N53" s="129"/>
-      <c r="O53" s="129"/>
-      <c r="P53" s="129"/>
-      <c r="Q53" s="129"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="127"/>
-      <c r="U53" s="127"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="128"/>
-      <c r="X53" s="128"/>
-      <c r="Y53" s="128"/>
-      <c r="Z53" s="127"/>
-      <c r="AA53" s="128"/>
-      <c r="AB53" s="128"/>
-      <c r="AC53" s="128"/>
-      <c r="AD53" s="128"/>
-      <c r="AE53" s="128"/>
-      <c r="AF53" s="128"/>
-      <c r="AG53" s="128"/>
-      <c r="AH53" s="128"/>
-      <c r="AI53" s="128"/>
-      <c r="AJ53" s="128"/>
-      <c r="AK53" s="128"/>
-      <c r="AL53" s="128"/>
-      <c r="AM53" s="128"/>
-      <c r="AN53" s="128"/>
-      <c r="AO53" s="128"/>
-      <c r="AP53" s="128"/>
-      <c r="AQ53" s="128"/>
-      <c r="AR53" s="128"/>
-      <c r="AS53" s="128"/>
-      <c r="AT53" s="128"/>
-      <c r="AU53" s="128"/>
-      <c r="AV53" s="130"/>
+      <c r="C53" s="128"/>
+      <c r="D53" s="129"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="130"/>
+      <c r="L53" s="130"/>
+      <c r="M53" s="130"/>
+      <c r="N53" s="130"/>
+      <c r="O53" s="130"/>
+      <c r="P53" s="130"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="129"/>
+      <c r="T53" s="128"/>
+      <c r="U53" s="128"/>
+      <c r="V53" s="129"/>
+      <c r="W53" s="129"/>
+      <c r="X53" s="129"/>
+      <c r="Y53" s="129"/>
+      <c r="Z53" s="128"/>
+      <c r="AA53" s="129"/>
+      <c r="AB53" s="129"/>
+      <c r="AC53" s="129"/>
+      <c r="AD53" s="129"/>
+      <c r="AE53" s="129"/>
+      <c r="AF53" s="129"/>
+      <c r="AG53" s="129"/>
+      <c r="AH53" s="129"/>
+      <c r="AI53" s="129"/>
+      <c r="AJ53" s="129"/>
+      <c r="AK53" s="129"/>
+      <c r="AL53" s="129"/>
+      <c r="AM53" s="129"/>
+      <c r="AN53" s="129"/>
+      <c r="AO53" s="129"/>
+      <c r="AP53" s="129"/>
+      <c r="AQ53" s="129"/>
+      <c r="AR53" s="129"/>
+      <c r="AS53" s="129"/>
+      <c r="AT53" s="129"/>
+      <c r="AU53" s="129"/>
+      <c r="AV53" s="131"/>
       <c r="AW53" s="20"/>
-      <c r="AX53" s="114"/>
+      <c r="AX53" s="115"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="17"/>
@@ -11780,7 +11778,7 @@
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="17"/>
       <c r="C55" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D55" s="19"/>
       <c r="E55" s="19"/>
@@ -11801,16 +11799,16 @@
       <c r="T55" s="19"/>
       <c r="U55" s="19"/>
       <c r="V55" s="19"/>
-      <c r="W55" s="131"/>
-      <c r="X55" s="131"/>
-      <c r="Y55" s="131"/>
-      <c r="Z55" s="131"/>
+      <c r="W55" s="132"/>
+      <c r="X55" s="132"/>
+      <c r="Y55" s="132"/>
+      <c r="Z55" s="132"/>
       <c r="AA55" s="19"/>
       <c r="AB55" s="19"/>
       <c r="AC55" s="19"/>
       <c r="AD55" s="19"/>
-      <c r="AE55" s="131"/>
-      <c r="AF55" s="131"/>
+      <c r="AE55" s="132"/>
+      <c r="AF55" s="132"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
@@ -11830,241 +11828,241 @@
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="17"/>
-      <c r="C56" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="133" t="s">
-        <v>66</v>
-      </c>
-      <c r="O56" s="133"/>
-      <c r="P56" s="133"/>
-      <c r="Q56" s="133"/>
-      <c r="R56" s="133"/>
-      <c r="S56" s="133"/>
-      <c r="T56" s="133"/>
-      <c r="U56" s="133"/>
-      <c r="V56" s="133"/>
-      <c r="W56" s="133"/>
-      <c r="X56" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y56" s="73"/>
-      <c r="Z56" s="73"/>
-      <c r="AA56" s="73"/>
-      <c r="AB56" s="73"/>
-      <c r="AC56" s="73"/>
-      <c r="AD56" s="73"/>
-      <c r="AE56" s="73"/>
-      <c r="AF56" s="73"/>
-      <c r="AG56" s="73"/>
-      <c r="AH56" s="73"/>
-      <c r="AI56" s="73"/>
-      <c r="AJ56" s="73"/>
-      <c r="AK56" s="73"/>
-      <c r="AL56" s="73"/>
-      <c r="AM56" s="73"/>
-      <c r="AN56" s="73"/>
-      <c r="AO56" s="73"/>
-      <c r="AP56" s="73"/>
-      <c r="AQ56" s="73"/>
-      <c r="AR56" s="73"/>
-      <c r="AS56" s="73"/>
-      <c r="AT56" s="73"/>
-      <c r="AU56" s="73"/>
-      <c r="AV56" s="73"/>
+      <c r="C56" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="O56" s="134"/>
+      <c r="P56" s="134"/>
+      <c r="Q56" s="134"/>
+      <c r="R56" s="134"/>
+      <c r="S56" s="134"/>
+      <c r="T56" s="134"/>
+      <c r="U56" s="134"/>
+      <c r="V56" s="134"/>
+      <c r="W56" s="134"/>
+      <c r="X56" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y56" s="74"/>
+      <c r="Z56" s="74"/>
+      <c r="AA56" s="74"/>
+      <c r="AB56" s="74"/>
+      <c r="AC56" s="74"/>
+      <c r="AD56" s="74"/>
+      <c r="AE56" s="74"/>
+      <c r="AF56" s="74"/>
+      <c r="AG56" s="74"/>
+      <c r="AH56" s="74"/>
+      <c r="AI56" s="74"/>
+      <c r="AJ56" s="74"/>
+      <c r="AK56" s="74"/>
+      <c r="AL56" s="74"/>
+      <c r="AM56" s="74"/>
+      <c r="AN56" s="74"/>
+      <c r="AO56" s="74"/>
+      <c r="AP56" s="74"/>
+      <c r="AQ56" s="74"/>
+      <c r="AR56" s="74"/>
+      <c r="AS56" s="74"/>
+      <c r="AT56" s="74"/>
+      <c r="AU56" s="74"/>
+      <c r="AV56" s="74"/>
       <c r="AW56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="17"/>
-      <c r="C57" s="134" t="n">
+      <c r="C57" s="135" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="136"/>
-      <c r="N57" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="O57" s="138"/>
-      <c r="P57" s="138"/>
-      <c r="Q57" s="138"/>
-      <c r="R57" s="138"/>
-      <c r="S57" s="138"/>
-      <c r="T57" s="138"/>
-      <c r="U57" s="138"/>
-      <c r="V57" s="138"/>
-      <c r="W57" s="139"/>
-      <c r="X57" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y57" s="140"/>
-      <c r="Z57" s="140"/>
-      <c r="AA57" s="140"/>
-      <c r="AB57" s="138"/>
-      <c r="AC57" s="138"/>
-      <c r="AD57" s="138"/>
-      <c r="AE57" s="138"/>
-      <c r="AF57" s="140"/>
-      <c r="AG57" s="140"/>
-      <c r="AH57" s="138"/>
-      <c r="AI57" s="138"/>
-      <c r="AJ57" s="138"/>
-      <c r="AK57" s="138"/>
-      <c r="AL57" s="138"/>
-      <c r="AM57" s="138"/>
-      <c r="AN57" s="138"/>
-      <c r="AO57" s="138"/>
-      <c r="AP57" s="138"/>
-      <c r="AQ57" s="138"/>
-      <c r="AR57" s="138"/>
-      <c r="AS57" s="138"/>
-      <c r="AT57" s="138"/>
-      <c r="AU57" s="138"/>
-      <c r="AV57" s="139"/>
+      <c r="D57" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
+      <c r="L57" s="96"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="O57" s="139"/>
+      <c r="P57" s="139"/>
+      <c r="Q57" s="139"/>
+      <c r="R57" s="139"/>
+      <c r="S57" s="139"/>
+      <c r="T57" s="139"/>
+      <c r="U57" s="139"/>
+      <c r="V57" s="139"/>
+      <c r="W57" s="140"/>
+      <c r="X57" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y57" s="141"/>
+      <c r="Z57" s="141"/>
+      <c r="AA57" s="141"/>
+      <c r="AB57" s="139"/>
+      <c r="AC57" s="139"/>
+      <c r="AD57" s="139"/>
+      <c r="AE57" s="139"/>
+      <c r="AF57" s="141"/>
+      <c r="AG57" s="141"/>
+      <c r="AH57" s="139"/>
+      <c r="AI57" s="139"/>
+      <c r="AJ57" s="139"/>
+      <c r="AK57" s="139"/>
+      <c r="AL57" s="139"/>
+      <c r="AM57" s="139"/>
+      <c r="AN57" s="139"/>
+      <c r="AO57" s="139"/>
+      <c r="AP57" s="139"/>
+      <c r="AQ57" s="139"/>
+      <c r="AR57" s="139"/>
+      <c r="AS57" s="139"/>
+      <c r="AT57" s="139"/>
+      <c r="AU57" s="139"/>
+      <c r="AV57" s="140"/>
       <c r="AW57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="17"/>
-      <c r="C58" s="141" t="n">
+      <c r="C58" s="142" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="143"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="143"/>
-      <c r="J58" s="143"/>
-      <c r="K58" s="143"/>
-      <c r="L58" s="143"/>
-      <c r="M58" s="144"/>
-      <c r="N58" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="O58" s="143"/>
-      <c r="P58" s="143"/>
-      <c r="Q58" s="143"/>
-      <c r="R58" s="143"/>
-      <c r="S58" s="143"/>
-      <c r="T58" s="143"/>
-      <c r="U58" s="143"/>
-      <c r="V58" s="143"/>
-      <c r="W58" s="144"/>
-      <c r="X58" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y58" s="140"/>
-      <c r="Z58" s="140"/>
-      <c r="AA58" s="140"/>
-      <c r="AB58" s="138"/>
-      <c r="AC58" s="138"/>
-      <c r="AD58" s="138"/>
-      <c r="AE58" s="138"/>
-      <c r="AF58" s="140"/>
-      <c r="AG58" s="140"/>
-      <c r="AH58" s="138"/>
-      <c r="AI58" s="138"/>
-      <c r="AJ58" s="138"/>
-      <c r="AK58" s="138"/>
-      <c r="AL58" s="143"/>
-      <c r="AM58" s="143"/>
-      <c r="AN58" s="143"/>
-      <c r="AO58" s="143"/>
-      <c r="AP58" s="143"/>
-      <c r="AQ58" s="143"/>
-      <c r="AR58" s="143"/>
-      <c r="AS58" s="143"/>
-      <c r="AT58" s="143"/>
-      <c r="AU58" s="143"/>
-      <c r="AV58" s="144"/>
+      <c r="D58" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="144"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="144"/>
+      <c r="H58" s="144"/>
+      <c r="I58" s="144"/>
+      <c r="J58" s="144"/>
+      <c r="K58" s="144"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="144"/>
+      <c r="S58" s="144"/>
+      <c r="T58" s="144"/>
+      <c r="U58" s="144"/>
+      <c r="V58" s="144"/>
+      <c r="W58" s="145"/>
+      <c r="X58" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y58" s="141"/>
+      <c r="Z58" s="141"/>
+      <c r="AA58" s="141"/>
+      <c r="AB58" s="139"/>
+      <c r="AC58" s="139"/>
+      <c r="AD58" s="139"/>
+      <c r="AE58" s="139"/>
+      <c r="AF58" s="141"/>
+      <c r="AG58" s="141"/>
+      <c r="AH58" s="139"/>
+      <c r="AI58" s="139"/>
+      <c r="AJ58" s="139"/>
+      <c r="AK58" s="139"/>
+      <c r="AL58" s="144"/>
+      <c r="AM58" s="144"/>
+      <c r="AN58" s="144"/>
+      <c r="AO58" s="144"/>
+      <c r="AP58" s="144"/>
+      <c r="AQ58" s="144"/>
+      <c r="AR58" s="144"/>
+      <c r="AS58" s="144"/>
+      <c r="AT58" s="144"/>
+      <c r="AU58" s="144"/>
+      <c r="AV58" s="145"/>
       <c r="AW58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
-      <c r="C59" s="145" t="n">
+      <c r="C59" s="146" t="n">
         <v>3</v>
       </c>
-      <c r="D59" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="E59" s="147"/>
-      <c r="F59" s="147"/>
-      <c r="G59" s="147"/>
-      <c r="H59" s="147"/>
-      <c r="I59" s="147"/>
-      <c r="J59" s="147"/>
-      <c r="K59" s="147"/>
-      <c r="L59" s="147"/>
-      <c r="M59" s="148"/>
-      <c r="N59" s="149" t="s">
-        <v>87</v>
-      </c>
-      <c r="O59" s="150"/>
-      <c r="P59" s="150"/>
-      <c r="Q59" s="150"/>
-      <c r="R59" s="150"/>
-      <c r="S59" s="150"/>
-      <c r="T59" s="150"/>
-      <c r="U59" s="150"/>
-      <c r="V59" s="150"/>
-      <c r="W59" s="151"/>
-      <c r="X59" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y59" s="152"/>
-      <c r="Z59" s="152"/>
-      <c r="AA59" s="152"/>
-      <c r="AB59" s="150"/>
-      <c r="AC59" s="150"/>
-      <c r="AD59" s="150"/>
-      <c r="AE59" s="150"/>
-      <c r="AF59" s="152"/>
-      <c r="AG59" s="152"/>
-      <c r="AH59" s="150"/>
-      <c r="AI59" s="150"/>
-      <c r="AJ59" s="150"/>
-      <c r="AK59" s="150"/>
-      <c r="AL59" s="150"/>
-      <c r="AM59" s="150"/>
-      <c r="AN59" s="150"/>
-      <c r="AO59" s="150"/>
-      <c r="AP59" s="150"/>
-      <c r="AQ59" s="150"/>
-      <c r="AR59" s="150"/>
-      <c r="AS59" s="150"/>
-      <c r="AT59" s="150"/>
-      <c r="AU59" s="150"/>
-      <c r="AV59" s="153"/>
+      <c r="D59" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
+      <c r="G59" s="148"/>
+      <c r="H59" s="148"/>
+      <c r="I59" s="148"/>
+      <c r="J59" s="148"/>
+      <c r="K59" s="148"/>
+      <c r="L59" s="148"/>
+      <c r="M59" s="149"/>
+      <c r="N59" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="O59" s="151"/>
+      <c r="P59" s="151"/>
+      <c r="Q59" s="151"/>
+      <c r="R59" s="151"/>
+      <c r="S59" s="151"/>
+      <c r="T59" s="151"/>
+      <c r="U59" s="151"/>
+      <c r="V59" s="151"/>
+      <c r="W59" s="152"/>
+      <c r="X59" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y59" s="153"/>
+      <c r="Z59" s="153"/>
+      <c r="AA59" s="153"/>
+      <c r="AB59" s="151"/>
+      <c r="AC59" s="151"/>
+      <c r="AD59" s="151"/>
+      <c r="AE59" s="151"/>
+      <c r="AF59" s="153"/>
+      <c r="AG59" s="153"/>
+      <c r="AH59" s="151"/>
+      <c r="AI59" s="151"/>
+      <c r="AJ59" s="151"/>
+      <c r="AK59" s="151"/>
+      <c r="AL59" s="151"/>
+      <c r="AM59" s="151"/>
+      <c r="AN59" s="151"/>
+      <c r="AO59" s="151"/>
+      <c r="AP59" s="151"/>
+      <c r="AQ59" s="151"/>
+      <c r="AR59" s="151"/>
+      <c r="AS59" s="151"/>
+      <c r="AT59" s="151"/>
+      <c r="AU59" s="151"/>
+      <c r="AV59" s="154"/>
       <c r="AW59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="17"/>
       <c r="B60" s="28"/>
-      <c r="C60" s="131"/>
-      <c r="D60" s="154"/>
+      <c r="C60" s="132"/>
+      <c r="D60" s="155"/>
       <c r="E60" s="19"/>
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
@@ -12085,15 +12083,15 @@
       <c r="V60" s="19"/>
       <c r="W60" s="19"/>
       <c r="X60" s="19"/>
-      <c r="Y60" s="131"/>
-      <c r="Z60" s="131"/>
-      <c r="AA60" s="131"/>
+      <c r="Y60" s="132"/>
+      <c r="Z60" s="132"/>
+      <c r="AA60" s="132"/>
       <c r="AB60" s="19"/>
       <c r="AC60" s="19"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
-      <c r="AF60" s="131"/>
-      <c r="AG60" s="131"/>
+      <c r="AF60" s="132"/>
+      <c r="AG60" s="132"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
       <c r="AJ60" s="19"/>
@@ -12113,409 +12111,409 @@
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="17"/>
       <c r="B61" s="28"/>
-      <c r="C61" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="D61" s="155"/>
-      <c r="E61" s="155"/>
-      <c r="F61" s="155"/>
-      <c r="G61" s="155"/>
-      <c r="H61" s="155"/>
-      <c r="I61" s="155"/>
-      <c r="J61" s="155"/>
-      <c r="K61" s="155"/>
-      <c r="L61" s="155"/>
-      <c r="M61" s="155"/>
-      <c r="N61" s="155"/>
-      <c r="O61" s="155"/>
-      <c r="P61" s="155"/>
-      <c r="Q61" s="155"/>
-      <c r="R61" s="155"/>
-      <c r="S61" s="155"/>
-      <c r="T61" s="155"/>
-      <c r="U61" s="155"/>
-      <c r="V61" s="155"/>
-      <c r="W61" s="155"/>
-      <c r="X61" s="155"/>
-      <c r="Y61" s="155"/>
-      <c r="Z61" s="155"/>
-      <c r="AA61" s="155"/>
-      <c r="AB61" s="155"/>
-      <c r="AC61" s="155"/>
-      <c r="AD61" s="155"/>
-      <c r="AE61" s="155"/>
-      <c r="AF61" s="155"/>
-      <c r="AG61" s="155"/>
-      <c r="AH61" s="155"/>
-      <c r="AI61" s="155"/>
-      <c r="AJ61" s="155"/>
-      <c r="AK61" s="155"/>
-      <c r="AL61" s="155"/>
-      <c r="AM61" s="156"/>
-      <c r="AN61" s="156"/>
-      <c r="AO61" s="156"/>
-      <c r="AP61" s="156"/>
-      <c r="AQ61" s="155"/>
-      <c r="AR61" s="156"/>
-      <c r="AS61" s="156"/>
-      <c r="AT61" s="156"/>
-      <c r="AU61" s="156"/>
-      <c r="AV61" s="155"/>
+      <c r="C61" s="156" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="156"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="156"/>
+      <c r="K61" s="156"/>
+      <c r="L61" s="156"/>
+      <c r="M61" s="156"/>
+      <c r="N61" s="156"/>
+      <c r="O61" s="156"/>
+      <c r="P61" s="156"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="156"/>
+      <c r="S61" s="156"/>
+      <c r="T61" s="156"/>
+      <c r="U61" s="156"/>
+      <c r="V61" s="156"/>
+      <c r="W61" s="156"/>
+      <c r="X61" s="156"/>
+      <c r="Y61" s="156"/>
+      <c r="Z61" s="156"/>
+      <c r="AA61" s="156"/>
+      <c r="AB61" s="156"/>
+      <c r="AC61" s="156"/>
+      <c r="AD61" s="156"/>
+      <c r="AE61" s="156"/>
+      <c r="AF61" s="156"/>
+      <c r="AG61" s="156"/>
+      <c r="AH61" s="156"/>
+      <c r="AI61" s="156"/>
+      <c r="AJ61" s="156"/>
+      <c r="AK61" s="156"/>
+      <c r="AL61" s="156"/>
+      <c r="AM61" s="157"/>
+      <c r="AN61" s="157"/>
+      <c r="AO61" s="157"/>
+      <c r="AP61" s="157"/>
+      <c r="AQ61" s="156"/>
+      <c r="AR61" s="157"/>
+      <c r="AS61" s="157"/>
+      <c r="AT61" s="157"/>
+      <c r="AU61" s="157"/>
+      <c r="AV61" s="156"/>
       <c r="AW61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="17"/>
       <c r="B62" s="28"/>
-      <c r="C62" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="157" t="s">
-        <v>62</v>
-      </c>
-      <c r="E62" s="157"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="158"/>
-      <c r="K62" s="158"/>
-      <c r="L62" s="158"/>
-      <c r="M62" s="159"/>
-      <c r="N62" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="O62" s="72"/>
-      <c r="P62" s="72"/>
-      <c r="Q62" s="72"/>
-      <c r="R62" s="72"/>
-      <c r="S62" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="T62" s="72"/>
-      <c r="U62" s="72"/>
-      <c r="V62" s="72"/>
-      <c r="W62" s="72"/>
-      <c r="X62" s="72"/>
-      <c r="Y62" s="72"/>
-      <c r="Z62" s="72"/>
-      <c r="AA62" s="72"/>
-      <c r="AB62" s="72"/>
-      <c r="AC62" s="72"/>
-      <c r="AD62" s="72"/>
-      <c r="AE62" s="72"/>
-      <c r="AF62" s="72"/>
-      <c r="AG62" s="72"/>
-      <c r="AH62" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI62" s="72"/>
-      <c r="AJ62" s="72"/>
-      <c r="AK62" s="72"/>
-      <c r="AL62" s="72"/>
-      <c r="AM62" s="72"/>
-      <c r="AN62" s="72"/>
-      <c r="AO62" s="72"/>
-      <c r="AP62" s="72"/>
-      <c r="AQ62" s="72"/>
-      <c r="AR62" s="72"/>
-      <c r="AS62" s="72"/>
-      <c r="AT62" s="72"/>
-      <c r="AU62" s="72"/>
-      <c r="AV62" s="72"/>
+      <c r="C62" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="158"/>
+      <c r="F62" s="158"/>
+      <c r="G62" s="158"/>
+      <c r="H62" s="158"/>
+      <c r="I62" s="158"/>
+      <c r="J62" s="159"/>
+      <c r="K62" s="159"/>
+      <c r="L62" s="159"/>
+      <c r="M62" s="160"/>
+      <c r="N62" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="O62" s="73"/>
+      <c r="P62" s="73"/>
+      <c r="Q62" s="73"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="T62" s="73"/>
+      <c r="U62" s="73"/>
+      <c r="V62" s="73"/>
+      <c r="W62" s="73"/>
+      <c r="X62" s="73"/>
+      <c r="Y62" s="73"/>
+      <c r="Z62" s="73"/>
+      <c r="AA62" s="73"/>
+      <c r="AB62" s="73"/>
+      <c r="AC62" s="73"/>
+      <c r="AD62" s="73"/>
+      <c r="AE62" s="73"/>
+      <c r="AF62" s="73"/>
+      <c r="AG62" s="73"/>
+      <c r="AH62" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI62" s="73"/>
+      <c r="AJ62" s="73"/>
+      <c r="AK62" s="73"/>
+      <c r="AL62" s="73"/>
+      <c r="AM62" s="73"/>
+      <c r="AN62" s="73"/>
+      <c r="AO62" s="73"/>
+      <c r="AP62" s="73"/>
+      <c r="AQ62" s="73"/>
+      <c r="AR62" s="73"/>
+      <c r="AS62" s="73"/>
+      <c r="AT62" s="73"/>
+      <c r="AU62" s="73"/>
+      <c r="AV62" s="73"/>
       <c r="AW62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="17"/>
       <c r="B63" s="28"/>
-      <c r="C63" s="160" t="n">
+      <c r="C63" s="161" t="n">
         <v>1</v>
       </c>
-      <c r="D63" s="161" t="s">
-        <v>93</v>
-      </c>
-      <c r="E63" s="162"/>
-      <c r="F63" s="162"/>
-      <c r="G63" s="163"/>
-      <c r="H63" s="163"/>
-      <c r="I63" s="163"/>
-      <c r="J63" s="163"/>
-      <c r="K63" s="163"/>
-      <c r="L63" s="163"/>
-      <c r="M63" s="164"/>
+      <c r="D63" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="E63" s="163"/>
+      <c r="F63" s="163"/>
+      <c r="G63" s="164"/>
+      <c r="H63" s="164"/>
+      <c r="I63" s="164"/>
+      <c r="J63" s="164"/>
+      <c r="K63" s="164"/>
+      <c r="L63" s="164"/>
+      <c r="M63" s="165"/>
       <c r="N63" s="0"/>
-      <c r="O63" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="P63" s="163"/>
-      <c r="Q63" s="163"/>
-      <c r="R63" s="164"/>
-      <c r="S63" s="161"/>
-      <c r="T63" s="162"/>
-      <c r="U63" s="162"/>
-      <c r="V63" s="162"/>
-      <c r="W63" s="162"/>
-      <c r="X63" s="162"/>
-      <c r="Y63" s="162"/>
-      <c r="Z63" s="165"/>
-      <c r="AA63" s="162"/>
-      <c r="AB63" s="162"/>
-      <c r="AC63" s="162"/>
-      <c r="AD63" s="162"/>
-      <c r="AE63" s="162"/>
-      <c r="AF63" s="162"/>
-      <c r="AG63" s="166"/>
-      <c r="AH63" s="162"/>
-      <c r="AI63" s="162"/>
-      <c r="AJ63" s="162"/>
-      <c r="AK63" s="162"/>
-      <c r="AL63" s="162"/>
-      <c r="AM63" s="162"/>
-      <c r="AN63" s="162"/>
-      <c r="AO63" s="162"/>
-      <c r="AP63" s="162"/>
-      <c r="AQ63" s="162"/>
-      <c r="AR63" s="162"/>
-      <c r="AS63" s="162"/>
-      <c r="AT63" s="162"/>
-      <c r="AU63" s="162"/>
-      <c r="AV63" s="167"/>
+      <c r="O63" s="164" t="s">
+        <v>91</v>
+      </c>
+      <c r="P63" s="164"/>
+      <c r="Q63" s="164"/>
+      <c r="R63" s="165"/>
+      <c r="S63" s="162"/>
+      <c r="T63" s="163"/>
+      <c r="U63" s="163"/>
+      <c r="V63" s="163"/>
+      <c r="W63" s="163"/>
+      <c r="X63" s="163"/>
+      <c r="Y63" s="163"/>
+      <c r="Z63" s="166"/>
+      <c r="AA63" s="163"/>
+      <c r="AB63" s="163"/>
+      <c r="AC63" s="163"/>
+      <c r="AD63" s="163"/>
+      <c r="AE63" s="163"/>
+      <c r="AF63" s="163"/>
+      <c r="AG63" s="167"/>
+      <c r="AH63" s="163"/>
+      <c r="AI63" s="163"/>
+      <c r="AJ63" s="163"/>
+      <c r="AK63" s="163"/>
+      <c r="AL63" s="163"/>
+      <c r="AM63" s="163"/>
+      <c r="AN63" s="163"/>
+      <c r="AO63" s="163"/>
+      <c r="AP63" s="163"/>
+      <c r="AQ63" s="163"/>
+      <c r="AR63" s="163"/>
+      <c r="AS63" s="163"/>
+      <c r="AT63" s="163"/>
+      <c r="AU63" s="163"/>
+      <c r="AV63" s="168"/>
       <c r="AW63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="17"/>
       <c r="B64" s="28"/>
-      <c r="C64" s="160" t="n">
+      <c r="C64" s="161" t="n">
         <v>2</v>
       </c>
-      <c r="D64" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="169"/>
-      <c r="F64" s="169"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="170"/>
-      <c r="J64" s="170"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="170"/>
-      <c r="M64" s="171"/>
-      <c r="N64" s="163"/>
-      <c r="O64" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="P64" s="170"/>
-      <c r="Q64" s="170"/>
-      <c r="R64" s="171"/>
-      <c r="S64" s="168"/>
-      <c r="T64" s="169"/>
-      <c r="U64" s="169"/>
-      <c r="V64" s="169"/>
-      <c r="W64" s="169"/>
-      <c r="X64" s="169"/>
-      <c r="Y64" s="169"/>
-      <c r="Z64" s="172"/>
-      <c r="AA64" s="169"/>
-      <c r="AB64" s="169"/>
-      <c r="AC64" s="169"/>
-      <c r="AD64" s="169"/>
-      <c r="AE64" s="169"/>
-      <c r="AF64" s="169"/>
-      <c r="AG64" s="173"/>
-      <c r="AH64" s="162"/>
-      <c r="AI64" s="169"/>
-      <c r="AJ64" s="169"/>
-      <c r="AK64" s="169"/>
-      <c r="AL64" s="169"/>
-      <c r="AM64" s="169"/>
-      <c r="AN64" s="169"/>
-      <c r="AO64" s="169"/>
-      <c r="AP64" s="169"/>
-      <c r="AQ64" s="169"/>
-      <c r="AR64" s="169"/>
-      <c r="AS64" s="169"/>
-      <c r="AT64" s="169"/>
-      <c r="AU64" s="169"/>
-      <c r="AV64" s="174"/>
+      <c r="D64" s="169" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="170"/>
+      <c r="F64" s="170"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="171"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="171"/>
+      <c r="L64" s="171"/>
+      <c r="M64" s="172"/>
+      <c r="N64" s="164"/>
+      <c r="O64" s="171" t="s">
+        <v>93</v>
+      </c>
+      <c r="P64" s="171"/>
+      <c r="Q64" s="171"/>
+      <c r="R64" s="172"/>
+      <c r="S64" s="169"/>
+      <c r="T64" s="170"/>
+      <c r="U64" s="170"/>
+      <c r="V64" s="170"/>
+      <c r="W64" s="170"/>
+      <c r="X64" s="170"/>
+      <c r="Y64" s="170"/>
+      <c r="Z64" s="173"/>
+      <c r="AA64" s="170"/>
+      <c r="AB64" s="170"/>
+      <c r="AC64" s="170"/>
+      <c r="AD64" s="170"/>
+      <c r="AE64" s="170"/>
+      <c r="AF64" s="170"/>
+      <c r="AG64" s="174"/>
+      <c r="AH64" s="163"/>
+      <c r="AI64" s="170"/>
+      <c r="AJ64" s="170"/>
+      <c r="AK64" s="170"/>
+      <c r="AL64" s="170"/>
+      <c r="AM64" s="170"/>
+      <c r="AN64" s="170"/>
+      <c r="AO64" s="170"/>
+      <c r="AP64" s="170"/>
+      <c r="AQ64" s="170"/>
+      <c r="AR64" s="170"/>
+      <c r="AS64" s="170"/>
+      <c r="AT64" s="170"/>
+      <c r="AU64" s="170"/>
+      <c r="AV64" s="175"/>
       <c r="AW64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="17"/>
       <c r="B65" s="28"/>
-      <c r="C65" s="105" t="n">
+      <c r="C65" s="106" t="n">
         <v>3</v>
       </c>
-      <c r="D65" s="175" t="s">
-        <v>97</v>
-      </c>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="177"/>
-      <c r="I65" s="177"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="177"/>
-      <c r="L65" s="177"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="179"/>
-      <c r="O65" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="P65" s="177"/>
-      <c r="Q65" s="177"/>
-      <c r="R65" s="178"/>
-      <c r="S65" s="175"/>
-      <c r="T65" s="176"/>
-      <c r="U65" s="176"/>
-      <c r="V65" s="176"/>
-      <c r="W65" s="176"/>
-      <c r="X65" s="176"/>
-      <c r="Y65" s="176"/>
-      <c r="Z65" s="180"/>
-      <c r="AA65" s="176"/>
-      <c r="AB65" s="176"/>
-      <c r="AC65" s="176"/>
-      <c r="AD65" s="176"/>
-      <c r="AE65" s="176"/>
-      <c r="AF65" s="176"/>
-      <c r="AG65" s="181"/>
-      <c r="AH65" s="182"/>
-      <c r="AI65" s="176"/>
-      <c r="AJ65" s="176"/>
-      <c r="AK65" s="176"/>
-      <c r="AL65" s="176"/>
-      <c r="AM65" s="176"/>
-      <c r="AN65" s="176"/>
-      <c r="AO65" s="176"/>
-      <c r="AP65" s="176"/>
-      <c r="AQ65" s="176"/>
-      <c r="AR65" s="176"/>
-      <c r="AS65" s="176"/>
-      <c r="AT65" s="176"/>
-      <c r="AU65" s="176"/>
-      <c r="AV65" s="183"/>
+      <c r="D65" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" s="177"/>
+      <c r="F65" s="177"/>
+      <c r="G65" s="178"/>
+      <c r="H65" s="178"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="179"/>
+      <c r="N65" s="180"/>
+      <c r="O65" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="P65" s="178"/>
+      <c r="Q65" s="178"/>
+      <c r="R65" s="179"/>
+      <c r="S65" s="176"/>
+      <c r="T65" s="177"/>
+      <c r="U65" s="177"/>
+      <c r="V65" s="177"/>
+      <c r="W65" s="177"/>
+      <c r="X65" s="177"/>
+      <c r="Y65" s="177"/>
+      <c r="Z65" s="181"/>
+      <c r="AA65" s="177"/>
+      <c r="AB65" s="177"/>
+      <c r="AC65" s="177"/>
+      <c r="AD65" s="177"/>
+      <c r="AE65" s="177"/>
+      <c r="AF65" s="177"/>
+      <c r="AG65" s="182"/>
+      <c r="AH65" s="183"/>
+      <c r="AI65" s="177"/>
+      <c r="AJ65" s="177"/>
+      <c r="AK65" s="177"/>
+      <c r="AL65" s="177"/>
+      <c r="AM65" s="177"/>
+      <c r="AN65" s="177"/>
+      <c r="AO65" s="177"/>
+      <c r="AP65" s="177"/>
+      <c r="AQ65" s="177"/>
+      <c r="AR65" s="177"/>
+      <c r="AS65" s="177"/>
+      <c r="AT65" s="177"/>
+      <c r="AU65" s="177"/>
+      <c r="AV65" s="184"/>
       <c r="AW65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="17"/>
       <c r="B66" s="28"/>
-      <c r="C66" s="105" t="n">
+      <c r="C66" s="106" t="n">
         <v>4</v>
       </c>
-      <c r="D66" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="E66" s="162"/>
-      <c r="F66" s="162"/>
-      <c r="G66" s="163"/>
-      <c r="H66" s="163"/>
-      <c r="I66" s="163"/>
-      <c r="J66" s="163"/>
-      <c r="K66" s="163"/>
-      <c r="L66" s="163"/>
-      <c r="M66" s="164"/>
-      <c r="N66" s="163"/>
-      <c r="O66" s="163" t="s">
-        <v>98</v>
-      </c>
-      <c r="P66" s="163"/>
-      <c r="Q66" s="163"/>
-      <c r="R66" s="164"/>
-      <c r="S66" s="161"/>
-      <c r="T66" s="162"/>
-      <c r="U66" s="162"/>
-      <c r="V66" s="162"/>
-      <c r="W66" s="162" t="s">
-        <v>100</v>
-      </c>
-      <c r="X66" s="162"/>
-      <c r="Y66" s="162"/>
-      <c r="Z66" s="165"/>
-      <c r="AA66" s="162"/>
-      <c r="AB66" s="162"/>
-      <c r="AC66" s="162"/>
-      <c r="AD66" s="162"/>
-      <c r="AE66" s="162"/>
-      <c r="AF66" s="162"/>
-      <c r="AG66" s="166"/>
-      <c r="AH66" s="162"/>
-      <c r="AI66" s="162"/>
-      <c r="AJ66" s="162"/>
-      <c r="AK66" s="162"/>
-      <c r="AL66" s="162"/>
-      <c r="AM66" s="162"/>
-      <c r="AN66" s="162"/>
-      <c r="AO66" s="162"/>
-      <c r="AP66" s="162"/>
-      <c r="AQ66" s="162"/>
-      <c r="AR66" s="162"/>
-      <c r="AS66" s="162"/>
-      <c r="AT66" s="162"/>
-      <c r="AU66" s="162"/>
-      <c r="AV66" s="167"/>
+      <c r="D66" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="E66" s="163"/>
+      <c r="F66" s="163"/>
+      <c r="G66" s="164"/>
+      <c r="H66" s="164"/>
+      <c r="I66" s="164"/>
+      <c r="J66" s="164"/>
+      <c r="K66" s="164"/>
+      <c r="L66" s="164"/>
+      <c r="M66" s="165"/>
+      <c r="N66" s="164"/>
+      <c r="O66" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="P66" s="164"/>
+      <c r="Q66" s="164"/>
+      <c r="R66" s="165"/>
+      <c r="S66" s="162"/>
+      <c r="T66" s="163"/>
+      <c r="U66" s="163"/>
+      <c r="V66" s="163"/>
+      <c r="W66" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="X66" s="163"/>
+      <c r="Y66" s="163"/>
+      <c r="Z66" s="166"/>
+      <c r="AA66" s="163"/>
+      <c r="AB66" s="163"/>
+      <c r="AC66" s="163"/>
+      <c r="AD66" s="163"/>
+      <c r="AE66" s="163"/>
+      <c r="AF66" s="163"/>
+      <c r="AG66" s="167"/>
+      <c r="AH66" s="163"/>
+      <c r="AI66" s="163"/>
+      <c r="AJ66" s="163"/>
+      <c r="AK66" s="163"/>
+      <c r="AL66" s="163"/>
+      <c r="AM66" s="163"/>
+      <c r="AN66" s="163"/>
+      <c r="AO66" s="163"/>
+      <c r="AP66" s="163"/>
+      <c r="AQ66" s="163"/>
+      <c r="AR66" s="163"/>
+      <c r="AS66" s="163"/>
+      <c r="AT66" s="163"/>
+      <c r="AU66" s="163"/>
+      <c r="AV66" s="168"/>
       <c r="AW66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="17"/>
       <c r="B67" s="28"/>
-      <c r="C67" s="160" t="n">
+      <c r="C67" s="161" t="n">
         <v>5</v>
       </c>
-      <c r="D67" s="161" t="s">
-        <v>101</v>
-      </c>
-      <c r="E67" s="162"/>
-      <c r="F67" s="162"/>
-      <c r="G67" s="163"/>
-      <c r="H67" s="163"/>
-      <c r="I67" s="163"/>
-      <c r="J67" s="163"/>
-      <c r="K67" s="163"/>
-      <c r="L67" s="163"/>
-      <c r="M67" s="164"/>
-      <c r="N67" s="163"/>
-      <c r="O67" s="163" t="s">
+      <c r="D67" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="P67" s="163"/>
-      <c r="Q67" s="163"/>
-      <c r="R67" s="164"/>
-      <c r="S67" s="161"/>
-      <c r="T67" s="162"/>
-      <c r="U67" s="162"/>
-      <c r="V67" s="162"/>
-      <c r="W67" s="162"/>
-      <c r="X67" s="162"/>
-      <c r="Y67" s="162"/>
-      <c r="Z67" s="165"/>
-      <c r="AA67" s="162"/>
-      <c r="AB67" s="162"/>
-      <c r="AC67" s="162"/>
-      <c r="AD67" s="162"/>
-      <c r="AE67" s="162"/>
-      <c r="AF67" s="162"/>
-      <c r="AG67" s="166"/>
-      <c r="AH67" s="162"/>
-      <c r="AI67" s="162"/>
-      <c r="AJ67" s="162"/>
-      <c r="AK67" s="162"/>
-      <c r="AL67" s="162"/>
-      <c r="AM67" s="162"/>
-      <c r="AN67" s="162"/>
-      <c r="AO67" s="162"/>
-      <c r="AP67" s="162"/>
-      <c r="AQ67" s="162"/>
-      <c r="AR67" s="162"/>
-      <c r="AS67" s="162"/>
-      <c r="AT67" s="162"/>
-      <c r="AU67" s="162"/>
-      <c r="AV67" s="167"/>
+      <c r="E67" s="163"/>
+      <c r="F67" s="163"/>
+      <c r="G67" s="164"/>
+      <c r="H67" s="164"/>
+      <c r="I67" s="164"/>
+      <c r="J67" s="164"/>
+      <c r="K67" s="164"/>
+      <c r="L67" s="164"/>
+      <c r="M67" s="165"/>
+      <c r="N67" s="164"/>
+      <c r="O67" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="P67" s="164"/>
+      <c r="Q67" s="164"/>
+      <c r="R67" s="165"/>
+      <c r="S67" s="162"/>
+      <c r="T67" s="163"/>
+      <c r="U67" s="163"/>
+      <c r="V67" s="163"/>
+      <c r="W67" s="163"/>
+      <c r="X67" s="163"/>
+      <c r="Y67" s="163"/>
+      <c r="Z67" s="166"/>
+      <c r="AA67" s="163"/>
+      <c r="AB67" s="163"/>
+      <c r="AC67" s="163"/>
+      <c r="AD67" s="163"/>
+      <c r="AE67" s="163"/>
+      <c r="AF67" s="163"/>
+      <c r="AG67" s="167"/>
+      <c r="AH67" s="163"/>
+      <c r="AI67" s="163"/>
+      <c r="AJ67" s="163"/>
+      <c r="AK67" s="163"/>
+      <c r="AL67" s="163"/>
+      <c r="AM67" s="163"/>
+      <c r="AN67" s="163"/>
+      <c r="AO67" s="163"/>
+      <c r="AP67" s="163"/>
+      <c r="AQ67" s="163"/>
+      <c r="AR67" s="163"/>
+      <c r="AS67" s="163"/>
+      <c r="AT67" s="163"/>
+      <c r="AU67" s="163"/>
+      <c r="AV67" s="168"/>
       <c r="AW67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="17"/>
       <c r="B68" s="28"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="154"/>
+      <c r="C68" s="132"/>
+      <c r="D68" s="155"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
@@ -12536,15 +12534,15 @@
       <c r="V68" s="19"/>
       <c r="W68" s="19"/>
       <c r="X68" s="19"/>
-      <c r="Y68" s="131"/>
-      <c r="Z68" s="131"/>
-      <c r="AA68" s="131"/>
+      <c r="Y68" s="132"/>
+      <c r="Z68" s="132"/>
+      <c r="AA68" s="132"/>
       <c r="AB68" s="19"/>
       <c r="AC68" s="19"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
-      <c r="AF68" s="131"/>
-      <c r="AG68" s="131"/>
+      <c r="AF68" s="132"/>
+      <c r="AG68" s="132"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
       <c r="AJ68" s="19"/>
@@ -12564,8 +12562,8 @@
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="17"/>
       <c r="B69" s="28"/>
-      <c r="C69" s="131"/>
-      <c r="D69" s="154"/>
+      <c r="C69" s="132"/>
+      <c r="D69" s="155"/>
       <c r="E69" s="19"/>
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
@@ -12586,15 +12584,15 @@
       <c r="V69" s="19"/>
       <c r="W69" s="19"/>
       <c r="X69" s="19"/>
-      <c r="Y69" s="131"/>
-      <c r="Z69" s="131"/>
-      <c r="AA69" s="131"/>
+      <c r="Y69" s="132"/>
+      <c r="Z69" s="132"/>
+      <c r="AA69" s="132"/>
       <c r="AB69" s="19"/>
       <c r="AC69" s="19"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
-      <c r="AF69" s="131"/>
-      <c r="AG69" s="131"/>
+      <c r="AF69" s="132"/>
+      <c r="AG69" s="132"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
       <c r="AJ69" s="19"/>
@@ -12614,8 +12612,8 @@
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="17"/>
       <c r="B70" s="28"/>
-      <c r="C70" s="131"/>
-      <c r="D70" s="154"/>
+      <c r="C70" s="132"/>
+      <c r="D70" s="155"/>
       <c r="E70" s="19"/>
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
@@ -12636,15 +12634,15 @@
       <c r="V70" s="19"/>
       <c r="W70" s="19"/>
       <c r="X70" s="19"/>
-      <c r="Y70" s="131"/>
-      <c r="Z70" s="131"/>
-      <c r="AA70" s="131"/>
+      <c r="Y70" s="132"/>
+      <c r="Z70" s="132"/>
+      <c r="AA70" s="132"/>
       <c r="AB70" s="19"/>
       <c r="AC70" s="19"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
-      <c r="AF70" s="131"/>
-      <c r="AG70" s="131"/>
+      <c r="AF70" s="132"/>
+      <c r="AG70" s="132"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
       <c r="AJ70" s="19"/>
@@ -12664,8 +12662,8 @@
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="17"/>
       <c r="B71" s="28"/>
-      <c r="C71" s="131"/>
-      <c r="D71" s="154"/>
+      <c r="C71" s="132"/>
+      <c r="D71" s="155"/>
       <c r="E71" s="19"/>
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
@@ -12686,15 +12684,15 @@
       <c r="V71" s="19"/>
       <c r="W71" s="19"/>
       <c r="X71" s="19"/>
-      <c r="Y71" s="131"/>
-      <c r="Z71" s="131"/>
-      <c r="AA71" s="131"/>
+      <c r="Y71" s="132"/>
+      <c r="Z71" s="132"/>
+      <c r="AA71" s="132"/>
       <c r="AB71" s="19"/>
       <c r="AC71" s="19"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
-      <c r="AF71" s="131"/>
-      <c r="AG71" s="131"/>
+      <c r="AF71" s="132"/>
+      <c r="AG71" s="132"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
       <c r="AJ71" s="19"/>
@@ -12714,8 +12712,8 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="17"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="131"/>
-      <c r="D72" s="154"/>
+      <c r="C72" s="132"/>
+      <c r="D72" s="155"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
@@ -12736,15 +12734,15 @@
       <c r="V72" s="19"/>
       <c r="W72" s="19"/>
       <c r="X72" s="19"/>
-      <c r="Y72" s="131"/>
-      <c r="Z72" s="131"/>
-      <c r="AA72" s="131"/>
+      <c r="Y72" s="132"/>
+      <c r="Z72" s="132"/>
+      <c r="AA72" s="132"/>
       <c r="AB72" s="19"/>
       <c r="AC72" s="19"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
-      <c r="AF72" s="131"/>
-      <c r="AG72" s="131"/>
+      <c r="AF72" s="132"/>
+      <c r="AG72" s="132"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
       <c r="AJ72" s="19"/>
@@ -12764,8 +12762,8 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="17"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="131"/>
-      <c r="D73" s="154"/>
+      <c r="C73" s="132"/>
+      <c r="D73" s="155"/>
       <c r="E73" s="19"/>
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
@@ -12786,15 +12784,15 @@
       <c r="V73" s="19"/>
       <c r="W73" s="19"/>
       <c r="X73" s="19"/>
-      <c r="Y73" s="131"/>
-      <c r="Z73" s="131"/>
-      <c r="AA73" s="131"/>
+      <c r="Y73" s="132"/>
+      <c r="Z73" s="132"/>
+      <c r="AA73" s="132"/>
       <c r="AB73" s="19"/>
       <c r="AC73" s="19"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
-      <c r="AF73" s="131"/>
-      <c r="AG73" s="131"/>
+      <c r="AF73" s="132"/>
+      <c r="AG73" s="132"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
       <c r="AJ73" s="19"/>
@@ -12814,8 +12812,8 @@
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="17"/>
       <c r="B74" s="28"/>
-      <c r="C74" s="131"/>
-      <c r="D74" s="154"/>
+      <c r="C74" s="132"/>
+      <c r="D74" s="155"/>
       <c r="E74" s="19"/>
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
@@ -12836,15 +12834,15 @@
       <c r="V74" s="19"/>
       <c r="W74" s="19"/>
       <c r="X74" s="19"/>
-      <c r="Y74" s="131"/>
-      <c r="Z74" s="131"/>
-      <c r="AA74" s="131"/>
+      <c r="Y74" s="132"/>
+      <c r="Z74" s="132"/>
+      <c r="AA74" s="132"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
-      <c r="AF74" s="131"/>
-      <c r="AG74" s="131"/>
+      <c r="AF74" s="132"/>
+      <c r="AG74" s="132"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
       <c r="AJ74" s="19"/>
@@ -12864,8 +12862,8 @@
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="17"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="131"/>
-      <c r="D75" s="154"/>
+      <c r="C75" s="132"/>
+      <c r="D75" s="155"/>
       <c r="E75" s="19"/>
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
@@ -12886,15 +12884,15 @@
       <c r="V75" s="19"/>
       <c r="W75" s="19"/>
       <c r="X75" s="19"/>
-      <c r="Y75" s="131"/>
-      <c r="Z75" s="131"/>
-      <c r="AA75" s="131"/>
+      <c r="Y75" s="132"/>
+      <c r="Z75" s="132"/>
+      <c r="AA75" s="132"/>
       <c r="AB75" s="19"/>
       <c r="AC75" s="19"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
-      <c r="AF75" s="131"/>
-      <c r="AG75" s="131"/>
+      <c r="AF75" s="132"/>
+      <c r="AG75" s="132"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
       <c r="AJ75" s="19"/>
@@ -12914,8 +12912,8 @@
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="17"/>
       <c r="B76" s="28"/>
-      <c r="C76" s="131"/>
-      <c r="D76" s="154"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="155"/>
       <c r="E76" s="19"/>
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
@@ -12936,15 +12934,15 @@
       <c r="V76" s="19"/>
       <c r="W76" s="19"/>
       <c r="X76" s="19"/>
-      <c r="Y76" s="131"/>
-      <c r="Z76" s="131"/>
-      <c r="AA76" s="131"/>
+      <c r="Y76" s="132"/>
+      <c r="Z76" s="132"/>
+      <c r="AA76" s="132"/>
       <c r="AB76" s="19"/>
       <c r="AC76" s="19"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
-      <c r="AF76" s="131"/>
-      <c r="AG76" s="131"/>
+      <c r="AF76" s="132"/>
+      <c r="AG76" s="132"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
       <c r="AJ76" s="19"/>
@@ -12964,8 +12962,8 @@
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="17"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="131"/>
-      <c r="D77" s="154"/>
+      <c r="C77" s="132"/>
+      <c r="D77" s="155"/>
       <c r="E77" s="19"/>
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
@@ -12986,15 +12984,15 @@
       <c r="V77" s="19"/>
       <c r="W77" s="19"/>
       <c r="X77" s="19"/>
-      <c r="Y77" s="131"/>
-      <c r="Z77" s="131"/>
-      <c r="AA77" s="131"/>
+      <c r="Y77" s="132"/>
+      <c r="Z77" s="132"/>
+      <c r="AA77" s="132"/>
       <c r="AB77" s="19"/>
       <c r="AC77" s="19"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
-      <c r="AF77" s="131"/>
-      <c r="AG77" s="131"/>
+      <c r="AF77" s="132"/>
+      <c r="AG77" s="132"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
       <c r="AJ77" s="19"/>
@@ -13014,8 +13012,8 @@
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="17"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="131"/>
-      <c r="D78" s="154"/>
+      <c r="C78" s="132"/>
+      <c r="D78" s="155"/>
       <c r="E78" s="19"/>
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
@@ -13036,15 +13034,15 @@
       <c r="V78" s="19"/>
       <c r="W78" s="19"/>
       <c r="X78" s="19"/>
-      <c r="Y78" s="131"/>
-      <c r="Z78" s="131"/>
-      <c r="AA78" s="131"/>
+      <c r="Y78" s="132"/>
+      <c r="Z78" s="132"/>
+      <c r="AA78" s="132"/>
       <c r="AB78" s="19"/>
       <c r="AC78" s="19"/>
       <c r="AD78" s="19"/>
       <c r="AE78" s="19"/>
-      <c r="AF78" s="131"/>
-      <c r="AG78" s="131"/>
+      <c r="AF78" s="132"/>
+      <c r="AG78" s="132"/>
       <c r="AH78" s="19"/>
       <c r="AI78" s="19"/>
       <c r="AJ78" s="19"/>
@@ -13064,8 +13062,8 @@
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="17"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="131"/>
-      <c r="D79" s="154"/>
+      <c r="C79" s="132"/>
+      <c r="D79" s="155"/>
       <c r="E79" s="19"/>
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
@@ -13086,15 +13084,15 @@
       <c r="V79" s="19"/>
       <c r="W79" s="19"/>
       <c r="X79" s="19"/>
-      <c r="Y79" s="131"/>
-      <c r="Z79" s="131"/>
-      <c r="AA79" s="131"/>
+      <c r="Y79" s="132"/>
+      <c r="Z79" s="132"/>
+      <c r="AA79" s="132"/>
       <c r="AB79" s="19"/>
       <c r="AC79" s="19"/>
       <c r="AD79" s="19"/>
       <c r="AE79" s="19"/>
-      <c r="AF79" s="131"/>
-      <c r="AG79" s="131"/>
+      <c r="AF79" s="132"/>
+      <c r="AG79" s="132"/>
       <c r="AH79" s="19"/>
       <c r="AI79" s="19"/>
       <c r="AJ79" s="19"/>
@@ -13114,8 +13112,8 @@
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="17"/>
       <c r="B80" s="28"/>
-      <c r="C80" s="131"/>
-      <c r="D80" s="154"/>
+      <c r="C80" s="132"/>
+      <c r="D80" s="155"/>
       <c r="E80" s="19"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
@@ -13136,15 +13134,15 @@
       <c r="V80" s="19"/>
       <c r="W80" s="19"/>
       <c r="X80" s="19"/>
-      <c r="Y80" s="131"/>
-      <c r="Z80" s="131"/>
-      <c r="AA80" s="131"/>
+      <c r="Y80" s="132"/>
+      <c r="Z80" s="132"/>
+      <c r="AA80" s="132"/>
       <c r="AB80" s="19"/>
       <c r="AC80" s="19"/>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19"/>
-      <c r="AF80" s="131"/>
-      <c r="AG80" s="131"/>
+      <c r="AF80" s="132"/>
+      <c r="AG80" s="132"/>
       <c r="AH80" s="19"/>
       <c r="AI80" s="19"/>
       <c r="AJ80" s="19"/>
@@ -13164,8 +13162,8 @@
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="17"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="131"/>
-      <c r="D81" s="154"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="155"/>
       <c r="E81" s="19"/>
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
@@ -13186,15 +13184,15 @@
       <c r="V81" s="19"/>
       <c r="W81" s="19"/>
       <c r="X81" s="19"/>
-      <c r="Y81" s="131"/>
-      <c r="Z81" s="131"/>
-      <c r="AA81" s="131"/>
+      <c r="Y81" s="132"/>
+      <c r="Z81" s="132"/>
+      <c r="AA81" s="132"/>
       <c r="AB81" s="19"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="19"/>
       <c r="AE81" s="19"/>
-      <c r="AF81" s="131"/>
-      <c r="AG81" s="131"/>
+      <c r="AF81" s="132"/>
+      <c r="AG81" s="132"/>
       <c r="AH81" s="19"/>
       <c r="AI81" s="19"/>
       <c r="AJ81" s="19"/>
@@ -13410,8 +13408,8 @@
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="17"/>
-      <c r="B86" s="59" t="s">
-        <v>102</v>
+      <c r="B86" s="60" t="s">
+        <v>99</v>
       </c>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -13444,7 +13442,7 @@
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="17"/>
       <c r="C87" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D87" s="19"/>
       <c r="E87" s="19"/>
@@ -13477,7 +13475,7 @@
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="17"/>
       <c r="D88" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E88" s="19"/>
       <c r="F88" s="19"/>
@@ -13539,7 +13537,7 @@
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="17"/>
       <c r="C90" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="19"/>
@@ -13572,7 +13570,7 @@
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="17"/>
       <c r="D91" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E91" s="19"/>
       <c r="F91" s="19"/>
@@ -13634,7 +13632,7 @@
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="17"/>
       <c r="C93" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="19"/>
@@ -13667,7 +13665,7 @@
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="17"/>
       <c r="D94" s="19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E94" s="19"/>
       <c r="F94" s="19"/>
@@ -13729,7 +13727,7 @@
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="17"/>
       <c r="C96" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="19"/>
@@ -13762,7 +13760,7 @@
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="17"/>
       <c r="D97" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E97" s="19"/>
       <c r="F97" s="19"/>
@@ -14726,8 +14724,8 @@
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="17"/>
-      <c r="B126" s="59" t="s">
-        <v>110</v>
+      <c r="B126" s="60" t="s">
+        <v>107</v>
       </c>
       <c r="D126" s="19"/>
       <c r="E126" s="19"/>
@@ -14760,7 +14758,7 @@
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="17"/>
       <c r="C127" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D127" s="19"/>
       <c r="E127" s="19"/>
@@ -14793,7 +14791,7 @@
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="17"/>
       <c r="D128" s="19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E128" s="19"/>
       <c r="F128" s="19"/>
@@ -14855,7 +14853,7 @@
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="17"/>
       <c r="B130" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AL130" s="19"/>
       <c r="AM130" s="19"/>
@@ -14874,70 +14872,70 @@
     </row>
     <row r="131" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="17"/>
-      <c r="B131" s="72" t="s">
+      <c r="B131" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="73"/>
+      <c r="E131" s="73"/>
+      <c r="F131" s="73"/>
+      <c r="G131" s="73"/>
+      <c r="H131" s="73"/>
+      <c r="I131" s="103" t="s">
+        <v>60</v>
+      </c>
+      <c r="J131" s="103"/>
+      <c r="K131" s="103"/>
+      <c r="L131" s="103"/>
+      <c r="M131" s="103" t="s">
+        <v>61</v>
+      </c>
+      <c r="N131" s="103"/>
+      <c r="O131" s="103"/>
+      <c r="P131" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q131" s="73"/>
+      <c r="R131" s="73"/>
+      <c r="S131" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="C131" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="102" t="s">
+      <c r="T131" s="73"/>
+      <c r="U131" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="J131" s="102"/>
-      <c r="K131" s="102"/>
-      <c r="L131" s="102"/>
-      <c r="M131" s="102" t="s">
+      <c r="V131" s="74"/>
+      <c r="W131" s="74"/>
+      <c r="X131" s="74"/>
+      <c r="Y131" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="N131" s="102"/>
-      <c r="O131" s="102"/>
-      <c r="P131" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q131" s="72"/>
-      <c r="R131" s="72"/>
-      <c r="S131" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="T131" s="72"/>
-      <c r="U131" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="V131" s="73"/>
-      <c r="W131" s="73"/>
-      <c r="X131" s="73"/>
-      <c r="Y131" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z131" s="103"/>
-      <c r="AA131" s="103"/>
-      <c r="AB131" s="103"/>
-      <c r="AC131" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD131" s="73"/>
-      <c r="AE131" s="73"/>
-      <c r="AF131" s="73"/>
-      <c r="AG131" s="73"/>
-      <c r="AH131" s="73"/>
-      <c r="AI131" s="73"/>
-      <c r="AJ131" s="73"/>
-      <c r="AK131" s="73"/>
-      <c r="AL131" s="73"/>
-      <c r="AM131" s="73"/>
-      <c r="AN131" s="73"/>
-      <c r="AO131" s="73"/>
-      <c r="AP131" s="73"/>
-      <c r="AQ131" s="73"/>
-      <c r="AR131" s="73"/>
-      <c r="AS131" s="73"/>
-      <c r="AT131" s="73"/>
-      <c r="AU131" s="73"/>
+      <c r="Z131" s="104"/>
+      <c r="AA131" s="104"/>
+      <c r="AB131" s="104"/>
+      <c r="AC131" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD131" s="74"/>
+      <c r="AE131" s="74"/>
+      <c r="AF131" s="74"/>
+      <c r="AG131" s="74"/>
+      <c r="AH131" s="74"/>
+      <c r="AI131" s="74"/>
+      <c r="AJ131" s="74"/>
+      <c r="AK131" s="74"/>
+      <c r="AL131" s="74"/>
+      <c r="AM131" s="74"/>
+      <c r="AN131" s="74"/>
+      <c r="AO131" s="74"/>
+      <c r="AP131" s="74"/>
+      <c r="AQ131" s="74"/>
+      <c r="AR131" s="74"/>
+      <c r="AS131" s="74"/>
+      <c r="AT131" s="74"/>
+      <c r="AU131" s="74"/>
       <c r="AW131" s="20"/>
       <c r="AZ131" s="0"/>
       <c r="BA131" s="0"/>
@@ -14945,68 +14943,68 @@
     </row>
     <row r="132" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="17"/>
-      <c r="B132" s="105" t="n">
+      <c r="B132" s="106" t="n">
         <v>1</v>
       </c>
-      <c r="C132" s="106" t="s">
+      <c r="C132" s="107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132" s="108"/>
+      <c r="E132" s="108"/>
+      <c r="F132" s="109"/>
+      <c r="G132" s="109"/>
+      <c r="H132" s="110"/>
+      <c r="I132" s="111" t="s">
+        <v>66</v>
+      </c>
+      <c r="J132" s="109"/>
+      <c r="K132" s="109"/>
+      <c r="L132" s="109"/>
+      <c r="M132" s="111"/>
+      <c r="N132" s="109" t="n">
+        <v>32</v>
+      </c>
+      <c r="O132" s="109"/>
+      <c r="P132" s="111"/>
+      <c r="Q132" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="R132" s="112"/>
+      <c r="S132" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="D132" s="107"/>
-      <c r="E132" s="107"/>
-      <c r="F132" s="108"/>
-      <c r="G132" s="108"/>
-      <c r="H132" s="109"/>
-      <c r="I132" s="110" t="s">
+      <c r="T132" s="106"/>
+      <c r="U132" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="J132" s="108"/>
-      <c r="K132" s="108"/>
-      <c r="L132" s="108"/>
-      <c r="M132" s="110"/>
-      <c r="N132" s="108" t="n">
-        <v>32</v>
-      </c>
-      <c r="O132" s="108"/>
-      <c r="P132" s="110"/>
-      <c r="Q132" s="108" t="s">
+      <c r="V132" s="108"/>
+      <c r="W132" s="108"/>
+      <c r="X132" s="112"/>
+      <c r="Y132" s="113"/>
+      <c r="Z132" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="R132" s="111"/>
-      <c r="S132" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="T132" s="105"/>
-      <c r="U132" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="V132" s="107"/>
-      <c r="W132" s="107"/>
-      <c r="X132" s="111"/>
-      <c r="Y132" s="112"/>
-      <c r="Z132" s="107" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA132" s="107"/>
-      <c r="AB132" s="107"/>
-      <c r="AC132" s="106"/>
-      <c r="AD132" s="107"/>
-      <c r="AE132" s="107"/>
-      <c r="AF132" s="107"/>
-      <c r="AG132" s="107"/>
-      <c r="AH132" s="107"/>
-      <c r="AI132" s="107"/>
-      <c r="AJ132" s="107"/>
-      <c r="AK132" s="107"/>
-      <c r="AL132" s="107"/>
-      <c r="AM132" s="107"/>
-      <c r="AN132" s="107"/>
-      <c r="AO132" s="107"/>
-      <c r="AP132" s="107"/>
-      <c r="AQ132" s="107"/>
-      <c r="AR132" s="107"/>
-      <c r="AS132" s="107"/>
-      <c r="AT132" s="107"/>
-      <c r="AU132" s="113"/>
+      <c r="AA132" s="108"/>
+      <c r="AB132" s="108"/>
+      <c r="AC132" s="107"/>
+      <c r="AD132" s="108"/>
+      <c r="AE132" s="108"/>
+      <c r="AF132" s="108"/>
+      <c r="AG132" s="108"/>
+      <c r="AH132" s="108"/>
+      <c r="AI132" s="108"/>
+      <c r="AJ132" s="108"/>
+      <c r="AK132" s="108"/>
+      <c r="AL132" s="108"/>
+      <c r="AM132" s="108"/>
+      <c r="AN132" s="108"/>
+      <c r="AO132" s="108"/>
+      <c r="AP132" s="108"/>
+      <c r="AQ132" s="108"/>
+      <c r="AR132" s="108"/>
+      <c r="AS132" s="108"/>
+      <c r="AT132" s="108"/>
+      <c r="AU132" s="114"/>
       <c r="AW132" s="20"/>
       <c r="AZ132" s="0"/>
       <c r="BA132" s="0"/>
@@ -15014,66 +15012,66 @@
     </row>
     <row r="133" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="17"/>
-      <c r="B133" s="115" t="n">
+      <c r="B133" s="116" t="n">
         <v>2</v>
       </c>
-      <c r="C133" s="116" t="s">
+      <c r="C133" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D133" s="118"/>
+      <c r="E133" s="118"/>
+      <c r="F133" s="119"/>
+      <c r="G133" s="119"/>
+      <c r="H133" s="120"/>
+      <c r="I133" s="121" t="s">
+        <v>72</v>
+      </c>
+      <c r="J133" s="119"/>
+      <c r="K133" s="119"/>
+      <c r="L133" s="119"/>
+      <c r="M133" s="121"/>
+      <c r="N133" s="119"/>
+      <c r="O133" s="119"/>
+      <c r="P133" s="121"/>
+      <c r="Q133" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="R133" s="122"/>
+      <c r="S133" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="T133" s="106"/>
+      <c r="U133" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="D133" s="117"/>
-      <c r="E133" s="117"/>
-      <c r="F133" s="118"/>
-      <c r="G133" s="118"/>
-      <c r="H133" s="119"/>
-      <c r="I133" s="120" t="s">
-        <v>75</v>
-      </c>
-      <c r="J133" s="118"/>
-      <c r="K133" s="118"/>
-      <c r="L133" s="118"/>
-      <c r="M133" s="120"/>
-      <c r="N133" s="118"/>
-      <c r="O133" s="118"/>
-      <c r="P133" s="120"/>
-      <c r="Q133" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="R133" s="121"/>
-      <c r="S133" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="T133" s="105"/>
-      <c r="U133" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="V133" s="117"/>
-      <c r="W133" s="117"/>
-      <c r="X133" s="121"/>
-      <c r="Y133" s="122"/>
-      <c r="Z133" s="117" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA133" s="117"/>
-      <c r="AB133" s="117"/>
-      <c r="AC133" s="116"/>
-      <c r="AD133" s="117"/>
-      <c r="AE133" s="117"/>
-      <c r="AF133" s="117"/>
-      <c r="AG133" s="117"/>
-      <c r="AH133" s="117"/>
-      <c r="AI133" s="117"/>
-      <c r="AJ133" s="117"/>
-      <c r="AK133" s="117"/>
-      <c r="AL133" s="117"/>
-      <c r="AM133" s="117"/>
-      <c r="AN133" s="117"/>
-      <c r="AO133" s="117"/>
-      <c r="AP133" s="117"/>
-      <c r="AQ133" s="117"/>
-      <c r="AR133" s="117"/>
-      <c r="AS133" s="117"/>
-      <c r="AT133" s="117"/>
-      <c r="AU133" s="123"/>
+      <c r="V133" s="118"/>
+      <c r="W133" s="118"/>
+      <c r="X133" s="122"/>
+      <c r="Y133" s="123"/>
+      <c r="Z133" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA133" s="118"/>
+      <c r="AB133" s="118"/>
+      <c r="AC133" s="117"/>
+      <c r="AD133" s="118"/>
+      <c r="AE133" s="118"/>
+      <c r="AF133" s="118"/>
+      <c r="AG133" s="118"/>
+      <c r="AH133" s="118"/>
+      <c r="AI133" s="118"/>
+      <c r="AJ133" s="118"/>
+      <c r="AK133" s="118"/>
+      <c r="AL133" s="118"/>
+      <c r="AM133" s="118"/>
+      <c r="AN133" s="118"/>
+      <c r="AO133" s="118"/>
+      <c r="AP133" s="118"/>
+      <c r="AQ133" s="118"/>
+      <c r="AR133" s="118"/>
+      <c r="AS133" s="118"/>
+      <c r="AT133" s="118"/>
+      <c r="AU133" s="124"/>
       <c r="AW133" s="20"/>
       <c r="AZ133" s="0"/>
       <c r="BA133" s="0"/>
@@ -15081,172 +15079,172 @@
     </row>
     <row r="134" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="17"/>
-      <c r="B134" s="115" t="n">
+      <c r="B134" s="116" t="n">
         <v>3</v>
       </c>
-      <c r="C134" s="116" t="s">
+      <c r="C134" s="117" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" s="118"/>
+      <c r="E134" s="118"/>
+      <c r="F134" s="119"/>
+      <c r="G134" s="119"/>
+      <c r="H134" s="120"/>
+      <c r="I134" s="121" t="s">
+        <v>76</v>
+      </c>
+      <c r="J134" s="119"/>
+      <c r="K134" s="119"/>
+      <c r="L134" s="119"/>
+      <c r="M134" s="121"/>
+      <c r="N134" s="119"/>
+      <c r="O134" s="119"/>
+      <c r="P134" s="121"/>
+      <c r="Q134" s="119" t="s">
+        <v>73</v>
+      </c>
+      <c r="R134" s="122"/>
+      <c r="S134" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="T134" s="106"/>
+      <c r="U134" s="117" t="s">
+        <v>77</v>
+      </c>
+      <c r="V134" s="118"/>
+      <c r="W134" s="118"/>
+      <c r="X134" s="125"/>
+      <c r="Y134" s="126"/>
+      <c r="Z134" s="126" t="s">
         <v>78</v>
       </c>
-      <c r="D134" s="117"/>
-      <c r="E134" s="117"/>
-      <c r="F134" s="118"/>
-      <c r="G134" s="118"/>
-      <c r="H134" s="119"/>
-      <c r="I134" s="120" t="s">
-        <v>79</v>
-      </c>
-      <c r="J134" s="118"/>
-      <c r="K134" s="118"/>
-      <c r="L134" s="118"/>
-      <c r="M134" s="120"/>
-      <c r="N134" s="118"/>
-      <c r="O134" s="118"/>
-      <c r="P134" s="120"/>
-      <c r="Q134" s="118" t="s">
-        <v>76</v>
-      </c>
-      <c r="R134" s="121"/>
-      <c r="S134" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="T134" s="105"/>
-      <c r="U134" s="116" t="s">
-        <v>80</v>
-      </c>
-      <c r="V134" s="117"/>
-      <c r="W134" s="117"/>
-      <c r="X134" s="124"/>
-      <c r="Y134" s="125"/>
-      <c r="Z134" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA134" s="125"/>
-      <c r="AB134" s="125"/>
-      <c r="AC134" s="126"/>
-      <c r="AD134" s="117"/>
-      <c r="AE134" s="117"/>
-      <c r="AF134" s="117"/>
-      <c r="AG134" s="117"/>
-      <c r="AH134" s="117"/>
-      <c r="AI134" s="117"/>
-      <c r="AJ134" s="117"/>
-      <c r="AK134" s="117"/>
-      <c r="AL134" s="117"/>
-      <c r="AM134" s="117"/>
-      <c r="AN134" s="117"/>
-      <c r="AO134" s="117"/>
-      <c r="AP134" s="117"/>
-      <c r="AQ134" s="117"/>
-      <c r="AR134" s="117"/>
-      <c r="AS134" s="117"/>
-      <c r="AT134" s="117"/>
-      <c r="AU134" s="123"/>
+      <c r="AA134" s="126"/>
+      <c r="AB134" s="126"/>
+      <c r="AC134" s="127"/>
+      <c r="AD134" s="118"/>
+      <c r="AE134" s="118"/>
+      <c r="AF134" s="118"/>
+      <c r="AG134" s="118"/>
+      <c r="AH134" s="118"/>
+      <c r="AI134" s="118"/>
+      <c r="AJ134" s="118"/>
+      <c r="AK134" s="118"/>
+      <c r="AL134" s="118"/>
+      <c r="AM134" s="118"/>
+      <c r="AN134" s="118"/>
+      <c r="AO134" s="118"/>
+      <c r="AP134" s="118"/>
+      <c r="AQ134" s="118"/>
+      <c r="AR134" s="118"/>
+      <c r="AS134" s="118"/>
+      <c r="AT134" s="118"/>
+      <c r="AU134" s="124"/>
       <c r="AW134" s="20"/>
       <c r="AZ134" s="0"/>
       <c r="BA134" s="0"/>
       <c r="BB134" s="0"/>
     </row>
     <row r="135" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="184"/>
-      <c r="B135" s="127"/>
-      <c r="C135" s="128"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="128"/>
-      <c r="F135" s="129"/>
-      <c r="G135" s="129"/>
-      <c r="H135" s="129"/>
-      <c r="I135" s="129"/>
-      <c r="J135" s="129"/>
-      <c r="K135" s="129"/>
-      <c r="L135" s="129"/>
-      <c r="M135" s="129"/>
-      <c r="N135" s="129"/>
-      <c r="O135" s="129"/>
-      <c r="P135" s="129"/>
-      <c r="Q135" s="129"/>
-      <c r="R135" s="128"/>
-      <c r="S135" s="127"/>
-      <c r="T135" s="127"/>
-      <c r="U135" s="128"/>
-      <c r="V135" s="128"/>
-      <c r="W135" s="128"/>
-      <c r="X135" s="128"/>
-      <c r="Y135" s="127"/>
-      <c r="Z135" s="128"/>
-      <c r="AA135" s="128"/>
-      <c r="AB135" s="128"/>
-      <c r="AC135" s="128"/>
-      <c r="AD135" s="128"/>
-      <c r="AE135" s="128"/>
-      <c r="AF135" s="128"/>
-      <c r="AG135" s="128"/>
-      <c r="AH135" s="128"/>
-      <c r="AI135" s="128"/>
-      <c r="AJ135" s="128"/>
-      <c r="AK135" s="128"/>
-      <c r="AL135" s="128"/>
-      <c r="AM135" s="128"/>
-      <c r="AN135" s="128"/>
-      <c r="AO135" s="128"/>
-      <c r="AP135" s="128"/>
-      <c r="AQ135" s="128"/>
-      <c r="AR135" s="128"/>
-      <c r="AS135" s="128"/>
-      <c r="AT135" s="128"/>
-      <c r="AU135" s="130"/>
+      <c r="A135" s="185"/>
+      <c r="B135" s="128"/>
+      <c r="C135" s="129"/>
+      <c r="D135" s="129"/>
+      <c r="E135" s="129"/>
+      <c r="F135" s="130"/>
+      <c r="G135" s="130"/>
+      <c r="H135" s="130"/>
+      <c r="I135" s="130"/>
+      <c r="J135" s="130"/>
+      <c r="K135" s="130"/>
+      <c r="L135" s="130"/>
+      <c r="M135" s="130"/>
+      <c r="N135" s="130"/>
+      <c r="O135" s="130"/>
+      <c r="P135" s="130"/>
+      <c r="Q135" s="130"/>
+      <c r="R135" s="129"/>
+      <c r="S135" s="128"/>
+      <c r="T135" s="128"/>
+      <c r="U135" s="129"/>
+      <c r="V135" s="129"/>
+      <c r="W135" s="129"/>
+      <c r="X135" s="129"/>
+      <c r="Y135" s="128"/>
+      <c r="Z135" s="129"/>
+      <c r="AA135" s="129"/>
+      <c r="AB135" s="129"/>
+      <c r="AC135" s="129"/>
+      <c r="AD135" s="129"/>
+      <c r="AE135" s="129"/>
+      <c r="AF135" s="129"/>
+      <c r="AG135" s="129"/>
+      <c r="AH135" s="129"/>
+      <c r="AI135" s="129"/>
+      <c r="AJ135" s="129"/>
+      <c r="AK135" s="129"/>
+      <c r="AL135" s="129"/>
+      <c r="AM135" s="129"/>
+      <c r="AN135" s="129"/>
+      <c r="AO135" s="129"/>
+      <c r="AP135" s="129"/>
+      <c r="AQ135" s="129"/>
+      <c r="AR135" s="129"/>
+      <c r="AS135" s="129"/>
+      <c r="AT135" s="129"/>
+      <c r="AU135" s="131"/>
       <c r="AW135" s="20"/>
       <c r="AZ135" s="0"/>
       <c r="BA135" s="0"/>
       <c r="BB135" s="0"/>
     </row>
     <row r="136" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="184"/>
-      <c r="B136" s="127"/>
-      <c r="C136" s="128"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="128"/>
-      <c r="F136" s="129"/>
-      <c r="G136" s="129"/>
-      <c r="H136" s="129"/>
-      <c r="I136" s="129"/>
-      <c r="J136" s="129"/>
-      <c r="K136" s="129"/>
-      <c r="L136" s="129"/>
-      <c r="M136" s="129"/>
-      <c r="N136" s="129"/>
-      <c r="O136" s="129"/>
-      <c r="P136" s="129"/>
-      <c r="Q136" s="129"/>
-      <c r="R136" s="128"/>
-      <c r="S136" s="127"/>
-      <c r="T136" s="127"/>
-      <c r="U136" s="128"/>
-      <c r="V136" s="128"/>
-      <c r="W136" s="128"/>
-      <c r="X136" s="128"/>
-      <c r="Y136" s="127"/>
-      <c r="Z136" s="128"/>
-      <c r="AA136" s="128"/>
-      <c r="AB136" s="128"/>
-      <c r="AC136" s="128"/>
-      <c r="AD136" s="128"/>
-      <c r="AE136" s="128"/>
-      <c r="AF136" s="128"/>
-      <c r="AG136" s="128"/>
-      <c r="AH136" s="128"/>
-      <c r="AI136" s="128"/>
-      <c r="AJ136" s="128"/>
-      <c r="AK136" s="128"/>
-      <c r="AL136" s="128"/>
-      <c r="AM136" s="128"/>
-      <c r="AN136" s="128"/>
-      <c r="AO136" s="128"/>
-      <c r="AP136" s="128"/>
-      <c r="AQ136" s="128"/>
-      <c r="AR136" s="128"/>
-      <c r="AS136" s="128"/>
-      <c r="AT136" s="128"/>
-      <c r="AU136" s="130"/>
+      <c r="A136" s="185"/>
+      <c r="B136" s="128"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="129"/>
+      <c r="E136" s="129"/>
+      <c r="F136" s="130"/>
+      <c r="G136" s="130"/>
+      <c r="H136" s="130"/>
+      <c r="I136" s="130"/>
+      <c r="J136" s="130"/>
+      <c r="K136" s="130"/>
+      <c r="L136" s="130"/>
+      <c r="M136" s="130"/>
+      <c r="N136" s="130"/>
+      <c r="O136" s="130"/>
+      <c r="P136" s="130"/>
+      <c r="Q136" s="130"/>
+      <c r="R136" s="129"/>
+      <c r="S136" s="128"/>
+      <c r="T136" s="128"/>
+      <c r="U136" s="129"/>
+      <c r="V136" s="129"/>
+      <c r="W136" s="129"/>
+      <c r="X136" s="129"/>
+      <c r="Y136" s="128"/>
+      <c r="Z136" s="129"/>
+      <c r="AA136" s="129"/>
+      <c r="AB136" s="129"/>
+      <c r="AC136" s="129"/>
+      <c r="AD136" s="129"/>
+      <c r="AE136" s="129"/>
+      <c r="AF136" s="129"/>
+      <c r="AG136" s="129"/>
+      <c r="AH136" s="129"/>
+      <c r="AI136" s="129"/>
+      <c r="AJ136" s="129"/>
+      <c r="AK136" s="129"/>
+      <c r="AL136" s="129"/>
+      <c r="AM136" s="129"/>
+      <c r="AN136" s="129"/>
+      <c r="AO136" s="129"/>
+      <c r="AP136" s="129"/>
+      <c r="AQ136" s="129"/>
+      <c r="AR136" s="129"/>
+      <c r="AS136" s="129"/>
+      <c r="AT136" s="129"/>
+      <c r="AU136" s="131"/>
       <c r="AW136" s="20"/>
       <c r="AZ136" s="0"/>
       <c r="BA136" s="0"/>
@@ -15265,7 +15263,7 @@
     <row r="138" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="17"/>
       <c r="B138" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C138" s="19"/>
       <c r="D138" s="19"/>
@@ -15286,16 +15284,16 @@
       <c r="S138" s="19"/>
       <c r="T138" s="19"/>
       <c r="U138" s="19"/>
-      <c r="V138" s="131"/>
-      <c r="W138" s="131"/>
-      <c r="X138" s="131"/>
-      <c r="Y138" s="131"/>
+      <c r="V138" s="132"/>
+      <c r="W138" s="132"/>
+      <c r="X138" s="132"/>
+      <c r="Y138" s="132"/>
       <c r="Z138" s="19"/>
       <c r="AA138" s="19"/>
       <c r="AB138" s="19"/>
       <c r="AC138" s="19"/>
-      <c r="AD138" s="131"/>
-      <c r="AE138" s="131"/>
+      <c r="AD138" s="132"/>
+      <c r="AE138" s="132"/>
       <c r="AF138" s="19"/>
       <c r="AG138" s="19"/>
       <c r="AH138" s="19"/>
@@ -15319,60 +15317,60 @@
     </row>
     <row r="139" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="17"/>
-      <c r="B139" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="C139" s="72" t="s">
-        <v>62</v>
-      </c>
-      <c r="D139" s="72"/>
-      <c r="E139" s="72"/>
-      <c r="F139" s="72"/>
-      <c r="G139" s="72"/>
-      <c r="H139" s="72"/>
-      <c r="I139" s="72"/>
-      <c r="J139" s="72"/>
-      <c r="K139" s="72"/>
-      <c r="L139" s="72"/>
-      <c r="M139" s="133" t="s">
-        <v>66</v>
-      </c>
-      <c r="N139" s="133"/>
-      <c r="O139" s="133"/>
-      <c r="P139" s="133"/>
-      <c r="Q139" s="133"/>
-      <c r="R139" s="133"/>
-      <c r="S139" s="133"/>
-      <c r="T139" s="133"/>
-      <c r="U139" s="133"/>
-      <c r="V139" s="133"/>
-      <c r="W139" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="X139" s="73"/>
-      <c r="Y139" s="73"/>
-      <c r="Z139" s="73"/>
-      <c r="AA139" s="73"/>
-      <c r="AB139" s="73"/>
-      <c r="AC139" s="73"/>
-      <c r="AD139" s="73"/>
-      <c r="AE139" s="73"/>
-      <c r="AF139" s="73"/>
-      <c r="AG139" s="73"/>
-      <c r="AH139" s="73"/>
-      <c r="AI139" s="73"/>
-      <c r="AJ139" s="73"/>
-      <c r="AK139" s="73"/>
-      <c r="AL139" s="73"/>
-      <c r="AM139" s="73"/>
-      <c r="AN139" s="73"/>
-      <c r="AO139" s="73"/>
-      <c r="AP139" s="73"/>
-      <c r="AQ139" s="73"/>
-      <c r="AR139" s="73"/>
-      <c r="AS139" s="73"/>
-      <c r="AT139" s="73"/>
-      <c r="AU139" s="73"/>
+      <c r="B139" s="133" t="s">
+        <v>45</v>
+      </c>
+      <c r="C139" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="73"/>
+      <c r="E139" s="73"/>
+      <c r="F139" s="73"/>
+      <c r="G139" s="73"/>
+      <c r="H139" s="73"/>
+      <c r="I139" s="73"/>
+      <c r="J139" s="73"/>
+      <c r="K139" s="73"/>
+      <c r="L139" s="73"/>
+      <c r="M139" s="134" t="s">
+        <v>63</v>
+      </c>
+      <c r="N139" s="134"/>
+      <c r="O139" s="134"/>
+      <c r="P139" s="134"/>
+      <c r="Q139" s="134"/>
+      <c r="R139" s="134"/>
+      <c r="S139" s="134"/>
+      <c r="T139" s="134"/>
+      <c r="U139" s="134"/>
+      <c r="V139" s="134"/>
+      <c r="W139" s="74" t="s">
+        <v>49</v>
+      </c>
+      <c r="X139" s="74"/>
+      <c r="Y139" s="74"/>
+      <c r="Z139" s="74"/>
+      <c r="AA139" s="74"/>
+      <c r="AB139" s="74"/>
+      <c r="AC139" s="74"/>
+      <c r="AD139" s="74"/>
+      <c r="AE139" s="74"/>
+      <c r="AF139" s="74"/>
+      <c r="AG139" s="74"/>
+      <c r="AH139" s="74"/>
+      <c r="AI139" s="74"/>
+      <c r="AJ139" s="74"/>
+      <c r="AK139" s="74"/>
+      <c r="AL139" s="74"/>
+      <c r="AM139" s="74"/>
+      <c r="AN139" s="74"/>
+      <c r="AO139" s="74"/>
+      <c r="AP139" s="74"/>
+      <c r="AQ139" s="74"/>
+      <c r="AR139" s="74"/>
+      <c r="AS139" s="74"/>
+      <c r="AT139" s="74"/>
+      <c r="AU139" s="74"/>
       <c r="AW139" s="20"/>
       <c r="AZ139" s="0"/>
       <c r="BA139" s="0"/>
@@ -15380,60 +15378,60 @@
     </row>
     <row r="140" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="17"/>
-      <c r="B140" s="134" t="n">
+      <c r="B140" s="135" t="n">
         <v>1</v>
       </c>
-      <c r="C140" s="135" t="s">
-        <v>83</v>
-      </c>
-      <c r="D140" s="95"/>
-      <c r="E140" s="95"/>
-      <c r="F140" s="95"/>
-      <c r="G140" s="95"/>
-      <c r="H140" s="95"/>
-      <c r="I140" s="95"/>
-      <c r="J140" s="95"/>
-      <c r="K140" s="95"/>
-      <c r="L140" s="136"/>
-      <c r="M140" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="N140" s="138"/>
-      <c r="O140" s="138"/>
-      <c r="P140" s="138"/>
-      <c r="Q140" s="138"/>
-      <c r="R140" s="138"/>
-      <c r="S140" s="138"/>
-      <c r="T140" s="138"/>
-      <c r="U140" s="138"/>
-      <c r="V140" s="139"/>
-      <c r="W140" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="X140" s="140"/>
-      <c r="Y140" s="140"/>
-      <c r="Z140" s="140"/>
-      <c r="AA140" s="138"/>
-      <c r="AB140" s="138"/>
-      <c r="AC140" s="138"/>
-      <c r="AD140" s="138"/>
-      <c r="AE140" s="140"/>
-      <c r="AF140" s="140"/>
-      <c r="AG140" s="138"/>
-      <c r="AH140" s="138"/>
-      <c r="AI140" s="138"/>
-      <c r="AJ140" s="138"/>
-      <c r="AK140" s="138"/>
-      <c r="AL140" s="138"/>
-      <c r="AM140" s="138"/>
-      <c r="AN140" s="138"/>
-      <c r="AO140" s="138"/>
-      <c r="AP140" s="138"/>
-      <c r="AQ140" s="138"/>
-      <c r="AR140" s="138"/>
-      <c r="AS140" s="138"/>
-      <c r="AT140" s="138"/>
-      <c r="AU140" s="139"/>
+      <c r="C140" s="136" t="s">
+        <v>80</v>
+      </c>
+      <c r="D140" s="96"/>
+      <c r="E140" s="96"/>
+      <c r="F140" s="96"/>
+      <c r="G140" s="96"/>
+      <c r="H140" s="96"/>
+      <c r="I140" s="96"/>
+      <c r="J140" s="96"/>
+      <c r="K140" s="96"/>
+      <c r="L140" s="137"/>
+      <c r="M140" s="138" t="s">
+        <v>81</v>
+      </c>
+      <c r="N140" s="139"/>
+      <c r="O140" s="139"/>
+      <c r="P140" s="139"/>
+      <c r="Q140" s="139"/>
+      <c r="R140" s="139"/>
+      <c r="S140" s="139"/>
+      <c r="T140" s="139"/>
+      <c r="U140" s="139"/>
+      <c r="V140" s="140"/>
+      <c r="W140" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="X140" s="141"/>
+      <c r="Y140" s="141"/>
+      <c r="Z140" s="141"/>
+      <c r="AA140" s="139"/>
+      <c r="AB140" s="139"/>
+      <c r="AC140" s="139"/>
+      <c r="AD140" s="139"/>
+      <c r="AE140" s="141"/>
+      <c r="AF140" s="141"/>
+      <c r="AG140" s="139"/>
+      <c r="AH140" s="139"/>
+      <c r="AI140" s="139"/>
+      <c r="AJ140" s="139"/>
+      <c r="AK140" s="139"/>
+      <c r="AL140" s="139"/>
+      <c r="AM140" s="139"/>
+      <c r="AN140" s="139"/>
+      <c r="AO140" s="139"/>
+      <c r="AP140" s="139"/>
+      <c r="AQ140" s="139"/>
+      <c r="AR140" s="139"/>
+      <c r="AS140" s="139"/>
+      <c r="AT140" s="139"/>
+      <c r="AU140" s="140"/>
       <c r="AW140" s="20"/>
       <c r="AZ140" s="0"/>
       <c r="BA140" s="0"/>
@@ -15441,60 +15439,60 @@
     </row>
     <row r="141" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="17"/>
-      <c r="B141" s="141" t="n">
+      <c r="B141" s="142" t="n">
         <v>2</v>
       </c>
-      <c r="C141" s="142" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" s="143"/>
-      <c r="E141" s="143"/>
-      <c r="F141" s="143"/>
-      <c r="G141" s="143"/>
-      <c r="H141" s="143"/>
-      <c r="I141" s="143"/>
-      <c r="J141" s="143"/>
-      <c r="K141" s="143"/>
-      <c r="L141" s="144"/>
-      <c r="M141" s="142" t="s">
-        <v>87</v>
-      </c>
-      <c r="N141" s="143"/>
-      <c r="O141" s="143"/>
-      <c r="P141" s="143"/>
-      <c r="Q141" s="143"/>
-      <c r="R141" s="143"/>
-      <c r="S141" s="143"/>
-      <c r="T141" s="143"/>
-      <c r="U141" s="143"/>
-      <c r="V141" s="144"/>
-      <c r="W141" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="X141" s="140"/>
-      <c r="Y141" s="140"/>
-      <c r="Z141" s="140"/>
-      <c r="AA141" s="138"/>
-      <c r="AB141" s="138"/>
-      <c r="AC141" s="138"/>
-      <c r="AD141" s="138"/>
-      <c r="AE141" s="140"/>
-      <c r="AF141" s="140"/>
-      <c r="AG141" s="138"/>
-      <c r="AH141" s="138"/>
-      <c r="AI141" s="138"/>
-      <c r="AJ141" s="138"/>
-      <c r="AK141" s="143"/>
-      <c r="AL141" s="143"/>
-      <c r="AM141" s="143"/>
-      <c r="AN141" s="143"/>
-      <c r="AO141" s="143"/>
-      <c r="AP141" s="143"/>
-      <c r="AQ141" s="143"/>
-      <c r="AR141" s="143"/>
-      <c r="AS141" s="143"/>
-      <c r="AT141" s="143"/>
-      <c r="AU141" s="144"/>
+      <c r="C141" s="143" t="s">
+        <v>83</v>
+      </c>
+      <c r="D141" s="144"/>
+      <c r="E141" s="144"/>
+      <c r="F141" s="144"/>
+      <c r="G141" s="144"/>
+      <c r="H141" s="144"/>
+      <c r="I141" s="144"/>
+      <c r="J141" s="144"/>
+      <c r="K141" s="144"/>
+      <c r="L141" s="145"/>
+      <c r="M141" s="143" t="s">
+        <v>84</v>
+      </c>
+      <c r="N141" s="144"/>
+      <c r="O141" s="144"/>
+      <c r="P141" s="144"/>
+      <c r="Q141" s="144"/>
+      <c r="R141" s="144"/>
+      <c r="S141" s="144"/>
+      <c r="T141" s="144"/>
+      <c r="U141" s="144"/>
+      <c r="V141" s="145"/>
+      <c r="W141" s="138" t="s">
+        <v>82</v>
+      </c>
+      <c r="X141" s="141"/>
+      <c r="Y141" s="141"/>
+      <c r="Z141" s="141"/>
+      <c r="AA141" s="139"/>
+      <c r="AB141" s="139"/>
+      <c r="AC141" s="139"/>
+      <c r="AD141" s="139"/>
+      <c r="AE141" s="141"/>
+      <c r="AF141" s="141"/>
+      <c r="AG141" s="139"/>
+      <c r="AH141" s="139"/>
+      <c r="AI141" s="139"/>
+      <c r="AJ141" s="139"/>
+      <c r="AK141" s="144"/>
+      <c r="AL141" s="144"/>
+      <c r="AM141" s="144"/>
+      <c r="AN141" s="144"/>
+      <c r="AO141" s="144"/>
+      <c r="AP141" s="144"/>
+      <c r="AQ141" s="144"/>
+      <c r="AR141" s="144"/>
+      <c r="AS141" s="144"/>
+      <c r="AT141" s="144"/>
+      <c r="AU141" s="145"/>
       <c r="AW141" s="20"/>
       <c r="AZ141" s="0"/>
       <c r="BA141" s="0"/>
@@ -15502,60 +15500,60 @@
     </row>
     <row r="142" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="17"/>
-      <c r="B142" s="145" t="n">
+      <c r="B142" s="146" t="n">
         <v>3</v>
       </c>
-      <c r="C142" s="146" t="s">
-        <v>88</v>
-      </c>
-      <c r="D142" s="147"/>
-      <c r="E142" s="147"/>
-      <c r="F142" s="147"/>
-      <c r="G142" s="147"/>
-      <c r="H142" s="147"/>
-      <c r="I142" s="147"/>
-      <c r="J142" s="147"/>
-      <c r="K142" s="147"/>
-      <c r="L142" s="148"/>
-      <c r="M142" s="149" t="s">
-        <v>87</v>
-      </c>
-      <c r="N142" s="150"/>
-      <c r="O142" s="150"/>
-      <c r="P142" s="150"/>
-      <c r="Q142" s="150"/>
-      <c r="R142" s="150"/>
-      <c r="S142" s="150"/>
-      <c r="T142" s="150"/>
-      <c r="U142" s="150"/>
-      <c r="V142" s="151"/>
-      <c r="W142" s="149" t="s">
-        <v>89</v>
-      </c>
-      <c r="X142" s="152"/>
-      <c r="Y142" s="152"/>
-      <c r="Z142" s="152"/>
-      <c r="AA142" s="150"/>
-      <c r="AB142" s="150"/>
-      <c r="AC142" s="150"/>
-      <c r="AD142" s="150"/>
-      <c r="AE142" s="152"/>
-      <c r="AF142" s="152"/>
-      <c r="AG142" s="150"/>
-      <c r="AH142" s="150"/>
-      <c r="AI142" s="150"/>
-      <c r="AJ142" s="150"/>
-      <c r="AK142" s="150"/>
-      <c r="AL142" s="150"/>
-      <c r="AM142" s="150"/>
-      <c r="AN142" s="150"/>
-      <c r="AO142" s="150"/>
-      <c r="AP142" s="150"/>
-      <c r="AQ142" s="150"/>
-      <c r="AR142" s="150"/>
-      <c r="AS142" s="150"/>
-      <c r="AT142" s="150"/>
-      <c r="AU142" s="153"/>
+      <c r="C142" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="D142" s="148"/>
+      <c r="E142" s="148"/>
+      <c r="F142" s="148"/>
+      <c r="G142" s="148"/>
+      <c r="H142" s="148"/>
+      <c r="I142" s="148"/>
+      <c r="J142" s="148"/>
+      <c r="K142" s="148"/>
+      <c r="L142" s="149"/>
+      <c r="M142" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="N142" s="151"/>
+      <c r="O142" s="151"/>
+      <c r="P142" s="151"/>
+      <c r="Q142" s="151"/>
+      <c r="R142" s="151"/>
+      <c r="S142" s="151"/>
+      <c r="T142" s="151"/>
+      <c r="U142" s="151"/>
+      <c r="V142" s="152"/>
+      <c r="W142" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="X142" s="153"/>
+      <c r="Y142" s="153"/>
+      <c r="Z142" s="153"/>
+      <c r="AA142" s="151"/>
+      <c r="AB142" s="151"/>
+      <c r="AC142" s="151"/>
+      <c r="AD142" s="151"/>
+      <c r="AE142" s="153"/>
+      <c r="AF142" s="153"/>
+      <c r="AG142" s="151"/>
+      <c r="AH142" s="151"/>
+      <c r="AI142" s="151"/>
+      <c r="AJ142" s="151"/>
+      <c r="AK142" s="151"/>
+      <c r="AL142" s="151"/>
+      <c r="AM142" s="151"/>
+      <c r="AN142" s="151"/>
+      <c r="AO142" s="151"/>
+      <c r="AP142" s="151"/>
+      <c r="AQ142" s="151"/>
+      <c r="AR142" s="151"/>
+      <c r="AS142" s="151"/>
+      <c r="AT142" s="151"/>
+      <c r="AU142" s="154"/>
       <c r="AW142" s="20"/>
       <c r="AZ142" s="0"/>
       <c r="BA142" s="0"/>
@@ -15563,8 +15561,8 @@
     </row>
     <row r="143" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="17"/>
-      <c r="B143" s="131"/>
-      <c r="C143" s="154"/>
+      <c r="B143" s="132"/>
+      <c r="C143" s="155"/>
       <c r="D143" s="19"/>
       <c r="E143" s="19"/>
       <c r="F143" s="19"/>
@@ -15585,15 +15583,15 @@
       <c r="U143" s="19"/>
       <c r="V143" s="19"/>
       <c r="W143" s="19"/>
-      <c r="X143" s="131"/>
-      <c r="Y143" s="131"/>
-      <c r="Z143" s="131"/>
+      <c r="X143" s="132"/>
+      <c r="Y143" s="132"/>
+      <c r="Z143" s="132"/>
       <c r="AA143" s="19"/>
       <c r="AB143" s="19"/>
       <c r="AC143" s="19"/>
       <c r="AD143" s="19"/>
-      <c r="AE143" s="131"/>
-      <c r="AF143" s="131"/>
+      <c r="AE143" s="132"/>
+      <c r="AF143" s="132"/>
       <c r="AG143" s="19"/>
       <c r="AH143" s="19"/>
       <c r="AI143" s="19"/>
@@ -15616,54 +15614,54 @@
     </row>
     <row r="144" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="17"/>
-      <c r="B144" s="155" t="s">
-        <v>90</v>
-      </c>
-      <c r="C144" s="155"/>
-      <c r="D144" s="155"/>
-      <c r="E144" s="155"/>
-      <c r="F144" s="155"/>
-      <c r="G144" s="155"/>
-      <c r="H144" s="155"/>
-      <c r="I144" s="155"/>
-      <c r="J144" s="155"/>
-      <c r="K144" s="155"/>
-      <c r="L144" s="155"/>
-      <c r="M144" s="155"/>
-      <c r="N144" s="155"/>
-      <c r="O144" s="155"/>
-      <c r="P144" s="155"/>
-      <c r="Q144" s="155"/>
-      <c r="R144" s="155"/>
-      <c r="S144" s="155"/>
-      <c r="T144" s="155"/>
-      <c r="U144" s="155"/>
-      <c r="V144" s="155"/>
-      <c r="W144" s="155"/>
-      <c r="X144" s="155"/>
-      <c r="Y144" s="155"/>
-      <c r="Z144" s="155"/>
-      <c r="AA144" s="155"/>
-      <c r="AB144" s="155"/>
-      <c r="AC144" s="155"/>
-      <c r="AD144" s="155"/>
-      <c r="AE144" s="155"/>
-      <c r="AF144" s="155"/>
-      <c r="AG144" s="155"/>
-      <c r="AH144" s="155"/>
-      <c r="AI144" s="155"/>
-      <c r="AJ144" s="155"/>
-      <c r="AK144" s="155"/>
-      <c r="AL144" s="156"/>
-      <c r="AM144" s="156"/>
-      <c r="AN144" s="156"/>
-      <c r="AO144" s="156"/>
-      <c r="AP144" s="155"/>
-      <c r="AQ144" s="156"/>
-      <c r="AR144" s="156"/>
-      <c r="AS144" s="156"/>
-      <c r="AT144" s="156"/>
-      <c r="AU144" s="155"/>
+      <c r="B144" s="156" t="s">
+        <v>87</v>
+      </c>
+      <c r="C144" s="156"/>
+      <c r="D144" s="156"/>
+      <c r="E144" s="156"/>
+      <c r="F144" s="156"/>
+      <c r="G144" s="156"/>
+      <c r="H144" s="156"/>
+      <c r="I144" s="156"/>
+      <c r="J144" s="156"/>
+      <c r="K144" s="156"/>
+      <c r="L144" s="156"/>
+      <c r="M144" s="156"/>
+      <c r="N144" s="156"/>
+      <c r="O144" s="156"/>
+      <c r="P144" s="156"/>
+      <c r="Q144" s="156"/>
+      <c r="R144" s="156"/>
+      <c r="S144" s="156"/>
+      <c r="T144" s="156"/>
+      <c r="U144" s="156"/>
+      <c r="V144" s="156"/>
+      <c r="W144" s="156"/>
+      <c r="X144" s="156"/>
+      <c r="Y144" s="156"/>
+      <c r="Z144" s="156"/>
+      <c r="AA144" s="156"/>
+      <c r="AB144" s="156"/>
+      <c r="AC144" s="156"/>
+      <c r="AD144" s="156"/>
+      <c r="AE144" s="156"/>
+      <c r="AF144" s="156"/>
+      <c r="AG144" s="156"/>
+      <c r="AH144" s="156"/>
+      <c r="AI144" s="156"/>
+      <c r="AJ144" s="156"/>
+      <c r="AK144" s="156"/>
+      <c r="AL144" s="157"/>
+      <c r="AM144" s="157"/>
+      <c r="AN144" s="157"/>
+      <c r="AO144" s="157"/>
+      <c r="AP144" s="156"/>
+      <c r="AQ144" s="157"/>
+      <c r="AR144" s="157"/>
+      <c r="AS144" s="157"/>
+      <c r="AT144" s="157"/>
+      <c r="AU144" s="156"/>
       <c r="AW144" s="20"/>
       <c r="AZ144" s="0"/>
       <c r="BA144" s="0"/>
@@ -15671,62 +15669,62 @@
     </row>
     <row r="145" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="17"/>
-      <c r="B145" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C145" s="157" t="s">
-        <v>62</v>
-      </c>
-      <c r="D145" s="157"/>
-      <c r="E145" s="157"/>
-      <c r="F145" s="157"/>
-      <c r="G145" s="157"/>
-      <c r="H145" s="157"/>
-      <c r="I145" s="158"/>
-      <c r="J145" s="158"/>
-      <c r="K145" s="158"/>
-      <c r="L145" s="159"/>
-      <c r="M145" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="N145" s="72"/>
-      <c r="O145" s="72"/>
-      <c r="P145" s="72"/>
-      <c r="Q145" s="72"/>
-      <c r="R145" s="72" t="s">
-        <v>91</v>
-      </c>
-      <c r="S145" s="72"/>
-      <c r="T145" s="72"/>
-      <c r="U145" s="72"/>
-      <c r="V145" s="72"/>
-      <c r="W145" s="72"/>
-      <c r="X145" s="72"/>
-      <c r="Y145" s="72"/>
-      <c r="Z145" s="72"/>
-      <c r="AA145" s="72"/>
-      <c r="AB145" s="72"/>
-      <c r="AC145" s="72"/>
-      <c r="AD145" s="72"/>
-      <c r="AE145" s="72"/>
-      <c r="AF145" s="72"/>
-      <c r="AG145" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH145" s="72"/>
-      <c r="AI145" s="72"/>
-      <c r="AJ145" s="72"/>
-      <c r="AK145" s="72"/>
-      <c r="AL145" s="72"/>
-      <c r="AM145" s="72"/>
-      <c r="AN145" s="72"/>
-      <c r="AO145" s="72"/>
-      <c r="AP145" s="72"/>
-      <c r="AQ145" s="72"/>
-      <c r="AR145" s="72"/>
-      <c r="AS145" s="72"/>
-      <c r="AT145" s="72"/>
-      <c r="AU145" s="72"/>
+      <c r="B145" s="73" t="s">
+        <v>45</v>
+      </c>
+      <c r="C145" s="158" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="158"/>
+      <c r="E145" s="158"/>
+      <c r="F145" s="158"/>
+      <c r="G145" s="158"/>
+      <c r="H145" s="158"/>
+      <c r="I145" s="159"/>
+      <c r="J145" s="159"/>
+      <c r="K145" s="159"/>
+      <c r="L145" s="160"/>
+      <c r="M145" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="N145" s="73"/>
+      <c r="O145" s="73"/>
+      <c r="P145" s="73"/>
+      <c r="Q145" s="73"/>
+      <c r="R145" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="S145" s="73"/>
+      <c r="T145" s="73"/>
+      <c r="U145" s="73"/>
+      <c r="V145" s="73"/>
+      <c r="W145" s="73"/>
+      <c r="X145" s="73"/>
+      <c r="Y145" s="73"/>
+      <c r="Z145" s="73"/>
+      <c r="AA145" s="73"/>
+      <c r="AB145" s="73"/>
+      <c r="AC145" s="73"/>
+      <c r="AD145" s="73"/>
+      <c r="AE145" s="73"/>
+      <c r="AF145" s="73"/>
+      <c r="AG145" s="73" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH145" s="73"/>
+      <c r="AI145" s="73"/>
+      <c r="AJ145" s="73"/>
+      <c r="AK145" s="73"/>
+      <c r="AL145" s="73"/>
+      <c r="AM145" s="73"/>
+      <c r="AN145" s="73"/>
+      <c r="AO145" s="73"/>
+      <c r="AP145" s="73"/>
+      <c r="AQ145" s="73"/>
+      <c r="AR145" s="73"/>
+      <c r="AS145" s="73"/>
+      <c r="AT145" s="73"/>
+      <c r="AU145" s="73"/>
       <c r="AW145" s="20"/>
       <c r="AZ145" s="0"/>
       <c r="BA145" s="0"/>
@@ -15734,58 +15732,58 @@
     </row>
     <row r="146" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="17"/>
-      <c r="B146" s="160" t="n">
+      <c r="B146" s="161" t="n">
         <v>1</v>
       </c>
-      <c r="C146" s="161" t="s">
-        <v>93</v>
-      </c>
-      <c r="D146" s="162"/>
-      <c r="E146" s="162"/>
-      <c r="F146" s="163"/>
-      <c r="G146" s="163"/>
-      <c r="H146" s="163"/>
-      <c r="I146" s="163"/>
-      <c r="J146" s="163"/>
-      <c r="K146" s="163"/>
-      <c r="L146" s="164"/>
+      <c r="C146" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="D146" s="163"/>
+      <c r="E146" s="163"/>
+      <c r="F146" s="164"/>
+      <c r="G146" s="164"/>
+      <c r="H146" s="164"/>
+      <c r="I146" s="164"/>
+      <c r="J146" s="164"/>
+      <c r="K146" s="164"/>
+      <c r="L146" s="165"/>
       <c r="M146" s="0"/>
-      <c r="N146" s="163" t="s">
-        <v>94</v>
-      </c>
-      <c r="O146" s="163"/>
-      <c r="P146" s="163"/>
-      <c r="Q146" s="164"/>
-      <c r="R146" s="161"/>
-      <c r="S146" s="162"/>
-      <c r="T146" s="162"/>
-      <c r="U146" s="162"/>
-      <c r="V146" s="162"/>
-      <c r="W146" s="162"/>
-      <c r="X146" s="162"/>
-      <c r="Y146" s="165"/>
-      <c r="Z146" s="162"/>
-      <c r="AA146" s="162"/>
-      <c r="AB146" s="162"/>
-      <c r="AC146" s="162"/>
-      <c r="AD146" s="162"/>
-      <c r="AE146" s="162"/>
-      <c r="AF146" s="166"/>
-      <c r="AG146" s="162"/>
-      <c r="AH146" s="162"/>
-      <c r="AI146" s="162"/>
-      <c r="AJ146" s="162"/>
-      <c r="AK146" s="162"/>
-      <c r="AL146" s="162"/>
-      <c r="AM146" s="162"/>
-      <c r="AN146" s="162"/>
-      <c r="AO146" s="162"/>
-      <c r="AP146" s="162"/>
-      <c r="AQ146" s="162"/>
-      <c r="AR146" s="162"/>
-      <c r="AS146" s="162"/>
-      <c r="AT146" s="162"/>
-      <c r="AU146" s="167"/>
+      <c r="N146" s="164" t="s">
+        <v>91</v>
+      </c>
+      <c r="O146" s="164"/>
+      <c r="P146" s="164"/>
+      <c r="Q146" s="165"/>
+      <c r="R146" s="162"/>
+      <c r="S146" s="163"/>
+      <c r="T146" s="163"/>
+      <c r="U146" s="163"/>
+      <c r="V146" s="163"/>
+      <c r="W146" s="163"/>
+      <c r="X146" s="163"/>
+      <c r="Y146" s="166"/>
+      <c r="Z146" s="163"/>
+      <c r="AA146" s="163"/>
+      <c r="AB146" s="163"/>
+      <c r="AC146" s="163"/>
+      <c r="AD146" s="163"/>
+      <c r="AE146" s="163"/>
+      <c r="AF146" s="167"/>
+      <c r="AG146" s="163"/>
+      <c r="AH146" s="163"/>
+      <c r="AI146" s="163"/>
+      <c r="AJ146" s="163"/>
+      <c r="AK146" s="163"/>
+      <c r="AL146" s="163"/>
+      <c r="AM146" s="163"/>
+      <c r="AN146" s="163"/>
+      <c r="AO146" s="163"/>
+      <c r="AP146" s="163"/>
+      <c r="AQ146" s="163"/>
+      <c r="AR146" s="163"/>
+      <c r="AS146" s="163"/>
+      <c r="AT146" s="163"/>
+      <c r="AU146" s="168"/>
       <c r="AW146" s="20"/>
       <c r="AZ146" s="0"/>
       <c r="BA146" s="0"/>
@@ -15793,59 +15791,59 @@
     </row>
     <row r="147" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="17"/>
-      <c r="B147" s="160" t="n">
+      <c r="B147" s="161" t="n">
         <v>2</v>
       </c>
-      <c r="C147" s="168" t="s">
-        <v>95</v>
-      </c>
-      <c r="D147" s="169"/>
-      <c r="E147" s="169"/>
-      <c r="F147" s="170"/>
-      <c r="G147" s="170"/>
-      <c r="H147" s="170"/>
-      <c r="I147" s="170"/>
-      <c r="J147" s="170"/>
-      <c r="K147" s="170"/>
-      <c r="L147" s="171"/>
-      <c r="M147" s="163"/>
-      <c r="N147" s="170" t="s">
-        <v>96</v>
-      </c>
-      <c r="O147" s="170"/>
-      <c r="P147" s="170"/>
-      <c r="Q147" s="171"/>
-      <c r="R147" s="168"/>
-      <c r="S147" s="169"/>
-      <c r="T147" s="169"/>
-      <c r="U147" s="169"/>
-      <c r="V147" s="169"/>
-      <c r="W147" s="169"/>
-      <c r="X147" s="169"/>
-      <c r="Y147" s="172"/>
-      <c r="Z147" s="169"/>
-      <c r="AA147" s="169"/>
-      <c r="AB147" s="169"/>
-      <c r="AC147" s="169"/>
-      <c r="AD147" s="169"/>
-      <c r="AE147" s="169"/>
-      <c r="AF147" s="173"/>
-      <c r="AG147" s="162"/>
-      <c r="AH147" s="169"/>
-      <c r="AI147" s="169"/>
-      <c r="AJ147" s="169"/>
-      <c r="AK147" s="169"/>
-      <c r="AL147" s="169"/>
-      <c r="AM147" s="169"/>
-      <c r="AN147" s="169"/>
-      <c r="AO147" s="169"/>
-      <c r="AP147" s="169"/>
-      <c r="AQ147" s="169"/>
-      <c r="AR147" s="169"/>
-      <c r="AS147" s="169"/>
-      <c r="AT147" s="169"/>
-      <c r="AU147" s="174"/>
-      <c r="AV147" s="185"/>
+      <c r="C147" s="169" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" s="170"/>
+      <c r="E147" s="170"/>
+      <c r="F147" s="171"/>
+      <c r="G147" s="171"/>
+      <c r="H147" s="171"/>
+      <c r="I147" s="171"/>
+      <c r="J147" s="171"/>
+      <c r="K147" s="171"/>
+      <c r="L147" s="172"/>
+      <c r="M147" s="164"/>
+      <c r="N147" s="171" t="s">
+        <v>93</v>
+      </c>
+      <c r="O147" s="171"/>
+      <c r="P147" s="171"/>
+      <c r="Q147" s="172"/>
+      <c r="R147" s="169"/>
+      <c r="S147" s="170"/>
+      <c r="T147" s="170"/>
+      <c r="U147" s="170"/>
+      <c r="V147" s="170"/>
+      <c r="W147" s="170"/>
+      <c r="X147" s="170"/>
+      <c r="Y147" s="173"/>
+      <c r="Z147" s="170"/>
+      <c r="AA147" s="170"/>
+      <c r="AB147" s="170"/>
+      <c r="AC147" s="170"/>
+      <c r="AD147" s="170"/>
+      <c r="AE147" s="170"/>
+      <c r="AF147" s="174"/>
+      <c r="AG147" s="163"/>
+      <c r="AH147" s="170"/>
+      <c r="AI147" s="170"/>
+      <c r="AJ147" s="170"/>
+      <c r="AK147" s="170"/>
+      <c r="AL147" s="170"/>
+      <c r="AM147" s="170"/>
+      <c r="AN147" s="170"/>
+      <c r="AO147" s="170"/>
+      <c r="AP147" s="170"/>
+      <c r="AQ147" s="170"/>
+      <c r="AR147" s="170"/>
+      <c r="AS147" s="170"/>
+      <c r="AT147" s="170"/>
+      <c r="AU147" s="175"/>
+      <c r="AV147" s="186"/>
       <c r="AW147" s="20"/>
       <c r="AZ147" s="0"/>
       <c r="BA147" s="0"/>
@@ -15853,59 +15851,59 @@
     </row>
     <row r="148" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="17"/>
-      <c r="B148" s="105" t="n">
+      <c r="B148" s="106" t="n">
         <v>3</v>
       </c>
-      <c r="C148" s="175" t="s">
-        <v>97</v>
-      </c>
-      <c r="D148" s="176"/>
-      <c r="E148" s="176"/>
-      <c r="F148" s="177"/>
-      <c r="G148" s="177"/>
-      <c r="H148" s="177"/>
-      <c r="I148" s="177"/>
-      <c r="J148" s="177"/>
-      <c r="K148" s="177"/>
-      <c r="L148" s="178"/>
-      <c r="M148" s="179"/>
-      <c r="N148" s="177" t="s">
-        <v>98</v>
-      </c>
-      <c r="O148" s="177"/>
-      <c r="P148" s="177"/>
-      <c r="Q148" s="178"/>
-      <c r="R148" s="175"/>
-      <c r="S148" s="176"/>
-      <c r="T148" s="176"/>
-      <c r="U148" s="176"/>
-      <c r="V148" s="176"/>
-      <c r="W148" s="176"/>
-      <c r="X148" s="176"/>
-      <c r="Y148" s="180"/>
-      <c r="Z148" s="176"/>
-      <c r="AA148" s="176"/>
-      <c r="AB148" s="176"/>
-      <c r="AC148" s="176"/>
-      <c r="AD148" s="176"/>
-      <c r="AE148" s="176"/>
-      <c r="AF148" s="181"/>
-      <c r="AG148" s="182"/>
-      <c r="AH148" s="176"/>
-      <c r="AI148" s="176"/>
-      <c r="AJ148" s="176"/>
-      <c r="AK148" s="176"/>
-      <c r="AL148" s="176"/>
-      <c r="AM148" s="176"/>
-      <c r="AN148" s="176"/>
-      <c r="AO148" s="176"/>
-      <c r="AP148" s="176"/>
-      <c r="AQ148" s="176"/>
-      <c r="AR148" s="176"/>
-      <c r="AS148" s="176"/>
-      <c r="AT148" s="176"/>
-      <c r="AU148" s="183"/>
-      <c r="AV148" s="185"/>
+      <c r="C148" s="176" t="s">
+        <v>94</v>
+      </c>
+      <c r="D148" s="177"/>
+      <c r="E148" s="177"/>
+      <c r="F148" s="178"/>
+      <c r="G148" s="178"/>
+      <c r="H148" s="178"/>
+      <c r="I148" s="178"/>
+      <c r="J148" s="178"/>
+      <c r="K148" s="178"/>
+      <c r="L148" s="179"/>
+      <c r="M148" s="180"/>
+      <c r="N148" s="178" t="s">
+        <v>95</v>
+      </c>
+      <c r="O148" s="178"/>
+      <c r="P148" s="178"/>
+      <c r="Q148" s="179"/>
+      <c r="R148" s="176"/>
+      <c r="S148" s="177"/>
+      <c r="T148" s="177"/>
+      <c r="U148" s="177"/>
+      <c r="V148" s="177"/>
+      <c r="W148" s="177"/>
+      <c r="X148" s="177"/>
+      <c r="Y148" s="181"/>
+      <c r="Z148" s="177"/>
+      <c r="AA148" s="177"/>
+      <c r="AB148" s="177"/>
+      <c r="AC148" s="177"/>
+      <c r="AD148" s="177"/>
+      <c r="AE148" s="177"/>
+      <c r="AF148" s="182"/>
+      <c r="AG148" s="183"/>
+      <c r="AH148" s="177"/>
+      <c r="AI148" s="177"/>
+      <c r="AJ148" s="177"/>
+      <c r="AK148" s="177"/>
+      <c r="AL148" s="177"/>
+      <c r="AM148" s="177"/>
+      <c r="AN148" s="177"/>
+      <c r="AO148" s="177"/>
+      <c r="AP148" s="177"/>
+      <c r="AQ148" s="177"/>
+      <c r="AR148" s="177"/>
+      <c r="AS148" s="177"/>
+      <c r="AT148" s="177"/>
+      <c r="AU148" s="184"/>
+      <c r="AV148" s="186"/>
       <c r="AW148" s="20"/>
       <c r="AZ148" s="0"/>
       <c r="BA148" s="0"/>
@@ -15913,61 +15911,61 @@
     </row>
     <row r="149" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="17"/>
-      <c r="B149" s="105" t="n">
+      <c r="B149" s="106" t="n">
         <v>4</v>
       </c>
-      <c r="C149" s="161" t="s">
-        <v>99</v>
-      </c>
-      <c r="D149" s="162"/>
-      <c r="E149" s="162"/>
-      <c r="F149" s="163"/>
-      <c r="G149" s="163"/>
-      <c r="H149" s="163"/>
-      <c r="I149" s="163"/>
-      <c r="J149" s="163"/>
-      <c r="K149" s="163"/>
-      <c r="L149" s="164"/>
-      <c r="M149" s="163"/>
-      <c r="N149" s="163" t="s">
-        <v>98</v>
-      </c>
-      <c r="O149" s="163"/>
-      <c r="P149" s="163"/>
-      <c r="Q149" s="164"/>
-      <c r="R149" s="161"/>
-      <c r="S149" s="162"/>
-      <c r="T149" s="162"/>
-      <c r="U149" s="162"/>
-      <c r="V149" s="162" t="s">
-        <v>100</v>
-      </c>
-      <c r="W149" s="162"/>
-      <c r="X149" s="162"/>
-      <c r="Y149" s="165"/>
-      <c r="Z149" s="162"/>
-      <c r="AA149" s="162"/>
-      <c r="AB149" s="162"/>
-      <c r="AC149" s="162"/>
-      <c r="AD149" s="162"/>
-      <c r="AE149" s="162"/>
-      <c r="AF149" s="166"/>
-      <c r="AG149" s="162"/>
-      <c r="AH149" s="162"/>
-      <c r="AI149" s="162"/>
-      <c r="AJ149" s="162"/>
-      <c r="AK149" s="162"/>
-      <c r="AL149" s="162"/>
-      <c r="AM149" s="162"/>
-      <c r="AN149" s="162"/>
-      <c r="AO149" s="162"/>
-      <c r="AP149" s="162"/>
-      <c r="AQ149" s="162"/>
-      <c r="AR149" s="162"/>
-      <c r="AS149" s="162"/>
-      <c r="AT149" s="162"/>
-      <c r="AU149" s="167"/>
-      <c r="AV149" s="185"/>
+      <c r="C149" s="162" t="s">
+        <v>96</v>
+      </c>
+      <c r="D149" s="163"/>
+      <c r="E149" s="163"/>
+      <c r="F149" s="164"/>
+      <c r="G149" s="164"/>
+      <c r="H149" s="164"/>
+      <c r="I149" s="164"/>
+      <c r="J149" s="164"/>
+      <c r="K149" s="164"/>
+      <c r="L149" s="165"/>
+      <c r="M149" s="164"/>
+      <c r="N149" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="O149" s="164"/>
+      <c r="P149" s="164"/>
+      <c r="Q149" s="165"/>
+      <c r="R149" s="162"/>
+      <c r="S149" s="163"/>
+      <c r="T149" s="163"/>
+      <c r="U149" s="163"/>
+      <c r="V149" s="163" t="s">
+        <v>97</v>
+      </c>
+      <c r="W149" s="163"/>
+      <c r="X149" s="163"/>
+      <c r="Y149" s="166"/>
+      <c r="Z149" s="163"/>
+      <c r="AA149" s="163"/>
+      <c r="AB149" s="163"/>
+      <c r="AC149" s="163"/>
+      <c r="AD149" s="163"/>
+      <c r="AE149" s="163"/>
+      <c r="AF149" s="167"/>
+      <c r="AG149" s="163"/>
+      <c r="AH149" s="163"/>
+      <c r="AI149" s="163"/>
+      <c r="AJ149" s="163"/>
+      <c r="AK149" s="163"/>
+      <c r="AL149" s="163"/>
+      <c r="AM149" s="163"/>
+      <c r="AN149" s="163"/>
+      <c r="AO149" s="163"/>
+      <c r="AP149" s="163"/>
+      <c r="AQ149" s="163"/>
+      <c r="AR149" s="163"/>
+      <c r="AS149" s="163"/>
+      <c r="AT149" s="163"/>
+      <c r="AU149" s="168"/>
+      <c r="AV149" s="186"/>
       <c r="AW149" s="20"/>
       <c r="AZ149" s="0"/>
       <c r="BA149" s="0"/>
@@ -15975,78 +15973,78 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="17"/>
-      <c r="B150" s="160" t="n">
+      <c r="B150" s="161" t="n">
         <v>5</v>
       </c>
-      <c r="C150" s="161" t="s">
-        <v>101</v>
-      </c>
-      <c r="D150" s="162"/>
-      <c r="E150" s="162"/>
-      <c r="F150" s="163"/>
-      <c r="G150" s="163"/>
-      <c r="H150" s="163"/>
-      <c r="I150" s="163"/>
-      <c r="J150" s="163"/>
-      <c r="K150" s="163"/>
-      <c r="L150" s="164"/>
-      <c r="M150" s="163"/>
-      <c r="N150" s="163" t="s">
+      <c r="C150" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="O150" s="163"/>
-      <c r="P150" s="163"/>
-      <c r="Q150" s="164"/>
-      <c r="R150" s="161"/>
-      <c r="S150" s="162"/>
-      <c r="T150" s="162"/>
-      <c r="U150" s="162"/>
-      <c r="V150" s="162"/>
-      <c r="W150" s="162"/>
-      <c r="X150" s="162"/>
-      <c r="Y150" s="165"/>
-      <c r="Z150" s="162"/>
-      <c r="AA150" s="162"/>
-      <c r="AB150" s="162"/>
-      <c r="AC150" s="162"/>
-      <c r="AD150" s="162"/>
-      <c r="AE150" s="162"/>
-      <c r="AF150" s="166"/>
-      <c r="AG150" s="162"/>
-      <c r="AH150" s="162"/>
-      <c r="AI150" s="162"/>
-      <c r="AJ150" s="162"/>
-      <c r="AK150" s="162"/>
-      <c r="AL150" s="162"/>
-      <c r="AM150" s="162"/>
-      <c r="AN150" s="162"/>
-      <c r="AO150" s="162"/>
-      <c r="AP150" s="162"/>
-      <c r="AQ150" s="162"/>
-      <c r="AR150" s="162"/>
-      <c r="AS150" s="162"/>
-      <c r="AT150" s="162"/>
-      <c r="AU150" s="167"/>
-      <c r="AV150" s="186"/>
+      <c r="D150" s="163"/>
+      <c r="E150" s="163"/>
+      <c r="F150" s="164"/>
+      <c r="G150" s="164"/>
+      <c r="H150" s="164"/>
+      <c r="I150" s="164"/>
+      <c r="J150" s="164"/>
+      <c r="K150" s="164"/>
+      <c r="L150" s="165"/>
+      <c r="M150" s="164"/>
+      <c r="N150" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="O150" s="164"/>
+      <c r="P150" s="164"/>
+      <c r="Q150" s="165"/>
+      <c r="R150" s="162"/>
+      <c r="S150" s="163"/>
+      <c r="T150" s="163"/>
+      <c r="U150" s="163"/>
+      <c r="V150" s="163"/>
+      <c r="W150" s="163"/>
+      <c r="X150" s="163"/>
+      <c r="Y150" s="166"/>
+      <c r="Z150" s="163"/>
+      <c r="AA150" s="163"/>
+      <c r="AB150" s="163"/>
+      <c r="AC150" s="163"/>
+      <c r="AD150" s="163"/>
+      <c r="AE150" s="163"/>
+      <c r="AF150" s="167"/>
+      <c r="AG150" s="163"/>
+      <c r="AH150" s="163"/>
+      <c r="AI150" s="163"/>
+      <c r="AJ150" s="163"/>
+      <c r="AK150" s="163"/>
+      <c r="AL150" s="163"/>
+      <c r="AM150" s="163"/>
+      <c r="AN150" s="163"/>
+      <c r="AO150" s="163"/>
+      <c r="AP150" s="163"/>
+      <c r="AQ150" s="163"/>
+      <c r="AR150" s="163"/>
+      <c r="AS150" s="163"/>
+      <c r="AT150" s="163"/>
+      <c r="AU150" s="168"/>
+      <c r="AV150" s="187"/>
       <c r="AW150" s="20"/>
-      <c r="AX150" s="186"/>
-      <c r="AY150" s="186"/>
-      <c r="AZ150" s="186"/>
-      <c r="BA150" s="186"/>
-      <c r="BB150" s="186"/>
-      <c r="BC150" s="186"/>
-      <c r="BD150" s="186"/>
-      <c r="BE150" s="186"/>
-      <c r="BF150" s="186"/>
-      <c r="BG150" s="186"/>
-      <c r="BH150" s="187"/>
-      <c r="BI150" s="187"/>
-      <c r="BJ150" s="187"/>
+      <c r="AX150" s="187"/>
+      <c r="AY150" s="187"/>
+      <c r="AZ150" s="187"/>
+      <c r="BA150" s="187"/>
+      <c r="BB150" s="187"/>
+      <c r="BC150" s="187"/>
+      <c r="BD150" s="187"/>
+      <c r="BE150" s="187"/>
+      <c r="BF150" s="187"/>
+      <c r="BG150" s="187"/>
+      <c r="BH150" s="188"/>
+      <c r="BI150" s="188"/>
+      <c r="BJ150" s="188"/>
     </row>
     <row r="151" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="17"/>
-      <c r="B151" s="131"/>
-      <c r="C151" s="154"/>
+      <c r="B151" s="132"/>
+      <c r="C151" s="155"/>
       <c r="D151" s="19"/>
       <c r="E151" s="19"/>
       <c r="F151" s="19"/>
@@ -16067,15 +16065,15 @@
       <c r="U151" s="19"/>
       <c r="V151" s="19"/>
       <c r="W151" s="19"/>
-      <c r="X151" s="131"/>
-      <c r="Y151" s="131"/>
-      <c r="Z151" s="131"/>
+      <c r="X151" s="132"/>
+      <c r="Y151" s="132"/>
+      <c r="Z151" s="132"/>
       <c r="AA151" s="19"/>
       <c r="AB151" s="19"/>
       <c r="AC151" s="19"/>
       <c r="AD151" s="19"/>
-      <c r="AE151" s="131"/>
-      <c r="AF151" s="131"/>
+      <c r="AE151" s="132"/>
+      <c r="AF151" s="132"/>
       <c r="AG151" s="19"/>
       <c r="AH151" s="19"/>
       <c r="AI151" s="19"/>
@@ -16098,7 +16096,7 @@
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="17"/>
-      <c r="C152" s="59"/>
+      <c r="C152" s="60"/>
       <c r="E152" s="19"/>
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
@@ -16118,9 +16116,9 @@
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="17"/>
-      <c r="C153" s="59"/>
+      <c r="C153" s="60"/>
       <c r="D153" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E153" s="19"/>
       <c r="F153" s="19"/>
@@ -16141,7 +16139,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="17"/>
-      <c r="C154" s="59"/>
+      <c r="C154" s="60"/>
       <c r="E154" s="19"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
@@ -16161,7 +16159,7 @@
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="17"/>
-      <c r="C155" s="59"/>
+      <c r="C155" s="60"/>
       <c r="E155" s="19"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
@@ -16181,9 +16179,9 @@
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="17"/>
-      <c r="C156" s="59"/>
+      <c r="C156" s="60"/>
       <c r="D156" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E156" s="19"/>
       <c r="F156" s="19"/>
@@ -16204,7 +16202,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="17"/>
-      <c r="C157" s="59"/>
+      <c r="C157" s="60"/>
       <c r="E157" s="19"/>
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
@@ -16224,7 +16222,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="17"/>
-      <c r="C158" s="59"/>
+      <c r="C158" s="60"/>
       <c r="E158" s="19"/>
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
@@ -16244,9 +16242,9 @@
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="17"/>
-      <c r="C159" s="59"/>
+      <c r="C159" s="60"/>
       <c r="D159" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E159" s="19"/>
       <c r="F159" s="19"/>
@@ -16267,7 +16265,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="17"/>
-      <c r="C160" s="59"/>
+      <c r="C160" s="60"/>
       <c r="E160" s="19"/>
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
@@ -16382,7 +16380,7 @@
       <c r="AG167" s="24"/>
       <c r="AH167" s="24"/>
       <c r="AI167" s="24"/>
-      <c r="AJ167" s="188"/>
+      <c r="AJ167" s="189"/>
       <c r="AK167" s="24"/>
       <c r="AL167" s="24"/>
       <c r="AM167" s="24"/>
@@ -16429,7 +16427,7 @@
       <c r="AG168" s="24"/>
       <c r="AH168" s="24"/>
       <c r="AI168" s="24"/>
-      <c r="AJ168" s="188"/>
+      <c r="AJ168" s="189"/>
       <c r="AK168" s="24"/>
       <c r="AL168" s="24"/>
       <c r="AM168" s="24"/>
@@ -16476,7 +16474,7 @@
       <c r="AG169" s="24"/>
       <c r="AH169" s="24"/>
       <c r="AI169" s="24"/>
-      <c r="AJ169" s="188"/>
+      <c r="AJ169" s="189"/>
       <c r="AK169" s="24"/>
       <c r="AL169" s="24"/>
       <c r="AM169" s="24"/>
@@ -16523,7 +16521,7 @@
       <c r="AG170" s="24"/>
       <c r="AH170" s="24"/>
       <c r="AI170" s="24"/>
-      <c r="AJ170" s="188"/>
+      <c r="AJ170" s="189"/>
       <c r="AK170" s="24"/>
       <c r="AL170" s="24"/>
       <c r="AM170" s="24"/>
@@ -16570,7 +16568,7 @@
       <c r="AG171" s="24"/>
       <c r="AH171" s="24"/>
       <c r="AI171" s="24"/>
-      <c r="AJ171" s="188"/>
+      <c r="AJ171" s="189"/>
       <c r="AK171" s="24"/>
       <c r="AL171" s="24"/>
       <c r="AM171" s="24"/>
@@ -16617,7 +16615,7 @@
       <c r="AG172" s="24"/>
       <c r="AH172" s="24"/>
       <c r="AI172" s="24"/>
-      <c r="AJ172" s="188"/>
+      <c r="AJ172" s="189"/>
       <c r="AK172" s="24"/>
       <c r="AL172" s="24"/>
       <c r="AM172" s="24"/>
@@ -16634,7 +16632,7 @@
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="25"/>
-      <c r="B173" s="189"/>
+      <c r="B173" s="190"/>
       <c r="C173" s="26"/>
       <c r="D173" s="26"/>
       <c r="E173" s="26"/>
@@ -16685,7 +16683,7 @@
     </row>
     <row r="174" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="9"/>
-      <c r="B174" s="59"/>
+      <c r="B174" s="60"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
       <c r="E174" s="9"/>
@@ -16694,13 +16692,13 @@
     </row>
     <row r="175" s="1" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="9"/>
-      <c r="B175" s="59"/>
+      <c r="B175" s="60"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9"/>
       <c r="E175" s="9"/>
       <c r="AV175" s="9"/>
       <c r="AW175" s="9"/>
-      <c r="AX175" s="97"/>
+      <c r="AX175" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="108">
